--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.4.3-us-v2 - 2020 Modeling\InputData\trans\BESP\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="25875" windowHeight="13365"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="25875" windowHeight="13365" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,12 @@
     <sheet name="BESP-passengers" sheetId="3" r:id="rId3"/>
     <sheet name="BESP-freight" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -25,12 +30,6 @@
     <t>Sources:</t>
   </si>
   <si>
-    <t>Tesla Model 3 (projected)</t>
-  </si>
-  <si>
-    <t>2017 Chevrolet (GM) Bolt</t>
-  </si>
-  <si>
     <t>Federal Tax Credit Amount</t>
   </si>
   <si>
@@ -43,30 +42,6 @@
     <t>https://www.fueleconomy.gov/feg/taxevb.shtml</t>
   </si>
   <si>
-    <t>Tesla Model 3 Pricing</t>
-  </si>
-  <si>
-    <t>Tesla</t>
-  </si>
-  <si>
-    <t>Model 3</t>
-  </si>
-  <si>
-    <t>https://www.tesla.com/model3</t>
-  </si>
-  <si>
-    <t>2017 Chevrolet Bolt Pricing</t>
-  </si>
-  <si>
-    <t>Chevrolet</t>
-  </si>
-  <si>
-    <t>http://www.chevrolet.com/bolt-ev-electric-vehicle</t>
-  </si>
-  <si>
-    <t>Bolt EV</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
@@ -154,24 +129,6 @@
     <t>Wikipedia (with data from U.S. Census Bureau)</t>
   </si>
   <si>
-    <t>2017 Nissan Leaf</t>
-  </si>
-  <si>
-    <t>Mid-2017 Prices of Popular, Low-Cost Battery EVs</t>
-  </si>
-  <si>
-    <t>2017 Nissan Leaf Pricing</t>
-  </si>
-  <si>
-    <t>Nissan</t>
-  </si>
-  <si>
-    <t>https://www.nissanusa.com/electric-cars/leaf/</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
     <t>Approximate EV Subsidy Percentage</t>
   </si>
   <si>
@@ -221,16 +178,19 @@
   </si>
   <si>
     <t>The U.S. only has BAU subsidies for passenger LDVs, not other vehicle types.</t>
+  </si>
+  <si>
+    <t>BNVP 2017 Value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="169" formatCode="0.0%"/>
-    <numFmt numFmtId="173" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -309,10 +269,10 @@
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -324,6 +284,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -372,7 +335,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -407,7 +370,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -616,196 +579,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:XFD32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.86328125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="B16" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B17" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B19" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -816,352 +706,327 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.3984375" customWidth="1"/>
+    <col min="2" max="2" width="15.73046875" customWidth="1"/>
+    <col min="3" max="3" width="19.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A3" s="2">
         <v>7500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="2">
         <v>2500</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>39250017</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="2">
         <v>5000</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>5540545</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A11" s="2">
         <v>3500</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>952065</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A12" s="5">
         <v>1500</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>4681666</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2500</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>6811779</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>1500</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>3923561</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>2500</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C15">
         <v>1056426</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>323127513</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <f>C18-SUM(C9:C15)</f>
         <v>260911454</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A22" s="2">
         <f>SUMPRODUCT(A9:A15,C9:C15)/C18</f>
         <v>500.54031765472104</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A25" s="2">
         <f>A3+A22</f>
         <v>8000.5403176547206</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A28" s="2">
-        <v>35000</v>
-      </c>
-      <c r="B28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>37495</v>
-      </c>
-      <c r="B29" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>30680</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="7">
-        <f>AVERAGE(A28:A30)</f>
-        <v>34391.666666666664</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
-        <f>A25/A31</f>
-        <v>0.23263020065872705</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54414.840541774327</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31" s="12">
+        <f>A25/A28</f>
+        <v>0.14702864582526337</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="B40">
+        <v>2016</v>
+      </c>
+      <c r="C40">
+        <v>2017</v>
+      </c>
+      <c r="D40">
+        <v>2018</v>
+      </c>
+      <c r="E40">
+        <v>2019</v>
+      </c>
+      <c r="F40">
+        <v>2020</v>
+      </c>
+      <c r="G40">
+        <v>2021</v>
+      </c>
+      <c r="H40">
+        <v>2022</v>
+      </c>
+      <c r="I40">
+        <v>2023</v>
+      </c>
+      <c r="J40">
+        <v>2024</v>
+      </c>
+      <c r="K40">
+        <v>2025</v>
+      </c>
+      <c r="L40">
+        <v>2026</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>2016</v>
-      </c>
-      <c r="C43">
-        <v>2017</v>
-      </c>
-      <c r="D43">
-        <v>2018</v>
-      </c>
-      <c r="E43">
-        <v>2019</v>
-      </c>
-      <c r="F43">
-        <v>2020</v>
-      </c>
-      <c r="G43">
-        <v>2021</v>
-      </c>
-      <c r="H43">
-        <v>2022</v>
-      </c>
-      <c r="I43">
-        <v>2023</v>
-      </c>
-      <c r="J43">
-        <v>2024</v>
-      </c>
-      <c r="K43">
-        <v>2025</v>
-      </c>
-      <c r="L43">
-        <v>2026</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>59</v>
-      </c>
-      <c r="B44" s="14">
-        <f>A34</f>
-        <v>0.23263020065872705</v>
-      </c>
-      <c r="C44" s="11">
-        <f>$A34*(1-0.1*(C43-$B43))</f>
-        <v>0.20936718059285436</v>
-      </c>
-      <c r="D44" s="11">
-        <f t="shared" ref="D44:L44" si="0">$A34*(1-0.1*(D43-$B43))</f>
-        <v>0.18610416052698164</v>
-      </c>
-      <c r="E44" s="11">
-        <f t="shared" si="0"/>
-        <v>0.16284114046110892</v>
-      </c>
-      <c r="F44" s="11">
-        <f t="shared" si="0"/>
-        <v>0.13957812039523623</v>
-      </c>
-      <c r="G44" s="11">
-        <f t="shared" si="0"/>
-        <v>0.11631510032936353</v>
-      </c>
-      <c r="H44" s="11">
-        <f t="shared" si="0"/>
-        <v>9.3052080263490808E-2</v>
-      </c>
-      <c r="I44" s="11">
-        <f t="shared" si="0"/>
-        <v>6.9789060197618102E-2</v>
-      </c>
-      <c r="J44" s="11">
-        <f t="shared" si="0"/>
-        <v>4.6526040131745404E-2</v>
-      </c>
-      <c r="K44" s="11">
-        <f t="shared" si="0"/>
-        <v>2.3263020065872702E-2</v>
-      </c>
-      <c r="L44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B41" s="14">
+        <f>A31</f>
+        <v>0.14702864582526337</v>
+      </c>
+      <c r="C41" s="11">
+        <f>$A31*(1-0.1*(C40-$B40))</f>
+        <v>0.13232578124273703</v>
+      </c>
+      <c r="D41" s="11">
+        <f t="shared" ref="D41:L41" si="0">$A31*(1-0.1*(D40-$B40))</f>
+        <v>0.1176229166602107</v>
+      </c>
+      <c r="E41" s="11">
+        <f t="shared" si="0"/>
+        <v>0.10292005207768436</v>
+      </c>
+      <c r="F41" s="11">
+        <f t="shared" si="0"/>
+        <v>8.8217187495158014E-2</v>
+      </c>
+      <c r="G41" s="11">
+        <f t="shared" si="0"/>
+        <v>7.3514322912631686E-2</v>
+      </c>
+      <c r="H41" s="11">
+        <f t="shared" si="0"/>
+        <v>5.8811458330105336E-2</v>
+      </c>
+      <c r="I41" s="11">
+        <f t="shared" si="0"/>
+        <v>4.4108593747579E-2</v>
+      </c>
+      <c r="J41" s="11">
+        <f t="shared" si="0"/>
+        <v>2.9405729165052668E-2</v>
+      </c>
+      <c r="K41" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4702864582526334E-2</v>
+      </c>
+      <c r="L41" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1174,12 +1039,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -1286,52 +1151,52 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B2" s="13">
-        <f>Data!B44</f>
-        <v>0.23263020065872705</v>
+        <f>Data!B41</f>
+        <v>0.14702864582526337</v>
       </c>
       <c r="C2" s="13">
-        <f>Data!C44</f>
-        <v>0.20936718059285436</v>
+        <f>Data!C41</f>
+        <v>0.13232578124273703</v>
       </c>
       <c r="D2" s="13">
-        <f>Data!D44</f>
-        <v>0.18610416052698164</v>
+        <f>Data!D41</f>
+        <v>0.1176229166602107</v>
       </c>
       <c r="E2" s="13">
-        <f>Data!E44</f>
-        <v>0.16284114046110892</v>
+        <f>Data!E41</f>
+        <v>0.10292005207768436</v>
       </c>
       <c r="F2" s="13">
-        <f>Data!F44</f>
-        <v>0.13957812039523623</v>
+        <f>Data!F41</f>
+        <v>8.8217187495158014E-2</v>
       </c>
       <c r="G2" s="13">
-        <f>Data!G44</f>
-        <v>0.11631510032936353</v>
+        <f>Data!G41</f>
+        <v>7.3514322912631686E-2</v>
       </c>
       <c r="H2" s="13">
-        <f>Data!H44</f>
-        <v>9.3052080263490808E-2</v>
+        <f>Data!H41</f>
+        <v>5.8811458330105336E-2</v>
       </c>
       <c r="I2" s="13">
-        <f>Data!I44</f>
-        <v>6.9789060197618102E-2</v>
+        <f>Data!I41</f>
+        <v>4.4108593747579E-2</v>
       </c>
       <c r="J2" s="13">
-        <f>Data!J44</f>
-        <v>4.6526040131745404E-2</v>
+        <f>Data!J41</f>
+        <v>2.9405729165052668E-2</v>
       </c>
       <c r="K2" s="13">
-        <f>Data!K44</f>
-        <v>2.3263020065872702E-2</v>
+        <f>Data!K41</f>
+        <v>1.4702864582526334E-2</v>
       </c>
       <c r="L2" s="15">
-        <f>Data!L44</f>
+        <f>Data!L41</f>
         <v>0</v>
       </c>
       <c r="M2" s="15">
@@ -1431,9 +1296,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -1541,9 +1406,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1651,9 +1516,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1761,9 +1626,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1871,9 +1736,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1995,12 +1860,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.45">
       <c r="B1">
         <v>2016</v>
       </c>
@@ -2107,9 +1972,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -2217,9 +2082,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -2327,9 +2192,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -2437,9 +2302,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -2547,9 +2412,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -2657,9 +2522,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="B7">
         <v>0</v>

--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CodeRepositories\eps-us\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DFA7FA-5AD1-4B21-9911-9915D1947BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="25875" windowHeight="13365"/>
+    <workbookView xWindow="19875" yWindow="480" windowWidth="25935" windowHeight="22050" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,18 +18,28 @@
     <sheet name="BAU" sheetId="6" r:id="rId3"/>
     <sheet name="2019 Sales" sheetId="8" r:id="rId4"/>
     <sheet name="Cumulative Sales" sheetId="9" r:id="rId5"/>
-    <sheet name="BESP-passengers" sheetId="3" r:id="rId6"/>
-    <sheet name="BESP-freight" sheetId="4" r:id="rId7"/>
+    <sheet name="BESP" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="177">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -138,24 +149,6 @@
     <t>For assumptions governing EV tax credit phase-out, see the "Data" tab.</t>
   </si>
   <si>
-    <t>LDVs</t>
-  </si>
-  <si>
-    <t>HDVs</t>
-  </si>
-  <si>
-    <t>aircraft</t>
-  </si>
-  <si>
-    <t>rail</t>
-  </si>
-  <si>
-    <t>ships</t>
-  </si>
-  <si>
-    <t>motorbikes</t>
-  </si>
-  <si>
     <t>The U.S. only has BAU subsidies for passenger LDVs, not other vehicle types.</t>
   </si>
   <si>
@@ -541,12 +534,48 @@
   </si>
   <si>
     <t>New Vehicle Price after RnD[LDVs,passenger,battery electric vehicle] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>passenger LDVs</t>
+  </si>
+  <si>
+    <t>passenger HDVs</t>
+  </si>
+  <si>
+    <t>passenger aircraft</t>
+  </si>
+  <si>
+    <t>passenger rail</t>
+  </si>
+  <si>
+    <t>passenger ships</t>
+  </si>
+  <si>
+    <t>passenger motorbikes</t>
+  </si>
+  <si>
+    <t>freight LDVs</t>
+  </si>
+  <si>
+    <t>freight HDVs</t>
+  </si>
+  <si>
+    <t>freight aircraft</t>
+  </si>
+  <si>
+    <t>freight rail</t>
+  </si>
+  <si>
+    <t>freight ships</t>
+  </si>
+  <si>
+    <t>freight motorbikes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -649,11 +678,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
@@ -692,7 +721,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Robbie Orvis" refreshedDate="43635.638991087966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robbie Orvis" refreshedDate="43635.638991087966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:P47" sheet="2019 Sales" r:id="rId2"/>
   </cacheSource>
@@ -1681,7 +1710,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="23">
+        <item x="10"/>
+        <item x="5"/>
+        <item m="1" x="21"/>
+        <item x="16"/>
+        <item m="1" x="19"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item m="1" x="20"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item m="1" x="18"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G22:J40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -1903,135 +2065,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="23">
-        <item x="10"/>
-        <item x="5"/>
-        <item m="1" x="21"/>
-        <item x="16"/>
-        <item m="1" x="19"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item m="1" x="20"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item m="1" x="18"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2113,6 +2148,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2148,6 +2200,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2323,182 +2392,182 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="20" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="19" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B13" s="20" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B19" s="20" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B20" s="20"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="19" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="19"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2506,26 +2575,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AH45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:AF33"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>2019</v>
       </c>
@@ -2623,7 +2692,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>BAU!C92</f>
         <v>2745.8606136031603</v>
@@ -2753,25 +2822,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2782,7 +2851,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2500</v>
       </c>
@@ -2793,7 +2862,7 @@
         <v>39250017</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>5000</v>
       </c>
@@ -2804,7 +2873,7 @@
         <v>5540545</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>3500</v>
       </c>
@@ -2815,7 +2884,7 @@
         <v>952065</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>1500</v>
       </c>
@@ -2826,7 +2895,7 @@
         <v>4681666</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2500</v>
       </c>
@@ -2837,7 +2906,7 @@
         <v>6811779</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>1500</v>
       </c>
@@ -2848,7 +2917,7 @@
         <v>3923561</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2500</v>
       </c>
@@ -2859,15 +2928,15 @@
         <v>1056426</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2875,7 +2944,7 @@
         <v>323127513</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>24</v>
@@ -2885,29 +2954,29 @@
         <v>260911454</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f>SUMPRODUCT(A9:A15,C9:C15)/C18</f>
         <v>500.54031765472104</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2019</v>
       </c>
@@ -3005,7 +3074,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f>A3+$A$22</f>
         <v>3246.4009312578814</v>
@@ -3135,9 +3204,9 @@
         <v>500.54031765472104</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B28">
         <v>2019</v>
@@ -3239,9 +3308,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B29">
         <v>39357</v>
@@ -3343,12 +3412,12 @@
         <v>40174.6</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2019</v>
       </c>
@@ -3446,7 +3515,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <f>A26/B29</f>
         <v>8.2485985498332734E-2</v>
@@ -3576,7 +3645,7 @@
         <v>1.7036538564986214E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -3595,38 +3664,38 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D2">
         <v>2019</v>
@@ -3725,9 +3794,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A3,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -3866,9 +3935,9 @@
         <v>10491284.759464676</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A4,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -4007,9 +4076,9 @@
         <v>2742926.6364013483</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A5,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -4148,9 +4217,9 @@
         <v>10044622.790505566</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A6,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -4289,9 +4358,9 @@
         <v>520525.68376530847</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A7,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -4430,9 +4499,9 @@
         <v>5294154.9930739682</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A8,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -4571,9 +4640,9 @@
         <v>21619399.202694658</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A9,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -4712,9 +4781,9 @@
         <v>1758815.7387046153</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A10,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -4853,9 +4922,9 @@
         <v>3203277.9124866971</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A11,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -4994,9 +5063,9 @@
         <v>4962634.4062189991</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A12,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -5135,7 +5204,7 @@
         <v>1820215.3292029649</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5276,9 +5345,9 @@
         <v>8707283.6971664578</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A14,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -5417,7 +5486,7 @@
         <v>2272815.2177190986</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5558,9 +5627,9 @@
         <v>103198947.36781919</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A16,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -5699,9 +5768,9 @@
         <v>13285904.130782969</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A17,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -5840,9 +5909,9 @@
         <v>2712962.9636383313</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B18">
         <f>INDEX('Cumulative Sales'!$B$5:$B$21,MATCH(A18,'Cumulative Sales'!$A$5:$A$21,0),1)</f>
@@ -5981,9 +6050,9 @@
         <v>2289597.9928575293</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B19">
         <f>SUM('Cumulative Sales'!B5:B21)-SUM(B3:B18)</f>
@@ -6122,38 +6191,38 @@
         <v>2235598.1774976109</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="G22" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="H22" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="I22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="J22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="K22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B23" s="15">
         <v>1.3942246992406615E-2</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H23" s="16">
         <v>175</v>
@@ -6169,15 +6238,15 @@
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B24" s="15">
         <v>5.0817957181249214E-2</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H24" s="16">
         <v>997</v>
@@ -6193,15 +6262,15 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B25" s="15">
         <v>2.4529697166459246E-3</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="H25" s="16">
         <v>72</v>
@@ -6217,15 +6286,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B26" s="15">
         <v>2.6432552351063253E-2</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="H26" s="16">
         <v>557</v>
@@ -6241,15 +6310,15 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B27" s="15">
         <v>0.10924733510091446</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="H27" s="16">
         <v>2044</v>
@@ -6265,15 +6334,15 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B28" s="15">
         <v>5.3397182692134261E-2</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H28" s="16">
         <v>1270</v>
@@ -6289,15 +6358,15 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B29" s="15">
         <v>8.9280883069097986E-3</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="H29" s="16">
         <v>111</v>
@@ -6313,15 +6382,15 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B30" s="15">
         <v>9.6766048013274888E-3</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="H30" s="16">
         <v>210</v>
@@ -6337,15 +6406,15 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B31" s="15">
         <v>1.6277979185830491E-2</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H31" s="16">
         <v>309</v>
@@ -6361,15 +6430,15 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B32" s="15">
         <v>2.5224104034774451E-2</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H32" s="16">
         <v>398</v>
@@ -6385,15 +6454,15 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B33" s="15">
         <v>9.2527460635247003E-3</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H33" s="16">
         <v>133</v>
@@ -6409,7 +6478,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -6433,15 +6502,15 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B35" s="15">
         <v>1.1543386901863175E-2</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H35" s="16">
         <v>215</v>
@@ -6457,15 +6526,15 @@
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B36" s="15">
         <v>1.7224897642623956E-3</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="H36" s="16"/>
       <c r="I36" s="16">
@@ -6479,7 +6548,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -6503,15 +6572,15 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B38" s="15">
         <v>6.7285320058438403E-2</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H38" s="16">
         <v>1123</v>
@@ -6527,15 +6596,15 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B39" s="15">
         <v>1.1633569612033981E-2</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H39" s="16">
         <v>220</v>
@@ -6551,15 +6620,15 @@
         <v>805</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B40" s="15">
         <v>1.3770899843082085E-2</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="H40" s="16">
         <v>164</v>
@@ -6575,15 +6644,15 @@
         <v>863</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B41" s="15">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -6611,14 +6680,14 @@
       <c r="AG43" s="17"/>
       <c r="AH43" s="17"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B45">
         <v>2018</v>
@@ -6720,9 +6789,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B46">
         <v>46797</v>
@@ -6824,29 +6893,29 @@
         <v>1226380</v>
       </c>
     </row>
-    <row r="47" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A47" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B47" s="22">
+    <row r="47" spans="1:34" s="21" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" s="21">
         <v>144063</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="21">
         <v>202158</v>
       </c>
-      <c r="D47" s="22">
+      <c r="D47" s="21">
         <v>276870</v>
       </c>
-      <c r="E47" s="22">
+      <c r="E47" s="21">
         <v>371505</v>
       </c>
-      <c r="F47" s="22">
+      <c r="F47" s="21">
         <v>491397</v>
       </c>
-      <c r="G47" s="22">
+      <c r="G47" s="21">
         <v>626361</v>
       </c>
-      <c r="H47" s="22">
+      <c r="H47" s="21">
         <v>808035</v>
       </c>
       <c r="I47" s="17">
@@ -6928,14 +6997,14 @@
         <v>10120000</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B50" s="14">
         <f>SUM(B$46:B$47)*INDEX($B$23:$B$40,MATCH($A50,$A$23:$A$40,0),1)</f>
@@ -7070,9 +7139,9 @@
         <v>605864.72575437836</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B51" s="14">
         <f t="shared" ref="B51:Q65" si="7">SUM(B$46:B$47)*INDEX($B$23:$B$40,MATCH($A51,$A$23:$A$40,0),1)</f>
@@ -7207,9 +7276,9 @@
         <v>158194.03242970258</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B52" s="14">
         <f t="shared" si="7"/>
@@ -7344,9 +7413,9 @@
         <v>576599.85300218244</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B53" s="14">
         <f t="shared" si="7"/>
@@ -7481,9 +7550,9 @@
         <v>27832.326533556985</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B54" s="14">
         <f t="shared" si="7"/>
@@ -7618,9 +7687,9 @@
         <v>299913.78334505705</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B55" s="14">
         <f t="shared" si="7"/>
@@ -7755,9 +7824,9 @@
         <v>1239561.7780423139</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B56" s="14">
         <f t="shared" si="7"/>
@@ -7892,9 +7961,9 @@
         <v>101301.4826037552</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B57" s="14">
         <f t="shared" si="7"/>
@@ -8029,9 +8098,9 @@
         <v>184696.13747452336</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B58" s="14">
         <f t="shared" si="7"/>
@@ -8166,9 +8235,9 @@
         <v>286202.26953808416</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B59" s="14">
         <f t="shared" si="7"/>
@@ -8303,7 +8372,7 @@
         <v>104985.17288025538</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -8440,9 +8509,9 @@
         <v>496479.58948830335</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B61" s="14">
         <f t="shared" si="7"/>
@@ -8577,7 +8646,7 @@
         <v>130975.65427556229</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -8714,9 +8783,9 @@
         <v>5952741.1620944031</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B63" s="14">
         <f t="shared" si="7"/>
@@ -8851,9 +8920,9 @@
         <v>763444.80980466434</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B64" s="14">
         <f t="shared" si="7"/>
@@ -8988,9 +9057,9 @@
         <v>156249.8625615497</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B65" s="14">
         <f t="shared" si="7"/>
@@ -9125,9 +9194,9 @@
         <v>131998.90157459013</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B66" s="14">
         <f>SUM(B46:B47)-SUM(B50:B65)</f>
@@ -9262,30 +9331,30 @@
         <v>129338.45859711803</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B69">
         <v>7500</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B70">
         <v>5366</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>2019</v>
@@ -9384,9 +9453,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C73">
         <f>IF(D3&lt;200000,7500,0)</f>
@@ -9517,9 +9586,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C74">
         <f t="shared" ref="C74:AH81" si="11">IF(D4&lt;200000,7500,0)</f>
@@ -9650,807 +9719,807 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
+        <v>42</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="E75">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="E76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="Q76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="S76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="T76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="U76">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="V76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="E77">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH78">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="E79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH79">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>47</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="E80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="11"/>
+        <v>7500</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH80">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>48</v>
-      </c>
-      <c r="C75">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="D75">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="E75">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="F75">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH75">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="D76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="E76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="F76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="I76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="J76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="K76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="L76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="N76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="O76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="P76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="R76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="S76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="T76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="V76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A77" t="s">
-        <v>50</v>
-      </c>
-      <c r="C77">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="D77">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="E77">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="F77">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="I77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH77">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="D78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="E78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="F78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="I78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="J78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="L78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH78">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="D79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="E79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="F79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="H79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="I79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="J79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="K79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="L79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="N79">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="O79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH79">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>53</v>
-      </c>
-      <c r="C80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="D80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="E80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="F80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="H80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="I80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="J80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="K80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="L80">
-        <f t="shared" si="11"/>
-        <v>7500</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="N80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="O80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="P80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Q80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AB80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AC80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AD80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AE80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AF80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AG80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AH80">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>54</v>
       </c>
       <c r="C81">
         <f t="shared" si="11"/>
@@ -10581,9 +10650,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C82">
         <f t="shared" ref="C82:AH89" si="13">IF(D12&lt;200000,7500,0)</f>
@@ -10714,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -10847,9 +10916,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="C84">
         <f t="shared" si="13"/>
@@ -10980,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -11113,9 +11182,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C86">
         <f t="shared" si="13"/>
@@ -11246,9 +11315,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C87">
         <f t="shared" si="13"/>
@@ -11379,9 +11448,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C88">
         <f t="shared" si="13"/>
@@ -11512,9 +11581,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C89">
         <f t="shared" si="13"/>
@@ -11645,15 +11714,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="C91">
         <v>2019</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="C92" s="18">
         <f>SUMPRODUCT(C73:C89,C50:C66)/SUM(C50:C66)</f>
         <v>2745.8606136031603</v>
@@ -11797,75 +11866,75 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
         <v>79</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="s">
         <v>80</v>
       </c>
-      <c r="C2" t="s">
+      <c r="I2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
+      <c r="J2" t="s">
         <v>82</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K2" t="s">
         <v>83</v>
       </c>
-      <c r="F2" t="s">
+      <c r="L2" t="s">
         <v>84</v>
       </c>
-      <c r="G2" t="s">
+      <c r="M2" t="s">
         <v>85</v>
       </c>
-      <c r="H2" t="s">
+      <c r="N2" t="s">
         <v>86</v>
       </c>
-      <c r="I2" t="s">
+      <c r="O2" t="s">
         <v>87</v>
       </c>
-      <c r="J2" t="s">
+      <c r="P2" t="s">
         <v>88</v>
       </c>
-      <c r="K2" t="s">
-        <v>89</v>
-      </c>
-      <c r="L2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N2" t="s">
-        <v>92</v>
-      </c>
-      <c r="O2" t="s">
-        <v>93</v>
-      </c>
-      <c r="P2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D3">
         <v>6500</v>
@@ -11886,18 +11955,18 @@
         <v>46425</v>
       </c>
       <c r="Q3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D4">
         <v>1123</v>
@@ -11918,18 +11987,18 @@
         <v>7461</v>
       </c>
       <c r="Q4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="D5">
         <v>925</v>
@@ -11950,18 +12019,18 @@
         <v>6622</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D6">
         <v>775</v>
@@ -11982,18 +12051,18 @@
         <v>6275</v>
       </c>
       <c r="Q6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D7">
         <v>1192</v>
@@ -12014,18 +12083,18 @@
         <v>5513</v>
       </c>
       <c r="Q7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D8">
         <v>725</v>
@@ -12046,18 +12115,18 @@
         <v>5475</v>
       </c>
       <c r="Q8" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D9">
         <v>717</v>
@@ -12078,18 +12147,18 @@
         <v>4852</v>
       </c>
       <c r="Q9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C10" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D10">
         <v>675</v>
@@ -12110,18 +12179,18 @@
         <v>3333</v>
       </c>
       <c r="Q10" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C11" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D11">
         <v>376</v>
@@ -12142,18 +12211,18 @@
         <v>2369</v>
       </c>
       <c r="Q11" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D12">
         <v>557</v>
@@ -12174,18 +12243,18 @@
         <v>2931</v>
       </c>
       <c r="Q12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C13" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D13">
         <v>436</v>
@@ -12206,18 +12275,18 @@
         <v>2145</v>
       </c>
       <c r="Q13" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D14">
         <v>255</v>
@@ -12238,18 +12307,18 @@
         <v>1734</v>
       </c>
       <c r="Q14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="D15">
         <v>279</v>
@@ -12270,18 +12339,18 @@
         <v>1588</v>
       </c>
       <c r="Q15" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C16" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D16">
         <v>164</v>
@@ -12302,18 +12371,18 @@
         <v>1527</v>
       </c>
       <c r="Q16" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="D17">
         <v>210</v>
@@ -12334,18 +12403,18 @@
         <v>1073</v>
       </c>
       <c r="Q17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C18" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="G18">
         <v>253</v>
@@ -12357,18 +12426,18 @@
         <v>1109</v>
       </c>
       <c r="Q18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B19" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C19" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D19">
         <v>133</v>
@@ -12389,18 +12458,18 @@
         <v>1026</v>
       </c>
       <c r="Q19" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C20" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="D20">
         <v>150</v>
@@ -12421,18 +12490,18 @@
         <v>830</v>
       </c>
       <c r="Q20" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D21">
         <v>216</v>
@@ -12453,18 +12522,18 @@
         <v>656</v>
       </c>
       <c r="Q21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D22">
         <v>140</v>
@@ -12485,18 +12554,18 @@
         <v>818</v>
       </c>
       <c r="Q22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D23">
         <v>95</v>
@@ -12517,18 +12586,18 @@
         <v>575</v>
       </c>
       <c r="Q23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D24">
         <v>74</v>
@@ -12549,18 +12618,18 @@
         <v>816</v>
       </c>
       <c r="Q24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="D25">
         <v>90</v>
@@ -12581,18 +12650,18 @@
         <v>495</v>
       </c>
       <c r="Q25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D26">
         <v>65</v>
@@ -12613,18 +12682,18 @@
         <v>450</v>
       </c>
       <c r="Q26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C27" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D27">
         <v>92</v>
@@ -12645,18 +12714,18 @@
         <v>632</v>
       </c>
       <c r="Q27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D28">
         <v>175</v>
@@ -12677,18 +12746,18 @@
         <v>437</v>
       </c>
       <c r="Q28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="D29">
         <v>78</v>
@@ -12709,18 +12778,18 @@
         <v>408</v>
       </c>
       <c r="Q29" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B30" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C30" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="D30">
         <v>23</v>
@@ -12741,18 +12810,18 @@
         <v>393</v>
       </c>
       <c r="Q30" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B31" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>73</v>
@@ -12773,18 +12842,18 @@
         <v>347</v>
       </c>
       <c r="Q31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>83</v>
@@ -12805,18 +12874,18 @@
         <v>401</v>
       </c>
       <c r="Q32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B33" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -12837,18 +12906,18 @@
         <v>311</v>
       </c>
       <c r="Q33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C34" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>50</v>
@@ -12869,18 +12938,18 @@
         <v>280</v>
       </c>
       <c r="Q34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>72</v>
@@ -12901,18 +12970,18 @@
         <v>272</v>
       </c>
       <c r="Q35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C36" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>35</v>
@@ -12933,18 +13002,18 @@
         <v>220</v>
       </c>
       <c r="Q36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>27</v>
@@ -12962,18 +13031,18 @@
         <v>191</v>
       </c>
       <c r="Q37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -12994,18 +13063,18 @@
         <v>168</v>
       </c>
       <c r="Q38" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B39" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C39" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D39">
         <v>34</v>
@@ -13026,18 +13095,18 @@
         <v>164</v>
       </c>
       <c r="Q39" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="G40">
         <v>40</v>
@@ -13049,18 +13118,18 @@
         <v>159</v>
       </c>
       <c r="Q40" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D41">
         <v>71</v>
@@ -13081,18 +13150,18 @@
         <v>148</v>
       </c>
       <c r="Q41" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D42">
         <v>8</v>
@@ -13113,18 +13182,18 @@
         <v>126</v>
       </c>
       <c r="Q42" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D43">
         <v>6</v>
@@ -13145,18 +13214,18 @@
         <v>55</v>
       </c>
       <c r="Q43" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D44">
         <v>30</v>
@@ -13177,18 +13246,18 @@
         <v>54</v>
       </c>
       <c r="Q44" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D45">
         <v>8</v>
@@ -13209,18 +13278,18 @@
         <v>14</v>
       </c>
       <c r="Q45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -13241,18 +13310,18 @@
         <v>4</v>
       </c>
       <c r="Q46" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C47" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -13273,12 +13342,12 @@
         <v>4</v>
       </c>
       <c r="Q47" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D48">
         <v>16715</v>
@@ -13299,12 +13368,12 @@
         <v>110886</v>
       </c>
       <c r="Q48" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.45">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D49">
         <v>12009</v>
@@ -13346,12 +13415,12 @@
         <v>361307</v>
       </c>
       <c r="Q49" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D50">
         <v>159468</v>
@@ -13369,12 +13438,12 @@
         <v>661544</v>
       </c>
       <c r="Q50" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D51">
         <v>82000</v>
@@ -13416,7 +13485,7 @@
         <v>2018247</v>
       </c>
       <c r="Q51" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -13426,63 +13495,63 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="C1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="23"/>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C2" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="23"/>
       <c r="C3">
         <v>200000</v>
       </c>
       <c r="D3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
       <c r="D4">
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B5">
         <v>10218</v>
@@ -13494,9 +13563,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <v>85888</v>
@@ -13508,9 +13577,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B7">
         <v>39855</v>
@@ -13522,9 +13591,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B8">
         <v>114247</v>
@@ -13536,9 +13605,9 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B9">
         <v>211587</v>
@@ -13547,12 +13616,12 @@
         <v>-11587</v>
       </c>
       <c r="D9" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B10">
         <v>27636</v>
@@ -13564,9 +13633,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B11">
         <v>9157</v>
@@ -13578,9 +13647,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>1001</v>
@@ -13592,9 +13661,9 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B13">
         <v>13325</v>
@@ -13606,9 +13675,9 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B14">
         <v>19193</v>
@@ -13620,9 +13689,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B15">
         <v>7004</v>
@@ -13634,7 +13703,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -13648,9 +13717,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B17">
         <v>10712</v>
@@ -13662,7 +13731,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -13673,12 +13742,12 @@
         <v>-182573</v>
       </c>
       <c r="D18" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>99918</v>
@@ -13690,9 +13759,9 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>9841</v>
@@ -13704,9 +13773,9 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>14277</v>
@@ -13727,1289 +13796,459 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1">
-        <v>2016</v>
-      </c>
-      <c r="C1">
-        <v>2017</v>
-      </c>
-      <c r="D1">
-        <v>2018</v>
-      </c>
-      <c r="E1">
-        <v>2019</v>
-      </c>
-      <c r="F1">
-        <v>2020</v>
-      </c>
-      <c r="G1">
-        <v>2021</v>
-      </c>
-      <c r="H1">
-        <v>2022</v>
-      </c>
-      <c r="I1">
-        <v>2023</v>
-      </c>
-      <c r="J1">
-        <v>2024</v>
-      </c>
-      <c r="K1">
-        <v>2025</v>
-      </c>
-      <c r="L1">
-        <v>2026</v>
-      </c>
-      <c r="M1">
-        <v>2027</v>
-      </c>
-      <c r="N1">
-        <v>2028</v>
-      </c>
-      <c r="O1">
-        <v>2029</v>
-      </c>
-      <c r="P1">
-        <v>2030</v>
-      </c>
-      <c r="Q1">
-        <v>2031</v>
-      </c>
-      <c r="R1">
-        <v>2032</v>
-      </c>
-      <c r="S1">
-        <v>2033</v>
-      </c>
-      <c r="T1">
-        <v>2034</v>
-      </c>
-      <c r="U1">
-        <v>2035</v>
-      </c>
-      <c r="V1">
-        <v>2036</v>
-      </c>
-      <c r="W1">
-        <v>2037</v>
-      </c>
-      <c r="X1">
-        <v>2038</v>
-      </c>
-      <c r="Y1">
-        <v>2039</v>
-      </c>
-      <c r="Z1">
-        <v>2040</v>
-      </c>
-      <c r="AA1">
-        <v>2041</v>
-      </c>
-      <c r="AB1">
-        <v>2042</v>
-      </c>
-      <c r="AC1">
-        <v>2043</v>
-      </c>
-      <c r="AD1">
-        <v>2044</v>
-      </c>
-      <c r="AE1">
-        <v>2045</v>
-      </c>
-      <c r="AF1">
-        <v>2046</v>
-      </c>
-      <c r="AG1">
-        <v>2047</v>
-      </c>
-      <c r="AH1">
-        <v>2048</v>
-      </c>
-      <c r="AI1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="19">
-        <f t="shared" ref="B2:C2" si="0">C2</f>
-        <v>8.2485985498332734E-2</v>
-      </c>
-      <c r="C2" s="19">
-        <f t="shared" si="0"/>
-        <v>8.2485985498332734E-2</v>
-      </c>
-      <c r="D2" s="19">
-        <f>E2</f>
-        <v>8.2485985498332734E-2</v>
-      </c>
-      <c r="E2" s="12">
-        <f>Data!A33</f>
-        <v>8.2485985498332734E-2</v>
-      </c>
-      <c r="F2" s="12">
-        <f>Data!B33</f>
-        <v>8.817332994529585E-2</v>
-      </c>
-      <c r="G2" s="12">
-        <f>Data!C33</f>
-        <v>9.1569920803151295E-2</v>
-      </c>
-      <c r="H2" s="12">
-        <f>Data!D33</f>
-        <v>6.9845444031821649E-2</v>
-      </c>
-      <c r="I2" s="12">
-        <f>Data!E33</f>
-        <v>5.998564057483291E-2</v>
-      </c>
-      <c r="J2" s="12">
-        <f>Data!F33</f>
-        <v>4.8944249987483472E-2</v>
-      </c>
-      <c r="K2" s="12">
-        <f>Data!G33</f>
-        <v>4.357996209055285E-2</v>
-      </c>
-      <c r="L2" s="12">
-        <f>Data!H33</f>
-        <v>4.4113092957327127E-2</v>
-      </c>
-      <c r="M2" s="12">
-        <f>Data!I33</f>
-        <v>3.8721498290777208E-2</v>
-      </c>
-      <c r="N2" s="12">
-        <f>Data!J33</f>
-        <v>3.9116054303508556E-2</v>
-      </c>
-      <c r="O2" s="12">
-        <f>Data!K33</f>
-        <v>3.5605143572627146E-2</v>
-      </c>
-      <c r="P2" s="12">
-        <f>Data!L33</f>
-        <v>2.3694722252245365E-2</v>
-      </c>
-      <c r="Q2" s="12">
-        <f>Data!M33</f>
-        <v>1.6722875730853886E-2</v>
-      </c>
-      <c r="R2" s="12">
-        <f>Data!N33</f>
-        <v>1.6833975324378966E-2</v>
-      </c>
-      <c r="S2" s="12">
-        <f>Data!O33</f>
-        <v>1.6931908267274597E-2</v>
-      </c>
-      <c r="T2" s="12">
-        <f>Data!P33</f>
-        <v>1.7018532115423972E-2</v>
-      </c>
-      <c r="U2" s="12">
-        <f>Data!Q33</f>
-        <v>1.7095058325522647E-2</v>
-      </c>
-      <c r="V2" s="12">
-        <f>Data!R33</f>
-        <v>1.7163642785592893E-2</v>
-      </c>
-      <c r="W2" s="12">
-        <f>Data!S33</f>
-        <v>1.7224600302365115E-2</v>
-      </c>
-      <c r="X2" s="12">
-        <f>Data!T33</f>
-        <v>1.6666566253162266E-2</v>
-      </c>
-      <c r="Y2" s="12">
-        <f>Data!U33</f>
-        <v>1.6714149872766346E-2</v>
-      </c>
-      <c r="Z2" s="12">
-        <f>Data!V33</f>
-        <v>1.6757628799196535E-2</v>
-      </c>
-      <c r="AA2" s="12">
-        <f>Data!W33</f>
-        <v>1.6796936782654776E-2</v>
-      </c>
-      <c r="AB2" s="12">
-        <f>Data!X33</f>
-        <v>1.6832692733258488E-2</v>
-      </c>
-      <c r="AC2" s="12">
-        <f>Data!Y33</f>
-        <v>1.6865475148751988E-2</v>
-      </c>
-      <c r="AD2" s="12">
-        <f>Data!Z33</f>
-        <v>1.6895590543778875E-2</v>
-      </c>
-      <c r="AE2" s="12">
-        <f>Data!AA33</f>
-        <v>1.6923410161164189E-2</v>
-      </c>
-      <c r="AF2" s="12">
-        <f>Data!AB33</f>
-        <v>1.6949255127700777E-2</v>
-      </c>
-      <c r="AG2" s="12">
-        <f>Data!AC33</f>
-        <v>1.6973279585713107E-2</v>
-      </c>
-      <c r="AH2" s="12">
-        <f>Data!AD33</f>
-        <v>1.6995698538410275E-2</v>
-      </c>
-      <c r="AI2" s="12">
-        <f>Data!AE33</f>
-        <v>1.7016788238954292E-2</v>
-      </c>
-      <c r="AJ2" s="12">
-        <f>Data!AF33</f>
-        <v>1.7036538564986214E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1">
+        <v>2019</v>
+      </c>
+      <c r="C1">
+        <v>2020</v>
+      </c>
+      <c r="D1">
+        <v>2021</v>
+      </c>
+      <c r="E1">
+        <v>2022</v>
+      </c>
+      <c r="F1">
+        <v>2023</v>
+      </c>
+      <c r="G1">
+        <v>2024</v>
+      </c>
+      <c r="H1">
+        <v>2025</v>
+      </c>
+      <c r="I1">
+        <v>2026</v>
+      </c>
+      <c r="J1">
+        <v>2027</v>
+      </c>
+      <c r="K1">
+        <v>2028</v>
+      </c>
+      <c r="L1">
+        <v>2029</v>
+      </c>
+      <c r="M1">
+        <v>2030</v>
+      </c>
+      <c r="N1">
+        <v>2031</v>
+      </c>
+      <c r="O1">
+        <v>2032</v>
+      </c>
+      <c r="P1">
+        <v>2033</v>
+      </c>
+      <c r="Q1">
+        <v>2034</v>
+      </c>
+      <c r="R1">
+        <v>2035</v>
+      </c>
+      <c r="S1">
+        <v>2036</v>
+      </c>
+      <c r="T1">
+        <v>2037</v>
+      </c>
+      <c r="U1">
+        <v>2038</v>
+      </c>
+      <c r="V1">
+        <v>2039</v>
+      </c>
+      <c r="W1">
+        <v>2040</v>
+      </c>
+      <c r="X1">
+        <v>2041</v>
+      </c>
+      <c r="Y1">
+        <v>2042</v>
+      </c>
+      <c r="Z1">
+        <v>2043</v>
+      </c>
+      <c r="AA1">
+        <v>2044</v>
+      </c>
+      <c r="AB1">
+        <v>2045</v>
+      </c>
+      <c r="AC1">
+        <v>2046</v>
+      </c>
+      <c r="AD1">
+        <v>2047</v>
+      </c>
+      <c r="AE1">
+        <v>2048</v>
+      </c>
+      <c r="AF1">
+        <v>2049</v>
+      </c>
+      <c r="AG1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="12">
+        <f>Data!A33</f>
+        <v>8.2485985498332734E-2</v>
+      </c>
+      <c r="C2" s="12">
+        <f>Data!B33</f>
+        <v>8.817332994529585E-2</v>
+      </c>
+      <c r="D2" s="12">
+        <f>Data!C33</f>
+        <v>9.1569920803151295E-2</v>
+      </c>
+      <c r="E2" s="12">
+        <f>Data!D33</f>
+        <v>6.9845444031821649E-2</v>
+      </c>
+      <c r="F2" s="12">
+        <f>Data!E33</f>
+        <v>5.998564057483291E-2</v>
+      </c>
+      <c r="G2" s="12">
+        <f>Data!F33</f>
+        <v>4.8944249987483472E-2</v>
+      </c>
+      <c r="H2" s="12">
+        <f>Data!G33</f>
+        <v>4.357996209055285E-2</v>
+      </c>
+      <c r="I2" s="12">
+        <f>Data!H33</f>
+        <v>4.4113092957327127E-2</v>
+      </c>
+      <c r="J2" s="12">
+        <f>Data!I33</f>
+        <v>3.8721498290777208E-2</v>
+      </c>
+      <c r="K2" s="12">
+        <f>Data!J33</f>
+        <v>3.9116054303508556E-2</v>
+      </c>
+      <c r="L2" s="12">
+        <f>Data!K33</f>
+        <v>3.5605143572627146E-2</v>
+      </c>
+      <c r="M2" s="12">
+        <f>Data!L33</f>
+        <v>2.3694722252245365E-2</v>
+      </c>
+      <c r="N2" s="12">
+        <f>Data!M33</f>
+        <v>1.6722875730853886E-2</v>
+      </c>
+      <c r="O2" s="12">
+        <f>Data!N33</f>
+        <v>1.6833975324378966E-2</v>
+      </c>
+      <c r="P2" s="12">
+        <f>Data!O33</f>
+        <v>1.6931908267274597E-2</v>
+      </c>
+      <c r="Q2" s="12">
+        <f>Data!P33</f>
+        <v>1.7018532115423972E-2</v>
+      </c>
+      <c r="R2" s="12">
+        <f>Data!Q33</f>
+        <v>1.7095058325522647E-2</v>
+      </c>
+      <c r="S2" s="12">
+        <f>Data!R33</f>
+        <v>1.7163642785592893E-2</v>
+      </c>
+      <c r="T2" s="12">
+        <f>Data!S33</f>
+        <v>1.7224600302365115E-2</v>
+      </c>
+      <c r="U2" s="12">
+        <f>Data!T33</f>
+        <v>1.6666566253162266E-2</v>
+      </c>
+      <c r="V2" s="12">
+        <f>Data!U33</f>
+        <v>1.6714149872766346E-2</v>
+      </c>
+      <c r="W2" s="12">
+        <f>Data!V33</f>
+        <v>1.6757628799196535E-2</v>
+      </c>
+      <c r="X2" s="12">
+        <f>Data!W33</f>
+        <v>1.6796936782654776E-2</v>
+      </c>
+      <c r="Y2" s="12">
+        <f>Data!X33</f>
+        <v>1.6832692733258488E-2</v>
+      </c>
+      <c r="Z2" s="12">
+        <f>Data!Y33</f>
+        <v>1.6865475148751988E-2</v>
+      </c>
+      <c r="AA2" s="12">
+        <f>Data!Z33</f>
+        <v>1.6895590543778875E-2</v>
+      </c>
+      <c r="AB2" s="12">
+        <f>Data!AA33</f>
+        <v>1.6923410161164189E-2</v>
+      </c>
+      <c r="AC2" s="12">
+        <f>Data!AB33</f>
+        <v>1.6949255127700777E-2</v>
+      </c>
+      <c r="AD2" s="12">
+        <f>Data!AC33</f>
+        <v>1.6973279585713107E-2</v>
+      </c>
+      <c r="AE2" s="12">
+        <f>Data!AD33</f>
+        <v>1.6995698538410275E-2</v>
+      </c>
+      <c r="AF2" s="12">
+        <f>Data!AE33</f>
+        <v>1.7016788238954292E-2</v>
+      </c>
+      <c r="AG2" s="12">
+        <f>Data!AF33</f>
+        <v>1.7036538564986214E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>166</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>168</v>
       </c>
-      <c r="B1">
-        <v>2016</v>
-      </c>
-      <c r="C1">
-        <v>2017</v>
-      </c>
-      <c r="D1">
-        <v>2018</v>
-      </c>
-      <c r="E1">
-        <v>2019</v>
-      </c>
-      <c r="F1">
-        <v>2020</v>
-      </c>
-      <c r="G1">
-        <v>2021</v>
-      </c>
-      <c r="H1">
-        <v>2022</v>
-      </c>
-      <c r="I1">
-        <v>2023</v>
-      </c>
-      <c r="J1">
-        <v>2024</v>
-      </c>
-      <c r="K1">
-        <v>2025</v>
-      </c>
-      <c r="L1">
-        <v>2026</v>
-      </c>
-      <c r="M1">
-        <v>2027</v>
-      </c>
-      <c r="N1">
-        <v>2028</v>
-      </c>
-      <c r="O1">
-        <v>2029</v>
-      </c>
-      <c r="P1">
-        <v>2030</v>
-      </c>
-      <c r="Q1">
-        <v>2031</v>
-      </c>
-      <c r="R1">
-        <v>2032</v>
-      </c>
-      <c r="S1">
-        <v>2033</v>
-      </c>
-      <c r="T1">
-        <v>2034</v>
-      </c>
-      <c r="U1">
-        <v>2035</v>
-      </c>
-      <c r="V1">
-        <v>2036</v>
-      </c>
-      <c r="W1">
-        <v>2037</v>
-      </c>
-      <c r="X1">
-        <v>2038</v>
-      </c>
-      <c r="Y1">
-        <v>2039</v>
-      </c>
-      <c r="Z1">
-        <v>2040</v>
-      </c>
-      <c r="AA1">
-        <v>2041</v>
-      </c>
-      <c r="AB1">
-        <v>2042</v>
-      </c>
-      <c r="AC1">
-        <v>2043</v>
-      </c>
-      <c r="AD1">
-        <v>2044</v>
-      </c>
-      <c r="AE1">
-        <v>2045</v>
-      </c>
-      <c r="AF1">
-        <v>2046</v>
-      </c>
-      <c r="AG1">
-        <v>2047</v>
-      </c>
-      <c r="AH1">
-        <v>2048</v>
-      </c>
-      <c r="AI1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-      <c r="AJ2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-      <c r="AJ3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>39</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -15106,19 +14345,10 @@
       <c r="AG5">
         <v>0</v>
       </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-      <c r="AJ5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -15216,19 +14446,10 @@
       <c r="AG6">
         <v>0</v>
       </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -15326,13 +14547,610 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B8" s="22">
+        <v>0</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0</v>
+      </c>
+      <c r="D8" s="22">
+        <v>0</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0</v>
+      </c>
+      <c r="F8" s="22">
+        <v>0</v>
+      </c>
+      <c r="G8" s="22">
+        <v>0</v>
+      </c>
+      <c r="H8" s="22">
+        <v>0</v>
+      </c>
+      <c r="I8" s="22">
+        <v>0</v>
+      </c>
+      <c r="J8" s="22">
+        <v>0</v>
+      </c>
+      <c r="K8" s="22">
+        <v>0</v>
+      </c>
+      <c r="L8" s="22">
+        <v>0</v>
+      </c>
+      <c r="M8" s="22">
+        <v>0</v>
+      </c>
+      <c r="N8" s="22">
+        <v>0</v>
+      </c>
+      <c r="O8" s="22">
+        <v>0</v>
+      </c>
+      <c r="P8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="22">
+        <v>0</v>
+      </c>
+      <c r="R8" s="22">
+        <v>0</v>
+      </c>
+      <c r="S8" s="22">
+        <v>0</v>
+      </c>
+      <c r="T8" s="22">
+        <v>0</v>
+      </c>
+      <c r="U8" s="22">
+        <v>0</v>
+      </c>
+      <c r="V8" s="22">
+        <v>0</v>
+      </c>
+      <c r="W8" s="22">
+        <v>0</v>
+      </c>
+      <c r="X8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B9" s="22">
+        <v>0</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0</v>
+      </c>
+      <c r="D9" s="22">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0</v>
+      </c>
+      <c r="F9" s="22">
+        <v>0</v>
+      </c>
+      <c r="G9" s="22">
+        <v>0</v>
+      </c>
+      <c r="H9" s="22">
+        <v>0</v>
+      </c>
+      <c r="I9" s="22">
+        <v>0</v>
+      </c>
+      <c r="J9" s="22">
+        <v>0</v>
+      </c>
+      <c r="K9" s="22">
+        <v>0</v>
+      </c>
+      <c r="L9" s="22">
+        <v>0</v>
+      </c>
+      <c r="M9" s="22">
+        <v>0</v>
+      </c>
+      <c r="N9" s="22">
+        <v>0</v>
+      </c>
+      <c r="O9" s="22">
+        <v>0</v>
+      </c>
+      <c r="P9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="22">
+        <v>0</v>
+      </c>
+      <c r="R9" s="22">
+        <v>0</v>
+      </c>
+      <c r="S9" s="22">
+        <v>0</v>
+      </c>
+      <c r="T9" s="22">
+        <v>0</v>
+      </c>
+      <c r="U9" s="22">
+        <v>0</v>
+      </c>
+      <c r="V9" s="22">
+        <v>0</v>
+      </c>
+      <c r="W9" s="22">
+        <v>0</v>
+      </c>
+      <c r="X9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="22">
+        <v>0</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0</v>
+      </c>
+      <c r="D10" s="22">
+        <v>0</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0</v>
+      </c>
+      <c r="F10" s="22">
+        <v>0</v>
+      </c>
+      <c r="G10" s="22">
+        <v>0</v>
+      </c>
+      <c r="H10" s="22">
+        <v>0</v>
+      </c>
+      <c r="I10" s="22">
+        <v>0</v>
+      </c>
+      <c r="J10" s="22">
+        <v>0</v>
+      </c>
+      <c r="K10" s="22">
+        <v>0</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0</v>
+      </c>
+      <c r="M10" s="22">
+        <v>0</v>
+      </c>
+      <c r="N10" s="22">
+        <v>0</v>
+      </c>
+      <c r="O10" s="22">
+        <v>0</v>
+      </c>
+      <c r="P10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="22">
+        <v>0</v>
+      </c>
+      <c r="R10" s="22">
+        <v>0</v>
+      </c>
+      <c r="S10" s="22">
+        <v>0</v>
+      </c>
+      <c r="T10" s="22">
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <v>0</v>
+      </c>
+      <c r="V10" s="22">
+        <v>0</v>
+      </c>
+      <c r="W10" s="22">
+        <v>0</v>
+      </c>
+      <c r="X10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0</v>
+      </c>
+      <c r="D11" s="22">
+        <v>0</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0</v>
+      </c>
+      <c r="F11" s="22">
+        <v>0</v>
+      </c>
+      <c r="G11" s="22">
+        <v>0</v>
+      </c>
+      <c r="H11" s="22">
+        <v>0</v>
+      </c>
+      <c r="I11" s="22">
+        <v>0</v>
+      </c>
+      <c r="J11" s="22">
+        <v>0</v>
+      </c>
+      <c r="K11" s="22">
+        <v>0</v>
+      </c>
+      <c r="L11" s="22">
+        <v>0</v>
+      </c>
+      <c r="M11" s="22">
+        <v>0</v>
+      </c>
+      <c r="N11" s="22">
+        <v>0</v>
+      </c>
+      <c r="O11" s="22">
+        <v>0</v>
+      </c>
+      <c r="P11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="22">
+        <v>0</v>
+      </c>
+      <c r="R11" s="22">
+        <v>0</v>
+      </c>
+      <c r="S11" s="22">
+        <v>0</v>
+      </c>
+      <c r="T11" s="22">
+        <v>0</v>
+      </c>
+      <c r="U11" s="22">
+        <v>0</v>
+      </c>
+      <c r="V11" s="22">
+        <v>0</v>
+      </c>
+      <c r="W11" s="22">
+        <v>0</v>
+      </c>
+      <c r="X11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>175</v>
+      </c>
+      <c r="B12" s="22">
+        <v>0</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0</v>
+      </c>
+      <c r="D12" s="22">
+        <v>0</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0</v>
+      </c>
+      <c r="F12" s="22">
+        <v>0</v>
+      </c>
+      <c r="G12" s="22">
+        <v>0</v>
+      </c>
+      <c r="H12" s="22">
+        <v>0</v>
+      </c>
+      <c r="I12" s="22">
+        <v>0</v>
+      </c>
+      <c r="J12" s="22">
+        <v>0</v>
+      </c>
+      <c r="K12" s="22">
+        <v>0</v>
+      </c>
+      <c r="L12" s="22">
+        <v>0</v>
+      </c>
+      <c r="M12" s="22">
+        <v>0</v>
+      </c>
+      <c r="N12" s="22">
+        <v>0</v>
+      </c>
+      <c r="O12" s="22">
+        <v>0</v>
+      </c>
+      <c r="P12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="22">
+        <v>0</v>
+      </c>
+      <c r="R12" s="22">
+        <v>0</v>
+      </c>
+      <c r="S12" s="22">
+        <v>0</v>
+      </c>
+      <c r="T12" s="22">
+        <v>0</v>
+      </c>
+      <c r="U12" s="22">
+        <v>0</v>
+      </c>
+      <c r="V12" s="22">
+        <v>0</v>
+      </c>
+      <c r="W12" s="22">
+        <v>0</v>
+      </c>
+      <c r="X12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>176</v>
+      </c>
+      <c r="B13" s="22">
+        <v>0</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0</v>
+      </c>
+      <c r="D13" s="22">
+        <v>0</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
+        <v>0</v>
+      </c>
+      <c r="G13" s="22">
+        <v>0</v>
+      </c>
+      <c r="H13" s="22">
+        <v>0</v>
+      </c>
+      <c r="I13" s="22">
+        <v>0</v>
+      </c>
+      <c r="J13" s="22">
+        <v>0</v>
+      </c>
+      <c r="K13" s="22">
+        <v>0</v>
+      </c>
+      <c r="L13" s="22">
+        <v>0</v>
+      </c>
+      <c r="M13" s="22">
+        <v>0</v>
+      </c>
+      <c r="N13" s="22">
+        <v>0</v>
+      </c>
+      <c r="O13" s="22">
+        <v>0</v>
+      </c>
+      <c r="P13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="22">
+        <v>0</v>
+      </c>
+      <c r="R13" s="22">
+        <v>0</v>
+      </c>
+      <c r="S13" s="22">
+        <v>0</v>
+      </c>
+      <c r="T13" s="22">
+        <v>0</v>
+      </c>
+      <c r="U13" s="22">
+        <v>0</v>
+      </c>
+      <c r="V13" s="22">
+        <v>0</v>
+      </c>
+      <c r="W13" s="22">
+        <v>0</v>
+      </c>
+      <c r="X13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="22">
         <v>0</v>
       </c>
     </row>

--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4082BD80-CE47-4B43-975B-164289148D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="25875" windowHeight="13365"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,15 +21,26 @@
     <sheet name="BESP-passengers" sheetId="3" r:id="rId6"/>
     <sheet name="BESP-freight" sheetId="4" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId8"/>
+    <pivotCache cacheId="0" r:id="rId8"/>
   </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="172">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -541,12 +553,15 @@
   </si>
   <si>
     <t>New Vehicle Price after RnD[LDVs,passenger,battery electric vehicle] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>Older versions of EPS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -623,7 +638,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -656,6 +671,11 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -692,7 +712,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Robbie Orvis" refreshedDate="43635.638991087966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Robbie Orvis" refreshedDate="43635.638991087966" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="45" xr:uid="{00000000-000A-0000-FFFF-FFFF10000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A2:P47" sheet="2019 Sales" r:id="rId2"/>
   </cacheSource>
@@ -1681,7 +1701,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="23">
+        <item x="10"/>
+        <item x="5"/>
+        <item m="1" x="21"/>
+        <item x="16"/>
+        <item m="1" x="19"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item m="1" x="20"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item m="1" x="18"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G22:J40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -1903,135 +2056,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="23">
-        <item x="10"/>
-        <item x="5"/>
-        <item m="1" x="21"/>
-        <item x="16"/>
-        <item m="1" x="19"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item m="1" x="20"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item m="1" x="18"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
     </ext>
   </extLst>
 </pivotTableDefinition>
@@ -2113,6 +2139,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2148,6 +2191,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2323,22 +2383,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="70.86328125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="70.81640625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2346,159 +2406,159 @@
         <v>156</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B5" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B11" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B13" s="20" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="4" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3">
         <v>2019</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" s="20"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" s="3">
         <v>2017</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1"/>
-    <hyperlink ref="B13" r:id="rId2"/>
-    <hyperlink ref="B19" r:id="rId3"/>
+    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B13" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -2506,26 +2566,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:AF33"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.3984375" customWidth="1"/>
-    <col min="2" max="2" width="15.73046875" customWidth="1"/>
-    <col min="3" max="3" width="19.1328125" customWidth="1"/>
+    <col min="1" max="1" width="45.36328125" customWidth="1"/>
+    <col min="2" max="2" width="15.7265625" customWidth="1"/>
+    <col min="3" max="3" width="19.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>2019</v>
       </c>
@@ -2623,66 +2683,66 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f>BAU!C92</f>
         <v>2745.8606136031603</v>
       </c>
       <c r="B3" s="2">
         <f>BAU!D92</f>
-        <v>2745.8606136031599</v>
+        <v>2745.8606136031603</v>
       </c>
       <c r="C3" s="2">
         <f>BAU!E92</f>
-        <v>2745.8606136031603</v>
+        <v>2745.8606136031599</v>
       </c>
       <c r="D3" s="2">
         <f>BAU!F92</f>
-        <v>1913.0458308533109</v>
+        <v>1913.0458308533071</v>
       </c>
       <c r="E3" s="2">
         <f>BAU!G92</f>
-        <v>1531.9111519939402</v>
+        <v>1531.911151993939</v>
       </c>
       <c r="F3" s="2">
         <f>BAU!H92</f>
-        <v>1131.4322818029341</v>
+        <v>933.18813916995873</v>
       </c>
       <c r="G3" s="2">
         <f>BAU!I92</f>
-        <v>933.18813916995919</v>
+        <v>933.18813916995794</v>
       </c>
       <c r="H3" s="2">
         <f>BAU!J92</f>
-        <v>933.18813916995953</v>
+        <v>744.00735890915064</v>
       </c>
       <c r="I3" s="2">
         <f>BAU!K92</f>
-        <v>744.00735890914916</v>
+        <v>744.00735890915098</v>
       </c>
       <c r="J3" s="2">
         <f>BAU!L92</f>
-        <v>744.00735890914984</v>
+        <v>414.07391374925612</v>
       </c>
       <c r="K3" s="2">
         <f>BAU!M92</f>
-        <v>621.92251501542137</v>
+        <v>154.75353065310316</v>
       </c>
       <c r="L3" s="2">
         <f>BAU!N92</f>
-        <v>240.24673989502756</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="M3" s="2">
         <f>BAU!O92</f>
-        <v>18.397272874844433</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="N3" s="2">
         <f>BAU!P92</f>
-        <v>18.397272874844436</v>
+        <v>18.397272874844433</v>
       </c>
       <c r="O3" s="2">
         <f>BAU!Q92</f>
-        <v>18.397272874844433</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="P3" s="2">
         <f>BAU!R92</f>
@@ -2690,15 +2750,15 @@
       </c>
       <c r="Q3" s="2">
         <f>BAU!S92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="R3" s="2">
         <f>BAU!T92</f>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="S3" s="2">
         <f>BAU!U92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="T3" s="2">
         <f>BAU!V92</f>
@@ -2753,25 +2813,25 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
@@ -2782,7 +2842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>2500</v>
       </c>
@@ -2793,7 +2853,7 @@
         <v>39250017</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>5000</v>
       </c>
@@ -2804,7 +2864,7 @@
         <v>5540545</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>3500</v>
       </c>
@@ -2815,7 +2875,7 @@
         <v>952065</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A12" s="5">
         <v>1500</v>
       </c>
@@ -2826,7 +2886,7 @@
         <v>4681666</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>2500</v>
       </c>
@@ -2837,7 +2897,7 @@
         <v>6811779</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>1500</v>
       </c>
@@ -2848,7 +2908,7 @@
         <v>3923561</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>2500</v>
       </c>
@@ -2859,15 +2919,15 @@
         <v>1056426</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B18" s="2" t="s">
         <v>23</v>
       </c>
@@ -2875,7 +2935,7 @@
         <v>323127513</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
         <v>24</v>
@@ -2885,263 +2945,256 @@
         <v>260911454</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f>SUMPRODUCT(A9:A15,C9:C15)/C18</f>
         <v>500.54031765472104</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>2019</v>
-      </c>
-      <c r="B25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A25" s="23"/>
+      <c r="C25">
         <v>2020</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2021</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2022</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>2023</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>2024</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>2025</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>2026</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>2027</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>2028</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>2029</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>2030</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>2031</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>2032</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>2033</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>2034</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>2035</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>2036</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>2037</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>2038</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2039</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>2040</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>2041</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>2042</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>2043</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>2044</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>2045</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>2046</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>2047</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>2048</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>2049</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>2050</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A26" s="2">
-        <f>A3+$A$22</f>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A26" s="23"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2">
+        <f>B3+$A$22</f>
         <v>3246.4009312578814</v>
       </c>
-      <c r="B26" s="2">
-        <f>B3+$A$22</f>
+      <c r="D26" s="2">
+        <f>C3+$A$22</f>
         <v>3246.400931257881</v>
       </c>
-      <c r="C26" s="2">
-        <f t="shared" ref="C26:AF26" si="0">C3+$A$22</f>
-        <v>3246.4009312578814</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>2413.5861485080318</v>
-      </c>
       <c r="E26" s="2">
-        <f t="shared" si="0"/>
-        <v>2032.4514696486613</v>
+        <f>D3+$A$22</f>
+        <v>2413.5861485080281</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="0"/>
-        <v>1631.9725994576552</v>
+        <f>E3+$A$22</f>
+        <v>2032.4514696486601</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="0"/>
-        <v>1433.7284568246803</v>
+        <f>F3+$A$22</f>
+        <v>1433.7284568246798</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="0"/>
-        <v>1433.7284568246805</v>
+        <f>G3+$A$22</f>
+        <v>1433.7284568246789</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="0"/>
-        <v>1244.5476765638703</v>
+        <f>H3+$A$22</f>
+        <v>1244.5476765638716</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>1244.5476765638709</v>
+        <f>I3+$A$22</f>
+        <v>1244.5476765638721</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="0"/>
-        <v>1122.4628326701425</v>
+        <f>J3+$A$22</f>
+        <v>914.6142314039771</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="0"/>
-        <v>740.78705754974862</v>
+        <f>K3+$A$22</f>
+        <v>655.29384830782419</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="0"/>
+        <f>L3+$A$22</f>
         <v>518.93759052956545</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="0"/>
+        <f>M3+$A$22</f>
         <v>518.93759052956545</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="0"/>
+        <f>N3+$A$22</f>
         <v>518.93759052956545</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="0"/>
+        <f>O3+$A$22</f>
         <v>518.93759052956545</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="0"/>
+        <f>P3+$A$22</f>
         <v>518.93759052956545</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="0"/>
-        <v>518.93759052956545</v>
+        <f>Q3+$A$22</f>
+        <v>500.54031765472104</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="0"/>
-        <v>518.93759052956545</v>
+        <f>R3+$A$22</f>
+        <v>500.54031765472104</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="0"/>
+        <f>S3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="0"/>
+        <f>T3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="0"/>
+        <f>U3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="0"/>
+        <f>V3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="0"/>
+        <f>W3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="0"/>
+        <f>X3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="0"/>
+        <f>Y3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="0"/>
+        <f>Z3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="0"/>
+        <f>AA3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="AC26" s="2">
-        <f t="shared" si="0"/>
+        <f>AB3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" si="0"/>
+        <f>AC3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" si="0"/>
+        <f>AD3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" si="0"/>
+        <f>AE3+$A$22</f>
         <v>500.54031765472104</v>
       </c>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="AG26" s="2">
+        <f>AF3+$A$22</f>
+        <v>500.54031765472104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>71</v>
       </c>
-      <c r="B28">
-        <v>2019</v>
-      </c>
       <c r="C28">
         <v>2020</v>
       </c>
@@ -3235,348 +3288,335 @@
       <c r="AG28">
         <v>2050</v>
       </c>
-      <c r="AH28">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.45">
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>170</v>
       </c>
-      <c r="B29">
-        <v>39357</v>
-      </c>
       <c r="C29">
-        <v>36818.400000000001</v>
+        <v>49996</v>
       </c>
       <c r="D29">
-        <v>35452.699999999997</v>
+        <v>46295.5</v>
       </c>
       <c r="E29">
-        <v>34556.1</v>
+        <v>43698.9</v>
       </c>
       <c r="F29">
-        <v>33882.300000000003</v>
+        <v>41819.800000000003</v>
       </c>
       <c r="G29">
-        <v>33343.5</v>
+        <v>40358.400000000001</v>
       </c>
       <c r="H29">
-        <v>32898.800000000003</v>
+        <v>39190.400000000001</v>
       </c>
       <c r="I29">
-        <v>32501.200000000001</v>
+        <v>37907.4</v>
       </c>
       <c r="J29">
-        <v>32141</v>
+        <v>36698.6</v>
       </c>
       <c r="K29">
-        <v>31816.799999999999</v>
+        <v>35256.300000000003</v>
       </c>
       <c r="L29">
-        <v>31525.3</v>
+        <v>34164.5</v>
       </c>
       <c r="M29">
-        <v>31263.8</v>
+        <v>33129.4</v>
       </c>
       <c r="N29">
-        <v>31031.599999999999</v>
+        <v>32501</v>
       </c>
       <c r="O29">
-        <v>30826.799999999999</v>
+        <v>31952.3</v>
       </c>
       <c r="P29">
-        <v>30648.5</v>
+        <v>31476.9</v>
       </c>
       <c r="Q29">
-        <v>30492.5</v>
+        <v>31063.599999999999</v>
       </c>
       <c r="R29">
-        <v>30356</v>
+        <v>30702</v>
       </c>
       <c r="S29">
-        <v>30234.7</v>
+        <v>30385</v>
       </c>
       <c r="T29">
-        <v>30127.7</v>
+        <v>30108.6</v>
       </c>
       <c r="U29">
-        <v>30032.6</v>
+        <v>29865.9</v>
       </c>
       <c r="V29">
-        <v>29947.1</v>
+        <v>29650.7</v>
       </c>
       <c r="W29">
-        <v>29869.4</v>
+        <v>29458.400000000001</v>
       </c>
       <c r="X29">
-        <v>29799.5</v>
+        <v>29288.1</v>
       </c>
       <c r="Y29">
-        <v>29736.2</v>
+        <v>29136</v>
       </c>
       <c r="Z29">
-        <v>29678.400000000001</v>
+        <v>28999.5</v>
       </c>
       <c r="AA29">
-        <v>29625.5</v>
+        <v>28876.3</v>
       </c>
       <c r="AB29">
-        <v>29576.799999999999</v>
+        <v>28764.5</v>
       </c>
       <c r="AC29">
-        <v>29531.7</v>
+        <v>28662.6</v>
       </c>
       <c r="AD29">
-        <v>29489.9</v>
+        <v>28569.3</v>
       </c>
       <c r="AE29">
-        <v>29451</v>
+        <v>28483.4</v>
       </c>
       <c r="AF29">
-        <v>29414.5</v>
+        <v>28404</v>
       </c>
       <c r="AG29">
-        <v>29380.400000000001</v>
-      </c>
-      <c r="AH29">
-        <v>40174.6</v>
-      </c>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.45">
+        <v>28330.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>2019</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="B32" s="23"/>
+      <c r="C32">
         <v>2020</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2021</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2022</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2023</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2024</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2025</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2026</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2027</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2028</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2029</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2030</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2031</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2032</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2033</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2034</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2035</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2036</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2037</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2038</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2039</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2040</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2041</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2042</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2043</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>2044</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2045</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>2046</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2047</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2048</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2049</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2050</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.45">
-      <c r="A33" s="10">
-        <f>A26/B29</f>
-        <v>8.2485985498332734E-2</v>
-      </c>
-      <c r="B33" s="10">
-        <f t="shared" ref="B33:AF33" si="1">B26/C29</f>
-        <v>8.817332994529585E-2</v>
-      </c>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="10">
-        <f t="shared" si="1"/>
-        <v>9.1569920803151295E-2</v>
+        <f>C26/C29</f>
+        <v>6.4933213282220209E-2</v>
       </c>
       <c r="D33" s="10">
-        <f t="shared" si="1"/>
-        <v>6.9845444031821649E-2</v>
+        <f>D26/D29</f>
+        <v>7.0123466238789539E-2</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="1"/>
-        <v>5.998564057483291E-2</v>
+        <f>E26/E29</f>
+        <v>5.5232194597759396E-2</v>
       </c>
       <c r="F33" s="10">
-        <f t="shared" si="1"/>
-        <v>4.8944249987483472E-2</v>
+        <f>F26/F29</f>
+        <v>4.860021974396482E-2</v>
       </c>
       <c r="G33" s="10">
-        <f t="shared" si="1"/>
-        <v>4.357996209055285E-2</v>
+        <f>G26/G29</f>
+        <v>3.5524908242761846E-2</v>
       </c>
       <c r="H33" s="10">
-        <f t="shared" si="1"/>
-        <v>4.4113092957327127E-2</v>
+        <f>H26/H29</f>
+        <v>3.6583664796089828E-2</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="1"/>
-        <v>3.8721498290777208E-2</v>
+        <f>I26/I29</f>
+        <v>3.2831259241305699E-2</v>
       </c>
       <c r="J33" s="10">
-        <f t="shared" si="1"/>
-        <v>3.9116054303508556E-2</v>
+        <f>J26/J29</f>
+        <v>3.3912674504310028E-2</v>
       </c>
       <c r="K33" s="10">
-        <f t="shared" si="1"/>
-        <v>3.5605143572627146E-2</v>
+        <f>K26/K29</f>
+        <v>2.5941866599841077E-2</v>
       </c>
       <c r="L33" s="10">
-        <f t="shared" si="1"/>
-        <v>2.3694722252245365E-2</v>
+        <f>L26/L29</f>
+        <v>1.9180548473059E-2</v>
       </c>
       <c r="M33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6722875730853886E-2</v>
+        <f>M26/M29</f>
+        <v>1.5663959822078438E-2</v>
       </c>
       <c r="N33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6833975324378966E-2</v>
+        <f>N26/N29</f>
+        <v>1.596681919108844E-2</v>
       </c>
       <c r="O33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6931908267274597E-2</v>
+        <f>O26/O29</f>
+        <v>1.6241008958026978E-2</v>
       </c>
       <c r="P33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7018532115423972E-2</v>
+        <f>P26/P29</f>
+        <v>1.6486299175889792E-2</v>
       </c>
       <c r="Q33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7095058325522647E-2</v>
+        <f>Q26/Q29</f>
+        <v>1.6705648750613755E-2</v>
       </c>
       <c r="R33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7163642785592893E-2</v>
+        <f>R26/R29</f>
+        <v>1.6303182778148687E-2</v>
       </c>
       <c r="S33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7224600302365115E-2</v>
+        <f>S26/S29</f>
+        <v>1.6473270286480865E-2</v>
       </c>
       <c r="T33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6666566253162266E-2</v>
+        <f>T26/T29</f>
+        <v>1.6624496577546648E-2</v>
       </c>
       <c r="U33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6714149872766346E-2</v>
+        <f>U26/U29</f>
+        <v>1.6759592634232386E-2</v>
       </c>
       <c r="V33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6757628799196535E-2</v>
+        <f>V26/V29</f>
+        <v>1.6881231055412553E-2</v>
       </c>
       <c r="W33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6796936782654776E-2</v>
+        <f>W26/W29</f>
+        <v>1.6991429190136634E-2</v>
       </c>
       <c r="X33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6832692733258488E-2</v>
+        <f>X26/X29</f>
+        <v>1.709022837448387E-2</v>
       </c>
       <c r="Y33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6865475148751988E-2</v>
+        <f>Y26/Y29</f>
+        <v>1.7179445279198277E-2</v>
       </c>
       <c r="Z33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6895590543778875E-2</v>
+        <f>Z26/Z29</f>
+        <v>1.7260308545137711E-2</v>
       </c>
       <c r="AA33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6923410161164189E-2</v>
+        <f>AA26/AA29</f>
+        <v>1.7333949212839633E-2</v>
       </c>
       <c r="AB33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6949255127700777E-2</v>
+        <f>AB26/AB29</f>
+        <v>1.7401321686617916E-2</v>
       </c>
       <c r="AC33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6973279585713107E-2</v>
+        <f>AC26/AC29</f>
+        <v>1.7463186091098541E-2</v>
       </c>
       <c r="AD33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.6995698538410275E-2</v>
+        <f>AD26/AD29</f>
+        <v>1.7520216374035103E-2</v>
       </c>
       <c r="AE33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7016788238954292E-2</v>
+        <f>AE26/AE29</f>
+        <v>1.7573053696353702E-2</v>
       </c>
       <c r="AF33" s="10">
-        <f t="shared" si="1"/>
-        <v>1.7036538564986214E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.45">
+        <f>AF26/AF29</f>
+        <v>1.7622177075578123E-2</v>
+      </c>
+      <c r="AG33" s="10">
+        <f>AG26/AG29</f>
+        <v>1.7668020375877454E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B45" s="13"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
@@ -3595,33 +3635,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.73046875" customWidth="1"/>
-    <col min="5" max="5" width="14.3984375" customWidth="1"/>
-    <col min="6" max="6" width="11.86328125" customWidth="1"/>
-    <col min="7" max="7" width="13.1328125" customWidth="1"/>
+    <col min="1" max="1" width="34.81640625" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7265625" customWidth="1"/>
+    <col min="5" max="5" width="14.36328125" customWidth="1"/>
+    <col min="6" max="6" width="11.81640625" customWidth="1"/>
+    <col min="7" max="7" width="13.08984375" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.73046875" customWidth="1"/>
-    <col min="10" max="10" width="11.86328125" customWidth="1"/>
+    <col min="9" max="9" width="10.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>44</v>
       </c>
@@ -3725,7 +3765,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>46</v>
       </c>
@@ -3743,130 +3783,130 @@
       </c>
       <c r="E3" s="14">
         <f t="shared" ref="E3:AI12" si="0">D3+SUMIFS(D$50:D$66,$A$50:$A$66,$A3)</f>
-        <v>55507.735430983172</v>
+        <v>54528.003922947893</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="0"/>
-        <v>79340.232996049992</v>
+        <v>88661.298603971649</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" si="0"/>
-        <v>110413.38853417023</v>
+        <v>130506.21440939343</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" si="0"/>
-        <v>149790.23315837886</v>
+        <v>182953.5680158</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" si="0"/>
-        <v>200274.5995346572</v>
+        <v>248400.3055570586</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>264097.84913334413</v>
+        <v>331239.78703352995</v>
       </c>
       <c r="K3" s="14">
         <f t="shared" si="0"/>
-        <v>346384.40278303844</v>
+        <v>439033.74767779524</v>
       </c>
       <c r="L3" s="14">
         <f t="shared" si="0"/>
-        <v>450571.97110545967</v>
+        <v>578232.88754216046</v>
       </c>
       <c r="M3" s="14">
         <f t="shared" si="0"/>
-        <v>581932.45794780226</v>
+        <v>761552.46415237268</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" si="0"/>
-        <v>744410.31319553417</v>
+        <v>994963.83105171076</v>
       </c>
       <c r="O3" s="14">
         <f t="shared" si="0"/>
-        <v>940687.35695218516</v>
+        <v>1285339.7930216619</v>
       </c>
       <c r="P3" s="14">
         <f t="shared" si="0"/>
-        <v>1172762.1923687391</v>
+        <v>1631472.0786122684</v>
       </c>
       <c r="Q3" s="14">
         <f t="shared" si="0"/>
-        <v>1442609.2336724203</v>
+        <v>2041815.8113197337</v>
       </c>
       <c r="R3" s="14">
         <f t="shared" si="0"/>
-        <v>1752049.591778944</v>
+        <v>2516089.481196905</v>
       </c>
       <c r="S3" s="14">
         <f t="shared" si="0"/>
-        <v>2098647.7677885396</v>
+        <v>3052304.3635715963</v>
       </c>
       <c r="T3" s="14">
         <f t="shared" si="0"/>
-        <v>2479718.5775751672</v>
+        <v>3642510.63248742</v>
       </c>
       <c r="U3" s="14">
         <f t="shared" si="0"/>
-        <v>2892241.4493082985</v>
+        <v>4281158.5051584514</v>
       </c>
       <c r="V3" s="14">
         <f t="shared" si="0"/>
-        <v>3333284.5572750391</v>
+        <v>4962675.3448045747</v>
       </c>
       <c r="W3" s="14">
         <f t="shared" si="0"/>
-        <v>3799378.9535017945</v>
+        <v>5680140.0221939655</v>
       </c>
       <c r="X3" s="14">
         <f t="shared" si="0"/>
-        <v>4286186.6508666556</v>
+        <v>6426704.8826181851</v>
       </c>
       <c r="Y3" s="14">
         <f t="shared" si="0"/>
-        <v>4792010.6869036667</v>
+        <v>7198446.9418592071</v>
       </c>
       <c r="Z3" s="14">
         <f t="shared" si="0"/>
-        <v>5314229.2599426433</v>
+        <v>7991011.5528741237</v>
       </c>
       <c r="AA3" s="14">
         <f t="shared" si="0"/>
-        <v>5850426.1474667676</v>
+        <v>8799986.2928683516</v>
       </c>
       <c r="AB3" s="14">
         <f t="shared" si="0"/>
-        <v>6399312.3414858505</v>
+        <v>9623191.3820500337</v>
       </c>
       <c r="AC3" s="14">
         <f t="shared" si="0"/>
-        <v>6958887.5835362449</v>
+        <v>10458437.322340062</v>
       </c>
       <c r="AD3" s="14">
         <f t="shared" si="0"/>
-        <v>7527674.373572859</v>
+        <v>11304013.001019066</v>
       </c>
       <c r="AE3" s="14">
         <f t="shared" si="0"/>
-        <v>8105444.7056255974</v>
+        <v>12158541.411539782</v>
       </c>
       <c r="AF3" s="14">
         <f t="shared" si="0"/>
-        <v>8691681.160994174</v>
+        <v>13021127.723914653</v>
       </c>
       <c r="AG3" s="14">
         <f t="shared" si="0"/>
-        <v>9285153.4685893618</v>
+        <v>13891264.130936278</v>
       </c>
       <c r="AH3" s="14">
         <f t="shared" si="0"/>
-        <v>9885420.0337102972</v>
+        <v>14769140.512986312</v>
       </c>
       <c r="AI3" s="14">
         <f t="shared" si="0"/>
-        <v>10491284.759464676</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
+        <v>15654024.954881592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>47</v>
       </c>
@@ -3884,130 +3924,130 @@
       </c>
       <c r="E4" s="14">
         <f t="shared" si="2"/>
-        <v>18097.8441101672</v>
+        <v>17842.031762350522</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="2"/>
-        <v>24320.617499053082</v>
+        <v>26754.39007629457</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" si="2"/>
-        <v>32433.959580109302</v>
+        <v>37680.287700881985</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" si="2"/>
-        <v>42715.432606460687</v>
+        <v>51374.530003787673</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="2"/>
-        <v>55897.130025431521</v>
+        <v>68462.97051025377</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="2"/>
-        <v>72561.670454340492</v>
+        <v>90092.735476074522</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" si="0"/>
-        <v>94047.063452554867</v>
+        <v>118238.22832458561</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" si="0"/>
-        <v>121250.9108814458</v>
+        <v>154583.75614595169</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" si="0"/>
-        <v>155549.73078657358</v>
+        <v>202449.3304474866</v>
       </c>
       <c r="N4" s="14">
         <f t="shared" si="0"/>
-        <v>197973.43695326732</v>
+        <v>263394.09876810416</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" si="0"/>
-        <v>249222.26479447359</v>
+        <v>339212.58166044403</v>
       </c>
       <c r="P4" s="14">
         <f t="shared" si="0"/>
-        <v>309818.05867287121</v>
+        <v>429589.29395956203</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" si="0"/>
-        <v>380276.3471132514</v>
+        <v>536731.90682322381</v>
       </c>
       <c r="R4" s="14">
         <f t="shared" si="0"/>
-        <v>461072.63044929021</v>
+        <v>660566.91672528535</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" si="0"/>
-        <v>551570.98885341699</v>
+        <v>800575.0586187616</v>
       </c>
       <c r="T4" s="14">
         <f t="shared" si="0"/>
-        <v>651070.30855112453</v>
+        <v>954680.59682917595</v>
       </c>
       <c r="U4" s="14">
         <f t="shared" si="0"/>
-        <v>758781.90451454639</v>
+        <v>1121434.4578576195</v>
       </c>
       <c r="V4" s="14">
         <f t="shared" si="0"/>
-        <v>873940.26373031759</v>
+        <v>1299381.6009234709</v>
       </c>
       <c r="W4" s="14">
         <f t="shared" si="0"/>
-        <v>995639.62812257628</v>
+        <v>1486714.8877405624</v>
       </c>
       <c r="X4" s="14">
         <f t="shared" si="0"/>
-        <v>1122747.3295456595</v>
+        <v>1681646.3645545878</v>
       </c>
       <c r="Y4" s="14">
         <f t="shared" si="0"/>
-        <v>1254820.2833901483</v>
+        <v>1883151.7223635085</v>
       </c>
       <c r="Z4" s="14">
         <f t="shared" si="0"/>
-        <v>1391173.9253287159</v>
+        <v>2090093.9430406003</v>
       </c>
       <c r="AA4" s="14">
         <f t="shared" si="0"/>
-        <v>1531177.3686849556</v>
+        <v>2301320.9229478925</v>
       </c>
       <c r="AB4" s="14">
         <f t="shared" si="0"/>
-        <v>1674494.0476164708</v>
+        <v>2516263.5116786612</v>
       </c>
       <c r="AC4" s="14">
         <f t="shared" si="0"/>
-        <v>1820601.685550926</v>
+        <v>2734350.0213372293</v>
       </c>
       <c r="AD4" s="14">
         <f t="shared" si="0"/>
-        <v>1969114.5005140412</v>
+        <v>2955133.6726187258</v>
       </c>
       <c r="AE4" s="14">
         <f t="shared" si="0"/>
-        <v>2119972.9591111587</v>
+        <v>3178254.9228577102</v>
       </c>
       <c r="AF4" s="14">
         <f t="shared" si="0"/>
-        <v>2273041.9609689224</v>
+        <v>3403480.1278790836</v>
       </c>
       <c r="AG4" s="14">
         <f t="shared" si="0"/>
-        <v>2428000.2767166272</v>
+        <v>3630676.6969139483</v>
       </c>
       <c r="AH4" s="14">
         <f t="shared" si="0"/>
-        <v>2584732.6039716457</v>
+        <v>3859894.208592609</v>
       </c>
       <c r="AI4" s="14">
         <f t="shared" si="0"/>
-        <v>2742926.6364013483</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
+        <v>4090941.5565355415</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -4025,130 +4065,130 @@
       </c>
       <c r="E5" s="14">
         <f t="shared" si="2"/>
-        <v>112921.46802121098</v>
+        <v>111989.06014284941</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="2"/>
-        <v>135602.79276013203</v>
+        <v>144473.62618364807</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="2"/>
-        <v>165175.03249283048</v>
+        <v>184297.32160056275</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="2"/>
-        <v>202649.87111087062</v>
+        <v>234211.3289594719</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="2"/>
-        <v>250695.70872788268</v>
+        <v>296496.81554028462</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="2"/>
-        <v>311436.12613855669</v>
+        <v>375334.93040600256</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" si="0"/>
-        <v>389748.02105766279</v>
+        <v>477922.15692693397</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="0"/>
-        <v>488903.05356852978</v>
+        <v>610397.60923831677</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" si="0"/>
-        <v>613918.4805836624</v>
+        <v>784862.36421189317</v>
       </c>
       <c r="N5" s="14">
         <f t="shared" si="0"/>
-        <v>768548.22460003966</v>
+        <v>1006999.3431812852</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" si="0"/>
-        <v>955344.56669913244</v>
+        <v>1283349.3762332485</v>
       </c>
       <c r="P5" s="14">
         <f t="shared" si="0"/>
-        <v>1176209.5722002778</v>
+        <v>1612762.5546326858</v>
       </c>
       <c r="Q5" s="14">
         <f t="shared" si="0"/>
-        <v>1433022.2858882095</v>
+        <v>2003285.5969915048</v>
       </c>
       <c r="R5" s="14">
         <f t="shared" si="0"/>
-        <v>1727515.8541925941</v>
+        <v>2454650.5910394462</v>
       </c>
       <c r="S5" s="14">
         <f t="shared" si="0"/>
-        <v>2057372.4192684377</v>
+        <v>2964964.8727792511</v>
       </c>
       <c r="T5" s="14">
         <f t="shared" si="0"/>
-        <v>2420036.4985029669</v>
+        <v>3526662.6139278179</v>
       </c>
       <c r="U5" s="14">
         <f t="shared" si="0"/>
-        <v>2812633.4216943528</v>
+        <v>4134462.1009234712</v>
       </c>
       <c r="V5" s="14">
         <f t="shared" si="0"/>
-        <v>3232372.9780856017</v>
+        <v>4783059.8701188611</v>
       </c>
       <c r="W5" s="14">
         <f t="shared" si="0"/>
-        <v>3675953.7790884334</v>
+        <v>5465869.1011759825</v>
       </c>
       <c r="X5" s="14">
         <f t="shared" si="0"/>
-        <v>4139247.3738614433</v>
+        <v>6176372.8992659124</v>
       </c>
       <c r="Y5" s="14">
         <f t="shared" si="0"/>
-        <v>4620638.7677254118</v>
+        <v>6910837.770710459</v>
       </c>
       <c r="Z5" s="14">
         <f t="shared" si="0"/>
-        <v>5117632.7989827394</v>
+        <v>7665119.4094655765</v>
       </c>
       <c r="AA5" s="14">
         <f t="shared" si="0"/>
-        <v>5627929.9550709743</v>
+        <v>8435018.5244575497</v>
       </c>
       <c r="AB5" s="14">
         <f t="shared" si="0"/>
-        <v>6150303.490503761</v>
+        <v>9218460.6250383258</v>
       </c>
       <c r="AC5" s="14">
         <f t="shared" si="0"/>
-        <v>6682849.76460509</v>
+        <v>10013361.971691646</v>
       </c>
       <c r="AD5" s="14">
         <f t="shared" si="0"/>
-        <v>7224162.6444997564</v>
+        <v>10818094.102979636</v>
       </c>
       <c r="AE5" s="14">
         <f t="shared" si="0"/>
-        <v>7774025.1375105968</v>
+        <v>11631346.525422506</v>
       </c>
       <c r="AF5" s="14">
         <f t="shared" si="0"/>
-        <v>8331944.8176325243</v>
+        <v>12452267.631693812</v>
       </c>
       <c r="AG5" s="14">
         <f t="shared" si="0"/>
-        <v>8896750.8391320817</v>
+        <v>13280374.14302076</v>
       </c>
       <c r="AH5" s="14">
         <f t="shared" si="0"/>
-        <v>9468022.9375033826</v>
+        <v>14115846.768059088</v>
       </c>
       <c r="AI5" s="14">
         <f t="shared" si="0"/>
-        <v>10044622.790505566</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
+        <v>14957988.945069712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -4166,130 +4206,130 @@
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>41125.01655754559</v>
+        <v>41080.009469184573</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>42219.838266327584</v>
+        <v>42648.031113035016</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>43647.282668686763</v>
+        <v>44570.31064336346</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>45456.18348574212</v>
+        <v>46979.646934689685</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>47775.34370434501</v>
+        <v>49986.15134462421</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>50707.268023014636</v>
+        <v>53791.646862543515</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="0"/>
-        <v>54487.363039518073</v>
+        <v>58743.505888930973</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="0"/>
-        <v>59273.550944212984</v>
+        <v>65138.061883375718</v>
       </c>
       <c r="M6" s="14">
         <f t="shared" si="0"/>
-        <v>65308.013437223824</v>
+        <v>73559.430712623769</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" si="0"/>
-        <v>72771.951391519222</v>
+        <v>84281.925527117928</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="0"/>
-        <v>81788.562758148008</v>
+        <v>97621.27051205741</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="0"/>
-        <v>92449.659740634524</v>
+        <v>113521.95986869396</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="0"/>
-        <v>104845.94334722147</v>
+        <v>132372.40663384015</v>
       </c>
       <c r="R6" s="14">
         <f t="shared" si="0"/>
-        <v>119061.07211009506</v>
+        <v>154159.67875114983</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="0"/>
-        <v>134983.16362750935</v>
+        <v>178792.41781649622</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="0"/>
-        <v>152488.86541132335</v>
+        <v>205905.42324549536</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="0"/>
-        <v>171439.41787060586</v>
+        <v>235243.74808361739</v>
       </c>
       <c r="V6" s="14">
         <f t="shared" si="0"/>
-        <v>191700.13825009469</v>
+        <v>266551.39550529374</v>
       </c>
       <c r="W6" s="14">
         <f t="shared" si="0"/>
-        <v>213111.66937214797</v>
+        <v>299510.42138773156</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" si="0"/>
-        <v>235474.73197698538</v>
+        <v>333806.25689446821</v>
       </c>
       <c r="Y6" s="14">
         <f t="shared" si="0"/>
-        <v>258711.37068701189</v>
+        <v>369258.68724636117</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="0"/>
-        <v>282701.1446891402</v>
+        <v>405667.66785707849</v>
       </c>
       <c r="AA6" s="14">
         <f t="shared" si="0"/>
-        <v>307333.05710369209</v>
+        <v>442830.50002705486</v>
       </c>
       <c r="AB6" s="14">
         <f t="shared" si="0"/>
-        <v>332547.8932417077</v>
+        <v>480647.04862651735</v>
       </c>
       <c r="AC6" s="14">
         <f t="shared" si="0"/>
-        <v>358253.76485760149</v>
+        <v>519016.73208520468</v>
       </c>
       <c r="AD6" s="14">
         <f t="shared" si="0"/>
-        <v>384382.79827931389</v>
+        <v>557860.94498854689</v>
       </c>
       <c r="AE6" s="14">
         <f t="shared" si="0"/>
-        <v>410924.51932615478</v>
+        <v>597116.43015349109</v>
       </c>
       <c r="AF6" s="14">
         <f t="shared" si="0"/>
-        <v>437855.15872156987</v>
+        <v>636742.08071352576</v>
       </c>
       <c r="AG6" s="14">
         <f t="shared" si="0"/>
-        <v>465118.20004328765</v>
+        <v>676714.56892664556</v>
       </c>
       <c r="AH6" s="14">
         <f t="shared" si="0"/>
-        <v>492693.35723175149</v>
+        <v>717042.61755316285</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="0"/>
-        <v>520525.68376530847</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
+        <v>757692.60373717162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>50</v>
       </c>
@@ -4307,130 +4347,130 @@
       </c>
       <c r="E7" s="14">
         <f t="shared" si="2"/>
-        <v>128260.30341972837</v>
+        <v>127775.31894919106</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="2"/>
-        <v>140057.81234781668</v>
+        <v>144671.90511877064</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="2"/>
-        <v>155439.57537470915</v>
+        <v>165385.88049889077</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="2"/>
-        <v>174931.81175261078</v>
+        <v>191348.2506087333</v>
       </c>
       <c r="I7" s="14">
         <f t="shared" si="2"/>
-        <v>199922.46837292353</v>
+        <v>223745.54629078513</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="2"/>
-        <v>231516.10873329363</v>
+        <v>264752.55865483469</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="0"/>
-        <v>272249.41201774793</v>
+        <v>318112.48073697311</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="0"/>
-        <v>323824.10594664788</v>
+        <v>387018.5234565229</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="0"/>
-        <v>388849.87641361397</v>
+        <v>477764.96477463341</v>
       </c>
       <c r="N7" s="14">
         <f t="shared" si="0"/>
-        <v>469279.29606081918</v>
+        <v>593307.73058817163</v>
       </c>
       <c r="O7" s="14">
         <f t="shared" si="0"/>
-        <v>566439.91339754337</v>
+        <v>737048.9811427953</v>
       </c>
       <c r="P7" s="14">
         <f t="shared" si="0"/>
-        <v>681321.07242573448</v>
+        <v>908390.60064390453</v>
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="0"/>
-        <v>814900.14320112544</v>
+        <v>1111518.0251609762</v>
       </c>
       <c r="R7" s="14">
         <f t="shared" si="0"/>
-        <v>968078.60792164924</v>
+        <v>1346291.9022780154</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="0"/>
-        <v>1139650.8514420216</v>
+        <v>1611727.778015259</v>
       </c>
       <c r="T7" s="14">
         <f t="shared" si="0"/>
-        <v>1328287.6600021643</v>
+        <v>1903890.3475461286</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="0"/>
-        <v>1532493.7969806828</v>
+        <v>2220032.3699745685</v>
       </c>
       <c r="V7" s="14">
         <f t="shared" si="0"/>
-        <v>1750817.9566581894</v>
+        <v>2557395.2912721173</v>
       </c>
       <c r="W7" s="14">
         <f t="shared" si="0"/>
-        <v>1981542.9482711973</v>
+        <v>2912553.0297332397</v>
       </c>
       <c r="X7" s="14">
         <f t="shared" si="0"/>
-        <v>2222521.3912667064</v>
+        <v>3282115.8748444351</v>
       </c>
       <c r="Y7" s="14">
         <f t="shared" si="0"/>
-        <v>2472913.2591309994</v>
+        <v>3664141.8798495755</v>
       </c>
       <c r="Z7" s="14">
         <f t="shared" si="0"/>
-        <v>2731420.7135436395</v>
+        <v>4056475.417239327</v>
       </c>
       <c r="AA7" s="14">
         <f t="shared" si="0"/>
-        <v>2996847.6815107409</v>
+        <v>4456932.2594827125</v>
       </c>
       <c r="AB7" s="14">
         <f t="shared" si="0"/>
-        <v>3268556.0812185491</v>
+        <v>4864433.3769276561</v>
       </c>
       <c r="AC7" s="14">
         <f t="shared" si="0"/>
-        <v>3545555.7492559929</v>
+        <v>5277894.9291975554</v>
       </c>
       <c r="AD7" s="14">
         <f t="shared" si="0"/>
-        <v>3827115.2968995189</v>
+        <v>5696469.8851523194</v>
       </c>
       <c r="AE7" s="14">
         <f t="shared" si="0"/>
-        <v>4113121.8571505877</v>
+        <v>6119476.6021319199</v>
       </c>
       <c r="AF7" s="14">
         <f t="shared" si="0"/>
-        <v>4403319.2985769175</v>
+        <v>6546472.1234240578</v>
       </c>
       <c r="AG7" s="14">
         <f t="shared" si="0"/>
-        <v>4697098.6151723396</v>
+        <v>6977205.0754558742</v>
       </c>
       <c r="AH7" s="14">
         <f t="shared" si="0"/>
-        <v>4994241.2097289115</v>
+        <v>7411769.4523835294</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" si="0"/>
-        <v>5294154.9930739682</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
+        <v>7849802.9432119476</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -4448,130 +4488,130 @@
       </c>
       <c r="E8" s="14">
         <f t="shared" si="2"/>
-        <v>268444.48741951195</v>
+        <v>266440.01731508039</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="2"/>
-        <v>317204.30425842758</v>
+        <v>336274.62832097837</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="2"/>
-        <v>380778.05973702722</v>
+        <v>421886.73946215038</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="2"/>
-        <v>461340.64980249986</v>
+        <v>529190.78296628979</v>
       </c>
       <c r="I8" s="14">
         <f t="shared" si="2"/>
-        <v>564628.54277365946</v>
+        <v>663090.76245874143</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="2"/>
-        <v>695206.96628970292</v>
+        <v>832575.22092960344</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="0"/>
-        <v>863560.1686055949</v>
+        <v>1053115.0012445215</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="0"/>
-        <v>1076721.4931551323</v>
+        <v>1337907.8369676967</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" si="0"/>
-        <v>1345476.9293328284</v>
+        <v>1712968.3590173693</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" si="0"/>
-        <v>1677896.5777825876</v>
+        <v>2190513.5876305397</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" si="0"/>
-        <v>2079467.2766625183</v>
+        <v>2784604.8565553813</v>
       </c>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>2554278.0444781128</v>
+        <v>3492770.1170932311</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="0"/>
-        <v>3106368.4106920622</v>
+        <v>4332308.0292733079</v>
       </c>
       <c r="R8" s="14">
         <f t="shared" si="0"/>
-        <v>3739464.2556679836</v>
+        <v>5302642.6411449602</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="0"/>
-        <v>4448582.6992045883</v>
+        <v>6399705.1449596891</v>
       </c>
       <c r="T8" s="14">
         <f t="shared" si="0"/>
-        <v>5228230.0205616578</v>
+        <v>7607230.6882203352</v>
       </c>
       <c r="U8" s="14">
         <f t="shared" si="0"/>
-        <v>6072226.3164872034</v>
+        <v>8913864.7584005203</v>
       </c>
       <c r="V8" s="14">
         <f t="shared" si="0"/>
-        <v>6974573.2528001731</v>
+        <v>10308206.085114442</v>
       </c>
       <c r="W8" s="14">
         <f t="shared" si="0"/>
-        <v>7928173.5763757378</v>
+        <v>11776094.465775661</v>
       </c>
       <c r="X8" s="14">
         <f t="shared" si="0"/>
-        <v>8924152.0337102972</v>
+        <v>13303520.022130836</v>
       </c>
       <c r="Y8" s="14">
         <f t="shared" si="0"/>
-        <v>9959036.744494345</v>
+        <v>14882456.570964774</v>
       </c>
       <c r="Z8" s="14">
         <f t="shared" si="0"/>
-        <v>11027463.664574428</v>
+        <v>16503994.773605324</v>
       </c>
       <c r="AA8" s="14">
         <f t="shared" si="0"/>
-        <v>12124489.352037227</v>
+        <v>18159107.085763756</v>
       </c>
       <c r="AB8" s="14">
         <f t="shared" si="0"/>
-        <v>13247476.576213408</v>
+        <v>19843333.812726583</v>
       </c>
       <c r="AC8" s="14">
         <f t="shared" si="0"/>
-        <v>14392332.931930091</v>
+        <v>21552195.376765326</v>
       </c>
       <c r="AD8" s="14">
         <f t="shared" si="0"/>
-        <v>15556035.545425031</v>
+        <v>23282190.947026674</v>
       </c>
       <c r="AE8" s="14">
         <f t="shared" si="0"/>
-        <v>16738117.930577351</v>
+        <v>25030503.253233049</v>
       </c>
       <c r="AF8" s="14">
         <f t="shared" si="0"/>
-        <v>17937521.480709918</v>
+        <v>26795301.528542828</v>
       </c>
       <c r="AG8" s="14">
         <f t="shared" si="0"/>
-        <v>19151729.137222011</v>
+        <v>28575546.8307992</v>
       </c>
       <c r="AH8" s="14">
         <f t="shared" si="0"/>
-        <v>20379837.424652345</v>
+        <v>30371627.643525783</v>
       </c>
       <c r="AI8" s="14">
         <f t="shared" si="0"/>
-        <v>21619399.202694658</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
+        <v>32182046.513500351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>52</v>
       </c>
@@ -4589,130 +4629,130 @@
       </c>
       <c r="E9" s="14">
         <f t="shared" si="2"/>
-        <v>13938.310264596072</v>
+        <v>13774.497700340889</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" si="2"/>
-        <v>17923.139278177587</v>
+        <v>19481.635301120066</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>23118.61706617607</v>
+        <v>26478.167415183158</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="2"/>
-        <v>29702.484010605483</v>
+        <v>35247.442887289646</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="2"/>
-        <v>38143.545100373354</v>
+        <v>46190.234673448402</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="2"/>
-        <v>48814.887289648825</v>
+        <v>60041.119095287046</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="0"/>
-        <v>62573.321357069421</v>
+        <v>78064.429522211998</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="0"/>
-        <v>79993.637627833989</v>
+        <v>101338.7325902278</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="0"/>
-        <v>101957.30626048373</v>
+        <v>131990.03825550564</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" si="0"/>
-        <v>129123.84513825009</v>
+        <v>171016.76570531895</v>
       </c>
       <c r="O9" s="14">
         <f t="shared" si="0"/>
-        <v>161941.6585682593</v>
+        <v>219568.0581137384</v>
       </c>
       <c r="P9" s="14">
         <f t="shared" si="0"/>
-        <v>200744.91596775065</v>
+        <v>277441.89069855522</v>
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="0"/>
-        <v>245863.74232996049</v>
+        <v>346051.97267463873</v>
       </c>
       <c r="R9" s="14">
         <f t="shared" si="0"/>
-        <v>297602.63010659593</v>
+        <v>425351.23516043497</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="0"/>
-        <v>355554.36026189057</v>
+        <v>515007.1604350413</v>
       </c>
       <c r="T9" s="14">
         <f t="shared" si="0"/>
-        <v>419269.96601915476</v>
+        <v>613690.52578323672</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="0"/>
-        <v>488244.40327904327</v>
+        <v>720473.39927493082</v>
       </c>
       <c r="V9" s="14">
         <f t="shared" si="0"/>
-        <v>561987.46642497694</v>
+        <v>834424.02775823802</v>
       </c>
       <c r="W9" s="14">
         <f t="shared" si="0"/>
-        <v>639919.14220009733</v>
+        <v>954385.18813916983</v>
       </c>
       <c r="X9" s="14">
         <f t="shared" si="0"/>
-        <v>721314.11271035112</v>
+        <v>1079211.942373248</v>
       </c>
       <c r="Y9" s="14">
         <f t="shared" si="0"/>
-        <v>805888.64330934465</v>
+        <v>1208248.3616687406</v>
       </c>
       <c r="Z9" s="14">
         <f t="shared" si="0"/>
-        <v>893204.36486120871</v>
+        <v>1340766.3425680427</v>
       </c>
       <c r="AA9" s="14">
         <f t="shared" si="0"/>
-        <v>982857.28137005563</v>
+        <v>1476028.1214220007</v>
       </c>
       <c r="AB9" s="14">
         <f t="shared" si="0"/>
-        <v>1074631.8687841566</v>
+        <v>1613669.2358097504</v>
       </c>
       <c r="AC9" s="14">
         <f t="shared" si="0"/>
-        <v>1168193.6809155347</v>
+        <v>1753323.5983983548</v>
       </c>
       <c r="AD9" s="14">
         <f t="shared" si="0"/>
-        <v>1263295.6775607378</v>
+        <v>1894705.1085980195</v>
       </c>
       <c r="AE9" s="14">
         <f t="shared" si="0"/>
-        <v>1359899.7357826955</v>
+        <v>2037583.5288674855</v>
       </c>
       <c r="AF9" s="14">
         <f t="shared" si="0"/>
-        <v>1457919.3424057136</v>
+        <v>2181809.2423029058</v>
       </c>
       <c r="AG9" s="14">
         <f t="shared" si="0"/>
-        <v>1557148.7942752012</v>
+        <v>2327297.3427844816</v>
       </c>
       <c r="AH9" s="14">
         <f t="shared" si="0"/>
-        <v>1657514.25610086</v>
+        <v>2474079.578594232</v>
       </c>
       <c r="AI9" s="14">
         <f t="shared" si="0"/>
-        <v>1758815.7387046153</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
+        <v>2622033.5724257347</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -4730,130 +4770,130 @@
       </c>
       <c r="E10" s="14">
         <f t="shared" si="2"/>
-        <v>21960.984876359504</v>
+        <v>21662.316514257887</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="2"/>
-        <v>29226.253936475296</v>
+        <v>32067.754261133057</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="2"/>
-        <v>38698.8169741897</v>
+        <v>44824.057762025863</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="2"/>
-        <v>50702.735999134238</v>
+        <v>60812.484254098803</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" si="2"/>
-        <v>66092.751420377681</v>
+        <v>80763.735945024615</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="2"/>
-        <v>85549.087432137501</v>
+        <v>106017.11612827588</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="0"/>
-        <v>110633.9091409195</v>
+        <v>138877.79827029561</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="0"/>
-        <v>142395.19284670742</v>
+        <v>181312.25992460724</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" si="0"/>
-        <v>182440.06343451832</v>
+        <v>237196.71116281583</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="0"/>
-        <v>231970.9752268095</v>
+        <v>308351.50211929367</v>
       </c>
       <c r="O10" s="14">
         <f t="shared" si="0"/>
-        <v>291805.47345021012</v>
+        <v>396871.78777302813</v>
       </c>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
-        <v>362552.82658766658</v>
+        <v>502389.23001100228</v>
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="0"/>
-        <v>444814.92919755424</v>
+        <v>627481.34916941717</v>
       </c>
       <c r="R10" s="14">
         <f t="shared" si="0"/>
-        <v>539146.94176000578</v>
+        <v>772062.32774200523</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="0"/>
-        <v>644806.40936637623</v>
+        <v>935525.90867196932</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" si="0"/>
-        <v>760974.7612773478</v>
+        <v>1115448.6101401439</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="0"/>
-        <v>886731.18476633646</v>
+        <v>1310138.5966578287</v>
       </c>
       <c r="V10" s="14">
         <f t="shared" si="0"/>
-        <v>1021181.9211081651</v>
+        <v>1517897.0657612321</v>
       </c>
       <c r="W10" s="14">
         <f t="shared" si="0"/>
-        <v>1163269.4713850259</v>
+        <v>1736614.1309002037</v>
       </c>
       <c r="X10" s="14">
         <f t="shared" si="0"/>
-        <v>1311671.4125678623</v>
+        <v>1964202.3040239525</v>
       </c>
       <c r="Y10" s="14">
         <f t="shared" si="0"/>
-        <v>1465870.4304781486</v>
+        <v>2199465.6745576537</v>
       </c>
       <c r="Z10" s="14">
         <f t="shared" si="0"/>
-        <v>1625067.2763378604</v>
+        <v>2441076.7407427449</v>
       </c>
       <c r="AA10" s="14">
         <f t="shared" si="0"/>
-        <v>1788525.3715888388</v>
+        <v>2687690.3880471839</v>
       </c>
       <c r="AB10" s="14">
         <f t="shared" si="0"/>
-        <v>1955851.7658135379</v>
+        <v>2938642.1168046463</v>
       </c>
       <c r="AC10" s="14">
         <f t="shared" si="0"/>
-        <v>2126436.6859116568</v>
+        <v>3193264.4647565968</v>
       </c>
       <c r="AD10" s="14">
         <f t="shared" si="0"/>
-        <v>2299829.720199123</v>
+        <v>3451035.8040600256</v>
       </c>
       <c r="AE10" s="14">
         <f t="shared" si="0"/>
-        <v>2475961.3617048133</v>
+        <v>3711536.358187688</v>
       </c>
       <c r="AF10" s="14">
         <f t="shared" si="0"/>
-        <v>2654673.876810417</v>
+        <v>3974493.3407643884</v>
       </c>
       <c r="AG10" s="14">
         <f t="shared" si="0"/>
-        <v>2835592.2208754928</v>
+        <v>4239751.9482080694</v>
       </c>
       <c r="AH10" s="14">
         <f t="shared" si="0"/>
-        <v>3018581.7750121737</v>
+        <v>4507370.0650127158</v>
       </c>
       <c r="AI10" s="14">
         <f t="shared" si="0"/>
-        <v>3203277.9124866971</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
+        <v>4777124.5689176274</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>54</v>
       </c>
@@ -4871,130 +4911,130 @@
       </c>
       <c r="E11" s="14">
         <f t="shared" si="2"/>
-        <v>32915.045262702231</v>
+        <v>32452.233401872192</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="2"/>
-        <v>44173.193496022941</v>
+        <v>48576.338320437208</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="2"/>
-        <v>58851.730236459065</v>
+        <v>68343.308343704353</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="2"/>
-        <v>77452.816947134896</v>
+        <v>93118.726015908236</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="2"/>
-        <v>101300.94610681239</v>
+        <v>124034.87614306586</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="2"/>
-        <v>131450.18257489672</v>
+        <v>163167.12233284634</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="0"/>
-        <v>170321.23316739712</v>
+        <v>214087.52562992621</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="0"/>
-        <v>219538.02570207237</v>
+        <v>279843.30914633046</v>
       </c>
       <c r="M11" s="14">
         <f t="shared" si="0"/>
-        <v>281590.93597027572</v>
+        <v>366440.98787944374</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="0"/>
-        <v>358343.26853705599</v>
+        <v>476701.34815937089</v>
       </c>
       <c r="O11" s="14">
         <f t="shared" si="0"/>
-        <v>451061.87880345574</v>
+        <v>613871.00964053173</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="0"/>
-        <v>560690.87975939247</v>
+        <v>777379.20129682741</v>
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="0"/>
-        <v>688162.95787565596</v>
+        <v>971220.00865754019</v>
       </c>
       <c r="R11" s="14">
         <f t="shared" si="0"/>
-        <v>834338.38122035237</v>
+        <v>1195260.4502461988</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="0"/>
-        <v>998066.65318435139</v>
+        <v>1448561.079532132</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="0"/>
-        <v>1178079.3292480565</v>
+        <v>1727366.5066825387</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="0"/>
-        <v>1372949.5322944284</v>
+        <v>2029055.0896686686</v>
       </c>
       <c r="V11" s="14">
         <f t="shared" si="0"/>
-        <v>1581292.3076673339</v>
+        <v>2350994.3905452443</v>
       </c>
       <c r="W11" s="14">
         <f t="shared" si="0"/>
-        <v>1801468.9714481537</v>
+        <v>2689914.961843695</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="0"/>
-        <v>2031430.3174251029</v>
+        <v>3042582.0644626007</v>
       </c>
       <c r="Y11" s="14">
         <f t="shared" si="0"/>
-        <v>2270374.7235719566</v>
+        <v>3407142.5339267352</v>
       </c>
       <c r="Z11" s="14">
         <f t="shared" si="0"/>
-        <v>2517063.6863806071</v>
+        <v>3781539.2941038539</v>
       </c>
       <c r="AA11" s="14">
         <f t="shared" si="0"/>
-        <v>2770355.8151434804</v>
+        <v>4163687.9763811477</v>
       </c>
       <c r="AB11" s="14">
         <f t="shared" si="0"/>
-        <v>3029642.1999891778</v>
+        <v>4552558.8823837088</v>
       </c>
       <c r="AC11" s="14">
         <f t="shared" si="0"/>
-        <v>3293977.9459805563</v>
+        <v>4947117.7229496958</v>
       </c>
       <c r="AD11" s="14">
         <f t="shared" si="0"/>
-        <v>3562665.1021589739</v>
+        <v>5346556.1916653132</v>
       </c>
       <c r="AE11" s="14">
         <f t="shared" si="0"/>
-        <v>3835595.9616002017</v>
+        <v>5750223.8093357133</v>
       </c>
       <c r="AF11" s="14">
         <f t="shared" si="0"/>
-        <v>4112526.1027361429</v>
+        <v>6157697.8704254813</v>
       </c>
       <c r="AG11" s="14">
         <f t="shared" si="0"/>
-        <v>4392874.362209837</v>
+        <v>6568738.4937052466</v>
       </c>
       <c r="AH11" s="14">
         <f t="shared" si="0"/>
-        <v>4676432.136680915</v>
+        <v>6983435.3760889564</v>
       </c>
       <c r="AI11" s="14">
         <f t="shared" si="0"/>
-        <v>4962634.4062189991</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
+        <v>7401442.7707826057</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -5012,130 +5052,130 @@
       </c>
       <c r="E12" s="14">
         <f t="shared" si="2"/>
-        <v>11887.812456035928</v>
+        <v>11718.043071262377</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="2"/>
-        <v>16017.544342838592</v>
+        <v>17632.712948433524</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="2"/>
-        <v>21401.948595855203</v>
+        <v>24883.664412098908</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="2"/>
-        <v>28225.228883718413</v>
+        <v>33971.822628645634</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="2"/>
-        <v>36973.237649477844</v>
+        <v>45312.534116119255</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="2"/>
-        <v>48032.628645636061</v>
+        <v>59667.087062388397</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="0"/>
-        <v>62291.369406417405</v>
+        <v>78345.790595746977</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="0"/>
-        <v>80345.151723391595</v>
+        <v>102466.43195714516</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" si="0"/>
-        <v>103107.49921541043</v>
+        <v>134232.33055570585</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" si="0"/>
-        <v>131261.91223418646</v>
+        <v>174678.21173096693</v>
       </c>
       <c r="O12" s="14">
         <f t="shared" si="0"/>
-        <v>165273.10069801417</v>
+        <v>224995.00568151072</v>
       </c>
       <c r="P12" s="14">
         <f t="shared" si="0"/>
-        <v>205487.38563930523</v>
+        <v>284973.34126941179</v>
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="0"/>
-        <v>252246.89659650449</v>
+        <v>356078.3353173529</v>
       </c>
       <c r="R12" s="14">
         <f t="shared" si="0"/>
-        <v>305867.19847410853</v>
+        <v>438261.20734808716</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="0"/>
-        <v>365926.26427141385</v>
+        <v>531177.34808722464</v>
       </c>
       <c r="T12" s="14">
         <f t="shared" si="0"/>
-        <v>431958.80114712403</v>
+        <v>633449.19944808178</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="0"/>
-        <v>503441.39976191759</v>
+        <v>744115.08652129211</v>
       </c>
       <c r="V12" s="14">
         <f t="shared" si="0"/>
-        <v>579866.02884043066</v>
+        <v>862209.37422217405</v>
       </c>
       <c r="W12" s="14">
         <f t="shared" si="0"/>
-        <v>660631.58373464632</v>
+        <v>986532.75861695781</v>
       </c>
       <c r="X12" s="14">
         <f t="shared" si="0"/>
-        <v>744986.37135436386</v>
+        <v>1115898.6675504572</v>
       </c>
       <c r="Y12" s="14">
         <f t="shared" si="0"/>
-        <v>832636.33942968445</v>
+        <v>1249627.3202748769</v>
       </c>
       <c r="Z12" s="14">
         <f t="shared" si="0"/>
-        <v>923127.17812888906</v>
+        <v>1386964.1368432443</v>
       </c>
       <c r="AA12" s="14">
         <f t="shared" si="0"/>
-        <v>1016040.2006926031</v>
+        <v>1527144.5258373464</v>
       </c>
       <c r="AB12" s="14">
         <f t="shared" si="0"/>
-        <v>1111152.0458308533</v>
+        <v>1669790.7716573779</v>
       </c>
       <c r="AC12" s="14">
         <f t="shared" si="0"/>
-        <v>1208116.1056760997</v>
+        <v>1814523.4747037499</v>
       </c>
       <c r="AD12" s="14">
         <f t="shared" si="0"/>
-        <v>1306676.3567447648</v>
+        <v>1961046.1307288567</v>
       </c>
       <c r="AE12" s="14">
         <f t="shared" si="0"/>
-        <v>1406793.2898111574</v>
+        <v>2109120.1299172123</v>
       </c>
       <c r="AF12" s="14">
         <f t="shared" si="0"/>
-        <v>1508377.2457659217</v>
+        <v>2258590.414750284</v>
       </c>
       <c r="AG12" s="14">
         <f t="shared" si="0"/>
-        <v>1611215.0413397541</v>
+        <v>2409368.9916130081</v>
       </c>
       <c r="AH12" s="14">
         <f t="shared" si="0"/>
-        <v>1715230.1563227095</v>
+        <v>2561488.763270386</v>
       </c>
       <c r="AI12" s="14">
         <f t="shared" ref="AI12" si="3">AH12+SUMIFS(AH$50:AH$66,$A$50:$A$66,$A12)</f>
-        <v>1820215.3292029649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
+        <v>2714822.9023321252</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>31</v>
       </c>
@@ -5153,130 +5193,130 @@
       </c>
       <c r="E13" s="14">
         <f t="shared" si="2"/>
-        <v>155621.79535739409</v>
+        <v>154818.94832530708</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="2"/>
-        <v>175151.48260375523</v>
+        <v>182789.68735458038</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="2"/>
-        <v>200614.57172230943</v>
+        <v>217079.76191764517</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="2"/>
-        <v>232882.17012066449</v>
+        <v>260058.06958497918</v>
       </c>
       <c r="I13" s="14">
         <f t="shared" si="2"/>
-        <v>274251.89578486013</v>
+        <v>313688.8026621936</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="2"/>
-        <v>326552.25164583448</v>
+        <v>381572.12712154828</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="2"/>
-        <v>393982.47598434432</v>
+        <v>469904.55357754813</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="2"/>
-        <v>479359.62199015205</v>
+        <v>583972.1480078639</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" si="2"/>
-        <v>587003.78381400718</v>
+        <v>734194.50668253878</v>
       </c>
       <c r="N13" s="14">
         <f t="shared" si="2"/>
-        <v>720147.26526342367</v>
+        <v>925464.89212344203</v>
       </c>
       <c r="O13" s="14">
         <f t="shared" si="2"/>
-        <v>880987.70037696371</v>
+        <v>1163415.2666342009</v>
       </c>
       <c r="P13" s="14">
         <f t="shared" si="2"/>
-        <v>1071162.8568439658</v>
+        <v>1447055.5047165558</v>
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="2"/>
-        <v>1292290.6805908771</v>
+        <v>1783314.2095124724</v>
       </c>
       <c r="R13" s="14">
         <f t="shared" si="2"/>
-        <v>1545863.4921991955</v>
+        <v>2171960.6959580109</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" si="2"/>
-        <v>1829885.5070613062</v>
+        <v>2611365.2913442636</v>
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13:AI19" si="4">S13+SUMIFS(S$50:S$66,$A$50:$A$66,$A13)</f>
-        <v>2142156.3344696355</v>
+        <v>3095013.4617174398</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="4"/>
-        <v>2480200.7481918368</v>
+        <v>3618357.4033151167</v>
       </c>
       <c r="V13" s="14">
         <f t="shared" si="4"/>
-        <v>2841616.2455494832</v>
+        <v>4176830.5845282543</v>
       </c>
       <c r="W13" s="14">
         <f t="shared" si="4"/>
-        <v>3223560.1757119927</v>
+        <v>4764761.4432840934</v>
       </c>
       <c r="X13" s="14">
         <f t="shared" si="4"/>
-        <v>3622477.7483541658</v>
+        <v>5376538.6266616164</v>
       </c>
       <c r="Y13" s="14">
         <f t="shared" si="4"/>
-        <v>4036978.3771080212</v>
+        <v>6008947.421027001</v>
       </c>
       <c r="Z13" s="14">
         <f t="shared" si="4"/>
-        <v>4464913.6104106922</v>
+        <v>6658419.3839799436</v>
       </c>
       <c r="AA13" s="14">
         <f t="shared" si="4"/>
-        <v>4904303.4598055659</v>
+        <v>7321338.7284237873</v>
       </c>
       <c r="AB13" s="14">
         <f t="shared" si="4"/>
-        <v>5354091.639738109</v>
+        <v>7995919.2203524346</v>
       </c>
       <c r="AC13" s="14">
         <f t="shared" si="4"/>
-        <v>5812639.0260628024</v>
+        <v>8680366.6620493121</v>
       </c>
       <c r="AD13" s="14">
         <f t="shared" si="4"/>
-        <v>6278734.8722471716</v>
+        <v>9373278.8716339301</v>
       </c>
       <c r="AE13" s="14">
         <f t="shared" si="4"/>
-        <v>6752192.3373915544</v>
+        <v>10073527.45259095</v>
       </c>
       <c r="AF13" s="14">
         <f t="shared" si="4"/>
-        <v>7232587.419548003</v>
+        <v>10780379.130963333</v>
       </c>
       <c r="AG13" s="14">
         <f t="shared" si="4"/>
-        <v>7718911.965478057</v>
+        <v>11493417.781000309</v>
       </c>
       <c r="AH13" s="14">
         <f t="shared" si="4"/>
-        <v>8210804.1076781545</v>
+        <v>12212799.001352742</v>
       </c>
       <c r="AI13" s="14">
         <f t="shared" si="4"/>
-        <v>8707283.6971664578</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
+        <v>12937923.019605722</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -5294,130 +5334,130 @@
       </c>
       <c r="E14" s="14">
         <f t="shared" si="2"/>
-        <v>16812.077917861589</v>
+        <v>16600.279854986202</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="2"/>
-        <v>21964.18007683567</v>
+        <v>23979.205237811806</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="2"/>
-        <v>28681.565499702399</v>
+        <v>33025.226557004491</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="2"/>
-        <v>37194.039932904067</v>
+        <v>44363.279692657321</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="2"/>
-        <v>48107.735079270606</v>
+        <v>58511.535739408035</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="2"/>
-        <v>61905.025990657072</v>
+        <v>76419.749941381233</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="2"/>
-        <v>79693.708421261472</v>
+        <v>99722.615947910468</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="2"/>
-        <v>102216.94561982577</v>
+        <v>129814.64415706221</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="2"/>
-        <v>130614.4161751709</v>
+        <v>169444.61511822953</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="2"/>
-        <v>165738.83007773751</v>
+        <v>219903.41424526088</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="2"/>
-        <v>208169.94239128477</v>
+        <v>282676.80240968202</v>
       </c>
       <c r="P14" s="14">
         <f t="shared" si="2"/>
-        <v>258339.81054416249</v>
+        <v>357503.57585267752</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="2"/>
-        <v>316675.26281045401</v>
+        <v>446211.56062983605</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" si="2"/>
-        <v>383569.98640044732</v>
+        <v>548739.90000541101</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" si="2"/>
-        <v>458497.47589416162</v>
+        <v>664658.67207762937</v>
       </c>
       <c r="T14" s="14">
         <f t="shared" si="4"/>
-        <v>540877.24899446289</v>
+        <v>792249.28586115479</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="4"/>
-        <v>630056.31939108646</v>
+        <v>930311.99098172912</v>
       </c>
       <c r="V14" s="14">
         <f t="shared" si="4"/>
-        <v>725400.8858827987</v>
+        <v>1077642.0964955001</v>
       </c>
       <c r="W14" s="14">
         <f t="shared" si="4"/>
-        <v>826161.03233952005</v>
+        <v>1232743.3947657957</v>
       </c>
       <c r="X14" s="14">
         <f t="shared" si="4"/>
-        <v>931398.97400934307</v>
+        <v>1394135.5618563211</v>
       </c>
       <c r="Y14" s="14">
         <f t="shared" si="4"/>
-        <v>1040747.8620565267</v>
+        <v>1560970.5282181702</v>
       </c>
       <c r="Z14" s="14">
         <f t="shared" si="4"/>
-        <v>1153640.9161841893</v>
+        <v>1732306.9075627222</v>
       </c>
       <c r="AA14" s="14">
         <f t="shared" si="4"/>
-        <v>1269555.7981350217</v>
+        <v>1907190.8236567287</v>
       </c>
       <c r="AB14" s="14">
         <f t="shared" si="4"/>
-        <v>1388213.8505492129</v>
+        <v>2085151.0523600818</v>
       </c>
       <c r="AC14" s="14">
         <f t="shared" si="4"/>
-        <v>1509182.6581534189</v>
+        <v>2265714.2686362574</v>
       </c>
       <c r="AD14" s="14">
         <f t="shared" si="4"/>
-        <v>1632142.8154320654</v>
+        <v>2448510.5646519852</v>
       </c>
       <c r="AE14" s="14">
         <f t="shared" si="4"/>
-        <v>1757045.0321230814</v>
+        <v>2633242.2595458403</v>
       </c>
       <c r="AF14" s="14">
         <f t="shared" si="4"/>
-        <v>1883777.4528073878</v>
+        <v>2819715.909240121</v>
       </c>
       <c r="AG14" s="14">
         <f t="shared" si="4"/>
-        <v>2012074.1178507656</v>
+        <v>3007821.7361253905</v>
       </c>
       <c r="AH14" s="14">
         <f t="shared" si="4"/>
-        <v>2141839.5634435364</v>
+        <v>3197600.7884854721</v>
       </c>
       <c r="AI14" s="14">
         <f t="shared" si="4"/>
-        <v>2272815.2177190986</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+        <v>3388894.8411161019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5435,130 +5475,130 @@
       </c>
       <c r="E15" s="14">
         <f t="shared" si="2"/>
-        <v>665367.16630593583</v>
+        <v>655741.10981548624</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="2"/>
-        <v>899526.18435149617</v>
+        <v>991107.50367945456</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="2"/>
-        <v>1204826.1038634274</v>
+        <v>1402242.1054326063</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="2"/>
-        <v>1591711.4164817922</v>
+        <v>1917547.7625940153</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="2"/>
-        <v>2087730.3345598183</v>
+        <v>2560574.9465937987</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>2714806.4273488089</v>
+        <v>3374489.2912811353</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="2"/>
-        <v>3523288.1464116303</v>
+        <v>4433586.3459138209</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="2"/>
-        <v>4546951.6808073157</v>
+        <v>5801245.518622729</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" si="2"/>
-        <v>5837594.5320238806</v>
+        <v>7602396.7378929704</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" si="2"/>
-        <v>7433971.7029471714</v>
+        <v>9895709.7372797281</v>
       </c>
       <c r="O15" s="14">
         <f t="shared" si="2"/>
-        <v>9362432.6082913987</v>
+        <v>12748711.187643165</v>
       </c>
       <c r="P15" s="14">
         <f t="shared" si="2"/>
-        <v>11642613.920630198</v>
+        <v>16149529.582210558</v>
       </c>
       <c r="Q15" s="14">
         <f t="shared" si="2"/>
-        <v>14293914.651561063</v>
+        <v>20181238.187219307</v>
       </c>
       <c r="R15" s="14">
         <f t="shared" si="2"/>
-        <v>17334227.577223454</v>
+        <v>24841071.11157405</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="2"/>
-        <v>20739623.437611599</v>
+        <v>30109488.74071569</v>
       </c>
       <c r="T15" s="14">
         <f t="shared" si="4"/>
-        <v>24483719.765822552</v>
+        <v>35908382.457009904</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="4"/>
-        <v>28536838.844200347</v>
+        <v>42183224.543251634</v>
       </c>
       <c r="V15" s="14">
         <f t="shared" si="4"/>
-        <v>32870174.903306097</v>
+        <v>48879262.737207592</v>
       </c>
       <c r="W15" s="14">
         <f t="shared" si="4"/>
-        <v>37449644.840899661</v>
+        <v>55928495.570703253</v>
       </c>
       <c r="X15" s="14">
         <f t="shared" si="4"/>
-        <v>42232627.072651193</v>
+        <v>63263643.477337092</v>
       </c>
       <c r="Y15" s="14">
         <f t="shared" si="4"/>
-        <v>47202448.605576903</v>
+        <v>70846162.35866566</v>
       </c>
       <c r="Z15" s="14">
         <f t="shared" si="4"/>
-        <v>52333349.717980631</v>
+        <v>78633266.943329185</v>
       </c>
       <c r="AA15" s="14">
         <f t="shared" si="4"/>
-        <v>57601590.544144437</v>
+        <v>86581604.30174233</v>
       </c>
       <c r="AB15" s="14">
         <f t="shared" si="4"/>
-        <v>62994506.324765973</v>
+        <v>94669757.664881051</v>
       </c>
       <c r="AC15" s="14">
         <f t="shared" si="4"/>
-        <v>68492444.123496205</v>
+        <v>102876214.77962051</v>
       </c>
       <c r="AD15" s="14">
         <f t="shared" si="4"/>
-        <v>74080887.209187821</v>
+        <v>111184163.62392908</v>
       </c>
       <c r="AE15" s="14">
         <f t="shared" si="4"/>
-        <v>79757595.377937704</v>
+        <v>119580074.83521816</v>
       </c>
       <c r="AF15" s="14">
         <f t="shared" si="4"/>
-        <v>85517484.888335764</v>
+        <v>128055156.53128439</v>
       </c>
       <c r="AG15" s="14">
         <f t="shared" si="4"/>
-        <v>91348468.082787722</v>
+        <v>136604419.40554264</v>
       </c>
       <c r="AH15" s="14">
         <f t="shared" si="4"/>
-        <v>97246206.205724791</v>
+        <v>145229729.07042369</v>
       </c>
       <c r="AI15" s="14">
         <f t="shared" si="4"/>
-        <v>103198947.36781919</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+        <v>153923894.31400719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>57</v>
       </c>
@@ -5576,130 +5616,130 @@
       </c>
       <c r="E16" s="14">
         <f t="shared" si="2"/>
-        <v>135873.32917591039</v>
+        <v>134638.77812347817</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="2"/>
-        <v>165904.4496509929</v>
+        <v>177649.84240571398</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="2"/>
-        <v>205059.45952599967</v>
+        <v>230378.25261078947</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="2"/>
-        <v>254677.87495265406</v>
+        <v>296466.70139602839</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="2"/>
-        <v>318292.78080190462</v>
+        <v>378935.55949353392</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>398715.89602835343</v>
+        <v>483320.86118175427</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="2"/>
-        <v>502404.45822736865</v>
+        <v>619151.08249012497</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="2"/>
-        <v>633690.29630431253</v>
+        <v>794554.69379362592</v>
       </c>
       <c r="M16" s="14">
         <f t="shared" si="2"/>
-        <v>799216.48990855471</v>
+        <v>1025554.0792164927</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" si="2"/>
-        <v>1003953.4056328121</v>
+        <v>1319673.6888155404</v>
       </c>
       <c r="O16" s="14">
         <f t="shared" si="2"/>
-        <v>1251280.3813916997</v>
+        <v>1685573.8834208106</v>
       </c>
       <c r="P16" s="14">
         <f t="shared" si="2"/>
-        <v>1543715.8394296847</v>
+        <v>2121732.130810021</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
-        <v>1883747.7217412479</v>
+        <v>2638802.6577025051</v>
       </c>
       <c r="R16" s="14">
         <f t="shared" si="2"/>
-        <v>2273670.7941669826</v>
+        <v>3236430.7358909147</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="2"/>
-        <v>2710416.1059737029</v>
+        <v>3912110.3909149934</v>
       </c>
       <c r="T16" s="14">
         <f t="shared" si="4"/>
-        <v>3190600.0802716305</v>
+        <v>4655824.1170391208</v>
       </c>
       <c r="U16" s="14">
         <f t="shared" si="4"/>
-        <v>3710416.5210756995</v>
+        <v>5460578.6818083432</v>
       </c>
       <c r="V16" s="14">
         <f t="shared" si="4"/>
-        <v>4266171.0606027814</v>
+        <v>6319352.0546507221</v>
       </c>
       <c r="W16" s="14">
         <f t="shared" si="4"/>
-        <v>4853492.5080352798</v>
+        <v>7223422.9815215627</v>
       </c>
       <c r="X16" s="14">
         <f t="shared" si="4"/>
-        <v>5466914.6039716471</v>
+        <v>8164162.7929765703</v>
       </c>
       <c r="Y16" s="14">
         <f t="shared" si="4"/>
-        <v>6104299.0209404258</v>
+        <v>9136628.1711216923</v>
       </c>
       <c r="Z16" s="14">
         <f t="shared" si="4"/>
-        <v>6762342.049726747</v>
+        <v>10135331.863535523</v>
       </c>
       <c r="AA16" s="14">
         <f t="shared" si="4"/>
-        <v>7437999.029597966</v>
+        <v>11154713.815080354</v>
       </c>
       <c r="AB16" s="14">
         <f t="shared" si="4"/>
-        <v>8129645.6929278728</v>
+        <v>12192027.304420758</v>
       </c>
       <c r="AC16" s="14">
         <f t="shared" si="4"/>
-        <v>8834761.5316270776</v>
+        <v>13244513.364293059</v>
       </c>
       <c r="AD16" s="14">
         <f t="shared" si="4"/>
-        <v>9551484.7608895637</v>
+        <v>14310015.836615985</v>
       </c>
       <c r="AE16" s="14">
         <f t="shared" si="4"/>
-        <v>10279528.072398681</v>
+        <v>15386799.567555869</v>
       </c>
       <c r="AF16" s="14">
         <f t="shared" si="4"/>
-        <v>11018239.471403064</v>
+        <v>16473736.989719171</v>
       </c>
       <c r="AG16" s="14">
         <f t="shared" si="4"/>
-        <v>11766068.704128567</v>
+        <v>17570188.219712138</v>
       </c>
       <c r="AH16" s="14">
         <f t="shared" si="4"/>
-        <v>12522459.320978304</v>
+        <v>18676392.524132896</v>
       </c>
       <c r="AI16" s="14">
         <f t="shared" si="4"/>
-        <v>13285904.130782969</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+        <v>19791427.623099402</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -5717,130 +5757,130 @@
       </c>
       <c r="E17" s="14">
         <f t="shared" si="2"/>
-        <v>21621.717953573941</v>
+        <v>21369.049483253071</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="2"/>
-        <v>27768.014826037554</v>
+        <v>30171.876873545807</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" si="2"/>
-        <v>35781.645717223095</v>
+        <v>40963.497619176458</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="2"/>
-        <v>45936.761701206648</v>
+        <v>54489.4406958498</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="2"/>
-        <v>58956.458957848605</v>
+        <v>71367.868026621945</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>75416.195849791678</v>
+        <v>92731.807937882157</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="2"/>
-        <v>96637.538093176772</v>
+        <v>120531.39886910882</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="2"/>
-        <v>123507.05621990151</v>
+        <v>156430.24814674532</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" si="2"/>
-        <v>157384.35117147339</v>
+        <v>203707.56506682539</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" si="2"/>
-        <v>199286.67931930089</v>
+        <v>263903.33558790106</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" si="2"/>
-        <v>249905.67033710296</v>
+        <v>338790.02599967533</v>
       </c>
       <c r="P17" s="14">
         <f t="shared" si="2"/>
-        <v>309756.75523510634</v>
+        <v>428056.02838049887</v>
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
-        <v>379349.1268059088</v>
+        <v>533881.88209512469</v>
       </c>
       <c r="R17" s="14">
         <f t="shared" si="2"/>
-        <v>459152.44158865866</v>
+        <v>656194.9869595801</v>
       </c>
       <c r="S17" s="14">
         <f t="shared" si="2"/>
-        <v>548538.59507061308</v>
+        <v>794482.45958010934</v>
       </c>
       <c r="T17" s="14">
         <f t="shared" si="4"/>
-        <v>646815.09001136303</v>
+        <v>946694.07461717445</v>
       </c>
       <c r="U17" s="14">
         <f t="shared" si="4"/>
-        <v>753202.93414858507</v>
+        <v>1111398.5673664846</v>
       </c>
       <c r="V17" s="14">
         <f t="shared" si="4"/>
-        <v>866946.02245549485</v>
+        <v>1287158.7791786159</v>
       </c>
       <c r="W17" s="14">
         <f t="shared" si="4"/>
-        <v>987149.72842378658</v>
+        <v>1472189.7810995076</v>
       </c>
       <c r="X17" s="14">
         <f t="shared" si="4"/>
-        <v>1112695.3041502084</v>
+        <v>1664725.5929332827</v>
       </c>
       <c r="Y17" s="14">
         <f t="shared" si="4"/>
-        <v>1243145.1104377469</v>
+        <v>1863754.49421027</v>
       </c>
       <c r="Z17" s="14">
         <f t="shared" si="4"/>
-        <v>1377822.996104107</v>
+        <v>2068153.4405064662</v>
       </c>
       <c r="AA17" s="14">
         <f t="shared" si="4"/>
-        <v>1516105.8279313892</v>
+        <v>2276784.487284238</v>
       </c>
       <c r="AB17" s="14">
         <f t="shared" si="4"/>
-        <v>1657661.1763973814</v>
+        <v>2489085.4788701911</v>
       </c>
       <c r="AC17" s="14">
         <f t="shared" si="4"/>
-        <v>1801973.1835939616</v>
+        <v>2704491.7532871598</v>
       </c>
       <c r="AD17" s="14">
         <f t="shared" si="4"/>
-        <v>1948660.8087224721</v>
+        <v>2922562.0220496729</v>
       </c>
       <c r="AE17" s="14">
         <f t="shared" si="4"/>
-        <v>2097665.2500405824</v>
+        <v>3142941.1611925764</v>
       </c>
       <c r="AF17" s="14">
         <f t="shared" si="4"/>
-        <v>2248853.0675288136</v>
+        <v>3365398.3979763002</v>
       </c>
       <c r="AG17" s="14">
         <f t="shared" si="4"/>
-        <v>2401906.9796547806</v>
+        <v>3589802.7711433368</v>
       </c>
       <c r="AH17" s="14">
         <f t="shared" si="4"/>
-        <v>2556713.1010767817</v>
+        <v>3816203.2500135279</v>
       </c>
       <c r="AI17" s="14">
         <f t="shared" si="4"/>
-        <v>2712962.9636383313</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.45">
+        <v>4044411.0768627245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -5858,130 +5898,130 @@
       </c>
       <c r="E18" s="14">
         <f t="shared" si="2"/>
-        <v>15969.82852659488</v>
+        <v>15756.375791353281</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="2"/>
-        <v>21162.181483685948</v>
+        <v>23192.949028732211</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="2"/>
-        <v>27932.046480168821</v>
+        <v>32309.642389481087</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="2"/>
-        <v>36511.024619879878</v>
+        <v>43736.274065256206</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="2"/>
-        <v>47509.983009577409</v>
+        <v>57995.063362372166</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>61415.065256209084</v>
+        <v>76043.185487798284</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="2"/>
-        <v>79342.721768302581</v>
+        <v>99528.105135003527</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="2"/>
-        <v>102041.92175748065</v>
+        <v>129855.22731453927</v>
       </c>
       <c r="M18" s="14">
         <f t="shared" si="2"/>
-        <v>130661.24755153942</v>
+        <v>169794.80742384071</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" si="2"/>
-        <v>166060.07093771984</v>
+        <v>220647.81591905199</v>
       </c>
       <c r="O18" s="14">
         <f t="shared" si="2"/>
-        <v>208822.67631621668</v>
+        <v>283911.62117850763</v>
       </c>
       <c r="P18" s="14">
         <f t="shared" si="2"/>
-        <v>259384.49656403877</v>
+        <v>359322.97878902656</v>
       </c>
       <c r="Q18" s="14">
         <f t="shared" si="2"/>
-        <v>318175.69455116068</v>
+        <v>448723.9946972566</v>
       </c>
       <c r="R18" s="14">
         <f t="shared" si="2"/>
-        <v>385593.03316920082</v>
+        <v>552053.3367242032</v>
       </c>
       <c r="S18" s="14">
         <f t="shared" si="2"/>
-        <v>461105.89367458475</v>
+        <v>668877.7242032357</v>
       </c>
       <c r="T18" s="14">
         <f t="shared" si="4"/>
-        <v>544129.25875223207</v>
+        <v>797465.1396569449</v>
       </c>
       <c r="U18" s="14">
         <f t="shared" si="4"/>
-        <v>634005.04063632921</v>
+        <v>936606.45966127363</v>
       </c>
       <c r="V18" s="14">
         <f t="shared" si="4"/>
-        <v>730094.48655375792</v>
+        <v>1085087.5816243708</v>
       </c>
       <c r="W18" s="14">
         <f t="shared" si="4"/>
-        <v>831641.82165467239</v>
+        <v>1241400.608787403</v>
       </c>
       <c r="X18" s="14">
         <f t="shared" si="4"/>
-        <v>937701.93474379089</v>
+        <v>1404053.6521833232</v>
       </c>
       <c r="Y18" s="14">
         <f t="shared" si="4"/>
-        <v>1047905.1109788431</v>
+        <v>1572192.0167198742</v>
       </c>
       <c r="Z18" s="14">
         <f t="shared" si="4"/>
-        <v>1161680.142091878</v>
+        <v>1744866.9615280556</v>
       </c>
       <c r="AA18" s="14">
         <f t="shared" si="4"/>
-        <v>1278500.6090579513</v>
+        <v>1921117.1582165465</v>
       </c>
       <c r="AB18" s="14">
         <f t="shared" si="4"/>
-        <v>1398085.6775066282</v>
+        <v>2100467.7012066445</v>
       </c>
       <c r="AC18" s="14">
         <f t="shared" si="4"/>
-        <v>1519999.5539202422</v>
+        <v>2282441.5676099779</v>
       </c>
       <c r="AD18" s="14">
         <f t="shared" si="4"/>
-        <v>1643920.3374276282</v>
+        <v>2466665.9596883287</v>
       </c>
       <c r="AE18" s="14">
         <f t="shared" si="4"/>
-        <v>1769798.3526865428</v>
+        <v>2652840.8709485419</v>
       </c>
       <c r="AF18" s="14">
         <f t="shared" si="4"/>
-        <v>1897520.8704074454</v>
+        <v>2840771.346031059</v>
       </c>
       <c r="AG18" s="14">
         <f t="shared" si="4"/>
-        <v>2026819.8531464746</v>
+        <v>3030346.7496888698</v>
       </c>
       <c r="AH18" s="14">
         <f t="shared" si="4"/>
-        <v>2157599.0912829391</v>
+        <v>3221608.4508955143</v>
       </c>
       <c r="AI18" s="14">
         <f t="shared" si="4"/>
-        <v>2289597.9928575293</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.45">
+        <v>3414396.9883123208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>60</v>
       </c>
@@ -5999,130 +6039,130 @@
       </c>
       <c r="E19" s="14">
         <f t="shared" si="2"/>
-        <v>7795.0769438882999</v>
+        <v>7585.9263567988819</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="2"/>
-        <v>12882.777825875237</v>
+        <v>14872.615172339167</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="2"/>
-        <v>19516.19593095631</v>
+        <v>23805.561225041776</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="2"/>
-        <v>27922.264433742996</v>
+        <v>35001.888696498849</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="2"/>
-        <v>38699.53839078013</v>
+        <v>48973.291542665247</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>52324.363165774412</v>
+        <v>66657.653067113744</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" si="2"/>
-        <v>69890.687065996492</v>
+        <v>89669.233248561533</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="2"/>
-        <v>92132.383799578558</v>
+        <v>119385.11110509923</v>
       </c>
       <c r="M19" s="14">
         <f t="shared" si="2"/>
-        <v>120174.88597298184</v>
+        <v>158519.70742925201</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="2"/>
-        <v>154860.24470176644</v>
+        <v>208347.77156719603</v>
       </c>
       <c r="O19" s="14">
         <f t="shared" si="2"/>
-        <v>196760.96811139447</v>
+        <v>270336.49237956142</v>
       </c>
       <c r="P19" s="14">
         <f t="shared" si="2"/>
-        <v>246303.71291236163</v>
+        <v>344227.93115451874</v>
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="2"/>
-        <v>303909.97202532506</v>
+        <v>431827.06612196227</v>
       </c>
       <c r="R19" s="14">
         <f t="shared" si="2"/>
-        <v>369968.51157044386</v>
+        <v>533073.80125534197</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" si="2"/>
-        <v>443959.4074454871</v>
+        <v>647543.58867665415</v>
       </c>
       <c r="T19" s="14">
         <f t="shared" si="4"/>
-        <v>525309.43338203384</v>
+        <v>773539.31978788448</v>
       </c>
       <c r="U19" s="14">
         <f t="shared" si="4"/>
-        <v>613373.76539870026</v>
+        <v>909876.24109444988</v>
       </c>
       <c r="V19" s="14">
         <f t="shared" si="4"/>
-        <v>707526.52480926597</v>
+        <v>1055364.7202892997</v>
       </c>
       <c r="W19" s="14">
         <f t="shared" si="4"/>
-        <v>807027.16943527618</v>
+        <v>1208527.2523312182</v>
       </c>
       <c r="X19" s="14">
         <f t="shared" si="4"/>
-        <v>910949.63683422701</v>
+        <v>1367902.0173331131</v>
       </c>
       <c r="Y19" s="14">
         <f t="shared" si="4"/>
-        <v>1018931.6637808201</v>
+        <v>1532651.5466154371</v>
       </c>
       <c r="Z19" s="14">
         <f t="shared" si="4"/>
-        <v>1130413.5547318892</v>
+        <v>1701846.2212181822</v>
       </c>
       <c r="AA19" s="14">
         <f t="shared" si="4"/>
-        <v>1244879.5006583338</v>
+        <v>1874544.0883610141</v>
       </c>
       <c r="AB19" s="14">
         <f t="shared" si="4"/>
-        <v>1362054.3274173462</v>
+        <v>2050279.8142055743</v>
       </c>
       <c r="AC19" s="14">
         <f t="shared" si="4"/>
-        <v>1481511.024926499</v>
+        <v>2228585.9902782966</v>
       </c>
       <c r="AD19" s="14">
         <f t="shared" si="4"/>
-        <v>1602934.1802391619</v>
+        <v>2409097.332593827</v>
       </c>
       <c r="AE19" s="14">
         <f t="shared" si="4"/>
-        <v>1726275.1192215425</v>
+        <v>2591519.8813015097</v>
       </c>
       <c r="AF19" s="14">
         <f t="shared" si="4"/>
-        <v>1851423.3846472953</v>
+        <v>2775662.6103746132</v>
       </c>
       <c r="AG19" s="14">
         <f t="shared" si="4"/>
-        <v>1978116.3413776294</v>
+        <v>2961417.1144238194</v>
       </c>
       <c r="AH19" s="14">
         <f t="shared" si="4"/>
-        <v>2106259.7189004929</v>
+        <v>3148823.9286293988</v>
       </c>
       <c r="AI19" s="14">
         <f t="shared" si="4"/>
-        <v>2235598.1774976109</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.45">
+        <v>3337726.8056021468</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>61</v>
       </c>
@@ -6145,7 +6185,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
         <v>47</v>
       </c>
@@ -6169,7 +6209,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
         <v>48</v>
       </c>
@@ -6193,7 +6233,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
         <v>49</v>
       </c>
@@ -6217,7 +6257,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="3" t="s">
         <v>50</v>
       </c>
@@ -6241,7 +6281,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
         <v>51</v>
       </c>
@@ -6265,7 +6305,7 @@
         <v>8256</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="3" t="s">
         <v>46</v>
       </c>
@@ -6289,7 +6329,7 @@
         <v>3954</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
         <v>52</v>
       </c>
@@ -6313,7 +6353,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>67</v>
       </c>
@@ -6337,7 +6377,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
         <v>53</v>
       </c>
@@ -6361,7 +6401,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" s="3" t="s">
         <v>54</v>
       </c>
@@ -6385,7 +6425,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>55</v>
       </c>
@@ -6409,7 +6449,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
@@ -6433,7 +6473,7 @@
         <v>2685</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
         <v>56</v>
       </c>
@@ -6457,7 +6497,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="3" t="s">
         <v>68</v>
       </c>
@@ -6479,7 +6519,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="3" t="s">
         <v>2</v>
       </c>
@@ -6503,7 +6543,7 @@
         <v>29900</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="3" t="s">
         <v>57</v>
       </c>
@@ -6527,7 +6567,7 @@
         <v>4148</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
@@ -6551,7 +6591,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="3" t="s">
         <v>58</v>
       </c>
@@ -6575,7 +6615,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>69</v>
       </c>
@@ -6583,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="I43" s="17"/>
       <c r="J43" s="17"/>
       <c r="K43" s="17"/>
@@ -6611,19 +6651,23 @@
       <c r="AG43" s="17"/>
       <c r="AH43" s="17"/>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="B44" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="25"/>
+    </row>
+    <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="26">
         <v>2018</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="26">
         <v>2019</v>
       </c>
       <c r="D45">
@@ -6720,220 +6764,220 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>169</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="26">
         <v>46797</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="26">
         <v>54324</v>
       </c>
       <c r="D46">
-        <v>62667</v>
+        <v>60654</v>
       </c>
       <c r="E46">
-        <v>74820</v>
+        <v>95040</v>
       </c>
       <c r="F46">
-        <v>90528</v>
+        <v>105876</v>
       </c>
       <c r="G46">
-        <v>111072</v>
+        <v>120834</v>
       </c>
       <c r="H46">
-        <v>137415</v>
+        <v>141189</v>
       </c>
       <c r="I46" s="17">
-        <v>169485</v>
+        <v>164523</v>
       </c>
       <c r="J46" s="17">
-        <v>211638</v>
+        <v>194280</v>
       </c>
       <c r="K46" s="17">
-        <v>263571</v>
+        <v>229503</v>
       </c>
       <c r="L46" s="17">
-        <v>325674</v>
+        <v>268572</v>
       </c>
       <c r="M46" s="17">
-        <v>397137</v>
+        <v>313800</v>
       </c>
       <c r="N46" s="17">
-        <v>476514</v>
+        <v>366039</v>
       </c>
       <c r="O46" s="17">
-        <v>562140</v>
+        <v>416970</v>
       </c>
       <c r="P46" s="17">
-        <v>649512</v>
+        <v>467985</v>
       </c>
       <c r="Q46" s="17">
-        <v>734349</v>
+        <v>515118</v>
       </c>
       <c r="R46" s="17">
-        <v>813495</v>
+        <v>558687</v>
       </c>
       <c r="S46" s="17">
-        <v>884814</v>
+        <v>593535</v>
       </c>
       <c r="T46" s="17">
-        <v>949065</v>
+        <v>624429</v>
       </c>
       <c r="U46" s="17">
-        <v>1001800</v>
+        <v>647961</v>
       </c>
       <c r="V46" s="17">
-        <v>1048420</v>
+        <v>665577</v>
       </c>
       <c r="W46" s="17">
-        <v>1086810</v>
+        <v>677553</v>
       </c>
       <c r="X46" s="17">
-        <v>1118370</v>
+        <v>686961</v>
       </c>
       <c r="Y46" s="17">
-        <v>1143410</v>
+        <v>692517</v>
       </c>
       <c r="Z46" s="17">
-        <v>1161950</v>
+        <v>695139</v>
       </c>
       <c r="AA46" s="17">
-        <v>1177500</v>
+        <v>696339</v>
       </c>
       <c r="AB46" s="17">
-        <v>1189300</v>
+        <v>696135</v>
       </c>
       <c r="AC46" s="17">
-        <v>1197960</v>
+        <v>694986</v>
       </c>
       <c r="AD46" s="17">
-        <v>1207640</v>
+        <v>692949</v>
       </c>
       <c r="AE46" s="17">
-        <v>1214710</v>
+        <v>690654</v>
       </c>
       <c r="AF46" s="17">
-        <v>1219410</v>
+        <v>687849</v>
       </c>
       <c r="AG46" s="17">
-        <v>1223140</v>
+        <v>685500</v>
       </c>
       <c r="AH46" s="17">
-        <v>1226380</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.45">
+        <v>682644</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="22">
+      <c r="B47" s="26">
         <v>144063</v>
       </c>
-      <c r="C47" s="22">
+      <c r="C47" s="26">
         <v>202158</v>
       </c>
       <c r="D47" s="22">
-        <v>276870</v>
+        <v>260535</v>
       </c>
       <c r="E47" s="22">
-        <v>371505</v>
+        <v>544194</v>
       </c>
       <c r="F47" s="22">
-        <v>491397</v>
+        <v>677778</v>
       </c>
       <c r="G47" s="22">
-        <v>626361</v>
+        <v>861378</v>
       </c>
       <c r="H47" s="22">
-        <v>808035</v>
+        <v>1084470</v>
       </c>
       <c r="I47" s="17">
-        <v>1025770</v>
+        <v>1386860</v>
       </c>
       <c r="J47" s="17">
-        <v>1329390</v>
+        <v>1824440</v>
       </c>
       <c r="K47" s="17">
-        <v>1687610</v>
+        <v>2377360</v>
       </c>
       <c r="L47" s="17">
-        <v>2134390</v>
+        <v>3164560</v>
       </c>
       <c r="M47" s="17">
-        <v>2645680</v>
+        <v>4057430</v>
       </c>
       <c r="N47" s="17">
-        <v>3199280</v>
+        <v>5072000</v>
       </c>
       <c r="O47" s="17">
-        <v>3784060</v>
+        <v>6065250</v>
       </c>
       <c r="P47" s="17">
-        <v>4404070</v>
+        <v>7216760</v>
       </c>
       <c r="Q47" s="17">
-        <v>5060720</v>
+        <v>8366880</v>
       </c>
       <c r="R47" s="17">
-        <v>5677450</v>
+        <v>9483320</v>
       </c>
       <c r="S47" s="17">
-        <v>6251720</v>
+        <v>10459600</v>
       </c>
       <c r="T47" s="17">
-        <v>6776490</v>
+        <v>11335900</v>
       </c>
       <c r="U47" s="17">
-        <v>7257870</v>
+        <v>12115200</v>
       </c>
       <c r="V47" s="17">
-        <v>7680400</v>
+        <v>12770800</v>
       </c>
       <c r="W47" s="17">
-        <v>8029920</v>
+        <v>13303800</v>
       </c>
       <c r="X47" s="17">
-        <v>8354490</v>
+        <v>13765900</v>
       </c>
       <c r="Y47" s="17">
-        <v>8636480</v>
+        <v>14150300</v>
       </c>
       <c r="Z47" s="17">
-        <v>8879720</v>
+        <v>14455000</v>
       </c>
       <c r="AA47" s="17">
-        <v>9101810</v>
+        <v>14720300</v>
       </c>
       <c r="AB47" s="17">
-        <v>9290190</v>
+        <v>14946000</v>
       </c>
       <c r="AC47" s="17">
-        <v>9454040</v>
+        <v>15140600</v>
       </c>
       <c r="AD47" s="17">
-        <v>9612600</v>
+        <v>15310300</v>
       </c>
       <c r="AE47" s="17">
-        <v>9764080</v>
+        <v>15463500</v>
       </c>
       <c r="AF47" s="17">
-        <v>9894890</v>
+        <v>15607700</v>
       </c>
       <c r="AG47" s="17">
-        <v>10018400</v>
+        <v>15755000</v>
       </c>
       <c r="AH47" s="17">
-        <v>10120000</v>
-      </c>
-    </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.45">
+        <v>15889100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>46</v>
       </c>
@@ -6946,131 +6990,131 @@
         <v>13695.416211243979</v>
       </c>
       <c r="D50" s="14">
-        <f t="shared" si="6"/>
-        <v>18130.319219739191</v>
+        <f>SUM(D$46:D$47)*INDEX($B$23:$B$40,MATCH($A50,$A$23:$A$40,0),1)</f>
+        <v>17150.587711703913</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" si="6"/>
-        <v>23832.497565066824</v>
+        <v>34133.294681023755</v>
       </c>
       <c r="F50" s="14">
         <f t="shared" si="6"/>
-        <v>31073.155538120231</v>
+        <v>41844.915805421784</v>
       </c>
       <c r="G50" s="14">
         <f t="shared" si="6"/>
-        <v>39376.844624208643</v>
+        <v>52447.353606406577</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="6"/>
-        <v>50484.36637627834</v>
+        <v>65446.73754125859</v>
       </c>
       <c r="I50" s="14">
         <f t="shared" si="6"/>
-        <v>63823.249598686933</v>
+        <v>82839.481476471323</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="6"/>
-        <v>82286.55364969428</v>
+        <v>107793.96064426527</v>
       </c>
       <c r="K50" s="14">
         <f t="shared" si="6"/>
-        <v>104187.56832242123</v>
+        <v>139199.13986436519</v>
       </c>
       <c r="L50" s="14">
         <f t="shared" si="6"/>
-        <v>131360.48684234257</v>
+        <v>183319.57661021227</v>
       </c>
       <c r="M50" s="14">
         <f t="shared" si="6"/>
-        <v>162477.8552477319</v>
+        <v>233411.36689933806</v>
       </c>
       <c r="N50" s="14">
         <f t="shared" si="6"/>
-        <v>196277.04375665096</v>
+        <v>290375.96196995111</v>
       </c>
       <c r="O50" s="14">
         <f t="shared" si="6"/>
-        <v>232074.83541655392</v>
+        <v>346132.28559060657</v>
       </c>
       <c r="P50" s="14">
         <f t="shared" si="6"/>
-        <v>269847.04130368127</v>
+        <v>410343.7327074653</v>
       </c>
       <c r="Q50" s="14">
         <f t="shared" si="6"/>
-        <v>309440.35810652381</v>
+        <v>474273.66987717111</v>
       </c>
       <c r="R50" s="14">
         <f t="shared" si="6"/>
-        <v>346598.17600959539</v>
+        <v>536214.88237469108</v>
       </c>
       <c r="S50" s="14">
         <f t="shared" si="6"/>
-        <v>381070.80978662771</v>
+        <v>590206.26891582343</v>
       </c>
       <c r="T50" s="14">
         <f t="shared" si="6"/>
-        <v>412522.87173313129</v>
+        <v>638647.87267103151</v>
       </c>
       <c r="U50" s="14">
         <f t="shared" si="6"/>
-        <v>441043.10796674062</v>
+        <v>681516.839646123</v>
       </c>
       <c r="V50" s="14">
         <f t="shared" si="6"/>
-        <v>466094.3962267554</v>
+        <v>717464.67738939088</v>
       </c>
       <c r="W50" s="14">
         <f t="shared" si="6"/>
-        <v>486807.6973648612</v>
+        <v>746564.8604242194</v>
       </c>
       <c r="X50" s="14">
         <f t="shared" si="6"/>
-        <v>505824.03603701096</v>
+        <v>771742.05924102222</v>
       </c>
       <c r="Y50" s="14">
         <f t="shared" si="6"/>
-        <v>522218.57303897693</v>
+        <v>792564.61101491621</v>
       </c>
       <c r="Z50" s="14">
         <f t="shared" si="6"/>
-        <v>536196.88752412389</v>
+        <v>808974.73999422824</v>
       </c>
       <c r="AA50" s="14">
         <f t="shared" si="6"/>
-        <v>548886.19401908258</v>
+        <v>823205.08918168209</v>
       </c>
       <c r="AB50" s="14">
         <f t="shared" si="6"/>
-        <v>559575.24205039407</v>
+        <v>835245.94029002753</v>
       </c>
       <c r="AC50" s="14">
         <f t="shared" si="6"/>
-        <v>568786.79003661417</v>
+        <v>845575.67867900361</v>
       </c>
       <c r="AD50" s="14">
         <f t="shared" si="6"/>
-        <v>577770.33205273887</v>
+        <v>854528.41052071494</v>
       </c>
       <c r="AE50" s="14">
         <f t="shared" si="6"/>
-        <v>586236.45536857669</v>
+        <v>862586.31237487146</v>
       </c>
       <c r="AF50" s="14">
         <f t="shared" si="6"/>
-        <v>593472.3075951878</v>
+        <v>870136.40702162578</v>
       </c>
       <c r="AG50" s="14">
         <f t="shared" si="6"/>
-        <v>600266.56512093497</v>
+        <v>877876.38205003331</v>
       </c>
       <c r="AH50" s="14">
         <f t="shared" si="6"/>
-        <v>605864.72575437836</v>
-      </c>
-    </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.45">
+        <v>884884.4418952798</v>
+      </c>
+    </row>
+    <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>47</v>
       </c>
@@ -7084,130 +7128,130 @@
       </c>
       <c r="D51" s="14">
         <f t="shared" si="7"/>
-        <v>4733.9087170607654</v>
+        <v>4478.0963692440882</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="7"/>
-        <v>6222.7733888858829</v>
+        <v>8912.3583139440507</v>
       </c>
       <c r="F51" s="14">
         <f t="shared" si="7"/>
-        <v>8113.3420810562193</v>
+        <v>10925.897624587415</v>
       </c>
       <c r="G51" s="14">
         <f t="shared" si="7"/>
-        <v>10281.473026351388</v>
+        <v>13694.242302905686</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="7"/>
-        <v>13181.697418970834</v>
+        <v>17088.4405064661</v>
       </c>
       <c r="I51" s="14">
         <f t="shared" si="7"/>
-        <v>16664.540428908967</v>
+        <v>21629.764965820752</v>
       </c>
       <c r="J51" s="14">
         <f t="shared" si="7"/>
-        <v>21485.392998214382</v>
+        <v>28145.492848511083</v>
       </c>
       <c r="K51" s="14">
         <f t="shared" si="7"/>
-        <v>27203.847428890931</v>
+        <v>36345.527821366086</v>
       </c>
       <c r="L51" s="14">
         <f t="shared" si="7"/>
-        <v>34298.819905127784</v>
+        <v>47865.574301534907</v>
       </c>
       <c r="M51" s="14">
         <f t="shared" si="7"/>
-        <v>42423.706166693722</v>
+        <v>60944.768320617572</v>
       </c>
       <c r="N51" s="14">
         <f t="shared" si="7"/>
-        <v>51248.827841206279</v>
+        <v>75818.482892339875</v>
       </c>
       <c r="O51" s="14">
         <f t="shared" si="7"/>
-        <v>60595.793878397635</v>
+        <v>90376.712299118008</v>
       </c>
       <c r="P51" s="14">
         <f t="shared" si="7"/>
-        <v>70458.288440380202</v>
+        <v>107142.61286366178</v>
       </c>
       <c r="Q51" s="14">
         <f t="shared" si="7"/>
-        <v>80796.283336038818</v>
+        <v>123835.00990206157</v>
       </c>
       <c r="R51" s="14">
         <f t="shared" si="6"/>
-        <v>90498.35840412676</v>
+        <v>140008.14189347619</v>
       </c>
       <c r="S51" s="14">
         <f t="shared" si="6"/>
-        <v>99499.319697707557</v>
+        <v>154105.53821041429</v>
       </c>
       <c r="T51" s="14">
         <f t="shared" si="6"/>
-        <v>107711.59596342189</v>
+        <v>166753.86102844361</v>
       </c>
       <c r="U51" s="14">
         <f t="shared" si="6"/>
-        <v>115158.35921577115</v>
+        <v>177947.14306585141</v>
       </c>
       <c r="V51" s="14">
         <f t="shared" si="6"/>
-        <v>121699.36439225871</v>
+        <v>187333.28681709143</v>
       </c>
       <c r="W51" s="14">
         <f t="shared" si="6"/>
-        <v>127107.70142308316</v>
+        <v>194931.4768140252</v>
       </c>
       <c r="X51" s="14">
         <f t="shared" si="6"/>
-        <v>132072.95384448892</v>
+        <v>201505.35780892087</v>
       </c>
       <c r="Y51" s="14">
         <f t="shared" si="6"/>
-        <v>136353.64193856754</v>
+        <v>206942.22067709177</v>
       </c>
       <c r="Z51" s="14">
         <f t="shared" si="6"/>
-        <v>140003.44335623973</v>
+        <v>211226.97990729217</v>
       </c>
       <c r="AA51" s="14">
         <f t="shared" si="6"/>
-        <v>143316.67893151526</v>
+        <v>214942.58873076853</v>
       </c>
       <c r="AB51" s="14">
         <f t="shared" si="6"/>
-        <v>146107.63793445521</v>
+        <v>218086.50965856825</v>
       </c>
       <c r="AC51" s="14">
         <f t="shared" si="6"/>
-        <v>148512.81496311526</v>
+        <v>220783.65128149631</v>
       </c>
       <c r="AD51" s="14">
         <f t="shared" si="6"/>
-        <v>150858.45859711774</v>
+        <v>223121.25023898418</v>
       </c>
       <c r="AE51" s="14">
         <f t="shared" si="6"/>
-        <v>153069.00185776383</v>
+        <v>225225.20502137329</v>
       </c>
       <c r="AF51" s="14">
         <f t="shared" si="6"/>
-        <v>154958.31574770485</v>
+        <v>227196.56903486463</v>
       </c>
       <c r="AG51" s="14">
         <f t="shared" si="6"/>
-        <v>156732.32725501867</v>
+        <v>229217.51167866096</v>
       </c>
       <c r="AH51" s="14">
         <f t="shared" si="6"/>
-        <v>158194.03242970258</v>
-      </c>
-    </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.45">
+        <v>231047.34794293236</v>
+      </c>
+    </row>
+    <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -7221,130 +7265,130 @@
       </c>
       <c r="D52" s="14">
         <f t="shared" si="6"/>
-        <v>17254.576727449814</v>
+        <v>16322.168849088253</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" si="6"/>
-        <v>22681.324738921056</v>
+        <v>32484.566040798662</v>
       </c>
       <c r="F52" s="14">
         <f t="shared" si="6"/>
-        <v>29572.23973269845</v>
+        <v>39823.69541691467</v>
       </c>
       <c r="G52" s="14">
         <f t="shared" si="6"/>
-        <v>37474.83861804015</v>
+        <v>49914.007358909155</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="6"/>
-        <v>48045.837617012068</v>
+        <v>62285.486580812729</v>
       </c>
       <c r="I52" s="14">
         <f t="shared" si="6"/>
-        <v>60740.417410674032</v>
+        <v>78838.114865717944</v>
       </c>
       <c r="J52" s="14">
         <f t="shared" si="6"/>
-        <v>78311.894919106111</v>
+        <v>102587.22652093141</v>
       </c>
       <c r="K52" s="14">
         <f t="shared" si="6"/>
-        <v>99155.032510867022</v>
+        <v>132475.45231138286</v>
       </c>
       <c r="L52" s="14">
         <f t="shared" si="6"/>
-        <v>125015.42701513266</v>
+        <v>174464.75497357646</v>
       </c>
       <c r="M52" s="14">
         <f t="shared" si="6"/>
-        <v>154629.7440163772</v>
+        <v>222136.97896939199</v>
       </c>
       <c r="N52" s="14">
         <f t="shared" si="6"/>
-        <v>186796.34209909278</v>
+        <v>276350.03305196331</v>
       </c>
       <c r="O52" s="14">
         <f t="shared" si="6"/>
-        <v>220865.00550114532</v>
+        <v>329413.17839943728</v>
       </c>
       <c r="P52" s="14">
         <f t="shared" si="6"/>
-        <v>256812.71368793177</v>
+        <v>390523.04235881899</v>
       </c>
       <c r="Q52" s="14">
         <f t="shared" si="6"/>
-        <v>294493.56830438471</v>
+        <v>451364.99404794117</v>
       </c>
       <c r="R52" s="14">
         <f t="shared" si="6"/>
-        <v>329856.56507584365</v>
+        <v>510314.28173980489</v>
       </c>
       <c r="S52" s="14">
         <f t="shared" si="6"/>
-        <v>362664.07923452917</v>
+        <v>561697.74114856706</v>
       </c>
       <c r="T52" s="14">
         <f t="shared" si="6"/>
-        <v>392596.92319138575</v>
+        <v>607799.48699565325</v>
       </c>
       <c r="U52" s="14">
         <f t="shared" si="6"/>
-        <v>419739.55639124871</v>
+        <v>648597.76919538993</v>
       </c>
       <c r="V52" s="14">
         <f t="shared" si="6"/>
-        <v>443580.80100283178</v>
+        <v>682809.23105712177</v>
       </c>
       <c r="W52" s="14">
         <f t="shared" si="6"/>
-        <v>463293.59477301012</v>
+        <v>710503.79808993021</v>
       </c>
       <c r="X52" s="14">
         <f t="shared" si="6"/>
-        <v>481391.39386396843</v>
+        <v>734464.87144454673</v>
       </c>
       <c r="Y52" s="14">
         <f t="shared" si="6"/>
-        <v>496994.03125732735</v>
+        <v>754281.63875511789</v>
       </c>
       <c r="Z52" s="14">
         <f t="shared" si="6"/>
-        <v>510297.1560882348</v>
+        <v>769899.11499197374</v>
       </c>
       <c r="AA52" s="14">
         <f t="shared" si="6"/>
-        <v>522373.53543278686</v>
+        <v>783442.10058077669</v>
       </c>
       <c r="AB52" s="14">
         <f t="shared" si="6"/>
-        <v>532546.27410132927</v>
+        <v>794901.34665331966</v>
       </c>
       <c r="AC52" s="14">
         <f t="shared" si="6"/>
-        <v>541312.87989466661</v>
+        <v>804732.13128798956</v>
       </c>
       <c r="AD52" s="14">
         <f t="shared" si="6"/>
-        <v>549862.49301084003</v>
+        <v>813252.42244286928</v>
       </c>
       <c r="AE52" s="14">
         <f t="shared" si="6"/>
-        <v>557919.68012192706</v>
+        <v>820921.1062713057</v>
       </c>
       <c r="AF52" s="14">
         <f t="shared" si="6"/>
-        <v>564806.02149955812</v>
+        <v>828106.51132694841</v>
       </c>
       <c r="AG52" s="14">
         <f t="shared" si="6"/>
-        <v>571272.09837130026</v>
+        <v>835472.62503832765</v>
       </c>
       <c r="AH52" s="14">
         <f t="shared" si="6"/>
-        <v>576599.85300218244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.45">
+        <v>842142.17701062362</v>
+      </c>
+    </row>
+    <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -7358,130 +7402,130 @@
       </c>
       <c r="D53" s="14">
         <f t="shared" si="6"/>
-        <v>832.87397868080734</v>
+        <v>787.8668903197879</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" si="6"/>
-        <v>1094.8217087819924</v>
+        <v>1568.021643850441</v>
       </c>
       <c r="F53" s="14">
         <f t="shared" si="6"/>
-        <v>1427.4444023591798</v>
+        <v>1922.2795303284454</v>
       </c>
       <c r="G53" s="14">
         <f t="shared" si="6"/>
-        <v>1808.9008170553541</v>
+        <v>2409.3362913262267</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="6"/>
-        <v>2319.1602186028895</v>
+        <v>3006.5044099345273</v>
       </c>
       <c r="I53" s="14">
         <f t="shared" si="6"/>
-        <v>2931.9243186696244</v>
+        <v>3805.4955179193043</v>
       </c>
       <c r="J53" s="14">
         <f t="shared" si="6"/>
-        <v>3780.095016503436</v>
+        <v>4951.8590263874612</v>
       </c>
       <c r="K53" s="14">
         <f t="shared" si="6"/>
-        <v>4786.1879046949116</v>
+        <v>6394.555994444745</v>
       </c>
       <c r="L53" s="14">
         <f t="shared" si="6"/>
-        <v>6034.4624930108403</v>
+        <v>8421.3688292480565</v>
       </c>
       <c r="M53" s="14">
         <f t="shared" si="6"/>
-        <v>7463.9379542954021</v>
+        <v>10722.494814494165</v>
       </c>
       <c r="N53" s="14">
         <f t="shared" si="6"/>
-        <v>9016.6113666287893</v>
+        <v>13339.344984939487</v>
       </c>
       <c r="O53" s="14">
         <f t="shared" si="6"/>
-        <v>10661.096982486517</v>
+        <v>15900.689356636545</v>
       </c>
       <c r="P53" s="14">
         <f t="shared" si="6"/>
-        <v>12396.283606586945</v>
+        <v>18850.446765146185</v>
       </c>
       <c r="Q53" s="14">
         <f t="shared" si="6"/>
-        <v>14215.128762873581</v>
+        <v>21787.272117309669</v>
       </c>
       <c r="R53" s="14">
         <f t="shared" si="6"/>
-        <v>15922.091517414281</v>
+        <v>24632.739065346392</v>
       </c>
       <c r="S53" s="14">
         <f t="shared" si="6"/>
-        <v>17505.701783814005</v>
+        <v>27113.005428999153</v>
       </c>
       <c r="T53" s="14">
         <f t="shared" si="6"/>
-        <v>18950.552459282506</v>
+        <v>29338.324838122036</v>
       </c>
       <c r="U53" s="14">
         <f t="shared" si="6"/>
-        <v>20260.720379488845</v>
+        <v>31307.647421676316</v>
       </c>
       <c r="V53" s="14">
         <f t="shared" si="6"/>
-        <v>21411.531122053279</v>
+        <v>32959.025882437818</v>
       </c>
       <c r="W53" s="14">
         <f t="shared" si="6"/>
-        <v>22363.0626048374</v>
+        <v>34295.83550673665</v>
       </c>
       <c r="X53" s="14">
         <f t="shared" si="6"/>
-        <v>23236.638710026513</v>
+        <v>35452.430351892937</v>
       </c>
       <c r="Y53" s="14">
         <f t="shared" si="6"/>
-        <v>23989.774002128313</v>
+        <v>36408.980610717314</v>
       </c>
       <c r="Z53" s="14">
         <f t="shared" si="6"/>
-        <v>24631.912414551884</v>
+        <v>37162.832169976369</v>
       </c>
       <c r="AA53" s="14">
         <f t="shared" si="6"/>
-        <v>25214.83613801562</v>
+        <v>37816.548599462512</v>
       </c>
       <c r="AB53" s="14">
         <f t="shared" si="6"/>
-        <v>25705.8716158938</v>
+        <v>38369.683458687301</v>
       </c>
       <c r="AC53" s="14">
         <f t="shared" si="6"/>
-        <v>26129.033421712389</v>
+        <v>38844.212903342173</v>
       </c>
       <c r="AD53" s="14">
         <f t="shared" si="6"/>
-        <v>26541.721046840899</v>
+        <v>39255.485164944177</v>
       </c>
       <c r="AE53" s="14">
         <f t="shared" si="6"/>
-        <v>26930.63939541511</v>
+        <v>39625.650560034628</v>
       </c>
       <c r="AF53" s="14">
         <f t="shared" si="6"/>
-        <v>27263.041321717799</v>
+        <v>39972.488213119781</v>
       </c>
       <c r="AG53" s="14">
         <f t="shared" si="6"/>
-        <v>27575.157188463829</v>
+        <v>40328.048626517324</v>
       </c>
       <c r="AH53" s="14">
         <f t="shared" si="6"/>
-        <v>27832.326533556985</v>
-      </c>
-    </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.45">
+        <v>40649.986184008798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>50</v>
       </c>
@@ -7495,130 +7539,130 @@
       </c>
       <c r="D54" s="14">
         <f t="shared" si="6"/>
-        <v>8974.8295276229637</v>
+        <v>8489.8450570856548</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" si="6"/>
-        <v>11797.508928088306</v>
+        <v>16896.586169579568</v>
       </c>
       <c r="F54" s="14">
         <f t="shared" si="6"/>
-        <v>15381.763026892484</v>
+        <v>20713.975380120122</v>
       </c>
       <c r="G54" s="14">
         <f t="shared" si="6"/>
-        <v>19492.236377901627</v>
+        <v>25962.370109842541</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="6"/>
-        <v>24990.656620312751</v>
+        <v>32397.295682051834</v>
       </c>
       <c r="I54" s="14">
         <f t="shared" si="6"/>
-        <v>31593.640360370107</v>
+        <v>41007.012364049566</v>
       </c>
       <c r="J54" s="14">
         <f t="shared" si="6"/>
-        <v>40733.303284454305</v>
+        <v>53359.922082138408</v>
       </c>
       <c r="K54" s="14">
         <f t="shared" si="6"/>
-        <v>51574.693928899949</v>
+        <v>68906.042719549805</v>
       </c>
       <c r="L54" s="14">
         <f t="shared" si="6"/>
-        <v>65025.770466966067</v>
+        <v>90746.44131811049</v>
       </c>
       <c r="M54" s="14">
         <f t="shared" si="6"/>
-        <v>80429.419647205228</v>
+        <v>115542.76581353822</v>
       </c>
       <c r="N54" s="14">
         <f t="shared" si="6"/>
-        <v>97160.617336724201</v>
+        <v>143741.25055462366</v>
       </c>
       <c r="O54" s="14">
         <f t="shared" si="6"/>
-        <v>114881.1590281911</v>
+        <v>171341.61950110923</v>
       </c>
       <c r="P54" s="14">
         <f t="shared" si="6"/>
-        <v>133579.07077539092</v>
+        <v>203127.42451707157</v>
       </c>
       <c r="Q54" s="14">
         <f t="shared" si="6"/>
-        <v>153178.46472052377</v>
+        <v>234773.87711703911</v>
       </c>
       <c r="R54" s="14">
         <f t="shared" si="6"/>
-        <v>171572.24352037226</v>
+        <v>265435.87573724362</v>
       </c>
       <c r="S54" s="14">
         <f t="shared" si="6"/>
-        <v>188636.80856014285</v>
+        <v>292162.56953086954</v>
       </c>
       <c r="T54" s="14">
         <f t="shared" si="6"/>
-        <v>204206.13697851848</v>
+        <v>316142.02242843999</v>
       </c>
       <c r="U54" s="14">
         <f t="shared" si="6"/>
-        <v>218324.15967750663</v>
+        <v>337362.9212975488</v>
       </c>
       <c r="V54" s="14">
         <f t="shared" si="6"/>
-        <v>230724.99161300794</v>
+        <v>355157.73846112221</v>
       </c>
       <c r="W54" s="14">
         <f t="shared" si="6"/>
-        <v>240978.4429955089</v>
+        <v>369562.84511119529</v>
       </c>
       <c r="X54" s="14">
         <f t="shared" si="6"/>
-        <v>250391.86786429305</v>
+        <v>382026.00500514038</v>
       </c>
       <c r="Y54" s="14">
         <f t="shared" si="6"/>
-        <v>258507.45441263999</v>
+        <v>392333.53738975164</v>
       </c>
       <c r="Z54" s="14">
         <f t="shared" si="6"/>
-        <v>265426.96796710131</v>
+        <v>400456.84224338509</v>
       </c>
       <c r="AA54" s="14">
         <f t="shared" si="6"/>
-        <v>271708.39970780798</v>
+        <v>407501.11744494346</v>
       </c>
       <c r="AB54" s="14">
         <f t="shared" si="6"/>
-        <v>276999.66803744383</v>
+        <v>413461.55226989882</v>
       </c>
       <c r="AC54" s="14">
         <f t="shared" si="6"/>
-        <v>281559.54764352576</v>
+        <v>418574.95595476433</v>
       </c>
       <c r="AD54" s="14">
         <f t="shared" si="6"/>
-        <v>286006.56025106867</v>
+        <v>423006.71697960066</v>
       </c>
       <c r="AE54" s="14">
         <f t="shared" si="6"/>
-        <v>290197.44142632972</v>
+        <v>426995.52129213786</v>
       </c>
       <c r="AF54" s="14">
         <f t="shared" si="6"/>
-        <v>293779.31659542234</v>
+        <v>430732.95203181641</v>
       </c>
       <c r="AG54" s="14">
         <f t="shared" si="6"/>
-        <v>297142.59455657162</v>
+        <v>434564.37692765542</v>
       </c>
       <c r="AH54" s="14">
         <f t="shared" si="6"/>
-        <v>299913.78334505705</v>
-      </c>
-    </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.45">
+        <v>438033.49082841835</v>
+      </c>
+    </row>
+    <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -7632,130 +7676,130 @@
       </c>
       <c r="D55" s="14">
         <f t="shared" si="6"/>
-        <v>37093.512418159189</v>
+        <v>35089.042313727616</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" si="6"/>
-        <v>48759.816838915649</v>
+        <v>69834.611005897954</v>
       </c>
       <c r="F55" s="14">
         <f t="shared" si="6"/>
-        <v>63573.755478599647</v>
+        <v>85612.111141172019</v>
       </c>
       <c r="G55" s="14">
         <f t="shared" si="6"/>
-        <v>80562.590065472657</v>
+        <v>107304.04350413939</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="6"/>
-        <v>103287.89297115957</v>
+        <v>133899.9794924517</v>
       </c>
       <c r="I55" s="14">
         <f t="shared" si="6"/>
-        <v>130578.42351604351</v>
+        <v>169484.45847086198</v>
       </c>
       <c r="J55" s="14">
         <f t="shared" si="6"/>
-        <v>168353.20231589201</v>
+        <v>220539.78031491803</v>
       </c>
       <c r="K55" s="14">
         <f t="shared" si="6"/>
-        <v>213161.32454953738</v>
+        <v>284792.83572317514</v>
       </c>
       <c r="L55" s="14">
         <f t="shared" si="6"/>
-        <v>268755.43617769604</v>
+        <v>375060.52204967267</v>
       </c>
       <c r="M55" s="14">
         <f t="shared" si="6"/>
-        <v>332419.64844975923</v>
+        <v>477545.22861317033</v>
       </c>
       <c r="N55" s="14">
         <f t="shared" si="6"/>
-        <v>401570.69887993077</v>
+        <v>594091.26892484177</v>
       </c>
       <c r="O55" s="14">
         <f t="shared" si="6"/>
-        <v>474810.76781559444</v>
+        <v>708165.26053784974</v>
       </c>
       <c r="P55" s="14">
         <f t="shared" si="6"/>
-        <v>552090.36621394951</v>
+        <v>839537.91218007694</v>
       </c>
       <c r="Q55" s="14">
         <f t="shared" si="6"/>
-        <v>633095.84497592121</v>
+        <v>970334.61187165207</v>
       </c>
       <c r="R55" s="14">
         <f t="shared" si="6"/>
-        <v>709118.44353660522</v>
+        <v>1097062.5038147287</v>
       </c>
       <c r="S55" s="14">
         <f t="shared" si="6"/>
-        <v>779647.32135706942</v>
+        <v>1207525.5432606461</v>
       </c>
       <c r="T55" s="14">
         <f t="shared" si="6"/>
-        <v>843996.29592554516</v>
+        <v>1306634.0701801851</v>
       </c>
       <c r="U55" s="14">
         <f t="shared" si="6"/>
-        <v>902346.93631297012</v>
+        <v>1394341.3267139224</v>
       </c>
       <c r="V55" s="14">
         <f t="shared" si="6"/>
-        <v>953600.32357556419</v>
+        <v>1467888.3806612196</v>
       </c>
       <c r="W55" s="14">
         <f t="shared" si="6"/>
-        <v>995978.45733455988</v>
+        <v>1527425.5563551756</v>
       </c>
       <c r="X55" s="14">
         <f t="shared" si="6"/>
-        <v>1034884.7107840485</v>
+        <v>1578936.5488339376</v>
       </c>
       <c r="Y55" s="14">
         <f t="shared" si="6"/>
-        <v>1068426.9200800823</v>
+        <v>1621538.2026405497</v>
       </c>
       <c r="Z55" s="14">
         <f t="shared" si="6"/>
-        <v>1097025.6874627997</v>
+        <v>1655112.312158433</v>
       </c>
       <c r="AA55" s="14">
         <f t="shared" si="6"/>
-        <v>1122987.224176181</v>
+        <v>1684226.7269628267</v>
       </c>
       <c r="AB55" s="14">
         <f t="shared" si="6"/>
-        <v>1144856.355716682</v>
+        <v>1708861.5640387426</v>
       </c>
       <c r="AC55" s="14">
         <f t="shared" si="6"/>
-        <v>1163702.6134949408</v>
+        <v>1729995.5702613497</v>
       </c>
       <c r="AD55" s="14">
         <f t="shared" si="6"/>
-        <v>1182082.3851523187</v>
+        <v>1748312.3062063742</v>
       </c>
       <c r="AE55" s="14">
         <f t="shared" si="6"/>
-        <v>1199403.5501325687</v>
+        <v>1764798.2753097776</v>
       </c>
       <c r="AF55" s="14">
         <f t="shared" si="6"/>
-        <v>1214207.6565120935</v>
+        <v>1780245.3022563716</v>
       </c>
       <c r="AG55" s="14">
         <f t="shared" si="6"/>
-        <v>1228108.2874303339</v>
+        <v>1796080.8127265843</v>
       </c>
       <c r="AH55" s="14">
         <f t="shared" si="6"/>
-        <v>1239561.7780423139</v>
-      </c>
-    </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.45">
+        <v>1810418.8699745685</v>
+      </c>
+    </row>
+    <row r="56" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>52</v>
       </c>
@@ -7769,130 +7813,130 @@
       </c>
       <c r="D56" s="14">
         <f t="shared" si="6"/>
-        <v>3031.4163194632324</v>
+        <v>2867.6037552080511</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="6"/>
-        <v>3984.8290135815159</v>
+        <v>5707.1376007791778</v>
       </c>
       <c r="F56" s="14">
         <f t="shared" si="6"/>
-        <v>5195.4777879984849</v>
+        <v>6996.5321140630913</v>
       </c>
       <c r="G56" s="14">
         <f t="shared" si="6"/>
-        <v>6583.8669444294137</v>
+        <v>8769.2754721064866</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="6"/>
-        <v>8441.0610897678689</v>
+        <v>10942.791786158758</v>
       </c>
       <c r="I56" s="14">
         <f t="shared" si="6"/>
-        <v>10671.34218927547</v>
+        <v>13850.884421838644</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="6"/>
-        <v>13758.434067420592</v>
+        <v>18023.310426924949</v>
       </c>
       <c r="K56" s="14">
         <f t="shared" si="6"/>
-        <v>17420.316270764568</v>
+        <v>23274.303068015797</v>
       </c>
       <c r="L56" s="14">
         <f t="shared" si="6"/>
-        <v>21963.668632649747</v>
+        <v>30651.30566527785</v>
       </c>
       <c r="M56" s="14">
         <f t="shared" si="6"/>
-        <v>27166.538877766354</v>
+        <v>39026.727449813319</v>
       </c>
       <c r="N56" s="14">
         <f t="shared" si="6"/>
-        <v>32817.813430009199</v>
+        <v>48551.292408419453</v>
       </c>
       <c r="O56" s="14">
         <f t="shared" si="6"/>
-        <v>38803.257399491369</v>
+        <v>57873.832584816832</v>
       </c>
       <c r="P56" s="14">
         <f t="shared" si="6"/>
-        <v>45118.826362209831</v>
+        <v>68610.081976083544</v>
       </c>
       <c r="Q56" s="14">
         <f t="shared" si="6"/>
-        <v>51738.887776635456</v>
+        <v>79299.262485796222</v>
       </c>
       <c r="R56" s="14">
         <f t="shared" si="6"/>
-        <v>57951.730155294623</v>
+        <v>89655.925274606343</v>
       </c>
       <c r="S56" s="14">
         <f t="shared" si="6"/>
-        <v>63715.605757264209</v>
+        <v>98683.365348195439</v>
       </c>
       <c r="T56" s="14">
         <f t="shared" si="6"/>
-        <v>68974.437259888524</v>
+        <v>106782.87349169416</v>
       </c>
       <c r="U56" s="14">
         <f t="shared" si="6"/>
-        <v>73743.063145933658</v>
+        <v>113950.62848330717</v>
       </c>
       <c r="V56" s="14">
         <f t="shared" si="6"/>
-        <v>77931.675775120384</v>
+        <v>119961.16038093176</v>
       </c>
       <c r="W56" s="14">
         <f t="shared" si="6"/>
-        <v>81394.97051025377</v>
+        <v>124826.75423407824</v>
       </c>
       <c r="X56" s="14">
         <f t="shared" si="6"/>
-        <v>84574.530598993559</v>
+        <v>129036.41929549265</v>
       </c>
       <c r="Y56" s="14">
         <f t="shared" si="6"/>
-        <v>87315.721551864073</v>
+        <v>132517.98089930197</v>
       </c>
       <c r="Z56" s="14">
         <f t="shared" si="6"/>
-        <v>89652.916508846916</v>
+        <v>135261.77885395812</v>
       </c>
       <c r="AA56" s="14">
         <f t="shared" si="6"/>
-        <v>91774.587414100955</v>
+        <v>137641.11438774958</v>
       </c>
       <c r="AB56" s="14">
         <f t="shared" si="6"/>
-        <v>93561.812131378159</v>
+        <v>139654.3625886045</v>
       </c>
       <c r="AC56" s="14">
         <f t="shared" si="6"/>
-        <v>95101.99664520318</v>
+        <v>141381.51019966451</v>
       </c>
       <c r="AD56" s="14">
         <f t="shared" si="6"/>
-        <v>96604.058221957675</v>
+        <v>142878.42026946592</v>
       </c>
       <c r="AE56" s="14">
         <f t="shared" si="6"/>
-        <v>98019.606623018233</v>
+        <v>144225.71343542016</v>
       </c>
       <c r="AF56" s="14">
         <f t="shared" si="6"/>
-        <v>99229.451869487573</v>
+        <v>145488.10048157568</v>
       </c>
       <c r="AG56" s="14">
         <f t="shared" si="6"/>
-        <v>100365.46182565877</v>
+        <v>146782.23580975053</v>
       </c>
       <c r="AH56" s="14">
         <f t="shared" si="6"/>
-        <v>101301.4826037552</v>
-      </c>
-    </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.45">
+        <v>147953.99383150262</v>
+      </c>
+    </row>
+    <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>53</v>
       </c>
@@ -7906,130 +7950,130 @@
       </c>
       <c r="D57" s="14">
         <f t="shared" si="6"/>
-        <v>5526.9762188193272</v>
+        <v>5228.3078567177099</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" si="6"/>
-        <v>7265.2690601157938</v>
+        <v>10405.437746875168</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" si="6"/>
-        <v>9472.563037714408</v>
+        <v>12756.303500892807</v>
       </c>
       <c r="G57" s="14">
         <f t="shared" si="6"/>
-        <v>12003.919024944536</v>
+        <v>15988.426492072938</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="6"/>
-        <v>15390.015421243437</v>
+        <v>19951.251690925816</v>
       </c>
       <c r="I57" s="14">
         <f t="shared" si="6"/>
-        <v>19456.336011759824</v>
+        <v>25253.380183251265</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="6"/>
-        <v>25084.82170878199</v>
+        <v>32860.68214201973</v>
       </c>
       <c r="K57" s="14">
         <f t="shared" si="6"/>
-        <v>31761.283705787922</v>
+        <v>42434.461654311635</v>
       </c>
       <c r="L57" s="14">
         <f t="shared" si="6"/>
-        <v>40044.870587810903</v>
+        <v>55884.451238208603</v>
       </c>
       <c r="M57" s="14">
         <f t="shared" si="6"/>
-        <v>49530.911792291176</v>
+        <v>71154.790956477824</v>
       </c>
       <c r="N57" s="14">
         <f t="shared" si="6"/>
-        <v>59834.498223400602</v>
+        <v>88520.285653734463</v>
       </c>
       <c r="O57" s="14">
         <f t="shared" si="6"/>
-        <v>70747.353137456477</v>
+        <v>105517.44223797413</v>
       </c>
       <c r="P57" s="14">
         <f t="shared" si="6"/>
-        <v>82262.102609887632</v>
+        <v>125092.11915841493</v>
       </c>
       <c r="Q57" s="14">
         <f t="shared" si="6"/>
-        <v>94332.01256245152</v>
+        <v>144580.97857258806</v>
       </c>
       <c r="R57" s="14">
         <f t="shared" si="6"/>
-        <v>105659.4676063705</v>
+        <v>163463.58092996408</v>
       </c>
       <c r="S57" s="14">
         <f t="shared" si="6"/>
-        <v>116168.35191097161</v>
+        <v>179922.70146817452</v>
       </c>
       <c r="T57" s="14">
         <f t="shared" si="6"/>
-        <v>125756.42348898869</v>
+        <v>194689.98651768483</v>
       </c>
       <c r="U57" s="14">
         <f t="shared" si="6"/>
-        <v>134450.73634182854</v>
+        <v>207758.46910340348</v>
       </c>
       <c r="V57" s="14">
         <f t="shared" si="6"/>
-        <v>142087.55027686091</v>
+        <v>218717.06513897155</v>
       </c>
       <c r="W57" s="14">
         <f t="shared" si="6"/>
-        <v>148401.94118283642</v>
+        <v>227588.17312374871</v>
       </c>
       <c r="X57" s="14">
         <f t="shared" si="6"/>
-        <v>154199.01791028623</v>
+        <v>235263.37053370127</v>
       </c>
       <c r="Y57" s="14">
         <f t="shared" si="6"/>
-        <v>159196.84585971176</v>
+        <v>241611.06618509098</v>
       </c>
       <c r="Z57" s="14">
         <f t="shared" si="6"/>
-        <v>163458.09525097848</v>
+        <v>246613.64730443878</v>
       </c>
       <c r="AA57" s="14">
         <f t="shared" si="6"/>
-        <v>167326.39422469924</v>
+        <v>250951.72875746261</v>
       </c>
       <c r="AB57" s="14">
         <f t="shared" si="6"/>
-        <v>170584.92009811878</v>
+        <v>254622.34795195062</v>
       </c>
       <c r="AC57" s="14">
         <f t="shared" si="6"/>
-        <v>173393.03428746641</v>
+        <v>257771.33930342871</v>
       </c>
       <c r="AD57" s="14">
         <f t="shared" si="6"/>
-        <v>176131.64150569052</v>
+        <v>260500.55412766262</v>
       </c>
       <c r="AE57" s="14">
         <f t="shared" si="6"/>
-        <v>178712.51510560393</v>
+        <v>262956.98257670039</v>
       </c>
       <c r="AF57" s="14">
         <f t="shared" si="6"/>
-        <v>180918.34406507583</v>
+        <v>265258.60744368087</v>
       </c>
       <c r="AG57" s="14">
         <f t="shared" si="6"/>
-        <v>182989.5541366809</v>
+        <v>267618.11680464621</v>
       </c>
       <c r="AH57" s="14">
         <f t="shared" si="6"/>
-        <v>184696.13747452336</v>
-      </c>
-    </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.45">
+        <v>269754.50390491134</v>
+      </c>
+    </row>
+    <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -8043,130 +8087,130 @@
       </c>
       <c r="D58" s="14">
         <f t="shared" si="6"/>
-        <v>8564.5166116552136</v>
+        <v>8101.7047508251717</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="6"/>
-        <v>11258.148233320708</v>
+        <v>16124.104918565012</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="6"/>
-        <v>14678.536740436122</v>
+        <v>19766.970023267138</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="6"/>
-        <v>18601.086710675827</v>
+        <v>24775.417672203883</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="6"/>
-        <v>23848.129159677505</v>
+        <v>30916.15012715762</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="6"/>
-        <v>30149.236468084338</v>
+        <v>39132.24618978049</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="6"/>
-        <v>38871.050592500404</v>
+        <v>50920.40329707988</v>
       </c>
       <c r="K58" s="14">
         <f t="shared" si="6"/>
-        <v>49216.792534675245</v>
+        <v>65755.783516404234</v>
       </c>
       <c r="L58" s="14">
         <f t="shared" si="6"/>
-        <v>62052.910268203377</v>
+        <v>86597.67873311328</v>
       </c>
       <c r="M58" s="14">
         <f t="shared" si="6"/>
-        <v>76752.332566780286</v>
+        <v>110260.36027992713</v>
       </c>
       <c r="N58" s="14">
         <f t="shared" si="6"/>
-        <v>92718.610266399715</v>
+        <v>137169.66148116082</v>
       </c>
       <c r="O58" s="14">
         <f t="shared" si="6"/>
-        <v>109629.00095593672</v>
+        <v>163508.19165629565</v>
       </c>
       <c r="P58" s="14">
         <f t="shared" si="6"/>
-        <v>127472.07811626354</v>
+        <v>193840.80736071279</v>
       </c>
       <c r="Q58" s="14">
         <f t="shared" ref="Q58:AH65" si="8">SUM(Q$46:Q$47)*INDEX($B$23:$B$40,MATCH($A58,$A$23:$A$40,0),1)</f>
-        <v>146175.42334469635</v>
+        <v>224040.44158865861</v>
       </c>
       <c r="R58" s="14">
         <f t="shared" si="8"/>
-        <v>163728.27196399905</v>
+        <v>253300.62928593328</v>
       </c>
       <c r="S58" s="14">
         <f t="shared" si="8"/>
-        <v>180012.67606370506</v>
+        <v>278805.4271504067</v>
       </c>
       <c r="T58" s="14">
         <f t="shared" si="8"/>
-        <v>194870.20304637193</v>
+        <v>301688.58298612986</v>
       </c>
       <c r="U58" s="14">
         <f t="shared" si="8"/>
-        <v>208342.77537290548</v>
+        <v>321939.30087657593</v>
       </c>
       <c r="V58" s="14">
         <f t="shared" si="8"/>
-        <v>220176.66378081992</v>
+        <v>338920.57129845064</v>
       </c>
       <c r="W58" s="14">
         <f t="shared" si="8"/>
-        <v>229961.34597694929</v>
+        <v>352667.10261890589</v>
       </c>
       <c r="X58" s="14">
         <f t="shared" si="8"/>
-        <v>238944.40614685352</v>
+        <v>364560.46946413431</v>
       </c>
       <c r="Y58" s="14">
         <f t="shared" si="8"/>
-        <v>246688.96280865031</v>
+        <v>374396.76017711882</v>
       </c>
       <c r="Z58" s="14">
         <f t="shared" si="8"/>
-        <v>253292.12876287356</v>
+        <v>382148.68227729376</v>
       </c>
       <c r="AA58" s="14">
         <f t="shared" si="8"/>
-        <v>259286.38484569738</v>
+        <v>388870.90600256115</v>
       </c>
       <c r="AB58" s="14">
         <f t="shared" si="8"/>
-        <v>264335.7459913785</v>
+        <v>394558.84056598664</v>
       </c>
       <c r="AC58" s="14">
         <f t="shared" si="8"/>
-        <v>268687.15617841744</v>
+        <v>399438.46871561784</v>
       </c>
       <c r="AD58" s="14">
         <f t="shared" si="8"/>
-        <v>272930.85944122792</v>
+        <v>403667.61767040018</v>
       </c>
       <c r="AE58" s="14">
         <f t="shared" si="8"/>
-        <v>276930.14113594138</v>
+        <v>407474.06108976784</v>
       </c>
       <c r="AF58" s="14">
         <f t="shared" si="8"/>
-        <v>280348.25947369367</v>
+        <v>411040.62327976478</v>
       </c>
       <c r="AG58" s="14">
         <f t="shared" si="8"/>
-        <v>283557.77447107836</v>
+        <v>414696.88238370937</v>
       </c>
       <c r="AH58" s="14">
         <f t="shared" si="8"/>
-        <v>286202.26953808416</v>
-      </c>
-    </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.45">
+        <v>418007.39469364932</v>
+      </c>
+    </row>
+    <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>55</v>
       </c>
@@ -8180,130 +8224,130 @@
       </c>
       <c r="D59" s="14">
         <f t="shared" si="7"/>
-        <v>3141.649640170986</v>
+        <v>2971.8802553974351</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" si="7"/>
-        <v>4129.7318868026623</v>
+        <v>5914.6698771711481</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" si="7"/>
-        <v>5384.4042530166116</v>
+        <v>7250.9514636653857</v>
       </c>
       <c r="G59" s="14">
         <f t="shared" si="7"/>
-        <v>6823.2802878632101</v>
+        <v>9088.1582165467225</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="7"/>
-        <v>8748.0087657594286</v>
+        <v>11340.71148747362</v>
       </c>
       <c r="I59" s="14">
         <f t="shared" si="7"/>
-        <v>11059.390996158216</v>
+        <v>14354.552946269139</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="7"/>
-        <v>14258.740760781342</v>
+        <v>18678.703533358585</v>
       </c>
       <c r="K59" s="14">
         <f t="shared" si="7"/>
-        <v>18053.78231697419</v>
+        <v>24120.641361398189</v>
       </c>
       <c r="L59" s="14">
         <f t="shared" si="7"/>
-        <v>22762.347492018827</v>
+        <v>31765.898598560681</v>
       </c>
       <c r="M59" s="14">
         <f t="shared" si="7"/>
-        <v>28154.413018776038</v>
+        <v>40445.881175261078</v>
       </c>
       <c r="N59" s="14">
         <f t="shared" si="7"/>
-        <v>34011.188463827712</v>
+        <v>50316.793950543797</v>
       </c>
       <c r="O59" s="14">
         <f t="shared" si="7"/>
-        <v>40214.284941291051</v>
+        <v>59978.335587901085</v>
       </c>
       <c r="P59" s="14">
         <f t="shared" si="7"/>
-        <v>46759.51095719928</v>
+        <v>71104.994047941116</v>
       </c>
       <c r="Q59" s="14">
         <f t="shared" si="7"/>
-        <v>53620.301877604019</v>
+        <v>82182.872030734259</v>
       </c>
       <c r="R59" s="14">
         <f t="shared" si="8"/>
-        <v>60059.065797305338</v>
+        <v>92916.140739137481</v>
       </c>
       <c r="S59" s="14">
         <f t="shared" si="8"/>
-        <v>66032.536875710182</v>
+        <v>102271.85136085709</v>
       </c>
       <c r="T59" s="14">
         <f t="shared" si="8"/>
-        <v>71482.598614793562</v>
+        <v>110665.88707321031</v>
       </c>
       <c r="U59" s="14">
         <f t="shared" si="8"/>
-        <v>76424.629078513055</v>
+        <v>118094.28770088198</v>
       </c>
       <c r="V59" s="14">
         <f t="shared" si="8"/>
-        <v>80765.554894215675</v>
+        <v>124323.38439478382</v>
       </c>
       <c r="W59" s="14">
         <f t="shared" si="8"/>
-        <v>84354.787619717536</v>
+        <v>129365.90893349926</v>
       </c>
       <c r="X59" s="14">
         <f t="shared" si="8"/>
-        <v>87649.96807532059</v>
+        <v>133728.65272441966</v>
       </c>
       <c r="Y59" s="14">
         <f t="shared" si="8"/>
-        <v>90490.838699204585</v>
+        <v>137336.8165683675</v>
       </c>
       <c r="Z59" s="14">
         <f t="shared" si="8"/>
-        <v>92913.022563714083</v>
+        <v>140180.38899410205</v>
       </c>
       <c r="AA59" s="14">
         <f t="shared" si="8"/>
-        <v>95111.845138250093</v>
+        <v>142646.24582003138</v>
       </c>
       <c r="AB59" s="14">
         <f t="shared" si="8"/>
-        <v>96964.059845246462</v>
+        <v>144732.70304637193</v>
       </c>
       <c r="AC59" s="14">
         <f t="shared" si="8"/>
-        <v>98560.251068665108</v>
+        <v>146522.65602510684</v>
       </c>
       <c r="AD59" s="14">
         <f t="shared" si="8"/>
-        <v>100116.93306639251</v>
+        <v>148073.99918835561</v>
       </c>
       <c r="AE59" s="14">
         <f t="shared" si="8"/>
-        <v>101583.95595476434</v>
+        <v>149470.28483307178</v>
       </c>
       <c r="AF59" s="14">
         <f t="shared" si="8"/>
-        <v>102837.79557383258</v>
+        <v>150778.57686272386</v>
       </c>
       <c r="AG59" s="14">
         <f t="shared" si="8"/>
-        <v>104015.11498295546</v>
+        <v>152119.77165737783</v>
       </c>
       <c r="AH59" s="14">
         <f t="shared" si="8"/>
-        <v>104985.17288025538</v>
-      </c>
-    </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.45">
+        <v>153334.13906173906</v>
+      </c>
+    </row>
+    <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>31</v>
       </c>
@@ -8317,130 +8361,130 @@
       </c>
       <c r="D60" s="14">
         <f t="shared" si="7"/>
-        <v>14857.002002056166</v>
+        <v>14054.154969969159</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="7"/>
-        <v>19529.687246361129</v>
+        <v>27970.739029273307</v>
       </c>
       <c r="F60" s="14">
         <f t="shared" si="7"/>
-        <v>25463.089118554191</v>
+        <v>34290.074563064773</v>
       </c>
       <c r="G60" s="14">
         <f t="shared" si="7"/>
-        <v>32267.598398355069</v>
+        <v>42978.307667334018</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="7"/>
-        <v>41369.725664195663</v>
+        <v>53630.733077214441</v>
       </c>
       <c r="I60" s="14">
         <f t="shared" si="7"/>
-        <v>52300.355860974334</v>
+        <v>67883.324459354655</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="7"/>
-        <v>67430.224338509826</v>
+        <v>88332.426455999856</v>
       </c>
       <c r="K60" s="14">
         <f t="shared" si="7"/>
-        <v>85377.146005807765</v>
+        <v>114067.59443031582</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" si="7"/>
-        <v>107644.16182385513</v>
+        <v>150222.35867467491</v>
       </c>
       <c r="M60" s="14">
         <f t="shared" si="7"/>
-        <v>133143.48144941652</v>
+        <v>191270.38544090328</v>
       </c>
       <c r="N60" s="14">
         <f t="shared" si="7"/>
-        <v>160840.43511354004</v>
+        <v>237950.37451075882</v>
       </c>
       <c r="O60" s="14">
         <f t="shared" si="7"/>
-        <v>190175.15646700215</v>
+        <v>283640.23808235489</v>
       </c>
       <c r="P60" s="14">
         <f t="shared" si="7"/>
-        <v>221127.82374691125</v>
+        <v>336258.70479591656</v>
       </c>
       <c r="Q60" s="14">
         <f t="shared" si="7"/>
-        <v>253572.81160831847</v>
+        <v>388646.4864455387</v>
       </c>
       <c r="R60" s="14">
         <f t="shared" si="8"/>
-        <v>284022.01486211066</v>
+        <v>439404.59538625256</v>
       </c>
       <c r="S60" s="14">
         <f t="shared" si="8"/>
-        <v>312270.82740832929</v>
+        <v>483648.17037317605</v>
       </c>
       <c r="T60" s="14">
         <f t="shared" si="8"/>
-        <v>338044.41372220119</v>
+        <v>523343.94159767689</v>
       </c>
       <c r="U60" s="14">
         <f t="shared" si="8"/>
-        <v>361415.49735764659</v>
+        <v>558473.18121313781</v>
       </c>
       <c r="V60" s="14">
         <f t="shared" si="8"/>
-        <v>381943.93016250926</v>
+        <v>587930.85875583941</v>
       </c>
       <c r="W60" s="14">
         <f t="shared" si="8"/>
-        <v>398917.57264217304</v>
+        <v>611777.18337752286</v>
       </c>
       <c r="X60" s="14">
         <f t="shared" si="8"/>
-        <v>414500.6287538553</v>
+        <v>632408.79436538427</v>
       </c>
       <c r="Y60" s="14">
         <f t="shared" si="8"/>
-        <v>427935.23330267123</v>
+        <v>649471.9629529427</v>
       </c>
       <c r="Z60" s="14">
         <f t="shared" si="8"/>
-        <v>439389.84939487401</v>
+        <v>662919.34444384323</v>
       </c>
       <c r="AA60" s="14">
         <f t="shared" si="8"/>
-        <v>449788.17993254337</v>
+        <v>674580.49192864751</v>
       </c>
       <c r="AB60" s="14">
         <f t="shared" si="8"/>
-        <v>458547.38632469386</v>
+        <v>684447.44169687794</v>
       </c>
       <c r="AC60" s="14">
         <f t="shared" si="8"/>
-        <v>466095.84618436953</v>
+        <v>692912.20958461845</v>
       </c>
       <c r="AD60" s="14">
         <f t="shared" si="8"/>
-        <v>473457.46514438256</v>
+        <v>700248.58095701889</v>
       </c>
       <c r="AE60" s="14">
         <f t="shared" si="8"/>
-        <v>480395.08215644897</v>
+        <v>706851.67837238242</v>
       </c>
       <c r="AF60" s="14">
         <f t="shared" si="8"/>
-        <v>486324.54593005433</v>
+        <v>713038.65003697493</v>
       </c>
       <c r="AG60" s="14">
         <f t="shared" si="8"/>
-        <v>491892.14220009744</v>
+        <v>719381.22035243409</v>
       </c>
       <c r="AH60" s="14">
         <f t="shared" si="8"/>
-        <v>496479.58948830335</v>
-      </c>
-    </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.45">
+        <v>725124.01825298055</v>
+      </c>
+    </row>
+    <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>56</v>
       </c>
@@ -8454,130 +8498,130 @@
       </c>
       <c r="D61" s="14">
         <f t="shared" si="7"/>
-        <v>3919.406958497917</v>
+        <v>3707.6088956225312</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" si="7"/>
-        <v>5152.1021589740822</v>
+        <v>7378.9253828256051</v>
       </c>
       <c r="F61" s="14">
         <f t="shared" si="7"/>
-        <v>6717.3854228667287</v>
+        <v>9046.021319192685</v>
       </c>
       <c r="G61" s="14">
         <f t="shared" si="7"/>
-        <v>8512.4744332016671</v>
+        <v>11338.053135652834</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="7"/>
-        <v>10913.695146366539</v>
+        <v>14148.256046750717</v>
       </c>
       <c r="I61" s="14">
         <f t="shared" si="7"/>
-        <v>13797.29091138647</v>
+        <v>17908.214201973198</v>
       </c>
       <c r="J61" s="14">
         <f t="shared" si="7"/>
-        <v>17788.682430604404</v>
+        <v>23302.866006529228</v>
       </c>
       <c r="K61" s="14">
         <f t="shared" si="7"/>
-        <v>22523.237198564293</v>
+        <v>30092.028209151744</v>
       </c>
       <c r="L61" s="14">
         <f t="shared" si="7"/>
-        <v>28397.470555345131</v>
+        <v>39629.970961167324</v>
       </c>
       <c r="M61" s="14">
         <f t="shared" si="7"/>
-        <v>35124.413902566601</v>
+        <v>50458.799127031365</v>
       </c>
       <c r="N61" s="14">
         <f t="shared" si="7"/>
-        <v>42431.112313547252</v>
+        <v>62773.388164421121</v>
       </c>
       <c r="O61" s="14">
         <f t="shared" si="7"/>
-        <v>50169.868152877731</v>
+        <v>74826.773442995516</v>
       </c>
       <c r="P61" s="14">
         <f t="shared" si="7"/>
-        <v>58335.452266291511</v>
+        <v>88707.984777158534</v>
       </c>
       <c r="Q61" s="14">
         <f t="shared" si="7"/>
-        <v>66894.723589993329</v>
+        <v>102528.33937557491</v>
       </c>
       <c r="R61" s="14">
         <f t="shared" si="8"/>
-        <v>74927.489493714267</v>
+        <v>115918.77207221831</v>
       </c>
       <c r="S61" s="14">
         <f t="shared" si="8"/>
-        <v>82379.773100301216</v>
+        <v>127590.61378352543</v>
       </c>
       <c r="T61" s="14">
         <f t="shared" si="8"/>
-        <v>89179.07039662356</v>
+        <v>138062.7051205743</v>
       </c>
       <c r="U61" s="14">
         <f t="shared" si="8"/>
-        <v>95344.566491712219</v>
+        <v>147330.10551377092</v>
       </c>
       <c r="V61" s="14">
         <f t="shared" si="8"/>
-        <v>100760.14645672133</v>
+        <v>155101.29827029564</v>
       </c>
       <c r="W61" s="14">
         <f t="shared" si="8"/>
-        <v>105237.94166982306</v>
+        <v>161392.16709052541</v>
       </c>
       <c r="X61" s="14">
         <f t="shared" si="8"/>
-        <v>109348.8880471836</v>
+        <v>166834.9663618491</v>
       </c>
       <c r="Y61" s="14">
         <f t="shared" si="8"/>
-        <v>112893.05412766265</v>
+        <v>171336.37934455206</v>
       </c>
       <c r="Z61" s="14">
         <f t="shared" si="8"/>
-        <v>115914.88195083239</v>
+        <v>174883.91609400648</v>
       </c>
       <c r="AA61" s="14">
         <f t="shared" si="8"/>
-        <v>118658.05241419116</v>
+        <v>177960.228703353</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="8"/>
-        <v>120968.80760420613</v>
+        <v>180563.21627617555</v>
       </c>
       <c r="AC61" s="14">
         <f t="shared" si="8"/>
-        <v>122960.15727864654</v>
+        <v>182796.29601572789</v>
       </c>
       <c r="AD61" s="14">
         <f t="shared" si="8"/>
-        <v>124902.216691016</v>
+        <v>184731.69489385496</v>
       </c>
       <c r="AE61" s="14">
         <f t="shared" si="8"/>
-        <v>126732.42068430642</v>
+        <v>186473.64969428061</v>
       </c>
       <c r="AF61" s="14">
         <f t="shared" si="8"/>
-        <v>128296.66504337789</v>
+        <v>188105.82688526958</v>
       </c>
       <c r="AG61" s="14">
         <f t="shared" si="8"/>
-        <v>129765.44559277096</v>
+        <v>189779.05236008152</v>
       </c>
       <c r="AH61" s="14">
         <f t="shared" si="8"/>
-        <v>130975.65427556229</v>
-      </c>
-    </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.45">
+        <v>191294.05263062965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>2</v>
       </c>
@@ -8591,130 +8635,130 @@
       </c>
       <c r="D62" s="14">
         <f t="shared" si="7"/>
-        <v>178133.98422704398</v>
+        <v>168507.92773659434</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" si="7"/>
-        <v>234159.01804556031</v>
+        <v>335366.39386396838</v>
       </c>
       <c r="F62" s="14">
         <f t="shared" si="7"/>
-        <v>305299.91951193113</v>
+        <v>411134.60175315186</v>
       </c>
       <c r="G62" s="14">
         <f t="shared" si="7"/>
-        <v>386885.31261836481</v>
+        <v>515305.65716140898</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="7"/>
-        <v>496018.91807802604</v>
+        <v>643027.18399978359</v>
       </c>
       <c r="I62" s="14">
         <f t="shared" si="7"/>
-        <v>627076.09278899047</v>
+        <v>813914.34468733647</v>
       </c>
       <c r="J62" s="14">
         <f t="shared" si="7"/>
-        <v>808481.71906282124</v>
+        <v>1059097.0546326858</v>
       </c>
       <c r="K62" s="14">
         <f t="shared" si="7"/>
-        <v>1023663.5343956857</v>
+        <v>1367659.1727089081</v>
       </c>
       <c r="L62" s="14">
         <f t="shared" si="7"/>
-        <v>1290642.8512165647</v>
+        <v>1801151.2192702414</v>
       </c>
       <c r="M62" s="14">
         <f t="shared" si="7"/>
-        <v>1596377.1709232905</v>
+        <v>2293312.9993867576</v>
       </c>
       <c r="N62" s="14">
         <f t="shared" si="7"/>
-        <v>1928460.9053442273</v>
+        <v>2853001.4503634362</v>
       </c>
       <c r="O62" s="14">
         <f t="shared" si="7"/>
-        <v>2280181.3123387983</v>
+        <v>3400818.3945673932</v>
       </c>
       <c r="P62" s="14">
         <f t="shared" si="7"/>
-        <v>2651300.7309308657</v>
+        <v>4031708.6050087474</v>
       </c>
       <c r="Q62" s="14">
         <f t="shared" si="7"/>
-        <v>3040312.9256623918</v>
+        <v>4659832.9243547423</v>
       </c>
       <c r="R62" s="14">
         <f t="shared" si="8"/>
-        <v>3405395.8603881462</v>
+        <v>5268417.6291416408</v>
       </c>
       <c r="S62" s="14">
         <f t="shared" si="8"/>
-        <v>3744096.3282109555</v>
+        <v>5798893.7162942123</v>
       </c>
       <c r="T62" s="14">
         <f t="shared" si="8"/>
-        <v>4053119.0783777931</v>
+        <v>6274842.0862417258</v>
       </c>
       <c r="U62" s="14">
         <f t="shared" si="8"/>
-        <v>4333336.0591057483</v>
+        <v>6696038.1939559542</v>
       </c>
       <c r="V62" s="14">
         <f t="shared" si="8"/>
-        <v>4579469.9375935644</v>
+        <v>7049232.8334956616</v>
       </c>
       <c r="W62" s="14">
         <f t="shared" si="8"/>
-        <v>4782982.2317515286</v>
+        <v>7335147.9066338399</v>
       </c>
       <c r="X62" s="14">
         <f t="shared" si="8"/>
-        <v>4969821.5329257073</v>
+        <v>7582518.8813285716</v>
       </c>
       <c r="Y62" s="14">
         <f t="shared" si="8"/>
-        <v>5130901.1124037299</v>
+        <v>7787104.584663528</v>
       </c>
       <c r="Z62" s="14">
         <f t="shared" si="8"/>
-        <v>5268240.8261638079</v>
+        <v>7948337.3584131449</v>
       </c>
       <c r="AA62" s="14">
         <f t="shared" si="8"/>
-        <v>5392915.7806215389</v>
+        <v>8088153.3631387185</v>
       </c>
       <c r="AB62" s="14">
         <f t="shared" si="8"/>
-        <v>5497937.7987302272</v>
+        <v>8206457.1147394618</v>
       </c>
       <c r="AC62" s="14">
         <f t="shared" si="8"/>
-        <v>5588443.0856916113</v>
+        <v>8307948.8443085691</v>
       </c>
       <c r="AD62" s="14">
         <f t="shared" si="8"/>
-        <v>5676708.1687498875</v>
+        <v>8395911.2112890705</v>
       </c>
       <c r="AE62" s="14">
         <f t="shared" si="8"/>
-        <v>5759889.5103980666</v>
+        <v>8475081.6960662305</v>
       </c>
       <c r="AF62" s="14">
         <f t="shared" si="8"/>
-        <v>5830983.1944519598</v>
+        <v>8549262.8742582463</v>
       </c>
       <c r="AG62" s="14">
         <f t="shared" si="8"/>
-        <v>5897738.1229370702</v>
+        <v>8625309.6648810487</v>
       </c>
       <c r="AH62" s="14">
         <f t="shared" si="8"/>
-        <v>5952741.1620944031</v>
-      </c>
-    </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.45">
+        <v>8694165.2435835004</v>
+      </c>
+    </row>
+    <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>57</v>
       </c>
@@ -8728,130 +8772,130 @@
       </c>
       <c r="D63" s="14">
         <f t="shared" si="7"/>
-        <v>22845.855716681999</v>
+        <v>21611.304664249772</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" si="7"/>
-        <v>30031.12047508252</v>
+        <v>43011.064282235813</v>
       </c>
       <c r="F63" s="14">
         <f t="shared" si="7"/>
-        <v>39155.00987500677</v>
+        <v>52728.410205075488</v>
       </c>
       <c r="G63" s="14">
         <f t="shared" si="7"/>
-        <v>49618.415426654406</v>
+        <v>66088.448785238899</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="7"/>
-        <v>63614.905849250586</v>
+        <v>82468.858097505552</v>
       </c>
       <c r="I63" s="14">
         <f t="shared" si="7"/>
-        <v>80423.11522644879</v>
+        <v>104385.30168822034</v>
       </c>
       <c r="J63" s="14">
         <f t="shared" si="7"/>
-        <v>103688.56219901521</v>
+        <v>135830.22130837076</v>
       </c>
       <c r="K63" s="14">
         <f t="shared" si="7"/>
-        <v>131285.83807694391</v>
+        <v>175403.61130350092</v>
       </c>
       <c r="L63" s="14">
         <f t="shared" si="7"/>
-        <v>165526.1936042422</v>
+        <v>230999.38542286676</v>
       </c>
       <c r="M63" s="14">
         <f t="shared" si="7"/>
-        <v>204736.91572425736</v>
+        <v>294119.60959904769</v>
       </c>
       <c r="N63" s="14">
         <f t="shared" si="7"/>
-        <v>247326.97575888754</v>
+        <v>365900.19460527028</v>
       </c>
       <c r="O63" s="14">
         <f t="shared" si="7"/>
-        <v>292435.45803798496</v>
+        <v>436158.24738921056</v>
       </c>
       <c r="P63" s="14">
         <f t="shared" si="7"/>
-        <v>340031.88231156324</v>
+        <v>517070.52689248422</v>
       </c>
       <c r="Q63" s="14">
         <f t="shared" si="7"/>
-        <v>389923.0724257346</v>
+        <v>597628.0781884098</v>
       </c>
       <c r="R63" s="14">
         <f t="shared" si="8"/>
-        <v>436745.31180672045</v>
+        <v>675679.65502407879</v>
       </c>
       <c r="S63" s="14">
         <f t="shared" si="8"/>
-        <v>480183.97429792763</v>
+        <v>743713.72612412751</v>
       </c>
       <c r="T63" s="14">
         <f t="shared" si="8"/>
-        <v>519816.44080406911</v>
+        <v>804754.56476922252</v>
       </c>
       <c r="U63" s="14">
         <f t="shared" si="8"/>
-        <v>555754.53952708188</v>
+        <v>858773.3728423788</v>
       </c>
       <c r="V63" s="14">
         <f t="shared" si="8"/>
-        <v>587321.44743249833</v>
+        <v>904070.92687084037</v>
       </c>
       <c r="W63" s="14">
         <f t="shared" si="8"/>
-        <v>613422.09593636717</v>
+        <v>940739.81145500799</v>
       </c>
       <c r="X63" s="14">
         <f t="shared" si="8"/>
-        <v>637384.41696877882</v>
+        <v>972465.37814512209</v>
       </c>
       <c r="Y63" s="14">
         <f t="shared" si="8"/>
-        <v>658043.02878632117</v>
+        <v>998703.69241383055</v>
       </c>
       <c r="Z63" s="14">
         <f t="shared" si="8"/>
-        <v>675656.97987121914</v>
+        <v>1019381.9515448299</v>
       </c>
       <c r="AA63" s="14">
         <f t="shared" si="8"/>
-        <v>691646.66332990641</v>
+        <v>1037313.4893404037</v>
       </c>
       <c r="AB63" s="14">
         <f t="shared" si="8"/>
-        <v>705115.83869920461</v>
+        <v>1052486.0598723013</v>
       </c>
       <c r="AC63" s="14">
         <f t="shared" si="8"/>
-        <v>716723.22926248587</v>
+        <v>1065502.4723229264</v>
       </c>
       <c r="AD63" s="14">
         <f t="shared" si="8"/>
-        <v>728043.31150911748</v>
+        <v>1076783.7309398842</v>
       </c>
       <c r="AE63" s="14">
         <f t="shared" si="8"/>
-        <v>738711.3990043829</v>
+        <v>1086937.422163303</v>
       </c>
       <c r="AF63" s="14">
         <f t="shared" si="8"/>
-        <v>747829.23272550199</v>
+        <v>1096451.2299929659</v>
       </c>
       <c r="AG63" s="14">
         <f t="shared" si="8"/>
-        <v>756390.61684973759</v>
+        <v>1106204.3044207566</v>
       </c>
       <c r="AH63" s="14">
         <f t="shared" si="8"/>
-        <v>763444.80980466434</v>
-      </c>
-    </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.45">
+        <v>1115035.0989665063</v>
+      </c>
+    </row>
+    <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -8865,130 +8909,130 @@
       </c>
       <c r="D64" s="14">
         <f t="shared" si="7"/>
-        <v>4675.7300200205618</v>
+        <v>4423.0615496996916</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" si="7"/>
-        <v>6146.2968724636112</v>
+        <v>8802.827390292734</v>
       </c>
       <c r="F64" s="14">
         <f t="shared" si="7"/>
-        <v>8013.6308911855422</v>
+        <v>10791.620745630647</v>
       </c>
       <c r="G64" s="14">
         <f t="shared" si="7"/>
-        <v>10155.115983983551</v>
+        <v>13525.94307667334</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="7"/>
-        <v>13019.697256641957</v>
+        <v>16878.427330772145</v>
       </c>
       <c r="I64" s="14">
         <f t="shared" si="7"/>
-        <v>16459.736891943077</v>
+        <v>21363.939911260215</v>
       </c>
       <c r="J64" s="14">
         <f t="shared" si="7"/>
-        <v>21221.342243385097</v>
+        <v>27799.590931226667</v>
       </c>
       <c r="K64" s="14">
         <f t="shared" si="7"/>
-        <v>26869.518126724746</v>
+        <v>35898.849277636495</v>
       </c>
       <c r="L64" s="14">
         <f t="shared" si="7"/>
-        <v>33877.294951571886</v>
+        <v>47277.316920080084</v>
       </c>
       <c r="M64" s="14">
         <f t="shared" si="7"/>
-        <v>41902.328147827502</v>
+        <v>60195.770521075698</v>
       </c>
       <c r="N64" s="14">
         <f t="shared" si="7"/>
-        <v>50618.991017802065</v>
+        <v>74886.690411774252</v>
       </c>
       <c r="O64" s="14">
         <f t="shared" si="7"/>
-        <v>59851.084898003355</v>
+        <v>89266.002380823556</v>
       </c>
       <c r="P64" s="14">
         <f t="shared" si="7"/>
-        <v>69592.371570802454</v>
+        <v>105825.85371462583</v>
       </c>
       <c r="Q64" s="14">
         <f t="shared" si="7"/>
-        <v>79803.314782749847</v>
+        <v>122313.1048644554</v>
       </c>
       <c r="R64" s="14">
         <f t="shared" si="8"/>
-        <v>89386.153481954447</v>
+        <v>138287.47262052921</v>
       </c>
       <c r="S64" s="14">
         <f t="shared" si="8"/>
-        <v>98276.494940749966</v>
+        <v>152211.61503706509</v>
       </c>
       <c r="T64" s="14">
         <f t="shared" si="8"/>
-        <v>106387.84413722201</v>
+        <v>164704.4927493101</v>
       </c>
       <c r="U64" s="14">
         <f t="shared" si="8"/>
-        <v>113743.08830690981</v>
+        <v>175760.21181213137</v>
       </c>
       <c r="V64" s="14">
         <f t="shared" si="8"/>
-        <v>120203.70596829176</v>
+        <v>185031.00192089172</v>
       </c>
       <c r="W64" s="14">
         <f t="shared" si="8"/>
-        <v>125545.57572642174</v>
+        <v>192535.81183377522</v>
       </c>
       <c r="X64" s="14">
         <f t="shared" si="8"/>
-        <v>130449.80628753855</v>
+        <v>199028.90127698719</v>
       </c>
       <c r="Y64" s="14">
         <f t="shared" si="8"/>
-        <v>134677.88566636006</v>
+        <v>204398.94629619611</v>
       </c>
       <c r="Z64" s="14">
         <f t="shared" si="8"/>
-        <v>138282.83182728209</v>
+        <v>208631.04677777179</v>
       </c>
       <c r="AA64" s="14">
         <f t="shared" si="8"/>
-        <v>141555.34846599211</v>
+        <v>212300.99158595316</v>
       </c>
       <c r="AB64" s="14">
         <f t="shared" si="8"/>
-        <v>144312.00719658026</v>
+        <v>215406.27441696878</v>
       </c>
       <c r="AC64" s="14">
         <f t="shared" si="8"/>
-        <v>146687.62512851038</v>
+        <v>218070.26876251286</v>
       </c>
       <c r="AD64" s="14">
         <f t="shared" si="8"/>
-        <v>149004.4413181105</v>
+        <v>220379.13914290353</v>
       </c>
       <c r="AE64" s="14">
         <f t="shared" si="8"/>
-        <v>151187.81748823117</v>
+        <v>222457.23678372384</v>
       </c>
       <c r="AF64" s="14">
         <f t="shared" si="8"/>
-        <v>153053.91212596721</v>
+        <v>224404.37316703642</v>
       </c>
       <c r="AG64" s="14">
         <f t="shared" si="8"/>
-        <v>154806.12142200099</v>
+        <v>226400.478870191</v>
       </c>
       <c r="AH64" s="14">
         <f t="shared" si="8"/>
-        <v>156249.8625615497</v>
-      </c>
-    </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.45">
+        <v>228207.82684919648</v>
+      </c>
+    </row>
+    <row r="65" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>59</v>
       </c>
@@ -9002,130 +9046,130 @@
       </c>
       <c r="D65" s="14">
         <f t="shared" si="7"/>
-        <v>3950.0273253611817</v>
+        <v>3736.5745901195824</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" si="7"/>
-        <v>5192.3529570910669</v>
+        <v>7436.5732373789297</v>
       </c>
       <c r="F65" s="14">
         <f t="shared" si="7"/>
-        <v>6769.8649964828746</v>
+        <v>9116.6933607488772</v>
       </c>
       <c r="G65" s="14">
         <f t="shared" si="7"/>
-        <v>8578.9781397110546</v>
+        <v>11426.631675775121</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="7"/>
-        <v>10998.958389697527</v>
+        <v>14258.789297115956</v>
       </c>
       <c r="I65" s="14">
         <f t="shared" si="7"/>
-        <v>13905.082246631675</v>
+        <v>18048.122125426115</v>
       </c>
       <c r="J65" s="14">
         <f t="shared" si="7"/>
-        <v>17927.656512093501</v>
+        <v>23484.919647205239</v>
       </c>
       <c r="K65" s="14">
         <f t="shared" si="7"/>
-        <v>22699.199989178076</v>
+        <v>30327.122179535738</v>
       </c>
       <c r="L65" s="14">
         <f t="shared" si="7"/>
-        <v>28619.325794058761</v>
+        <v>39939.580109301445</v>
       </c>
       <c r="M65" s="14">
         <f t="shared" si="7"/>
-        <v>35398.823386180404</v>
+        <v>50853.008495211296</v>
       </c>
       <c r="N65" s="14">
         <f t="shared" si="7"/>
-        <v>42762.605378496832</v>
+        <v>63263.805259455658</v>
       </c>
       <c r="O65" s="14">
         <f t="shared" si="7"/>
-        <v>50561.820247822085</v>
+        <v>75411.357610518913</v>
       </c>
       <c r="P65" s="14">
         <f t="shared" si="7"/>
-        <v>58791.197987121908</v>
+        <v>89401.015908230067</v>
       </c>
       <c r="Q65" s="14">
         <f t="shared" si="7"/>
-        <v>67417.338618040143</v>
+        <v>103329.34202694659</v>
       </c>
       <c r="R65" s="14">
         <f t="shared" si="8"/>
-        <v>75512.860505383913</v>
+        <v>116824.38747903252</v>
       </c>
       <c r="S65" s="14">
         <f t="shared" si="8"/>
-        <v>83023.365077647308</v>
+        <v>128587.41545370921</v>
       </c>
       <c r="T65" s="14">
         <f t="shared" si="8"/>
-        <v>89875.781884097174</v>
+        <v>139141.32000432877</v>
       </c>
       <c r="U65" s="14">
         <f t="shared" si="8"/>
-        <v>96089.445917428704</v>
+        <v>148481.12196309722</v>
       </c>
       <c r="V65" s="14">
         <f t="shared" si="8"/>
-        <v>101547.33510091445</v>
+        <v>156313.0271630323</v>
       </c>
       <c r="W65" s="14">
         <f t="shared" si="8"/>
-        <v>106060.11308911855</v>
+        <v>162653.04339592013</v>
       </c>
       <c r="X65" s="14">
         <f t="shared" si="8"/>
-        <v>110203.17623505222</v>
+        <v>168138.36453655106</v>
       </c>
       <c r="Y65" s="14">
         <f t="shared" si="8"/>
-        <v>113775.031113035</v>
+        <v>172674.94480818138</v>
       </c>
       <c r="Z65" s="14">
         <f t="shared" si="8"/>
-        <v>116820.46696607326</v>
+        <v>176250.19668849089</v>
       </c>
       <c r="AA65" s="14">
         <f t="shared" si="8"/>
-        <v>119585.06844867702</v>
+        <v>179350.54299009792</v>
       </c>
       <c r="AB65" s="14">
         <f t="shared" si="8"/>
-        <v>121913.87641361398</v>
+        <v>181973.86640333314</v>
       </c>
       <c r="AC65" s="14">
         <f t="shared" si="8"/>
-        <v>123920.78350738596</v>
+        <v>184224.39207835073</v>
       </c>
       <c r="AD65" s="14">
         <f t="shared" si="8"/>
-        <v>125878.01525891456</v>
+        <v>186174.91126021318</v>
       </c>
       <c r="AE65" s="14">
         <f t="shared" si="8"/>
-        <v>127722.51772090254</v>
+        <v>187930.47508251716</v>
       </c>
       <c r="AF65" s="14">
         <f t="shared" si="8"/>
-        <v>129298.98273902928</v>
+        <v>189575.40365781073</v>
       </c>
       <c r="AG65" s="14">
         <f t="shared" si="8"/>
-        <v>130779.23813646447</v>
+        <v>191261.70120664465</v>
       </c>
       <c r="AH65" s="14">
         <f t="shared" si="8"/>
-        <v>131998.90157459013</v>
-      </c>
-    </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.45">
+        <v>192788.53741680644</v>
+      </c>
+    </row>
+    <row r="66" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>60</v>
       </c>
@@ -9139,135 +9183,135 @@
       </c>
       <c r="D66" s="14">
         <f t="shared" si="9"/>
-        <v>3870.414371516672</v>
+        <v>3661.263784427254</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" si="9"/>
-        <v>5087.700881986937</v>
+        <v>7286.6888155402848</v>
       </c>
       <c r="F66" s="14">
         <f t="shared" si="9"/>
-        <v>6633.418105081073</v>
+        <v>8932.9460527026094</v>
       </c>
       <c r="G66" s="14">
         <f t="shared" si="9"/>
-        <v>8406.0685027866857</v>
+        <v>11196.327471457073</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="9"/>
-        <v>10777.273957037134</v>
+        <v>13971.402846166398</v>
       </c>
       <c r="I66" s="14">
         <f t="shared" si="9"/>
-        <v>13624.824774994282</v>
+        <v>17684.361524448497</v>
       </c>
       <c r="J66" s="14">
         <f t="shared" si="9"/>
-        <v>17566.32390022208</v>
+        <v>23011.580181447789</v>
       </c>
       <c r="K66" s="14">
         <f t="shared" si="9"/>
-        <v>22241.696733582066</v>
+        <v>29715.8778565377</v>
       </c>
       <c r="L66" s="14">
         <f t="shared" si="9"/>
-        <v>28042.502173403278</v>
+        <v>39134.596324152779</v>
       </c>
       <c r="M66" s="14">
         <f t="shared" si="9"/>
-        <v>34685.358728784602</v>
+        <v>49828.06413794402</v>
       </c>
       <c r="N66" s="14">
         <f t="shared" si="9"/>
-        <v>41900.72340962803</v>
+        <v>61988.720812365413</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" si="9"/>
-        <v>49542.744800967164</v>
+        <v>73891.438774957322</v>
       </c>
       <c r="P66" s="14">
         <f t="shared" si="9"/>
-        <v>57606.259112963453</v>
+        <v>87599.134967443533</v>
       </c>
       <c r="Q66" s="14">
         <f t="shared" si="9"/>
-        <v>66058.539545118809</v>
+        <v>101246.7351333797</v>
       </c>
       <c r="R66" s="14">
         <f t="shared" si="9"/>
-        <v>73990.895875043236</v>
+        <v>114469.78742131218</v>
       </c>
       <c r="S66" s="14">
         <f t="shared" si="9"/>
-        <v>81350.025936546735</v>
+        <v>125995.73111123033</v>
       </c>
       <c r="T66" s="14">
         <f t="shared" si="9"/>
-        <v>88064.33201666642</v>
+        <v>136336.9213065654</v>
       </c>
       <c r="U66" s="14">
         <f t="shared" si="9"/>
-        <v>94152.759410565719</v>
+        <v>145488.47919484973</v>
       </c>
       <c r="V66" s="14">
         <f t="shared" si="9"/>
-        <v>99500.644626010209</v>
+        <v>153162.53204191849</v>
       </c>
       <c r="W66" s="14">
         <f t="shared" si="9"/>
-        <v>103922.46739895083</v>
+        <v>159374.76500189491</v>
       </c>
       <c r="X66" s="14">
         <f t="shared" si="9"/>
-        <v>107982.02694659308</v>
+        <v>164749.52928232402</v>
       </c>
       <c r="Y66" s="14">
         <f t="shared" si="9"/>
-        <v>111481.89095106907</v>
+        <v>169194.6746027451</v>
       </c>
       <c r="Z66" s="14">
         <f t="shared" si="9"/>
-        <v>114465.9459264446</v>
+        <v>172697.86714283191</v>
       </c>
       <c r="AA66" s="14">
         <f t="shared" si="9"/>
-        <v>117174.82675901242</v>
+        <v>175735.72584456019</v>
       </c>
       <c r="AB66" s="14">
         <f t="shared" si="9"/>
-        <v>119456.69750915281</v>
+        <v>178306.1760727223</v>
       </c>
       <c r="AC66" s="14">
         <f t="shared" si="9"/>
-        <v>121423.15531266294</v>
+        <v>180511.3423155304</v>
       </c>
       <c r="AD66" s="14">
         <f t="shared" si="9"/>
-        <v>123340.93898238055</v>
+        <v>182422.54870768264</v>
       </c>
       <c r="AE66" s="14">
         <f t="shared" si="9"/>
-        <v>125148.26542575285</v>
+        <v>184142.72907310352</v>
       </c>
       <c r="AF66" s="14">
         <f t="shared" si="9"/>
-        <v>126692.95673033409</v>
+        <v>185754.50404920615</v>
       </c>
       <c r="AG66" s="14">
         <f t="shared" si="9"/>
-        <v>128143.37752286345</v>
+        <v>187406.81420557946</v>
       </c>
       <c r="AH66" s="14">
         <f t="shared" si="9"/>
-        <v>129338.45859711803</v>
-      </c>
-    </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.45">
+        <v>188902.87697274797</v>
+      </c>
+    </row>
+    <row r="68" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>75</v>
       </c>
@@ -9275,7 +9319,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -9283,7 +9327,7 @@
         <v>5366</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -9384,7 +9428,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>46</v>
       </c>
@@ -9517,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>47</v>
       </c>
@@ -9559,11 +9603,11 @@
       </c>
       <c r="L74">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="M74">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="N74">
         <f t="shared" si="11"/>
@@ -9650,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>48</v>
       </c>
@@ -9783,7 +9827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>49</v>
       </c>
@@ -9853,15 +9897,15 @@
       </c>
       <c r="S76">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="T76">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="U76">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="V76">
         <f t="shared" si="11"/>
@@ -9916,7 +9960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>50</v>
       </c>
@@ -9942,7 +9986,7 @@
       </c>
       <c r="H77">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <f t="shared" si="11"/>
@@ -10049,7 +10093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -10182,7 +10226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>52</v>
       </c>
@@ -10232,7 +10276,7 @@
       </c>
       <c r="N79">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="O79">
         <f t="shared" si="11"/>
@@ -10315,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>53</v>
       </c>
@@ -10357,7 +10401,7 @@
       </c>
       <c r="L80">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="M80">
         <f t="shared" si="11"/>
@@ -10448,7 +10492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>54</v>
       </c>
@@ -10482,7 +10526,7 @@
       </c>
       <c r="J81">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <f t="shared" si="11"/>
@@ -10581,7 +10625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -10631,7 +10675,7 @@
       </c>
       <c r="N82">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="O82">
         <f t="shared" si="13"/>
@@ -10714,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>31</v>
       </c>
@@ -10847,7 +10891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>56</v>
       </c>
@@ -10893,7 +10937,7 @@
       </c>
       <c r="M84">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="N84">
         <f t="shared" si="13"/>
@@ -10980,7 +11024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>2</v>
       </c>
@@ -11113,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>57</v>
       </c>
@@ -11246,7 +11290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>58</v>
       </c>
@@ -11288,11 +11332,11 @@
       </c>
       <c r="L87">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="M87">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="N87">
         <f t="shared" si="13"/>
@@ -11379,7 +11423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>59</v>
       </c>
@@ -11425,7 +11469,7 @@
       </c>
       <c r="M88">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="N88">
         <f t="shared" si="13"/>
@@ -11512,7 +11556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>60</v>
       </c>
@@ -11558,11 +11602,11 @@
       </c>
       <c r="M89">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="N89">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="O89">
         <f t="shared" si="13"/>
@@ -11645,74 +11689,167 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>78</v>
       </c>
       <c r="C91">
         <v>2019</v>
       </c>
-    </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.45">
+      <c r="D91" s="23">
+        <v>2020</v>
+      </c>
+      <c r="E91" s="23">
+        <v>2021</v>
+      </c>
+      <c r="F91" s="23">
+        <v>2022</v>
+      </c>
+      <c r="G91" s="23">
+        <v>2023</v>
+      </c>
+      <c r="H91" s="23">
+        <v>2024</v>
+      </c>
+      <c r="I91" s="23">
+        <v>2025</v>
+      </c>
+      <c r="J91" s="23">
+        <v>2026</v>
+      </c>
+      <c r="K91" s="23">
+        <v>2027</v>
+      </c>
+      <c r="L91" s="23">
+        <v>2028</v>
+      </c>
+      <c r="M91" s="23">
+        <v>2029</v>
+      </c>
+      <c r="N91" s="23">
+        <v>2030</v>
+      </c>
+      <c r="O91" s="23">
+        <v>2031</v>
+      </c>
+      <c r="P91" s="23">
+        <v>2032</v>
+      </c>
+      <c r="Q91" s="23">
+        <v>2033</v>
+      </c>
+      <c r="R91" s="23">
+        <v>2034</v>
+      </c>
+      <c r="S91" s="23">
+        <v>2035</v>
+      </c>
+      <c r="T91" s="23">
+        <v>2036</v>
+      </c>
+      <c r="U91" s="23">
+        <v>2037</v>
+      </c>
+      <c r="V91" s="23">
+        <v>2038</v>
+      </c>
+      <c r="W91" s="23">
+        <v>2039</v>
+      </c>
+      <c r="X91" s="23">
+        <v>2040</v>
+      </c>
+      <c r="Y91" s="23">
+        <v>2041</v>
+      </c>
+      <c r="Z91" s="23">
+        <v>2042</v>
+      </c>
+      <c r="AA91" s="23">
+        <v>2043</v>
+      </c>
+      <c r="AB91" s="23">
+        <v>2044</v>
+      </c>
+      <c r="AC91" s="23">
+        <v>2045</v>
+      </c>
+      <c r="AD91" s="23">
+        <v>2046</v>
+      </c>
+      <c r="AE91" s="23">
+        <v>2047</v>
+      </c>
+      <c r="AF91" s="23">
+        <v>2048</v>
+      </c>
+      <c r="AG91" s="23">
+        <v>2049</v>
+      </c>
+      <c r="AH91" s="23">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="92" spans="1:34" x14ac:dyDescent="0.35">
       <c r="C92" s="18">
         <f>SUMPRODUCT(C73:C89,C50:C66)/SUM(C50:C66)</f>
         <v>2745.8606136031603</v>
       </c>
       <c r="D92" s="18">
-        <f t="shared" ref="D92:AH92" si="15">SUMPRODUCT(D73:D89,D50:D66)/SUM(D50:D66)</f>
+        <f>SUMPRODUCT(D73:D89,D50:D66)/SUM(D50:D66)</f>
+        <v>2745.8606136031603</v>
+      </c>
+      <c r="E92" s="18">
+        <f t="shared" ref="D92:AH92" si="15">SUMPRODUCT(E73:E89,E50:E66)/SUM(E50:E66)</f>
         <v>2745.8606136031599</v>
-      </c>
-      <c r="E92" s="18">
-        <f t="shared" si="15"/>
-        <v>2745.8606136031603</v>
       </c>
       <c r="F92" s="18">
         <f t="shared" si="15"/>
-        <v>1913.0458308533109</v>
+        <v>1913.0458308533071</v>
       </c>
       <c r="G92" s="18">
         <f t="shared" si="15"/>
-        <v>1531.9111519939402</v>
+        <v>1531.911151993939</v>
       </c>
       <c r="H92" s="18">
         <f t="shared" si="15"/>
-        <v>1131.4322818029341</v>
+        <v>933.18813916995873</v>
       </c>
       <c r="I92" s="18">
         <f t="shared" si="15"/>
-        <v>933.18813916995919</v>
+        <v>933.18813916995794</v>
       </c>
       <c r="J92" s="18">
         <f t="shared" si="15"/>
-        <v>933.18813916995953</v>
+        <v>744.00735890915064</v>
       </c>
       <c r="K92" s="18">
         <f t="shared" si="15"/>
-        <v>744.00735890914916</v>
+        <v>744.00735890915098</v>
       </c>
       <c r="L92" s="18">
         <f t="shared" si="15"/>
-        <v>744.00735890914984</v>
+        <v>414.07391374925612</v>
       </c>
       <c r="M92" s="18">
         <f t="shared" si="15"/>
-        <v>621.92251501542137</v>
+        <v>154.75353065310316</v>
       </c>
       <c r="N92" s="18">
         <f t="shared" si="15"/>
-        <v>240.24673989502756</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="O92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844433</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="P92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844436</v>
+        <v>18.397272874844433</v>
       </c>
       <c r="Q92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844433</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="R92" s="18">
         <f t="shared" si="15"/>
@@ -11720,15 +11857,15 @@
       </c>
       <c r="S92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="T92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844433</v>
+        <v>0</v>
       </c>
       <c r="U92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="V92" s="18">
         <f t="shared" si="15"/>
@@ -11784,6 +11921,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B44:C44"/>
+  </mergeCells>
   <conditionalFormatting sqref="D3:AI19">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>D3&gt;600000</formula>
@@ -11793,21 +11933,22 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:Q51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="26.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -11857,7 +11998,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -11889,7 +12030,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>57</v>
       </c>
@@ -11921,7 +12062,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -11953,7 +12094,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -11985,7 +12126,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>46</v>
       </c>
@@ -12017,7 +12158,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -12049,7 +12190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -12081,7 +12222,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -12113,7 +12254,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -12145,7 +12286,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -12177,7 +12318,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -12209,7 +12350,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>48</v>
       </c>
@@ -12241,7 +12382,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -12273,7 +12414,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -12305,7 +12446,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>67</v>
       </c>
@@ -12337,7 +12478,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>47</v>
       </c>
@@ -12360,7 +12501,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -12392,7 +12533,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>56</v>
       </c>
@@ -12424,7 +12565,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>48</v>
       </c>
@@ -12456,7 +12597,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>54</v>
       </c>
@@ -12488,7 +12629,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>59</v>
       </c>
@@ -12520,7 +12661,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -12552,7 +12693,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>59</v>
       </c>
@@ -12584,7 +12725,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -12616,7 +12757,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>54</v>
       </c>
@@ -12648,7 +12789,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>47</v>
       </c>
@@ -12680,7 +12821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>46</v>
       </c>
@@ -12712,7 +12853,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -12744,7 +12885,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>52</v>
       </c>
@@ -12776,7 +12917,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>125</v>
       </c>
@@ -12808,7 +12949,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>52</v>
       </c>
@@ -12840,7 +12981,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>48</v>
       </c>
@@ -12872,7 +13013,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -12904,7 +13045,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>59</v>
       </c>
@@ -12936,7 +13077,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -12965,7 +13106,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>52</v>
       </c>
@@ -12997,7 +13138,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -13029,7 +13170,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -13052,7 +13193,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>48</v>
       </c>
@@ -13084,7 +13225,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>54</v>
       </c>
@@ -13116,7 +13257,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>48</v>
       </c>
@@ -13148,7 +13289,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -13180,7 +13321,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -13212,7 +13353,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>54</v>
       </c>
@@ -13244,7 +13385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>53</v>
       </c>
@@ -13276,7 +13417,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
         <v>142</v>
       </c>
@@ -13302,7 +13443,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="49" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C49" t="s">
         <v>143</v>
       </c>
@@ -13349,7 +13490,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="50" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C50" t="s">
         <v>144</v>
       </c>
@@ -13372,7 +13513,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.45">
+    <row r="51" spans="3:17" x14ac:dyDescent="0.35">
       <c r="C51" t="s">
         <v>145</v>
       </c>
@@ -13426,21 +13567,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="24" t="s">
         <v>146</v>
       </c>
       <c r="B1" t="s">
@@ -13453,8 +13594,8 @@
         <v>149</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A2" s="23"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
       <c r="B2" t="s">
         <v>150</v>
       </c>
@@ -13465,8 +13606,8 @@
         <v>152</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A3" s="23"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="24"/>
       <c r="C3">
         <v>200000</v>
       </c>
@@ -13474,13 +13615,13 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="23"/>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="24"/>
       <c r="D4">
         <v>200000</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>47</v>
       </c>
@@ -13494,7 +13635,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -13508,7 +13649,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -13522,7 +13663,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>50</v>
       </c>
@@ -13536,7 +13677,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -13550,7 +13691,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -13564,7 +13705,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -13578,7 +13719,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>67</v>
       </c>
@@ -13592,7 +13733,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>53</v>
       </c>
@@ -13606,7 +13747,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -13620,7 +13761,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -13634,7 +13775,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -13648,7 +13789,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -13662,7 +13803,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -13676,7 +13817,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>57</v>
       </c>
@@ -13690,7 +13831,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>59</v>
       </c>
@@ -13704,7 +13845,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>58</v>
       </c>
@@ -13727,22 +13868,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.3984375" customWidth="1"/>
+    <col min="1" max="1" width="15.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>168</v>
       </c>
@@ -13852,152 +13993,152 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="19">
         <f t="shared" ref="B2:C2" si="0">C2</f>
-        <v>8.2485985498332734E-2</v>
+        <v>6.4933213282220209E-2</v>
       </c>
       <c r="C2" s="19">
         <f t="shared" si="0"/>
-        <v>8.2485985498332734E-2</v>
+        <v>6.4933213282220209E-2</v>
       </c>
       <c r="D2" s="19">
         <f>E2</f>
-        <v>8.2485985498332734E-2</v>
+        <v>6.4933213282220209E-2</v>
       </c>
       <c r="E2" s="12">
-        <f>Data!A33</f>
-        <v>8.2485985498332734E-2</v>
+        <f>F2</f>
+        <v>6.4933213282220209E-2</v>
       </c>
       <c r="F2" s="12">
-        <f>Data!B33</f>
-        <v>8.817332994529585E-2</v>
+        <f>Data!C33</f>
+        <v>6.4933213282220209E-2</v>
       </c>
       <c r="G2" s="12">
-        <f>Data!C33</f>
-        <v>9.1569920803151295E-2</v>
+        <f>Data!D33</f>
+        <v>7.0123466238789539E-2</v>
       </c>
       <c r="H2" s="12">
-        <f>Data!D33</f>
-        <v>6.9845444031821649E-2</v>
+        <f>Data!E33</f>
+        <v>5.5232194597759396E-2</v>
       </c>
       <c r="I2" s="12">
-        <f>Data!E33</f>
-        <v>5.998564057483291E-2</v>
+        <f>Data!F33</f>
+        <v>4.860021974396482E-2</v>
       </c>
       <c r="J2" s="12">
-        <f>Data!F33</f>
-        <v>4.8944249987483472E-2</v>
+        <f>Data!G33</f>
+        <v>3.5524908242761846E-2</v>
       </c>
       <c r="K2" s="12">
-        <f>Data!G33</f>
-        <v>4.357996209055285E-2</v>
+        <f>Data!H33</f>
+        <v>3.6583664796089828E-2</v>
       </c>
       <c r="L2" s="12">
-        <f>Data!H33</f>
-        <v>4.4113092957327127E-2</v>
+        <f>Data!I33</f>
+        <v>3.2831259241305699E-2</v>
       </c>
       <c r="M2" s="12">
-        <f>Data!I33</f>
-        <v>3.8721498290777208E-2</v>
+        <f>Data!J33</f>
+        <v>3.3912674504310028E-2</v>
       </c>
       <c r="N2" s="12">
-        <f>Data!J33</f>
-        <v>3.9116054303508556E-2</v>
+        <f>Data!K33</f>
+        <v>2.5941866599841077E-2</v>
       </c>
       <c r="O2" s="12">
-        <f>Data!K33</f>
-        <v>3.5605143572627146E-2</v>
+        <f>Data!L33</f>
+        <v>1.9180548473059E-2</v>
       </c>
       <c r="P2" s="12">
-        <f>Data!L33</f>
-        <v>2.3694722252245365E-2</v>
+        <f>Data!M33</f>
+        <v>1.5663959822078438E-2</v>
       </c>
       <c r="Q2" s="12">
-        <f>Data!M33</f>
-        <v>1.6722875730853886E-2</v>
+        <f>Data!N33</f>
+        <v>1.596681919108844E-2</v>
       </c>
       <c r="R2" s="12">
-        <f>Data!N33</f>
-        <v>1.6833975324378966E-2</v>
+        <f>Data!O33</f>
+        <v>1.6241008958026978E-2</v>
       </c>
       <c r="S2" s="12">
-        <f>Data!O33</f>
-        <v>1.6931908267274597E-2</v>
+        <f>Data!P33</f>
+        <v>1.6486299175889792E-2</v>
       </c>
       <c r="T2" s="12">
-        <f>Data!P33</f>
-        <v>1.7018532115423972E-2</v>
+        <f>Data!Q33</f>
+        <v>1.6705648750613755E-2</v>
       </c>
       <c r="U2" s="12">
-        <f>Data!Q33</f>
-        <v>1.7095058325522647E-2</v>
+        <f>Data!R33</f>
+        <v>1.6303182778148687E-2</v>
       </c>
       <c r="V2" s="12">
-        <f>Data!R33</f>
-        <v>1.7163642785592893E-2</v>
+        <f>Data!S33</f>
+        <v>1.6473270286480865E-2</v>
       </c>
       <c r="W2" s="12">
-        <f>Data!S33</f>
-        <v>1.7224600302365115E-2</v>
+        <f>Data!T33</f>
+        <v>1.6624496577546648E-2</v>
       </c>
       <c r="X2" s="12">
-        <f>Data!T33</f>
-        <v>1.6666566253162266E-2</v>
+        <f>Data!U33</f>
+        <v>1.6759592634232386E-2</v>
       </c>
       <c r="Y2" s="12">
-        <f>Data!U33</f>
-        <v>1.6714149872766346E-2</v>
+        <f>Data!V33</f>
+        <v>1.6881231055412553E-2</v>
       </c>
       <c r="Z2" s="12">
-        <f>Data!V33</f>
-        <v>1.6757628799196535E-2</v>
+        <f>Data!W33</f>
+        <v>1.6991429190136634E-2</v>
       </c>
       <c r="AA2" s="12">
-        <f>Data!W33</f>
-        <v>1.6796936782654776E-2</v>
+        <f>Data!X33</f>
+        <v>1.709022837448387E-2</v>
       </c>
       <c r="AB2" s="12">
-        <f>Data!X33</f>
-        <v>1.6832692733258488E-2</v>
+        <f>Data!Y33</f>
+        <v>1.7179445279198277E-2</v>
       </c>
       <c r="AC2" s="12">
-        <f>Data!Y33</f>
-        <v>1.6865475148751988E-2</v>
+        <f>Data!Z33</f>
+        <v>1.7260308545137711E-2</v>
       </c>
       <c r="AD2" s="12">
-        <f>Data!Z33</f>
-        <v>1.6895590543778875E-2</v>
+        <f>Data!AA33</f>
+        <v>1.7333949212839633E-2</v>
       </c>
       <c r="AE2" s="12">
-        <f>Data!AA33</f>
-        <v>1.6923410161164189E-2</v>
+        <f>Data!AB33</f>
+        <v>1.7401321686617916E-2</v>
       </c>
       <c r="AF2" s="12">
-        <f>Data!AB33</f>
-        <v>1.6949255127700777E-2</v>
+        <f>Data!AC33</f>
+        <v>1.7463186091098541E-2</v>
       </c>
       <c r="AG2" s="12">
-        <f>Data!AC33</f>
-        <v>1.6973279585713107E-2</v>
+        <f>Data!AD33</f>
+        <v>1.7520216374035103E-2</v>
       </c>
       <c r="AH2" s="12">
-        <f>Data!AD33</f>
-        <v>1.6995698538410275E-2</v>
+        <f>Data!AE33</f>
+        <v>1.7573053696353702E-2</v>
       </c>
       <c r="AI2" s="12">
-        <f>Data!AE33</f>
-        <v>1.7016788238954292E-2</v>
+        <f>Data!AF33</f>
+        <v>1.7622177075578123E-2</v>
       </c>
       <c r="AJ2" s="12">
-        <f>Data!AF33</f>
-        <v>1.7036538564986214E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+        <f>Data!AG33</f>
+        <v>1.7668020375877454E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -14107,7 +14248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -14217,7 +14358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -14327,7 +14468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -14437,7 +14578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>
@@ -14553,7 +14694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -14561,12 +14702,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:36" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="21" t="s">
         <v>168</v>
       </c>
@@ -14676,7 +14817,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -14786,7 +14927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -14896,7 +15037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -15006,7 +15147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>39</v>
       </c>
@@ -15116,7 +15257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -15226,7 +15367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>41</v>
       </c>

--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4082BD80-CE47-4B43-975B-164289148D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78548AB-632A-4C13-9FFF-BF0EE0FAA5E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="22" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="173">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -556,6 +556,9 @@
   </si>
   <si>
     <t>Older versions of EPS</t>
+  </si>
+  <si>
+    <t>2020 to 2012 USD (see cpi.xlsx)</t>
   </si>
 </sst>
 </file>
@@ -638,7 +641,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -672,10 +675,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -1701,140 +1708,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="23">
-        <item x="10"/>
-        <item x="5"/>
-        <item m="1" x="21"/>
-        <item x="16"/>
-        <item m="1" x="19"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item m="1" x="20"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item m="1" x="18"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000001000000}" name="PivotTable5" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G22:J40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -2050,6 +1924,139 @@
     <dataField name="Sum of JAN" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of FEB" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of MAR" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0200-000000000000}" name="PivotTable4" cacheId="22" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="23">
+        <item x="10"/>
+        <item x="5"/>
+        <item m="1" x="21"/>
+        <item x="16"/>
+        <item m="1" x="19"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item m="1" x="20"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item m="1" x="18"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2384,9 +2391,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -2529,30 +2538,43 @@
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>35</v>
       </c>
+    </row>
+    <row r="40" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A40" s="28" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="24">
+        <v>0.88711067149387013</v>
+      </c>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2570,7 +2592,7 @@
   <dimension ref="A1:AG45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3:AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2685,131 +2707,131 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
-        <f>BAU!C92</f>
-        <v>2745.8606136031603</v>
+        <f>BAU!C92*About!$B$40</f>
+        <v>2435.88225276207</v>
       </c>
       <c r="B3" s="2">
-        <f>BAU!D92</f>
-        <v>2745.8606136031603</v>
+        <f>BAU!D92*About!$B$40</f>
+        <v>2435.88225276207</v>
       </c>
       <c r="C3" s="2">
-        <f>BAU!E92</f>
-        <v>2745.8606136031599</v>
+        <f>BAU!E92*About!$B$40</f>
+        <v>2435.8822527620696</v>
       </c>
       <c r="D3" s="2">
-        <f>BAU!F92</f>
-        <v>1913.0458308533071</v>
+        <f>BAU!F92*About!$B$40</f>
+        <v>1697.0833716068259</v>
       </c>
       <c r="E3" s="2">
-        <f>BAU!G92</f>
-        <v>1531.911151993939</v>
+        <f>BAU!G92*About!$B$40</f>
+        <v>1358.9747307142914</v>
       </c>
       <c r="F3" s="2">
-        <f>BAU!H92</f>
-        <v>933.18813916995873</v>
+        <f>BAU!H92*About!$B$40</f>
+        <v>827.84115676917725</v>
       </c>
       <c r="G3" s="2">
-        <f>BAU!I92</f>
-        <v>933.18813916995794</v>
+        <f>BAU!I92*About!$B$40</f>
+        <v>827.84115676917656</v>
       </c>
       <c r="H3" s="2">
-        <f>BAU!J92</f>
-        <v>744.00735890915064</v>
+        <f>BAU!J92*About!$B$40</f>
+        <v>660.0168677582775</v>
       </c>
       <c r="I3" s="2">
-        <f>BAU!K92</f>
-        <v>744.00735890915098</v>
+        <f>BAU!K92*About!$B$40</f>
+        <v>660.01686775827773</v>
       </c>
       <c r="J3" s="2">
-        <f>BAU!L92</f>
-        <v>414.07391374925612</v>
+        <f>BAU!L92*About!$B$40</f>
+        <v>367.32938767419745</v>
       </c>
       <c r="K3" s="2">
-        <f>BAU!M92</f>
-        <v>154.75353065310316</v>
+        <f>BAU!M92*About!$B$40</f>
+        <v>137.28350849372154</v>
       </c>
       <c r="L3" s="2">
-        <f>BAU!N92</f>
-        <v>18.397272874844436</v>
+        <f>BAU!N92*About!$B$40</f>
+        <v>16.320417093659209</v>
       </c>
       <c r="M3" s="2">
-        <f>BAU!O92</f>
-        <v>18.397272874844436</v>
+        <f>BAU!O92*About!$B$40</f>
+        <v>16.320417093659209</v>
       </c>
       <c r="N3" s="2">
-        <f>BAU!P92</f>
-        <v>18.397272874844433</v>
+        <f>BAU!P92*About!$B$40</f>
+        <v>16.320417093659206</v>
       </c>
       <c r="O3" s="2">
-        <f>BAU!Q92</f>
-        <v>18.397272874844436</v>
+        <f>BAU!Q92*About!$B$40</f>
+        <v>16.320417093659209</v>
       </c>
       <c r="P3" s="2">
-        <f>BAU!R92</f>
-        <v>18.397272874844436</v>
+        <f>BAU!R92*About!$B$40</f>
+        <v>16.320417093659209</v>
       </c>
       <c r="Q3" s="2">
-        <f>BAU!S92</f>
+        <f>BAU!S92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="R3" s="2">
-        <f>BAU!T92</f>
+        <f>BAU!T92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="S3" s="2">
-        <f>BAU!U92</f>
+        <f>BAU!U92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="T3" s="2">
-        <f>BAU!V92</f>
+        <f>BAU!V92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="U3" s="2">
-        <f>BAU!W92</f>
+        <f>BAU!W92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="V3" s="2">
-        <f>BAU!X92</f>
+        <f>BAU!X92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="W3" s="2">
-        <f>BAU!Y92</f>
+        <f>BAU!Y92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="X3" s="2">
-        <f>BAU!Z92</f>
+        <f>BAU!Z92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="Y3" s="2">
-        <f>BAU!AA92</f>
+        <f>BAU!AA92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="Z3" s="2">
-        <f>BAU!AB92</f>
+        <f>BAU!AB92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AA3" s="2">
-        <f>BAU!AC92</f>
+        <f>BAU!AC92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AB3" s="2">
-        <f>BAU!AD92</f>
+        <f>BAU!AD92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AC3" s="2">
-        <f>BAU!AE92</f>
+        <f>BAU!AE92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AD3" s="2">
-        <f>BAU!AF92</f>
+        <f>BAU!AF92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AE3" s="2">
-        <f>BAU!AG92</f>
+        <f>BAU!AG92*About!$B$40</f>
         <v>0</v>
       </c>
       <c r="AF3" s="2">
-        <f>BAU!AH92</f>
+        <f>BAU!AH92*About!$B$40</f>
         <v>0</v>
       </c>
     </row>
@@ -2955,8 +2977,8 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
-        <f>SUMPRODUCT(A9:A15,C9:C15)/C18</f>
-        <v>500.54031765472104</v>
+        <f>SUMPRODUCT(A9:A15,C9:C15)/C18*About!B40</f>
+        <v>444.03465730443463</v>
       </c>
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.35">
@@ -3068,127 +3090,127 @@
       <c r="B26" s="2"/>
       <c r="C26" s="2">
         <f>B3+$A$22</f>
-        <v>3246.4009312578814</v>
+        <v>2879.9169100665049</v>
       </c>
       <c r="D26" s="2">
-        <f>C3+$A$22</f>
-        <v>3246.400931257881</v>
+        <f t="shared" ref="C26:AG26" si="0">C3+$A$22</f>
+        <v>2879.916910066504</v>
       </c>
       <c r="E26" s="2">
-        <f>D3+$A$22</f>
-        <v>2413.5861485080281</v>
+        <f t="shared" si="0"/>
+        <v>2141.1180289112608</v>
       </c>
       <c r="F26" s="2">
-        <f>E3+$A$22</f>
-        <v>2032.4514696486601</v>
+        <f t="shared" si="0"/>
+        <v>1803.009388018726</v>
       </c>
       <c r="G26" s="2">
-        <f>F3+$A$22</f>
-        <v>1433.7284568246798</v>
+        <f t="shared" si="0"/>
+        <v>1271.8758140736118</v>
       </c>
       <c r="H26" s="2">
-        <f>G3+$A$22</f>
-        <v>1433.7284568246789</v>
+        <f t="shared" si="0"/>
+        <v>1271.8758140736113</v>
       </c>
       <c r="I26" s="2">
-        <f>H3+$A$22</f>
-        <v>1244.5476765638716</v>
+        <f t="shared" si="0"/>
+        <v>1104.0515250627122</v>
       </c>
       <c r="J26" s="2">
-        <f>I3+$A$22</f>
-        <v>1244.5476765638721</v>
+        <f t="shared" si="0"/>
+        <v>1104.0515250627122</v>
       </c>
       <c r="K26" s="2">
-        <f>J3+$A$22</f>
-        <v>914.6142314039771</v>
+        <f t="shared" si="0"/>
+        <v>811.36404497863214</v>
       </c>
       <c r="L26" s="2">
-        <f>K3+$A$22</f>
-        <v>655.29384830782419</v>
+        <f t="shared" si="0"/>
+        <v>581.3181657981562</v>
       </c>
       <c r="M26" s="2">
-        <f>L3+$A$22</f>
-        <v>518.93759052956545</v>
+        <f t="shared" si="0"/>
+        <v>460.35507439809385</v>
       </c>
       <c r="N26" s="2">
-        <f>M3+$A$22</f>
-        <v>518.93759052956545</v>
+        <f t="shared" si="0"/>
+        <v>460.35507439809385</v>
       </c>
       <c r="O26" s="2">
-        <f>N3+$A$22</f>
-        <v>518.93759052956545</v>
+        <f t="shared" si="0"/>
+        <v>460.35507439809385</v>
       </c>
       <c r="P26" s="2">
-        <f>O3+$A$22</f>
-        <v>518.93759052956545</v>
+        <f t="shared" si="0"/>
+        <v>460.35507439809385</v>
       </c>
       <c r="Q26" s="2">
-        <f>P3+$A$22</f>
-        <v>518.93759052956545</v>
+        <f t="shared" si="0"/>
+        <v>460.35507439809385</v>
       </c>
       <c r="R26" s="2">
-        <f>Q3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="S26" s="2">
-        <f>R3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="T26" s="2">
-        <f>S3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="U26" s="2">
-        <f>T3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="V26" s="2">
-        <f>U3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="W26" s="2">
-        <f>V3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="X26" s="2">
-        <f>W3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="Y26" s="2">
-        <f>X3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="Z26" s="2">
-        <f>Y3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="AA26" s="2">
-        <f>Z3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="AB26" s="2">
-        <f>AA3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="AC26" s="2">
-        <f>AB3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="AD26" s="2">
-        <f>AC3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="AE26" s="2">
-        <f>AD3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="AF26" s="2">
-        <f>AE3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
       <c r="AG26" s="2">
-        <f>AF3+$A$22</f>
-        <v>500.54031765472104</v>
+        <f t="shared" si="0"/>
+        <v>444.03465730443463</v>
       </c>
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.35">
@@ -3492,128 +3514,128 @@
       <c r="A33" s="10"/>
       <c r="B33" s="10"/>
       <c r="C33" s="10">
-        <f>C26/C29</f>
-        <v>6.4933213282220209E-2</v>
+        <f t="shared" ref="C33:AG33" si="1">C26/C29</f>
+        <v>5.7602946437045062E-2</v>
       </c>
       <c r="D33" s="10">
-        <f>D26/D29</f>
-        <v>7.0123466238789539E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.2207275222570316E-2</v>
       </c>
       <c r="E33" s="10">
-        <f>E26/E29</f>
-        <v>5.5232194597759396E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.8997069237698448E-2</v>
       </c>
       <c r="F33" s="10">
-        <f>F26/F29</f>
-        <v>4.860021974396482E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.3113773571818274E-2</v>
       </c>
       <c r="G33" s="10">
-        <f>G26/G29</f>
-        <v>3.5524908242761846E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.1514525205994584E-2</v>
       </c>
       <c r="H33" s="10">
-        <f>H26/H29</f>
-        <v>3.6583664796089828E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2453759442965913E-2</v>
       </c>
       <c r="I33" s="10">
-        <f>I26/I29</f>
-        <v>3.2831259241305699E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.9124960431544031E-2</v>
       </c>
       <c r="J33" s="10">
-        <f>J26/J29</f>
-        <v>3.3912674504310028E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.0084295451671517E-2</v>
       </c>
       <c r="K33" s="10">
-        <f>K26/K29</f>
-        <v>2.5941866599841077E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.3013306699189422E-2</v>
       </c>
       <c r="L33" s="10">
-        <f>L26/L29</f>
-        <v>1.9180548473059E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.7015269235556095E-2</v>
       </c>
       <c r="M33" s="10">
-        <f>M26/M29</f>
-        <v>1.5663959822078438E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.3895665916017007E-2</v>
       </c>
       <c r="N33" s="10">
-        <f>N26/N29</f>
-        <v>1.596681919108844E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4164335694227681E-2</v>
       </c>
       <c r="O33" s="10">
-        <f>O26/O29</f>
-        <v>1.6241008958026978E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4407572362493275E-2</v>
       </c>
       <c r="P33" s="10">
-        <f>P26/P29</f>
-        <v>1.6486299175889792E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4625171932372432E-2</v>
       </c>
       <c r="Q33" s="10">
-        <f>Q26/Q29</f>
-        <v>1.6705648750613755E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4819759280897703E-2</v>
       </c>
       <c r="R33" s="10">
-        <f>R26/R29</f>
-        <v>1.6303182778148687E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4462727421810782E-2</v>
       </c>
       <c r="S33" s="10">
-        <f>S26/S29</f>
-        <v>1.6473270286480865E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4613613865540057E-2</v>
       </c>
       <c r="T33" s="10">
-        <f>T26/T29</f>
-        <v>1.6624496577546648E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4747768322154953E-2</v>
       </c>
       <c r="U33" s="10">
-        <f>U26/U29</f>
-        <v>1.6759592634232386E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4867613475717611E-2</v>
       </c>
       <c r="V33" s="10">
-        <f>V26/V29</f>
-        <v>1.6881231055412553E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.4975520217210206E-2</v>
       </c>
       <c r="W33" s="10">
-        <f>W26/W29</f>
-        <v>1.6991429190136634E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5073278158502654E-2</v>
       </c>
       <c r="X33" s="10">
-        <f>X26/X29</f>
-        <v>1.709022837448387E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5160923969271978E-2</v>
       </c>
       <c r="Y33" s="10">
-        <f>Y26/Y29</f>
-        <v>1.7179445279198277E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5240069237521782E-2</v>
       </c>
       <c r="Z33" s="10">
-        <f>Z26/Z29</f>
-        <v>1.7260308545137711E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5311803903668498E-2</v>
       </c>
       <c r="AA33" s="10">
-        <f>AA26/AA29</f>
-        <v>1.7333949212839633E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5377131325842806E-2</v>
       </c>
       <c r="AB33" s="10">
-        <f>AB26/AB29</f>
-        <v>1.7401321686617916E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5436898166296464E-2</v>
       </c>
       <c r="AC33" s="10">
-        <f>AC26/AC29</f>
-        <v>1.7463186091098541E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.549177873969684E-2</v>
       </c>
       <c r="AD33" s="10">
-        <f>AD26/AD29</f>
-        <v>1.7520216374035103E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5542370912288179E-2</v>
       </c>
       <c r="AE33" s="10">
-        <f>AE26/AE29</f>
-        <v>1.7573053696353702E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5589243464770168E-2</v>
       </c>
       <c r="AF33" s="10">
-        <f>AF26/AF29</f>
-        <v>1.7622177075578123E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5632821338699993E-2</v>
       </c>
       <c r="AG33" s="10">
-        <f>AG26/AG29</f>
-        <v>1.7668020375877454E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.5673489419612028E-2</v>
       </c>
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.35">
@@ -3638,8 +3660,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI92"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6655,19 +6677,19 @@
       <c r="A44" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="25" t="s">
+      <c r="B44" s="26" t="s">
         <v>171</v>
       </c>
-      <c r="C44" s="25"/>
+      <c r="C44" s="26"/>
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="25">
         <v>2018</v>
       </c>
-      <c r="C45" s="26">
+      <c r="C45" s="25">
         <v>2019</v>
       </c>
       <c r="D45">
@@ -6768,10 +6790,10 @@
       <c r="A46" t="s">
         <v>169</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="25">
         <v>46797</v>
       </c>
-      <c r="C46" s="26">
+      <c r="C46" s="25">
         <v>54324</v>
       </c>
       <c r="D46">
@@ -6872,10 +6894,10 @@
       <c r="A47" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="25">
         <v>144063</v>
       </c>
-      <c r="C47" s="26">
+      <c r="C47" s="25">
         <v>202158</v>
       </c>
       <c r="D47" s="22">
@@ -11800,7 +11822,7 @@
         <v>2745.8606136031603</v>
       </c>
       <c r="E92" s="18">
-        <f t="shared" ref="D92:AH92" si="15">SUMPRODUCT(E73:E89,E50:E66)/SUM(E50:E66)</f>
+        <f t="shared" ref="E92:AH92" si="15">SUMPRODUCT(E73:E89,E50:E66)/SUM(E50:E66)</f>
         <v>2745.8606136031599</v>
       </c>
       <c r="F92" s="18">
@@ -13581,7 +13603,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>146</v>
       </c>
       <c r="B1" t="s">
@@ -13595,7 +13617,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="24"/>
+      <c r="A2" s="27"/>
       <c r="B2" t="s">
         <v>150</v>
       </c>
@@ -13607,7 +13629,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="24"/>
+      <c r="A3" s="27"/>
       <c r="C3">
         <v>200000</v>
       </c>
@@ -13616,7 +13638,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="24"/>
+      <c r="A4" s="27"/>
       <c r="D4">
         <v>200000</v>
       </c>
@@ -13999,143 +14021,143 @@
       </c>
       <c r="B2" s="19">
         <f t="shared" ref="B2:C2" si="0">C2</f>
-        <v>6.4933213282220209E-2</v>
+        <v>5.7602946437045062E-2</v>
       </c>
       <c r="C2" s="19">
         <f t="shared" si="0"/>
-        <v>6.4933213282220209E-2</v>
+        <v>5.7602946437045062E-2</v>
       </c>
       <c r="D2" s="19">
         <f>E2</f>
-        <v>6.4933213282220209E-2</v>
+        <v>5.7602946437045062E-2</v>
       </c>
       <c r="E2" s="12">
         <f>F2</f>
-        <v>6.4933213282220209E-2</v>
+        <v>5.7602946437045062E-2</v>
       </c>
       <c r="F2" s="12">
         <f>Data!C33</f>
-        <v>6.4933213282220209E-2</v>
+        <v>5.7602946437045062E-2</v>
       </c>
       <c r="G2" s="12">
         <f>Data!D33</f>
-        <v>7.0123466238789539E-2</v>
+        <v>6.2207275222570316E-2</v>
       </c>
       <c r="H2" s="12">
         <f>Data!E33</f>
-        <v>5.5232194597759396E-2</v>
+        <v>4.8997069237698448E-2</v>
       </c>
       <c r="I2" s="12">
         <f>Data!F33</f>
-        <v>4.860021974396482E-2</v>
+        <v>4.3113773571818274E-2</v>
       </c>
       <c r="J2" s="12">
         <f>Data!G33</f>
-        <v>3.5524908242761846E-2</v>
+        <v>3.1514525205994584E-2</v>
       </c>
       <c r="K2" s="12">
         <f>Data!H33</f>
-        <v>3.6583664796089828E-2</v>
+        <v>3.2453759442965913E-2</v>
       </c>
       <c r="L2" s="12">
         <f>Data!I33</f>
-        <v>3.2831259241305699E-2</v>
+        <v>2.9124960431544031E-2</v>
       </c>
       <c r="M2" s="12">
         <f>Data!J33</f>
-        <v>3.3912674504310028E-2</v>
+        <v>3.0084295451671517E-2</v>
       </c>
       <c r="N2" s="12">
         <f>Data!K33</f>
-        <v>2.5941866599841077E-2</v>
+        <v>2.3013306699189422E-2</v>
       </c>
       <c r="O2" s="12">
         <f>Data!L33</f>
-        <v>1.9180548473059E-2</v>
+        <v>1.7015269235556095E-2</v>
       </c>
       <c r="P2" s="12">
         <f>Data!M33</f>
-        <v>1.5663959822078438E-2</v>
+        <v>1.3895665916017007E-2</v>
       </c>
       <c r="Q2" s="12">
         <f>Data!N33</f>
-        <v>1.596681919108844E-2</v>
+        <v>1.4164335694227681E-2</v>
       </c>
       <c r="R2" s="12">
         <f>Data!O33</f>
-        <v>1.6241008958026978E-2</v>
+        <v>1.4407572362493275E-2</v>
       </c>
       <c r="S2" s="12">
         <f>Data!P33</f>
-        <v>1.6486299175889792E-2</v>
+        <v>1.4625171932372432E-2</v>
       </c>
       <c r="T2" s="12">
         <f>Data!Q33</f>
-        <v>1.6705648750613755E-2</v>
+        <v>1.4819759280897703E-2</v>
       </c>
       <c r="U2" s="12">
         <f>Data!R33</f>
-        <v>1.6303182778148687E-2</v>
+        <v>1.4462727421810782E-2</v>
       </c>
       <c r="V2" s="12">
         <f>Data!S33</f>
-        <v>1.6473270286480865E-2</v>
+        <v>1.4613613865540057E-2</v>
       </c>
       <c r="W2" s="12">
         <f>Data!T33</f>
-        <v>1.6624496577546648E-2</v>
+        <v>1.4747768322154953E-2</v>
       </c>
       <c r="X2" s="12">
         <f>Data!U33</f>
-        <v>1.6759592634232386E-2</v>
+        <v>1.4867613475717611E-2</v>
       </c>
       <c r="Y2" s="12">
         <f>Data!V33</f>
-        <v>1.6881231055412553E-2</v>
+        <v>1.4975520217210206E-2</v>
       </c>
       <c r="Z2" s="12">
         <f>Data!W33</f>
-        <v>1.6991429190136634E-2</v>
+        <v>1.5073278158502654E-2</v>
       </c>
       <c r="AA2" s="12">
         <f>Data!X33</f>
-        <v>1.709022837448387E-2</v>
+        <v>1.5160923969271978E-2</v>
       </c>
       <c r="AB2" s="12">
         <f>Data!Y33</f>
-        <v>1.7179445279198277E-2</v>
+        <v>1.5240069237521782E-2</v>
       </c>
       <c r="AC2" s="12">
         <f>Data!Z33</f>
-        <v>1.7260308545137711E-2</v>
+        <v>1.5311803903668498E-2</v>
       </c>
       <c r="AD2" s="12">
         <f>Data!AA33</f>
-        <v>1.7333949212839633E-2</v>
+        <v>1.5377131325842806E-2</v>
       </c>
       <c r="AE2" s="12">
         <f>Data!AB33</f>
-        <v>1.7401321686617916E-2</v>
+        <v>1.5436898166296464E-2</v>
       </c>
       <c r="AF2" s="12">
         <f>Data!AC33</f>
-        <v>1.7463186091098541E-2</v>
+        <v>1.549177873969684E-2</v>
       </c>
       <c r="AG2" s="12">
         <f>Data!AD33</f>
-        <v>1.7520216374035103E-2</v>
+        <v>1.5542370912288179E-2</v>
       </c>
       <c r="AH2" s="12">
         <f>Data!AE33</f>
-        <v>1.7573053696353702E-2</v>
+        <v>1.5589243464770168E-2</v>
       </c>
       <c r="AI2" s="12">
         <f>Data!AF33</f>
-        <v>1.7622177075578123E-2</v>
+        <v>1.5632821338699993E-2</v>
       </c>
       <c r="AJ2" s="12">
         <f>Data!AG33</f>
-        <v>1.7668020375877454E-2</v>
+        <v>1.5673489419612028E-2</v>
       </c>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.35">

--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11930A7-38C8-442A-8669-31678A240E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{551FE57B-A5D2-45B7-967D-2596EDDD980C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Pop-Weighted State Avg Tax Credit</t>
-  </si>
-  <si>
-    <t>Total Tax Credit</t>
   </si>
   <si>
     <t>Nissan</t>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>Percentage of Total, 2021</t>
+  </si>
+  <si>
+    <t>Total Tax Credit (2012$)</t>
   </si>
 </sst>
 </file>
@@ -874,12 +874,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -889,22 +889,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B7" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -914,7 +914,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -924,7 +924,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -934,12 +934,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B17" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B18" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -954,12 +954,12 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B22" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B23" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -969,27 +969,27 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A33" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B33" s="17">
         <v>0.88711067149387013</v>
@@ -1009,8 +1009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB5E61F-7942-4515-8229-A2210CA98666}">
   <dimension ref="A1:AG56"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:AE3"/>
+    <sheetView topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:AG37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1267,31 +1267,31 @@
     </row>
     <row r="8" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A8" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" s="19"/>
     </row>
     <row r="9" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A9" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A10" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B10" s="18"/>
       <c r="C10" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A11" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="18"/>
     </row>
@@ -1300,10 +1300,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>54</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>55</v>
       </c>
       <c r="D12" s="18">
         <v>2020</v>
@@ -1335,13 +1335,13 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A13" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B13" s="18">
         <v>5.6849999999999996</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="18">
         <v>4750</v>
@@ -1365,18 +1365,18 @@
         <v>2400</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A14" s="18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B14" s="18">
         <v>3.5710000000000002</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" s="18">
         <v>2250</v>
@@ -1401,18 +1401,18 @@
       </c>
       <c r="K14" s="18"/>
       <c r="R14" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:31" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="18">
         <v>0.96799999999999997</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="18">
         <v>2500</v>
@@ -1438,13 +1438,13 @@
     </row>
     <row r="16" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B16" s="18">
         <v>8.3800000000000008</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" s="22">
         <v>2000</v>
@@ -1468,20 +1468,20 @@
         <v>2000</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="23"/>
     </row>
     <row r="17" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B17" s="18">
         <v>28.64</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" s="18">
         <v>2500</v>
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="K17" s="18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="R17" s="24"/>
     </row>
     <row r="18" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B18" s="18">
         <v>39.35</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" s="18">
         <v>2500</v>
@@ -1543,13 +1543,13 @@
     </row>
     <row r="19" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="18" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="18">
         <v>4.665</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="25">
         <v>1500</v>
@@ -1575,13 +1575,13 @@
     </row>
     <row r="20" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B20" s="18">
         <v>1.341</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" s="18">
         <v>2000</v>
@@ -1607,13 +1607,13 @@
     </row>
     <row r="21" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="18">
         <v>6.0380000000000003</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" s="18">
         <v>2500</v>
@@ -1639,13 +1639,13 @@
     </row>
     <row r="22" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B22" s="18">
         <v>6.8730000000000002</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" s="18">
         <v>2500</v>
@@ -1671,13 +1671,13 @@
     </row>
     <row r="23" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="18" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B23" s="18">
         <v>8.8849999999999998</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" s="18">
         <v>5000</v>
@@ -1703,13 +1703,13 @@
     </row>
     <row r="24" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B24" s="18">
         <v>4.1760000000000002</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" s="18">
         <v>2500</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="25" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="18">
         <v>0.624</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" s="18">
         <v>4000</v>
@@ -1765,12 +1765,12 @@
         <v>4000</v>
       </c>
       <c r="K25" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B26" s="18">
         <f>B27-SUM(B13:B25)</f>
@@ -1802,7 +1802,7 @@
     </row>
     <row r="27" spans="1:33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="18">
         <v>329.5</v>
@@ -1930,11 +1930,11 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C33" s="2">
-        <f t="shared" ref="C33:I33" si="1">SUMPRODUCT(D13:D26,$B$13:$B$26)/SUM($B$13:$B$26)</f>
+        <f>SUMPRODUCT(D13:D26,$B$13:$B$26)/SUM($B$13:$B$26)</f>
         <v>981.82549317147198</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C33:I33" si="1">SUMPRODUCT(E13:E26,$B$13:$B$26)/SUM($B$13:$B$26)</f>
         <v>764.52655538694989</v>
       </c>
       <c r="E33" s="2">
@@ -2059,7 +2059,7 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.35">
@@ -2160,133 +2160,133 @@
     <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="B37" s="2"/>
       <c r="C37" s="2">
-        <f t="shared" ref="C37:AG37" si="3">A3+$C$33</f>
-        <v>3744.6297684711135</v>
+        <f>(A3+$C$33)*About!$B$33</f>
+        <v>3321.9010284043447</v>
       </c>
       <c r="D37" s="2">
-        <f t="shared" si="3"/>
-        <v>4535.5726953383919</v>
+        <f>(B3+$C$33)*About!$B$33</f>
+        <v>4023.5549393709034</v>
       </c>
       <c r="E37" s="2">
-        <f t="shared" si="3"/>
-        <v>4026.5111098628158</v>
+        <f>(C3+$C$33)*About!$B$33</f>
+        <v>3571.9609744479308</v>
       </c>
       <c r="F37" s="2">
-        <f t="shared" si="3"/>
-        <v>3361.1309597190166</v>
+        <f>(D3+$C$33)*About!$B$33</f>
+        <v>2981.6951426551727</v>
       </c>
       <c r="G37" s="2">
-        <f t="shared" si="3"/>
-        <v>2619.6114719631864</v>
+        <f>(E3+$C$33)*About!$B$33</f>
+        <v>2323.8852919463079</v>
       </c>
       <c r="H37" s="2">
-        <f t="shared" si="3"/>
-        <v>2120.6274129032586</v>
+        <f>(F3+$C$33)*About!$B$33</f>
+        <v>1881.2312082489184</v>
       </c>
       <c r="I37" s="2">
-        <f t="shared" si="3"/>
-        <v>1701.3431214929615</v>
+        <f>(G3+$C$33)*About!$B$33</f>
+        <v>1509.2796389490982</v>
       </c>
       <c r="J37" s="2">
-        <f t="shared" si="3"/>
-        <v>1457.7037523115862</v>
+        <f>(H3+$C$33)*About!$B$33</f>
+        <v>1293.1445545522654</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
-        <v>1277.7407357976626</v>
+        <f>(I3+$C$33)*About!$B$33</f>
+        <v>1133.4974421285362</v>
       </c>
       <c r="L37" s="2">
-        <f t="shared" si="3"/>
-        <v>1134.4800408932701</v>
+        <f>(J3+$C$33)*About!$B$33</f>
+        <v>1006.4093508732221</v>
       </c>
       <c r="M37" s="2">
-        <f t="shared" si="3"/>
-        <v>1099.1687434879545</v>
+        <f>(K3+$C$33)*About!$B$33</f>
+        <v>975.08432212067282</v>
       </c>
       <c r="N37" s="2">
-        <f t="shared" si="3"/>
-        <v>1099.1687434879545</v>
+        <f>(L3+$C$33)*About!$B$33</f>
+        <v>975.08432212067282</v>
       </c>
       <c r="O37" s="2">
-        <f t="shared" si="3"/>
-        <v>1085.4656752634462</v>
+        <f>(M3+$C$33)*About!$B$33</f>
+        <v>962.92818406650292</v>
       </c>
       <c r="P37" s="2">
-        <f t="shared" si="3"/>
-        <v>1069.969073703289</v>
+        <f>(N3+$C$33)*About!$B$33</f>
+        <v>949.180983450599</v>
       </c>
       <c r="Q37" s="2">
-        <f t="shared" si="3"/>
-        <v>1056.6507568544148</v>
+        <f>(O3+$C$33)*About!$B$33</f>
+        <v>937.36616244762604</v>
       </c>
       <c r="R37" s="2">
-        <f t="shared" si="3"/>
-        <v>1056.6507568544148</v>
+        <f>(P3+$C$33)*About!$B$33</f>
+        <v>937.36616244762604</v>
       </c>
       <c r="S37" s="2">
-        <f t="shared" si="3"/>
-        <v>1046.7952023862476</v>
+        <f>(Q3+$C$33)*About!$B$33</f>
+        <v>928.62319490542586</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="3"/>
-        <v>1046.7952023862476</v>
+        <f>(R3+$C$33)*About!$B$33</f>
+        <v>928.62319490542586</v>
       </c>
       <c r="U37" s="2">
-        <f t="shared" si="3"/>
-        <v>1046.7952023862476</v>
+        <f>(S3+$C$33)*About!$B$33</f>
+        <v>928.62319490542586</v>
       </c>
       <c r="V37" s="2">
-        <f t="shared" si="3"/>
-        <v>1032.195367493915</v>
+        <f>(T3+$C$33)*About!$B$33</f>
+        <v>915.67152557038901</v>
       </c>
       <c r="W37" s="2">
-        <f t="shared" si="3"/>
-        <v>1025.5362090694778</v>
+        <f>(U3+$C$33)*About!$B$33</f>
+        <v>909.76411506890236</v>
       </c>
       <c r="X37" s="2">
-        <f t="shared" si="3"/>
-        <v>1025.5362090694778</v>
+        <f>(V3+$C$33)*About!$B$33</f>
+        <v>909.76411506890236</v>
       </c>
       <c r="Y37" s="2">
-        <f t="shared" si="3"/>
-        <v>1025.5362090694778</v>
+        <f>(W3+$C$33)*About!$B$33</f>
+        <v>909.76411506890236</v>
       </c>
       <c r="Z37" s="2">
-        <f t="shared" si="3"/>
-        <v>1025.5362090694778</v>
+        <f>(X3+$C$33)*About!$B$33</f>
+        <v>909.76411506890236</v>
       </c>
       <c r="AA37" s="2">
-        <f t="shared" si="3"/>
-        <v>1012.8601310553157</v>
+        <f>(Y3+$C$33)*About!$B$33</f>
+        <v>898.51903098985042</v>
       </c>
       <c r="AB37" s="2">
-        <f t="shared" si="3"/>
-        <v>1006.0085969430614</v>
+        <f>(Z3+$C$33)*About!$B$33</f>
+        <v>892.44096196276541</v>
       </c>
       <c r="AC37" s="2">
-        <f t="shared" si="3"/>
-        <v>999.34943851862431</v>
+        <f>(AA3+$C$33)*About!$B$33</f>
+        <v>886.53355146127888</v>
       </c>
       <c r="AD37" s="2">
-        <f t="shared" si="3"/>
-        <v>999.34943851862431</v>
+        <f>(AB3+$C$33)*About!$B$33</f>
+        <v>886.53355146127888</v>
       </c>
       <c r="AE37" s="2">
-        <f t="shared" si="3"/>
-        <v>999.34943851862431</v>
+        <f>(AC3+$C$33)*About!$B$33</f>
+        <v>886.53355146127888</v>
       </c>
       <c r="AF37" s="2">
-        <f t="shared" si="3"/>
-        <v>999.34943851862431</v>
+        <f>(AD3+$C$33)*About!$B$33</f>
+        <v>886.53355146127888</v>
       </c>
       <c r="AG37" s="2">
-        <f t="shared" si="3"/>
-        <v>999.34943851862431</v>
+        <f>(AE3+$C$33)*About!$B$33</f>
+        <v>886.53355146127888</v>
       </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C39" s="17">
         <v>2020</v>
@@ -2384,7 +2384,7 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C40" s="17">
         <v>49824</v>
@@ -2482,7 +2482,7 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.35">
@@ -2585,127 +2585,127 @@
       <c r="B44" s="7"/>
       <c r="C44" s="7">
         <f>C37/C40</f>
-        <v>7.5157148532255816E-2</v>
+        <v>6.6672708502013983E-2</v>
       </c>
       <c r="D44" s="7">
-        <f t="shared" ref="D44:AG44" si="4">D37/D40</f>
-        <v>9.8228699848796536E-2</v>
+        <f t="shared" ref="D44:AG44" si="3">D37/D40</f>
+        <v>8.7139727882835721E-2</v>
       </c>
       <c r="E44" s="7">
-        <f t="shared" si="4"/>
-        <v>9.2498618436792954E-2</v>
+        <f t="shared" si="3"/>
+        <v>8.2056511513718677E-2</v>
       </c>
       <c r="F44" s="7">
-        <f t="shared" si="4"/>
-        <v>8.0965159592685146E-2</v>
+        <f t="shared" si="3"/>
+        <v>7.182505709387528E-2</v>
       </c>
       <c r="G44" s="7">
-        <f t="shared" si="4"/>
-        <v>6.5578325701333692E-2</v>
+        <f t="shared" si="3"/>
+        <v>5.8175232548353856E-2</v>
       </c>
       <c r="H44" s="7">
-        <f t="shared" si="4"/>
-        <v>5.4825615969783956E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.86363889980201E-2</v>
       </c>
       <c r="I44" s="7">
-        <f t="shared" si="4"/>
-        <v>4.5579789306125683E-2</v>
+        <f t="shared" si="3"/>
+        <v>4.0434317497906276E-2</v>
       </c>
       <c r="J44" s="7">
-        <f t="shared" si="4"/>
-        <v>4.038050018592064E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.5821972635190408E-2</v>
       </c>
       <c r="K44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.6860209603417404E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.2699085292692415E-2</v>
       </c>
       <c r="L44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.3735270582542699E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.9926918539506856E-2</v>
       </c>
       <c r="M44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.3648400445962796E-2</v>
+        <f t="shared" si="3"/>
+        <v>2.9849855114312696E-2</v>
       </c>
       <c r="N44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4221974154948334E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0358678472442086E-2</v>
       </c>
       <c r="O44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4303283968228439E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0430809275500043E-2</v>
       </c>
       <c r="P44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.425304040385467E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0386237673370179E-2</v>
       </c>
       <c r="Q44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4212093029836681E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0349912820909174E-2</v>
       </c>
       <c r="R44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4555914607051305E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0654920611146119E-2</v>
       </c>
       <c r="S44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4541198599149586E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0641865883494716E-2</v>
       </c>
       <c r="T44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4816692744479544E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0886259679751008E-2</v>
       </c>
       <c r="U44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5065109332300969E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1106632685783484E-2</v>
       </c>
       <c r="V44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4799866743555147E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0871333154772411E-2</v>
       </c>
       <c r="W44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4779383694775567E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0853162423615309E-2</v>
       </c>
       <c r="X44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4964719748981535E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1017576015113991E-2</v>
       </c>
       <c r="Y44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5134097853640307E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1167833139274195E-2</v>
       </c>
       <c r="Z44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5289817382743449E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1305973595301587E-2</v>
       </c>
       <c r="AA44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4995115591572222E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1044540491445238E-2</v>
       </c>
       <c r="AB44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4888333903577984E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0949813316505422E-2</v>
       </c>
       <c r="AC44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4777157361849137E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0851187419917974E-2</v>
       </c>
       <c r="AD44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4888735071642626E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.0950169196976629E-2</v>
       </c>
       <c r="AE44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.4993064709933096E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1042721132457197E-2</v>
       </c>
       <c r="AF44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5091241792736455E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1129815070308195E-2</v>
       </c>
       <c r="AG44" s="7">
-        <f t="shared" si="4"/>
-        <v>3.5183281234702893E-2</v>
+        <f t="shared" si="3"/>
+        <v>3.1211464241474959E-2</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.35">
@@ -2735,7 +2735,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC9C9DB8-910A-422D-8387-227BB59B1D40}">
   <dimension ref="A1:AI80"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection activeCell="B32" sqref="B32:C53"/>
     </sheetView>
   </sheetViews>
@@ -2756,7 +2756,7 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="D1" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.35">
@@ -2986,7 +2986,7 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B5:K5)</f>
@@ -3116,7 +3116,7 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B6:K6)</f>
@@ -3246,7 +3246,7 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B7:K7)</f>
@@ -3376,7 +3376,7 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B8:K8)</f>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B8" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B9:K9)</f>
@@ -3636,7 +3636,7 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B9" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B10:K10)</f>
@@ -3766,7 +3766,7 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B11:K11)</f>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B12:K12)</f>
@@ -4026,7 +4026,7 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B13:K13)</f>
@@ -4156,7 +4156,7 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B14:K14)</f>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B14" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B15:K15)</f>
@@ -4416,7 +4416,7 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B16:K16)</f>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B16" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B17:K17)</f>
@@ -4680,7 +4680,7 @@
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B17" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B18:K18)</f>
@@ -4812,7 +4812,7 @@
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B19:K19)</f>
@@ -4944,7 +4944,7 @@
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B20:K20)</f>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B20" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B21:K21)</f>
@@ -5208,7 +5208,7 @@
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B22:K22)</f>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B22" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B23:K23)</f>
@@ -5472,7 +5472,7 @@
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B23" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B24:K24)</f>
@@ -5604,7 +5604,7 @@
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B24" s="11">
         <f>SUM('PEV Sales by Manufacturer'!B25:K25)</f>
@@ -5765,12 +5765,12 @@
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" s="26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" s="17">
         <v>2020</v>
@@ -5868,7 +5868,7 @@
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="17">
         <v>339000</v>
@@ -5966,7 +5966,7 @@
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" s="17">
         <v>86238</v>
@@ -6064,7 +6064,7 @@
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B31" s="17">
         <v>2020</v>
@@ -6293,7 +6293,7 @@
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A33" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="11">
         <f>'PEV Sales by Manufacturer'!K5</f>
@@ -6424,7 +6424,7 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="11">
         <f>'PEV Sales by Manufacturer'!K6</f>
@@ -6555,7 +6555,7 @@
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35" s="11">
         <f>'PEV Sales by Manufacturer'!K7</f>
@@ -6686,7 +6686,7 @@
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A36" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B36" s="11">
         <f>'PEV Sales by Manufacturer'!K8</f>
@@ -6817,7 +6817,7 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B37" s="11">
         <f>'PEV Sales by Manufacturer'!K9</f>
@@ -6948,7 +6948,7 @@
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B38" s="11">
         <f>'PEV Sales by Manufacturer'!K10</f>
@@ -7079,7 +7079,7 @@
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A39" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B39" s="11">
         <f>'PEV Sales by Manufacturer'!K11</f>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B40" s="11">
         <f>'PEV Sales by Manufacturer'!K12</f>
@@ -7341,7 +7341,7 @@
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B41" s="11">
         <f>'PEV Sales by Manufacturer'!K13</f>
@@ -7472,7 +7472,7 @@
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A42" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="11">
         <f>'PEV Sales by Manufacturer'!K14</f>
@@ -7603,7 +7603,7 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B43" s="11">
         <f>'PEV Sales by Manufacturer'!K15</f>
@@ -7734,7 +7734,7 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B44" s="11">
         <f>'PEV Sales by Manufacturer'!K16</f>
@@ -7865,7 +7865,7 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B45" s="11">
         <f>'PEV Sales by Manufacturer'!K17</f>
@@ -7996,7 +7996,7 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46" s="11">
         <f>'PEV Sales by Manufacturer'!K18</f>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="11">
         <f>'PEV Sales by Manufacturer'!K19</f>
@@ -8258,7 +8258,7 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B48" s="11">
         <f>'PEV Sales by Manufacturer'!K20</f>
@@ -8389,7 +8389,7 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A49" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B49" s="11">
         <f>'PEV Sales by Manufacturer'!K21</f>
@@ -8520,7 +8520,7 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B50" s="11">
         <f>'PEV Sales by Manufacturer'!K22</f>
@@ -8651,7 +8651,7 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B51" s="11">
         <f>'PEV Sales by Manufacturer'!K23</f>
@@ -8782,7 +8782,7 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B52" s="11">
         <f>'PEV Sales by Manufacturer'!K24</f>
@@ -8913,7 +8913,7 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B53" s="11">
         <f>'PEV Sales by Manufacturer'!K25</f>
@@ -9044,7 +9044,7 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C55" s="17">
         <v>2020</v>
@@ -9145,2842 +9145,2842 @@
         <v>2</v>
       </c>
       <c r="C56" s="17">
-        <f>IF(B3&lt;200000,7500,IF(B3&lt;400000,7500/2,IF(B3&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C56:AG56" si="5">IF(B3&lt;200000,7500,IF(B3&lt;400000,7500/2,IF(B3&lt;600000,7500/4,0)))</f>
         <v>0</v>
       </c>
       <c r="D56" s="17">
-        <f>IF(C3&lt;200000,7500,IF(C3&lt;400000,7500/2,IF(C3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E56" s="17">
-        <f>IF(D3&lt;200000,7500,IF(D3&lt;400000,7500/2,IF(D3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F56" s="17">
-        <f>IF(E3&lt;200000,7500,IF(E3&lt;400000,7500/2,IF(E3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G56" s="17">
-        <f>IF(F3&lt;200000,7500,IF(F3&lt;400000,7500/2,IF(F3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="H56" s="17">
-        <f>IF(G3&lt;200000,7500,IF(G3&lt;400000,7500/2,IF(G3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="I56" s="17">
-        <f>IF(H3&lt;200000,7500,IF(H3&lt;400000,7500/2,IF(H3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J56" s="17">
-        <f>IF(I3&lt;200000,7500,IF(I3&lt;400000,7500/2,IF(I3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K56" s="17">
-        <f>IF(J3&lt;200000,7500,IF(J3&lt;400000,7500/2,IF(J3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L56" s="17">
-        <f>IF(K3&lt;200000,7500,IF(K3&lt;400000,7500/2,IF(K3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M56" s="17">
-        <f>IF(L3&lt;200000,7500,IF(L3&lt;400000,7500/2,IF(L3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N56" s="17">
-        <f>IF(M3&lt;200000,7500,IF(M3&lt;400000,7500/2,IF(M3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O56" s="17">
-        <f>IF(N3&lt;200000,7500,IF(N3&lt;400000,7500/2,IF(N3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P56" s="17">
-        <f>IF(O3&lt;200000,7500,IF(O3&lt;400000,7500/2,IF(O3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q56" s="17">
-        <f>IF(P3&lt;200000,7500,IF(P3&lt;400000,7500/2,IF(P3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R56" s="17">
-        <f>IF(Q3&lt;200000,7500,IF(Q3&lt;400000,7500/2,IF(Q3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S56" s="17">
-        <f>IF(R3&lt;200000,7500,IF(R3&lt;400000,7500/2,IF(R3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T56" s="17">
-        <f>IF(S3&lt;200000,7500,IF(S3&lt;400000,7500/2,IF(S3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U56" s="17">
-        <f>IF(T3&lt;200000,7500,IF(T3&lt;400000,7500/2,IF(T3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V56" s="17">
-        <f>IF(U3&lt;200000,7500,IF(U3&lt;400000,7500/2,IF(U3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W56" s="17">
-        <f>IF(V3&lt;200000,7500,IF(V3&lt;400000,7500/2,IF(V3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X56" s="17">
-        <f>IF(W3&lt;200000,7500,IF(W3&lt;400000,7500/2,IF(W3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y56" s="17">
-        <f>IF(X3&lt;200000,7500,IF(X3&lt;400000,7500/2,IF(X3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z56" s="17">
-        <f>IF(Y3&lt;200000,7500,IF(Y3&lt;400000,7500/2,IF(Y3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA56" s="17">
-        <f>IF(Z3&lt;200000,7500,IF(Z3&lt;400000,7500/2,IF(Z3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB56" s="17">
-        <f>IF(AA3&lt;200000,7500,IF(AA3&lt;400000,7500/2,IF(AA3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC56" s="17">
-        <f>IF(AB3&lt;200000,7500,IF(AB3&lt;400000,7500/2,IF(AB3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD56" s="17">
-        <f>IF(AC3&lt;200000,7500,IF(AC3&lt;400000,7500/2,IF(AC3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE56" s="17">
-        <f>IF(AD3&lt;200000,7500,IF(AD3&lt;400000,7500/2,IF(AD3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF56" s="17">
-        <f>IF(AE3&lt;200000,7500,IF(AE3&lt;400000,7500/2,IF(AE3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG56" s="17">
-        <f>IF(AF3&lt;200000,7500,IF(AF3&lt;400000,7500/2,IF(AF3&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A57" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C57" s="17">
-        <f>IF(B4&lt;200000,7500,IF(B4&lt;400000,7500/2,IF(B4&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C57:AG57" si="6">IF(B4&lt;200000,7500,IF(B4&lt;400000,7500/2,IF(B4&lt;600000,7500/4,0)))</f>
         <v>3750</v>
       </c>
       <c r="D57" s="17">
-        <f>IF(C4&lt;200000,7500,IF(C4&lt;400000,7500/2,IF(C4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>3750</v>
       </c>
       <c r="E57" s="17">
-        <f>IF(D4&lt;200000,7500,IF(D4&lt;400000,7500/2,IF(D4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>3750</v>
       </c>
       <c r="F57" s="17">
-        <f>IF(E4&lt;200000,7500,IF(E4&lt;400000,7500/2,IF(E4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>3750</v>
       </c>
       <c r="G57" s="17">
-        <f>IF(F4&lt;200000,7500,IF(F4&lt;400000,7500/2,IF(F4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>1875</v>
       </c>
       <c r="H57" s="17">
-        <f>IF(G4&lt;200000,7500,IF(G4&lt;400000,7500/2,IF(G4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>1875</v>
       </c>
       <c r="I57" s="17">
-        <f>IF(H4&lt;200000,7500,IF(H4&lt;400000,7500/2,IF(H4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="J57" s="17">
-        <f>IF(I4&lt;200000,7500,IF(I4&lt;400000,7500/2,IF(I4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K57" s="17">
-        <f>IF(J4&lt;200000,7500,IF(J4&lt;400000,7500/2,IF(J4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="L57" s="17">
-        <f>IF(K4&lt;200000,7500,IF(K4&lt;400000,7500/2,IF(K4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M57" s="17">
-        <f>IF(L4&lt;200000,7500,IF(L4&lt;400000,7500/2,IF(L4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N57" s="17">
-        <f>IF(M4&lt;200000,7500,IF(M4&lt;400000,7500/2,IF(M4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O57" s="17">
-        <f>IF(N4&lt;200000,7500,IF(N4&lt;400000,7500/2,IF(N4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P57" s="17">
-        <f>IF(O4&lt;200000,7500,IF(O4&lt;400000,7500/2,IF(O4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q57" s="17">
-        <f>IF(P4&lt;200000,7500,IF(P4&lt;400000,7500/2,IF(P4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R57" s="17">
-        <f>IF(Q4&lt;200000,7500,IF(Q4&lt;400000,7500/2,IF(Q4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="S57" s="17">
-        <f>IF(R4&lt;200000,7500,IF(R4&lt;400000,7500/2,IF(R4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="T57" s="17">
-        <f>IF(S4&lt;200000,7500,IF(S4&lt;400000,7500/2,IF(S4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U57" s="17">
-        <f>IF(T4&lt;200000,7500,IF(T4&lt;400000,7500/2,IF(T4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="V57" s="17">
-        <f>IF(U4&lt;200000,7500,IF(U4&lt;400000,7500/2,IF(U4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="W57" s="17">
-        <f>IF(V4&lt;200000,7500,IF(V4&lt;400000,7500/2,IF(V4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="X57" s="17">
-        <f>IF(W4&lt;200000,7500,IF(W4&lt;400000,7500/2,IF(W4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y57" s="17">
-        <f>IF(X4&lt;200000,7500,IF(X4&lt;400000,7500/2,IF(X4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Z57" s="17">
-        <f>IF(Y4&lt;200000,7500,IF(Y4&lt;400000,7500/2,IF(Y4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AA57" s="17">
-        <f>IF(Z4&lt;200000,7500,IF(Z4&lt;400000,7500/2,IF(Z4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AB57" s="17">
-        <f>IF(AA4&lt;200000,7500,IF(AA4&lt;400000,7500/2,IF(AA4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AC57" s="17">
-        <f>IF(AB4&lt;200000,7500,IF(AB4&lt;400000,7500/2,IF(AB4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AD57" s="17">
-        <f>IF(AC4&lt;200000,7500,IF(AC4&lt;400000,7500/2,IF(AC4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AE57" s="17">
-        <f>IF(AD4&lt;200000,7500,IF(AD4&lt;400000,7500/2,IF(AD4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AF57" s="17">
-        <f>IF(AE4&lt;200000,7500,IF(AE4&lt;400000,7500/2,IF(AE4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AG57" s="17">
-        <f>IF(AF4&lt;200000,7500,IF(AF4&lt;400000,7500/2,IF(AF4&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A58" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" s="17">
-        <f>IF(B5&lt;200000,7500,IF(B5&lt;400000,7500/2,IF(B5&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C58:AG58" si="7">IF(B5&lt;200000,7500,IF(B5&lt;400000,7500/2,IF(B5&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D58" s="17">
-        <f>IF(C5&lt;200000,7500,IF(C5&lt;400000,7500/2,IF(C5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>7500</v>
       </c>
       <c r="E58" s="17">
-        <f>IF(D5&lt;200000,7500,IF(D5&lt;400000,7500/2,IF(D5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>7500</v>
       </c>
       <c r="F58" s="17">
-        <f>IF(E5&lt;200000,7500,IF(E5&lt;400000,7500/2,IF(E5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>3750</v>
       </c>
       <c r="G58" s="17">
-        <f>IF(F5&lt;200000,7500,IF(F5&lt;400000,7500/2,IF(F5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>3750</v>
       </c>
       <c r="H58" s="17">
-        <f>IF(G5&lt;200000,7500,IF(G5&lt;400000,7500/2,IF(G5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>3750</v>
       </c>
       <c r="I58" s="17">
-        <f>IF(H5&lt;200000,7500,IF(H5&lt;400000,7500/2,IF(H5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>1875</v>
       </c>
       <c r="J58" s="17">
-        <f>IF(I5&lt;200000,7500,IF(I5&lt;400000,7500/2,IF(I5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>1875</v>
       </c>
       <c r="K58" s="17">
-        <f>IF(J5&lt;200000,7500,IF(J5&lt;400000,7500/2,IF(J5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L58" s="17">
-        <f>IF(K5&lt;200000,7500,IF(K5&lt;400000,7500/2,IF(K5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M58" s="17">
-        <f>IF(L5&lt;200000,7500,IF(L5&lt;400000,7500/2,IF(L5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N58" s="17">
-        <f>IF(M5&lt;200000,7500,IF(M5&lt;400000,7500/2,IF(M5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O58" s="17">
-        <f>IF(N5&lt;200000,7500,IF(N5&lt;400000,7500/2,IF(N5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P58" s="17">
-        <f>IF(O5&lt;200000,7500,IF(O5&lt;400000,7500/2,IF(O5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q58" s="17">
-        <f>IF(P5&lt;200000,7500,IF(P5&lt;400000,7500/2,IF(P5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R58" s="17">
-        <f>IF(Q5&lt;200000,7500,IF(Q5&lt;400000,7500/2,IF(Q5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S58" s="17">
-        <f>IF(R5&lt;200000,7500,IF(R5&lt;400000,7500/2,IF(R5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T58" s="17">
-        <f>IF(S5&lt;200000,7500,IF(S5&lt;400000,7500/2,IF(S5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U58" s="17">
-        <f>IF(T5&lt;200000,7500,IF(T5&lt;400000,7500/2,IF(T5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V58" s="17">
-        <f>IF(U5&lt;200000,7500,IF(U5&lt;400000,7500/2,IF(U5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="W58" s="17">
-        <f>IF(V5&lt;200000,7500,IF(V5&lt;400000,7500/2,IF(V5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="X58" s="17">
-        <f>IF(W5&lt;200000,7500,IF(W5&lt;400000,7500/2,IF(W5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Y58" s="17">
-        <f>IF(X5&lt;200000,7500,IF(X5&lt;400000,7500/2,IF(X5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Z58" s="17">
-        <f>IF(Y5&lt;200000,7500,IF(Y5&lt;400000,7500/2,IF(Y5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AA58" s="17">
-        <f>IF(Z5&lt;200000,7500,IF(Z5&lt;400000,7500/2,IF(Z5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AB58" s="17">
-        <f>IF(AA5&lt;200000,7500,IF(AA5&lt;400000,7500/2,IF(AA5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AC58" s="17">
-        <f>IF(AB5&lt;200000,7500,IF(AB5&lt;400000,7500/2,IF(AB5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AD58" s="17">
-        <f>IF(AC5&lt;200000,7500,IF(AC5&lt;400000,7500/2,IF(AC5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AE58" s="17">
-        <f>IF(AD5&lt;200000,7500,IF(AD5&lt;400000,7500/2,IF(AD5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AF58" s="17">
-        <f>IF(AE5&lt;200000,7500,IF(AE5&lt;400000,7500/2,IF(AE5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AG58" s="17">
-        <f>IF(AF5&lt;200000,7500,IF(AF5&lt;400000,7500/2,IF(AF5&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A59" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C59" s="17">
-        <f>IF(B6&lt;200000,7500,IF(B6&lt;400000,7500/2,IF(B6&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C59:AG59" si="8">IF(B6&lt;200000,7500,IF(B6&lt;400000,7500/2,IF(B6&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D59" s="17">
-        <f>IF(C6&lt;200000,7500,IF(C6&lt;400000,7500/2,IF(C6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>7500</v>
       </c>
       <c r="E59" s="17">
-        <f>IF(D6&lt;200000,7500,IF(D6&lt;400000,7500/2,IF(D6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>3750</v>
       </c>
       <c r="F59" s="17">
-        <f>IF(E6&lt;200000,7500,IF(E6&lt;400000,7500/2,IF(E6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>1875</v>
       </c>
       <c r="G59" s="17">
-        <f>IF(F6&lt;200000,7500,IF(F6&lt;400000,7500/2,IF(F6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H59" s="17">
-        <f>IF(G6&lt;200000,7500,IF(G6&lt;400000,7500/2,IF(G6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I59" s="17">
-        <f>IF(H6&lt;200000,7500,IF(H6&lt;400000,7500/2,IF(H6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J59" s="17">
-        <f>IF(I6&lt;200000,7500,IF(I6&lt;400000,7500/2,IF(I6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K59" s="17">
-        <f>IF(J6&lt;200000,7500,IF(J6&lt;400000,7500/2,IF(J6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="L59" s="17">
-        <f>IF(K6&lt;200000,7500,IF(K6&lt;400000,7500/2,IF(K6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="M59" s="17">
-        <f>IF(L6&lt;200000,7500,IF(L6&lt;400000,7500/2,IF(L6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N59" s="17">
-        <f>IF(M6&lt;200000,7500,IF(M6&lt;400000,7500/2,IF(M6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="O59" s="17">
-        <f>IF(N6&lt;200000,7500,IF(N6&lt;400000,7500/2,IF(N6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="P59" s="17">
-        <f>IF(O6&lt;200000,7500,IF(O6&lt;400000,7500/2,IF(O6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Q59" s="17">
-        <f>IF(P6&lt;200000,7500,IF(P6&lt;400000,7500/2,IF(P6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="R59" s="17">
-        <f>IF(Q6&lt;200000,7500,IF(Q6&lt;400000,7500/2,IF(Q6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="S59" s="17">
-        <f>IF(R6&lt;200000,7500,IF(R6&lt;400000,7500/2,IF(R6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="T59" s="17">
-        <f>IF(S6&lt;200000,7500,IF(S6&lt;400000,7500/2,IF(S6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="U59" s="17">
-        <f>IF(T6&lt;200000,7500,IF(T6&lt;400000,7500/2,IF(T6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="V59" s="17">
-        <f>IF(U6&lt;200000,7500,IF(U6&lt;400000,7500/2,IF(U6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W59" s="17">
-        <f>IF(V6&lt;200000,7500,IF(V6&lt;400000,7500/2,IF(V6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="X59" s="17">
-        <f>IF(W6&lt;200000,7500,IF(W6&lt;400000,7500/2,IF(W6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Y59" s="17">
-        <f>IF(X6&lt;200000,7500,IF(X6&lt;400000,7500/2,IF(X6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="Z59" s="17">
-        <f>IF(Y6&lt;200000,7500,IF(Y6&lt;400000,7500/2,IF(Y6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AA59" s="17">
-        <f>IF(Z6&lt;200000,7500,IF(Z6&lt;400000,7500/2,IF(Z6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AB59" s="17">
-        <f>IF(AA6&lt;200000,7500,IF(AA6&lt;400000,7500/2,IF(AA6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AC59" s="17">
-        <f>IF(AB6&lt;200000,7500,IF(AB6&lt;400000,7500/2,IF(AB6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AD59" s="17">
-        <f>IF(AC6&lt;200000,7500,IF(AC6&lt;400000,7500/2,IF(AC6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AE59" s="17">
-        <f>IF(AD6&lt;200000,7500,IF(AD6&lt;400000,7500/2,IF(AD6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AF59" s="17">
-        <f>IF(AE6&lt;200000,7500,IF(AE6&lt;400000,7500/2,IF(AE6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="AG59" s="17">
-        <f>IF(AF6&lt;200000,7500,IF(AF6&lt;400000,7500/2,IF(AF6&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A60" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C60" s="17">
-        <f>IF(B7&lt;200000,7500,IF(B7&lt;400000,7500/2,IF(B7&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C60:AG60" si="9">IF(B7&lt;200000,7500,IF(B7&lt;400000,7500/2,IF(B7&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D60" s="17">
-        <f>IF(C7&lt;200000,7500,IF(C7&lt;400000,7500/2,IF(C7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>7500</v>
       </c>
       <c r="E60" s="17">
-        <f>IF(D7&lt;200000,7500,IF(D7&lt;400000,7500/2,IF(D7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>3750</v>
       </c>
       <c r="F60" s="17">
-        <f>IF(E7&lt;200000,7500,IF(E7&lt;400000,7500/2,IF(E7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>3750</v>
       </c>
       <c r="G60" s="17">
-        <f>IF(F7&lt;200000,7500,IF(F7&lt;400000,7500/2,IF(F7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>1875</v>
       </c>
       <c r="H60" s="17">
-        <f>IF(G7&lt;200000,7500,IF(G7&lt;400000,7500/2,IF(G7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>1875</v>
       </c>
       <c r="I60" s="17">
-        <f>IF(H7&lt;200000,7500,IF(H7&lt;400000,7500/2,IF(H7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J60" s="17">
-        <f>IF(I7&lt;200000,7500,IF(I7&lt;400000,7500/2,IF(I7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K60" s="17">
-        <f>IF(J7&lt;200000,7500,IF(J7&lt;400000,7500/2,IF(J7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="L60" s="17">
-        <f>IF(K7&lt;200000,7500,IF(K7&lt;400000,7500/2,IF(K7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="M60" s="17">
-        <f>IF(L7&lt;200000,7500,IF(L7&lt;400000,7500/2,IF(L7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N60" s="17">
-        <f>IF(M7&lt;200000,7500,IF(M7&lt;400000,7500/2,IF(M7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="O60" s="17">
-        <f>IF(N7&lt;200000,7500,IF(N7&lt;400000,7500/2,IF(N7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P60" s="17">
-        <f>IF(O7&lt;200000,7500,IF(O7&lt;400000,7500/2,IF(O7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Q60" s="17">
-        <f>IF(P7&lt;200000,7500,IF(P7&lt;400000,7500/2,IF(P7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="R60" s="17">
-        <f>IF(Q7&lt;200000,7500,IF(Q7&lt;400000,7500/2,IF(Q7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S60" s="17">
-        <f>IF(R7&lt;200000,7500,IF(R7&lt;400000,7500/2,IF(R7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="T60" s="17">
-        <f>IF(S7&lt;200000,7500,IF(S7&lt;400000,7500/2,IF(S7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="U60" s="17">
-        <f>IF(T7&lt;200000,7500,IF(T7&lt;400000,7500/2,IF(T7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="V60" s="17">
-        <f>IF(U7&lt;200000,7500,IF(U7&lt;400000,7500/2,IF(U7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="W60" s="17">
-        <f>IF(V7&lt;200000,7500,IF(V7&lt;400000,7500/2,IF(V7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X60" s="17">
-        <f>IF(W7&lt;200000,7500,IF(W7&lt;400000,7500/2,IF(W7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Y60" s="17">
-        <f>IF(X7&lt;200000,7500,IF(X7&lt;400000,7500/2,IF(X7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="Z60" s="17">
-        <f>IF(Y7&lt;200000,7500,IF(Y7&lt;400000,7500/2,IF(Y7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AA60" s="17">
-        <f>IF(Z7&lt;200000,7500,IF(Z7&lt;400000,7500/2,IF(Z7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AB60" s="17">
-        <f>IF(AA7&lt;200000,7500,IF(AA7&lt;400000,7500/2,IF(AA7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AC60" s="17">
-        <f>IF(AB7&lt;200000,7500,IF(AB7&lt;400000,7500/2,IF(AB7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AD60" s="17">
-        <f>IF(AC7&lt;200000,7500,IF(AC7&lt;400000,7500/2,IF(AC7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AE60" s="17">
-        <f>IF(AD7&lt;200000,7500,IF(AD7&lt;400000,7500/2,IF(AD7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AF60" s="17">
-        <f>IF(AE7&lt;200000,7500,IF(AE7&lt;400000,7500/2,IF(AE7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="AG60" s="17">
-        <f>IF(AF7&lt;200000,7500,IF(AF7&lt;400000,7500/2,IF(AF7&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A61" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="17">
-        <f>IF(B8&lt;200000,7500,IF(B8&lt;400000,7500/2,IF(B8&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C61:AG61" si="10">IF(B8&lt;200000,7500,IF(B8&lt;400000,7500/2,IF(B8&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D61" s="17">
-        <f>IF(C8&lt;200000,7500,IF(C8&lt;400000,7500/2,IF(C8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>7500</v>
       </c>
       <c r="E61" s="17">
-        <f>IF(D8&lt;200000,7500,IF(D8&lt;400000,7500/2,IF(D8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>7500</v>
       </c>
       <c r="F61" s="17">
-        <f>IF(E8&lt;200000,7500,IF(E8&lt;400000,7500/2,IF(E8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>3750</v>
       </c>
       <c r="G61" s="17">
-        <f>IF(F8&lt;200000,7500,IF(F8&lt;400000,7500/2,IF(F8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>3750</v>
       </c>
       <c r="H61" s="17">
-        <f>IF(G8&lt;200000,7500,IF(G8&lt;400000,7500/2,IF(G8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>1875</v>
       </c>
       <c r="I61" s="17">
-        <f>IF(H8&lt;200000,7500,IF(H8&lt;400000,7500/2,IF(H8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>1875</v>
       </c>
       <c r="J61" s="17">
-        <f>IF(I8&lt;200000,7500,IF(I8&lt;400000,7500/2,IF(I8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K61" s="17">
-        <f>IF(J8&lt;200000,7500,IF(J8&lt;400000,7500/2,IF(J8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L61" s="17">
-        <f>IF(K8&lt;200000,7500,IF(K8&lt;400000,7500/2,IF(K8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="M61" s="17">
-        <f>IF(L8&lt;200000,7500,IF(L8&lt;400000,7500/2,IF(L8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="N61" s="17">
-        <f>IF(M8&lt;200000,7500,IF(M8&lt;400000,7500/2,IF(M8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="O61" s="17">
-        <f>IF(N8&lt;200000,7500,IF(N8&lt;400000,7500/2,IF(N8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="P61" s="17">
-        <f>IF(O8&lt;200000,7500,IF(O8&lt;400000,7500/2,IF(O8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q61" s="17">
-        <f>IF(P8&lt;200000,7500,IF(P8&lt;400000,7500/2,IF(P8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R61" s="17">
-        <f>IF(Q8&lt;200000,7500,IF(Q8&lt;400000,7500/2,IF(Q8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S61" s="17">
-        <f>IF(R8&lt;200000,7500,IF(R8&lt;400000,7500/2,IF(R8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="T61" s="17">
-        <f>IF(S8&lt;200000,7500,IF(S8&lt;400000,7500/2,IF(S8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="U61" s="17">
-        <f>IF(T8&lt;200000,7500,IF(T8&lt;400000,7500/2,IF(T8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="V61" s="17">
-        <f>IF(U8&lt;200000,7500,IF(U8&lt;400000,7500/2,IF(U8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="W61" s="17">
-        <f>IF(V8&lt;200000,7500,IF(V8&lt;400000,7500/2,IF(V8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="X61" s="17">
-        <f>IF(W8&lt;200000,7500,IF(W8&lt;400000,7500/2,IF(W8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y61" s="17">
-        <f>IF(X8&lt;200000,7500,IF(X8&lt;400000,7500/2,IF(X8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Z61" s="17">
-        <f>IF(Y8&lt;200000,7500,IF(Y8&lt;400000,7500/2,IF(Y8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AA61" s="17">
-        <f>IF(Z8&lt;200000,7500,IF(Z8&lt;400000,7500/2,IF(Z8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AB61" s="17">
-        <f>IF(AA8&lt;200000,7500,IF(AA8&lt;400000,7500/2,IF(AA8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AC61" s="17">
-        <f>IF(AB8&lt;200000,7500,IF(AB8&lt;400000,7500/2,IF(AB8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AD61" s="17">
-        <f>IF(AC8&lt;200000,7500,IF(AC8&lt;400000,7500/2,IF(AC8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AE61" s="17">
-        <f>IF(AD8&lt;200000,7500,IF(AD8&lt;400000,7500/2,IF(AD8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AF61" s="17">
-        <f>IF(AE8&lt;200000,7500,IF(AE8&lt;400000,7500/2,IF(AE8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="AG61" s="17">
-        <f>IF(AF8&lt;200000,7500,IF(AF8&lt;400000,7500/2,IF(AF8&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A62" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" s="17">
-        <f>IF(B9&lt;200000,7500,IF(B9&lt;400000,7500/2,IF(B9&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C62:AG62" si="11">IF(B9&lt;200000,7500,IF(B9&lt;400000,7500/2,IF(B9&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D62" s="17">
-        <f>IF(C9&lt;200000,7500,IF(C9&lt;400000,7500/2,IF(C9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>7500</v>
       </c>
       <c r="E62" s="17">
-        <f>IF(D9&lt;200000,7500,IF(D9&lt;400000,7500/2,IF(D9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>7500</v>
       </c>
       <c r="F62" s="17">
-        <f>IF(E9&lt;200000,7500,IF(E9&lt;400000,7500/2,IF(E9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>3750</v>
       </c>
       <c r="G62" s="17">
-        <f>IF(F9&lt;200000,7500,IF(F9&lt;400000,7500/2,IF(F9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>1875</v>
       </c>
       <c r="H62" s="17">
-        <f>IF(G9&lt;200000,7500,IF(G9&lt;400000,7500/2,IF(G9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I62" s="17">
-        <f>IF(H9&lt;200000,7500,IF(H9&lt;400000,7500/2,IF(H9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="J62" s="17">
-        <f>IF(I9&lt;200000,7500,IF(I9&lt;400000,7500/2,IF(I9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K62" s="17">
-        <f>IF(J9&lt;200000,7500,IF(J9&lt;400000,7500/2,IF(J9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="L62" s="17">
-        <f>IF(K9&lt;200000,7500,IF(K9&lt;400000,7500/2,IF(K9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="M62" s="17">
-        <f>IF(L9&lt;200000,7500,IF(L9&lt;400000,7500/2,IF(L9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="N62" s="17">
-        <f>IF(M9&lt;200000,7500,IF(M9&lt;400000,7500/2,IF(M9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O62" s="17">
-        <f>IF(N9&lt;200000,7500,IF(N9&lt;400000,7500/2,IF(N9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P62" s="17">
-        <f>IF(O9&lt;200000,7500,IF(O9&lt;400000,7500/2,IF(O9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q62" s="17">
-        <f>IF(P9&lt;200000,7500,IF(P9&lt;400000,7500/2,IF(P9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R62" s="17">
-        <f>IF(Q9&lt;200000,7500,IF(Q9&lt;400000,7500/2,IF(Q9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S62" s="17">
-        <f>IF(R9&lt;200000,7500,IF(R9&lt;400000,7500/2,IF(R9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="T62" s="17">
-        <f>IF(S9&lt;200000,7500,IF(S9&lt;400000,7500/2,IF(S9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="U62" s="17">
-        <f>IF(T9&lt;200000,7500,IF(T9&lt;400000,7500/2,IF(T9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="V62" s="17">
-        <f>IF(U9&lt;200000,7500,IF(U9&lt;400000,7500/2,IF(U9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="W62" s="17">
-        <f>IF(V9&lt;200000,7500,IF(V9&lt;400000,7500/2,IF(V9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="X62" s="17">
-        <f>IF(W9&lt;200000,7500,IF(W9&lt;400000,7500/2,IF(W9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Y62" s="17">
-        <f>IF(X9&lt;200000,7500,IF(X9&lt;400000,7500/2,IF(X9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z62" s="17">
-        <f>IF(Y9&lt;200000,7500,IF(Y9&lt;400000,7500/2,IF(Y9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AA62" s="17">
-        <f>IF(Z9&lt;200000,7500,IF(Z9&lt;400000,7500/2,IF(Z9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AB62" s="17">
-        <f>IF(AA9&lt;200000,7500,IF(AA9&lt;400000,7500/2,IF(AA9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AC62" s="17">
-        <f>IF(AB9&lt;200000,7500,IF(AB9&lt;400000,7500/2,IF(AB9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AD62" s="17">
-        <f>IF(AC9&lt;200000,7500,IF(AC9&lt;400000,7500/2,IF(AC9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AE62" s="17">
-        <f>IF(AD9&lt;200000,7500,IF(AD9&lt;400000,7500/2,IF(AD9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AF62" s="17">
-        <f>IF(AE9&lt;200000,7500,IF(AE9&lt;400000,7500/2,IF(AE9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="AG62" s="17">
-        <f>IF(AF9&lt;200000,7500,IF(AF9&lt;400000,7500/2,IF(AF9&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A63" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C63" s="17">
-        <f>IF(B10&lt;200000,7500,IF(B10&lt;400000,7500/2,IF(B10&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C63:AG63" si="12">IF(B10&lt;200000,7500,IF(B10&lt;400000,7500/2,IF(B10&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D63" s="17">
-        <f>IF(C10&lt;200000,7500,IF(C10&lt;400000,7500/2,IF(C10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="E63" s="17">
-        <f>IF(D10&lt;200000,7500,IF(D10&lt;400000,7500/2,IF(D10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="F63" s="17">
-        <f>IF(E10&lt;200000,7500,IF(E10&lt;400000,7500/2,IF(E10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="G63" s="17">
-        <f>IF(F10&lt;200000,7500,IF(F10&lt;400000,7500/2,IF(F10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="H63" s="17">
-        <f>IF(G10&lt;200000,7500,IF(G10&lt;400000,7500/2,IF(G10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="I63" s="17">
-        <f>IF(H10&lt;200000,7500,IF(H10&lt;400000,7500/2,IF(H10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="J63" s="17">
-        <f>IF(I10&lt;200000,7500,IF(I10&lt;400000,7500/2,IF(I10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="K63" s="17">
-        <f>IF(J10&lt;200000,7500,IF(J10&lt;400000,7500/2,IF(J10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="L63" s="17">
-        <f>IF(K10&lt;200000,7500,IF(K10&lt;400000,7500/2,IF(K10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="M63" s="17">
-        <f>IF(L10&lt;200000,7500,IF(L10&lt;400000,7500/2,IF(L10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="N63" s="17">
-        <f>IF(M10&lt;200000,7500,IF(M10&lt;400000,7500/2,IF(M10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>7500</v>
       </c>
       <c r="O63" s="17">
-        <f>IF(N10&lt;200000,7500,IF(N10&lt;400000,7500/2,IF(N10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>3750</v>
       </c>
       <c r="P63" s="17">
-        <f>IF(O10&lt;200000,7500,IF(O10&lt;400000,7500/2,IF(O10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>3750</v>
       </c>
       <c r="Q63" s="17">
-        <f>IF(P10&lt;200000,7500,IF(P10&lt;400000,7500/2,IF(P10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>3750</v>
       </c>
       <c r="R63" s="17">
-        <f>IF(Q10&lt;200000,7500,IF(Q10&lt;400000,7500/2,IF(Q10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>3750</v>
       </c>
       <c r="S63" s="17">
-        <f>IF(R10&lt;200000,7500,IF(R10&lt;400000,7500/2,IF(R10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>3750</v>
       </c>
       <c r="T63" s="17">
-        <f>IF(S10&lt;200000,7500,IF(S10&lt;400000,7500/2,IF(S10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>3750</v>
       </c>
       <c r="U63" s="17">
-        <f>IF(T10&lt;200000,7500,IF(T10&lt;400000,7500/2,IF(T10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>3750</v>
       </c>
       <c r="V63" s="17">
-        <f>IF(U10&lt;200000,7500,IF(U10&lt;400000,7500/2,IF(U10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>1875</v>
       </c>
       <c r="W63" s="17">
-        <f>IF(V10&lt;200000,7500,IF(V10&lt;400000,7500/2,IF(V10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>1875</v>
       </c>
       <c r="X63" s="17">
-        <f>IF(W10&lt;200000,7500,IF(W10&lt;400000,7500/2,IF(W10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>1875</v>
       </c>
       <c r="Y63" s="17">
-        <f>IF(X10&lt;200000,7500,IF(X10&lt;400000,7500/2,IF(X10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>1875</v>
       </c>
       <c r="Z63" s="17">
-        <f>IF(Y10&lt;200000,7500,IF(Y10&lt;400000,7500/2,IF(Y10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>1875</v>
       </c>
       <c r="AA63" s="17">
-        <f>IF(Z10&lt;200000,7500,IF(Z10&lt;400000,7500/2,IF(Z10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>1875</v>
       </c>
       <c r="AB63" s="17">
-        <f>IF(AA10&lt;200000,7500,IF(AA10&lt;400000,7500/2,IF(AA10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC63" s="17">
-        <f>IF(AB10&lt;200000,7500,IF(AB10&lt;400000,7500/2,IF(AB10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD63" s="17">
-        <f>IF(AC10&lt;200000,7500,IF(AC10&lt;400000,7500/2,IF(AC10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE63" s="17">
-        <f>IF(AD10&lt;200000,7500,IF(AD10&lt;400000,7500/2,IF(AD10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF63" s="17">
-        <f>IF(AE10&lt;200000,7500,IF(AE10&lt;400000,7500/2,IF(AE10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AG63" s="17">
-        <f>IF(AF10&lt;200000,7500,IF(AF10&lt;400000,7500/2,IF(AF10&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C64" s="17">
-        <f>IF(B11&lt;200000,7500,IF(B11&lt;400000,7500/2,IF(B11&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C64:AG64" si="13">IF(B11&lt;200000,7500,IF(B11&lt;400000,7500/2,IF(B11&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D64" s="17">
-        <f>IF(C11&lt;200000,7500,IF(C11&lt;400000,7500/2,IF(C11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>7500</v>
       </c>
       <c r="E64" s="17">
-        <f>IF(D11&lt;200000,7500,IF(D11&lt;400000,7500/2,IF(D11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>7500</v>
       </c>
       <c r="F64" s="17">
-        <f>IF(E11&lt;200000,7500,IF(E11&lt;400000,7500/2,IF(E11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>7500</v>
       </c>
       <c r="G64" s="17">
-        <f>IF(F11&lt;200000,7500,IF(F11&lt;400000,7500/2,IF(F11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>3750</v>
       </c>
       <c r="H64" s="17">
-        <f>IF(G11&lt;200000,7500,IF(G11&lt;400000,7500/2,IF(G11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>3750</v>
       </c>
       <c r="I64" s="17">
-        <f>IF(H11&lt;200000,7500,IF(H11&lt;400000,7500/2,IF(H11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>1875</v>
       </c>
       <c r="J64" s="17">
-        <f>IF(I11&lt;200000,7500,IF(I11&lt;400000,7500/2,IF(I11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>1875</v>
       </c>
       <c r="K64" s="17">
-        <f>IF(J11&lt;200000,7500,IF(J11&lt;400000,7500/2,IF(J11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L64" s="17">
-        <f>IF(K11&lt;200000,7500,IF(K11&lt;400000,7500/2,IF(K11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M64" s="17">
-        <f>IF(L11&lt;200000,7500,IF(L11&lt;400000,7500/2,IF(L11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N64" s="17">
-        <f>IF(M11&lt;200000,7500,IF(M11&lt;400000,7500/2,IF(M11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O64" s="17">
-        <f>IF(N11&lt;200000,7500,IF(N11&lt;400000,7500/2,IF(N11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P64" s="17">
-        <f>IF(O11&lt;200000,7500,IF(O11&lt;400000,7500/2,IF(O11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q64" s="17">
-        <f>IF(P11&lt;200000,7500,IF(P11&lt;400000,7500/2,IF(P11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R64" s="17">
-        <f>IF(Q11&lt;200000,7500,IF(Q11&lt;400000,7500/2,IF(Q11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S64" s="17">
-        <f>IF(R11&lt;200000,7500,IF(R11&lt;400000,7500/2,IF(R11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T64" s="17">
-        <f>IF(S11&lt;200000,7500,IF(S11&lt;400000,7500/2,IF(S11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U64" s="17">
-        <f>IF(T11&lt;200000,7500,IF(T11&lt;400000,7500/2,IF(T11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V64" s="17">
-        <f>IF(U11&lt;200000,7500,IF(U11&lt;400000,7500/2,IF(U11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W64" s="17">
-        <f>IF(V11&lt;200000,7500,IF(V11&lt;400000,7500/2,IF(V11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X64" s="17">
-        <f>IF(W11&lt;200000,7500,IF(W11&lt;400000,7500/2,IF(W11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y64" s="17">
-        <f>IF(X11&lt;200000,7500,IF(X11&lt;400000,7500/2,IF(X11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z64" s="17">
-        <f>IF(Y11&lt;200000,7500,IF(Y11&lt;400000,7500/2,IF(Y11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA64" s="17">
-        <f>IF(Z11&lt;200000,7500,IF(Z11&lt;400000,7500/2,IF(Z11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB64" s="17">
-        <f>IF(AA11&lt;200000,7500,IF(AA11&lt;400000,7500/2,IF(AA11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC64" s="17">
-        <f>IF(AB11&lt;200000,7500,IF(AB11&lt;400000,7500/2,IF(AB11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD64" s="17">
-        <f>IF(AC11&lt;200000,7500,IF(AC11&lt;400000,7500/2,IF(AC11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE64" s="17">
-        <f>IF(AD11&lt;200000,7500,IF(AD11&lt;400000,7500/2,IF(AD11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF64" s="17">
-        <f>IF(AE11&lt;200000,7500,IF(AE11&lt;400000,7500/2,IF(AE11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AG64" s="17">
-        <f>IF(AF11&lt;200000,7500,IF(AF11&lt;400000,7500/2,IF(AF11&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A65" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C65" s="17">
-        <f>IF(B12&lt;200000,7500,IF(B12&lt;400000,7500/2,IF(B12&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C65:AG65" si="14">IF(B12&lt;200000,7500,IF(B12&lt;400000,7500/2,IF(B12&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D65" s="17">
-        <f>IF(C12&lt;200000,7500,IF(C12&lt;400000,7500/2,IF(C12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>7500</v>
       </c>
       <c r="E65" s="17">
-        <f>IF(D12&lt;200000,7500,IF(D12&lt;400000,7500/2,IF(D12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>7500</v>
       </c>
       <c r="F65" s="17">
-        <f>IF(E12&lt;200000,7500,IF(E12&lt;400000,7500/2,IF(E12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>7500</v>
       </c>
       <c r="G65" s="17">
-        <f>IF(F12&lt;200000,7500,IF(F12&lt;400000,7500/2,IF(F12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>7500</v>
       </c>
       <c r="H65" s="17">
-        <f>IF(G12&lt;200000,7500,IF(G12&lt;400000,7500/2,IF(G12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>3750</v>
       </c>
       <c r="I65" s="17">
-        <f>IF(H12&lt;200000,7500,IF(H12&lt;400000,7500/2,IF(H12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>3750</v>
       </c>
       <c r="J65" s="17">
-        <f>IF(I12&lt;200000,7500,IF(I12&lt;400000,7500/2,IF(I12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>1875</v>
       </c>
       <c r="K65" s="17">
-        <f>IF(J12&lt;200000,7500,IF(J12&lt;400000,7500/2,IF(J12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>1875</v>
       </c>
       <c r="L65" s="17">
-        <f>IF(K12&lt;200000,7500,IF(K12&lt;400000,7500/2,IF(K12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="M65" s="17">
-        <f>IF(L12&lt;200000,7500,IF(L12&lt;400000,7500/2,IF(L12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="N65" s="17">
-        <f>IF(M12&lt;200000,7500,IF(M12&lt;400000,7500/2,IF(M12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="O65" s="17">
-        <f>IF(N12&lt;200000,7500,IF(N12&lt;400000,7500/2,IF(N12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="P65" s="17">
-        <f>IF(O12&lt;200000,7500,IF(O12&lt;400000,7500/2,IF(O12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Q65" s="17">
-        <f>IF(P12&lt;200000,7500,IF(P12&lt;400000,7500/2,IF(P12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="R65" s="17">
-        <f>IF(Q12&lt;200000,7500,IF(Q12&lt;400000,7500/2,IF(Q12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="S65" s="17">
-        <f>IF(R12&lt;200000,7500,IF(R12&lt;400000,7500/2,IF(R12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="T65" s="17">
-        <f>IF(S12&lt;200000,7500,IF(S12&lt;400000,7500/2,IF(S12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="U65" s="17">
-        <f>IF(T12&lt;200000,7500,IF(T12&lt;400000,7500/2,IF(T12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="V65" s="17">
-        <f>IF(U12&lt;200000,7500,IF(U12&lt;400000,7500/2,IF(U12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W65" s="17">
-        <f>IF(V12&lt;200000,7500,IF(V12&lt;400000,7500/2,IF(V12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="X65" s="17">
-        <f>IF(W12&lt;200000,7500,IF(W12&lt;400000,7500/2,IF(W12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Y65" s="17">
-        <f>IF(X12&lt;200000,7500,IF(X12&lt;400000,7500/2,IF(X12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="Z65" s="17">
-        <f>IF(Y12&lt;200000,7500,IF(Y12&lt;400000,7500/2,IF(Y12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AA65" s="17">
-        <f>IF(Z12&lt;200000,7500,IF(Z12&lt;400000,7500/2,IF(Z12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AB65" s="17">
-        <f>IF(AA12&lt;200000,7500,IF(AA12&lt;400000,7500/2,IF(AA12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AC65" s="17">
-        <f>IF(AB12&lt;200000,7500,IF(AB12&lt;400000,7500/2,IF(AB12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AD65" s="17">
-        <f>IF(AC12&lt;200000,7500,IF(AC12&lt;400000,7500/2,IF(AC12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AE65" s="17">
-        <f>IF(AD12&lt;200000,7500,IF(AD12&lt;400000,7500/2,IF(AD12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AF65" s="17">
-        <f>IF(AE12&lt;200000,7500,IF(AE12&lt;400000,7500/2,IF(AE12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="AG65" s="17">
-        <f>IF(AF12&lt;200000,7500,IF(AF12&lt;400000,7500/2,IF(AF12&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A66" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C66" s="17">
-        <f>IF(B13&lt;200000,7500,IF(B13&lt;400000,7500/2,IF(B13&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C66:AG66" si="15">IF(B13&lt;200000,7500,IF(B13&lt;400000,7500/2,IF(B13&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D66" s="17">
-        <f>IF(C13&lt;200000,7500,IF(C13&lt;400000,7500/2,IF(C13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="E66" s="17">
-        <f>IF(D13&lt;200000,7500,IF(D13&lt;400000,7500/2,IF(D13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="F66" s="17">
-        <f>IF(E13&lt;200000,7500,IF(E13&lt;400000,7500/2,IF(E13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="G66" s="17">
-        <f>IF(F13&lt;200000,7500,IF(F13&lt;400000,7500/2,IF(F13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>7500</v>
       </c>
       <c r="H66" s="17">
-        <f>IF(G13&lt;200000,7500,IF(G13&lt;400000,7500/2,IF(G13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>3750</v>
       </c>
       <c r="I66" s="17">
-        <f>IF(H13&lt;200000,7500,IF(H13&lt;400000,7500/2,IF(H13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>3750</v>
       </c>
       <c r="J66" s="17">
-        <f>IF(I13&lt;200000,7500,IF(I13&lt;400000,7500/2,IF(I13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>3750</v>
       </c>
       <c r="K66" s="17">
-        <f>IF(J13&lt;200000,7500,IF(J13&lt;400000,7500/2,IF(J13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>1875</v>
       </c>
       <c r="L66" s="17">
-        <f>IF(K13&lt;200000,7500,IF(K13&lt;400000,7500/2,IF(K13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="M66" s="17">
-        <f>IF(L13&lt;200000,7500,IF(L13&lt;400000,7500/2,IF(L13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="N66" s="17">
-        <f>IF(M13&lt;200000,7500,IF(M13&lt;400000,7500/2,IF(M13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O66" s="17">
-        <f>IF(N13&lt;200000,7500,IF(N13&lt;400000,7500/2,IF(N13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P66" s="17">
-        <f>IF(O13&lt;200000,7500,IF(O13&lt;400000,7500/2,IF(O13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q66" s="17">
-        <f>IF(P13&lt;200000,7500,IF(P13&lt;400000,7500/2,IF(P13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R66" s="17">
-        <f>IF(Q13&lt;200000,7500,IF(Q13&lt;400000,7500/2,IF(Q13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S66" s="17">
-        <f>IF(R13&lt;200000,7500,IF(R13&lt;400000,7500/2,IF(R13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="T66" s="17">
-        <f>IF(S13&lt;200000,7500,IF(S13&lt;400000,7500/2,IF(S13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="U66" s="17">
-        <f>IF(T13&lt;200000,7500,IF(T13&lt;400000,7500/2,IF(T13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="V66" s="17">
-        <f>IF(U13&lt;200000,7500,IF(U13&lt;400000,7500/2,IF(U13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="W66" s="17">
-        <f>IF(V13&lt;200000,7500,IF(V13&lt;400000,7500/2,IF(V13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X66" s="17">
-        <f>IF(W13&lt;200000,7500,IF(W13&lt;400000,7500/2,IF(W13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Y66" s="17">
-        <f>IF(X13&lt;200000,7500,IF(X13&lt;400000,7500/2,IF(X13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Z66" s="17">
-        <f>IF(Y13&lt;200000,7500,IF(Y13&lt;400000,7500/2,IF(Y13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AA66" s="17">
-        <f>IF(Z13&lt;200000,7500,IF(Z13&lt;400000,7500/2,IF(Z13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AB66" s="17">
-        <f>IF(AA13&lt;200000,7500,IF(AA13&lt;400000,7500/2,IF(AA13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AC66" s="17">
-        <f>IF(AB13&lt;200000,7500,IF(AB13&lt;400000,7500/2,IF(AB13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AD66" s="17">
-        <f>IF(AC13&lt;200000,7500,IF(AC13&lt;400000,7500/2,IF(AC13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE66" s="17">
-        <f>IF(AD13&lt;200000,7500,IF(AD13&lt;400000,7500/2,IF(AD13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AF66" s="17">
-        <f>IF(AE13&lt;200000,7500,IF(AE13&lt;400000,7500/2,IF(AE13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AG66" s="17">
-        <f>IF(AF13&lt;200000,7500,IF(AF13&lt;400000,7500/2,IF(AF13&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A67" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C67" s="17">
-        <f>IF(B14&lt;200000,7500,IF(B14&lt;400000,7500/2,IF(B14&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C67:AG67" si="16">IF(B14&lt;200000,7500,IF(B14&lt;400000,7500/2,IF(B14&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D67" s="17">
-        <f>IF(C14&lt;200000,7500,IF(C14&lt;400000,7500/2,IF(C14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>7500</v>
       </c>
       <c r="E67" s="17">
-        <f>IF(D14&lt;200000,7500,IF(D14&lt;400000,7500/2,IF(D14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>7500</v>
       </c>
       <c r="F67" s="17">
-        <f>IF(E14&lt;200000,7500,IF(E14&lt;400000,7500/2,IF(E14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>7500</v>
       </c>
       <c r="G67" s="17">
-        <f>IF(F14&lt;200000,7500,IF(F14&lt;400000,7500/2,IF(F14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>3750</v>
       </c>
       <c r="H67" s="17">
-        <f>IF(G14&lt;200000,7500,IF(G14&lt;400000,7500/2,IF(G14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>3750</v>
       </c>
       <c r="I67" s="17">
-        <f>IF(H14&lt;200000,7500,IF(H14&lt;400000,7500/2,IF(H14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>1875</v>
       </c>
       <c r="J67" s="17">
-        <f>IF(I14&lt;200000,7500,IF(I14&lt;400000,7500/2,IF(I14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K67" s="17">
-        <f>IF(J14&lt;200000,7500,IF(J14&lt;400000,7500/2,IF(J14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L67" s="17">
-        <f>IF(K14&lt;200000,7500,IF(K14&lt;400000,7500/2,IF(K14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M67" s="17">
-        <f>IF(L14&lt;200000,7500,IF(L14&lt;400000,7500/2,IF(L14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N67" s="17">
-        <f>IF(M14&lt;200000,7500,IF(M14&lt;400000,7500/2,IF(M14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O67" s="17">
-        <f>IF(N14&lt;200000,7500,IF(N14&lt;400000,7500/2,IF(N14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P67" s="17">
-        <f>IF(O14&lt;200000,7500,IF(O14&lt;400000,7500/2,IF(O14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q67" s="17">
-        <f>IF(P14&lt;200000,7500,IF(P14&lt;400000,7500/2,IF(P14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R67" s="17">
-        <f>IF(Q14&lt;200000,7500,IF(Q14&lt;400000,7500/2,IF(Q14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S67" s="17">
-        <f>IF(R14&lt;200000,7500,IF(R14&lt;400000,7500/2,IF(R14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T67" s="17">
-        <f>IF(S14&lt;200000,7500,IF(S14&lt;400000,7500/2,IF(S14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U67" s="17">
-        <f>IF(T14&lt;200000,7500,IF(T14&lt;400000,7500/2,IF(T14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V67" s="17">
-        <f>IF(U14&lt;200000,7500,IF(U14&lt;400000,7500/2,IF(U14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W67" s="17">
-        <f>IF(V14&lt;200000,7500,IF(V14&lt;400000,7500/2,IF(V14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X67" s="17">
-        <f>IF(W14&lt;200000,7500,IF(W14&lt;400000,7500/2,IF(W14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y67" s="17">
-        <f>IF(X14&lt;200000,7500,IF(X14&lt;400000,7500/2,IF(X14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z67" s="17">
-        <f>IF(Y14&lt;200000,7500,IF(Y14&lt;400000,7500/2,IF(Y14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA67" s="17">
-        <f>IF(Z14&lt;200000,7500,IF(Z14&lt;400000,7500/2,IF(Z14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB67" s="17">
-        <f>IF(AA14&lt;200000,7500,IF(AA14&lt;400000,7500/2,IF(AA14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC67" s="17">
-        <f>IF(AB14&lt;200000,7500,IF(AB14&lt;400000,7500/2,IF(AB14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD67" s="17">
-        <f>IF(AC14&lt;200000,7500,IF(AC14&lt;400000,7500/2,IF(AC14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE67" s="17">
-        <f>IF(AD14&lt;200000,7500,IF(AD14&lt;400000,7500/2,IF(AD14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF67" s="17">
-        <f>IF(AE14&lt;200000,7500,IF(AE14&lt;400000,7500/2,IF(AE14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AG67" s="17">
-        <f>IF(AF14&lt;200000,7500,IF(AF14&lt;400000,7500/2,IF(AF14&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A68" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C68" s="17">
-        <f>IF(B15&lt;200000,7500,IF(B15&lt;400000,7500/2,IF(B15&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C68:AG68" si="17">IF(B15&lt;200000,7500,IF(B15&lt;400000,7500/2,IF(B15&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D68" s="17">
-        <f>IF(C15&lt;200000,7500,IF(C15&lt;400000,7500/2,IF(C15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>7500</v>
       </c>
       <c r="E68" s="17">
-        <f>IF(D15&lt;200000,7500,IF(D15&lt;400000,7500/2,IF(D15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>7500</v>
       </c>
       <c r="F68" s="17">
-        <f>IF(E15&lt;200000,7500,IF(E15&lt;400000,7500/2,IF(E15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>7500</v>
       </c>
       <c r="G68" s="17">
-        <f>IF(F15&lt;200000,7500,IF(F15&lt;400000,7500/2,IF(F15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>7500</v>
       </c>
       <c r="H68" s="17">
-        <f>IF(G15&lt;200000,7500,IF(G15&lt;400000,7500/2,IF(G15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>7500</v>
       </c>
       <c r="I68" s="17">
-        <f>IF(H15&lt;200000,7500,IF(H15&lt;400000,7500/2,IF(H15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>3750</v>
       </c>
       <c r="J68" s="17">
-        <f>IF(I15&lt;200000,7500,IF(I15&lt;400000,7500/2,IF(I15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>3750</v>
       </c>
       <c r="K68" s="17">
-        <f>IF(J15&lt;200000,7500,IF(J15&lt;400000,7500/2,IF(J15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>1875</v>
       </c>
       <c r="L68" s="17">
-        <f>IF(K15&lt;200000,7500,IF(K15&lt;400000,7500/2,IF(K15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>1875</v>
       </c>
       <c r="M68" s="17">
-        <f>IF(L15&lt;200000,7500,IF(L15&lt;400000,7500/2,IF(L15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="N68" s="17">
-        <f>IF(M15&lt;200000,7500,IF(M15&lt;400000,7500/2,IF(M15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="O68" s="17">
-        <f>IF(N15&lt;200000,7500,IF(N15&lt;400000,7500/2,IF(N15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="P68" s="17">
-        <f>IF(O15&lt;200000,7500,IF(O15&lt;400000,7500/2,IF(O15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q68" s="17">
-        <f>IF(P15&lt;200000,7500,IF(P15&lt;400000,7500/2,IF(P15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="R68" s="17">
-        <f>IF(Q15&lt;200000,7500,IF(Q15&lt;400000,7500/2,IF(Q15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="S68" s="17">
-        <f>IF(R15&lt;200000,7500,IF(R15&lt;400000,7500/2,IF(R15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="T68" s="17">
-        <f>IF(S15&lt;200000,7500,IF(S15&lt;400000,7500/2,IF(S15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="U68" s="17">
-        <f>IF(T15&lt;200000,7500,IF(T15&lt;400000,7500/2,IF(T15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="V68" s="17">
-        <f>IF(U15&lt;200000,7500,IF(U15&lt;400000,7500/2,IF(U15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="W68" s="17">
-        <f>IF(V15&lt;200000,7500,IF(V15&lt;400000,7500/2,IF(V15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="X68" s="17">
-        <f>IF(W15&lt;200000,7500,IF(W15&lt;400000,7500/2,IF(W15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Y68" s="17">
-        <f>IF(X15&lt;200000,7500,IF(X15&lt;400000,7500/2,IF(X15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z68" s="17">
-        <f>IF(Y15&lt;200000,7500,IF(Y15&lt;400000,7500/2,IF(Y15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AA68" s="17">
-        <f>IF(Z15&lt;200000,7500,IF(Z15&lt;400000,7500/2,IF(Z15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AB68" s="17">
-        <f>IF(AA15&lt;200000,7500,IF(AA15&lt;400000,7500/2,IF(AA15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AC68" s="17">
-        <f>IF(AB15&lt;200000,7500,IF(AB15&lt;400000,7500/2,IF(AB15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AD68" s="17">
-        <f>IF(AC15&lt;200000,7500,IF(AC15&lt;400000,7500/2,IF(AC15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AE68" s="17">
-        <f>IF(AD15&lt;200000,7500,IF(AD15&lt;400000,7500/2,IF(AD15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AF68" s="17">
-        <f>IF(AE15&lt;200000,7500,IF(AE15&lt;400000,7500/2,IF(AE15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="AG68" s="17">
-        <f>IF(AF15&lt;200000,7500,IF(AF15&lt;400000,7500/2,IF(AF15&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C69" s="17">
-        <f>IF(B16&lt;200000,7500,IF(B16&lt;400000,7500/2,IF(B16&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C69:AG69" si="18">IF(B16&lt;200000,7500,IF(B16&lt;400000,7500/2,IF(B16&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D69" s="17">
-        <f>IF(C16&lt;200000,7500,IF(C16&lt;400000,7500/2,IF(C16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>7500</v>
       </c>
       <c r="E69" s="17">
-        <f>IF(D16&lt;200000,7500,IF(D16&lt;400000,7500/2,IF(D16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>7500</v>
       </c>
       <c r="F69" s="17">
-        <f>IF(E16&lt;200000,7500,IF(E16&lt;400000,7500/2,IF(E16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>7500</v>
       </c>
       <c r="G69" s="17">
-        <f>IF(F16&lt;200000,7500,IF(F16&lt;400000,7500/2,IF(F16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>7500</v>
       </c>
       <c r="H69" s="17">
-        <f>IF(G16&lt;200000,7500,IF(G16&lt;400000,7500/2,IF(G16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>3750</v>
       </c>
       <c r="I69" s="17">
-        <f>IF(H16&lt;200000,7500,IF(H16&lt;400000,7500/2,IF(H16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>3750</v>
       </c>
       <c r="J69" s="17">
-        <f>IF(I16&lt;200000,7500,IF(I16&lt;400000,7500/2,IF(I16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>1875</v>
       </c>
       <c r="K69" s="17">
-        <f>IF(J16&lt;200000,7500,IF(J16&lt;400000,7500/2,IF(J16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>1875</v>
       </c>
       <c r="L69" s="17">
-        <f>IF(K16&lt;200000,7500,IF(K16&lt;400000,7500/2,IF(K16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="M69" s="17">
-        <f>IF(L16&lt;200000,7500,IF(L16&lt;400000,7500/2,IF(L16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N69" s="17">
-        <f>IF(M16&lt;200000,7500,IF(M16&lt;400000,7500/2,IF(M16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O69" s="17">
-        <f>IF(N16&lt;200000,7500,IF(N16&lt;400000,7500/2,IF(N16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P69" s="17">
-        <f>IF(O16&lt;200000,7500,IF(O16&lt;400000,7500/2,IF(O16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Q69" s="17">
-        <f>IF(P16&lt;200000,7500,IF(P16&lt;400000,7500/2,IF(P16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="R69" s="17">
-        <f>IF(Q16&lt;200000,7500,IF(Q16&lt;400000,7500/2,IF(Q16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="S69" s="17">
-        <f>IF(R16&lt;200000,7500,IF(R16&lt;400000,7500/2,IF(R16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T69" s="17">
-        <f>IF(S16&lt;200000,7500,IF(S16&lt;400000,7500/2,IF(S16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="U69" s="17">
-        <f>IF(T16&lt;200000,7500,IF(T16&lt;400000,7500/2,IF(T16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="V69" s="17">
-        <f>IF(U16&lt;200000,7500,IF(U16&lt;400000,7500/2,IF(U16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="W69" s="17">
-        <f>IF(V16&lt;200000,7500,IF(V16&lt;400000,7500/2,IF(V16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="X69" s="17">
-        <f>IF(W16&lt;200000,7500,IF(W16&lt;400000,7500/2,IF(W16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Y69" s="17">
-        <f>IF(X16&lt;200000,7500,IF(X16&lt;400000,7500/2,IF(X16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="Z69" s="17">
-        <f>IF(Y16&lt;200000,7500,IF(Y16&lt;400000,7500/2,IF(Y16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AA69" s="17">
-        <f>IF(Z16&lt;200000,7500,IF(Z16&lt;400000,7500/2,IF(Z16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AB69" s="17">
-        <f>IF(AA16&lt;200000,7500,IF(AA16&lt;400000,7500/2,IF(AA16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AC69" s="17">
-        <f>IF(AB16&lt;200000,7500,IF(AB16&lt;400000,7500/2,IF(AB16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AD69" s="17">
-        <f>IF(AC16&lt;200000,7500,IF(AC16&lt;400000,7500/2,IF(AC16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AE69" s="17">
-        <f>IF(AD16&lt;200000,7500,IF(AD16&lt;400000,7500/2,IF(AD16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AF69" s="17">
-        <f>IF(AE16&lt;200000,7500,IF(AE16&lt;400000,7500/2,IF(AE16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="AG69" s="17">
-        <f>IF(AF16&lt;200000,7500,IF(AF16&lt;400000,7500/2,IF(AF16&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A70" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C70" s="17">
-        <f>IF(B17&lt;200000,7500,IF(B17&lt;400000,7500/2,IF(B17&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C70:AG70" si="19">IF(B17&lt;200000,7500,IF(B17&lt;400000,7500/2,IF(B17&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D70" s="17">
-        <f>IF(C17&lt;200000,7500,IF(C17&lt;400000,7500/2,IF(C17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="E70" s="17">
-        <f>IF(D17&lt;200000,7500,IF(D17&lt;400000,7500/2,IF(D17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="F70" s="17">
-        <f>IF(E17&lt;200000,7500,IF(E17&lt;400000,7500/2,IF(E17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="G70" s="17">
-        <f>IF(F17&lt;200000,7500,IF(F17&lt;400000,7500/2,IF(F17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="H70" s="17">
-        <f>IF(G17&lt;200000,7500,IF(G17&lt;400000,7500/2,IF(G17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="I70" s="17">
-        <f>IF(H17&lt;200000,7500,IF(H17&lt;400000,7500/2,IF(H17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="J70" s="17">
-        <f>IF(I17&lt;200000,7500,IF(I17&lt;400000,7500/2,IF(I17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="K70" s="17">
-        <f>IF(J17&lt;200000,7500,IF(J17&lt;400000,7500/2,IF(J17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="L70" s="17">
-        <f>IF(K17&lt;200000,7500,IF(K17&lt;400000,7500/2,IF(K17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="M70" s="17">
-        <f>IF(L17&lt;200000,7500,IF(L17&lt;400000,7500/2,IF(L17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="N70" s="17">
-        <f>IF(M17&lt;200000,7500,IF(M17&lt;400000,7500/2,IF(M17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="O70" s="17">
-        <f>IF(N17&lt;200000,7500,IF(N17&lt;400000,7500/2,IF(N17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="P70" s="17">
-        <f>IF(O17&lt;200000,7500,IF(O17&lt;400000,7500/2,IF(O17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="Q70" s="17">
-        <f>IF(P17&lt;200000,7500,IF(P17&lt;400000,7500/2,IF(P17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="R70" s="17">
-        <f>IF(Q17&lt;200000,7500,IF(Q17&lt;400000,7500/2,IF(Q17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="S70" s="17">
-        <f>IF(R17&lt;200000,7500,IF(R17&lt;400000,7500/2,IF(R17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="T70" s="17">
-        <f>IF(S17&lt;200000,7500,IF(S17&lt;400000,7500/2,IF(S17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="U70" s="17">
-        <f>IF(T17&lt;200000,7500,IF(T17&lt;400000,7500/2,IF(T17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="V70" s="17">
-        <f>IF(U17&lt;200000,7500,IF(U17&lt;400000,7500/2,IF(U17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="W70" s="17">
-        <f>IF(V17&lt;200000,7500,IF(V17&lt;400000,7500/2,IF(V17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="X70" s="17">
-        <f>IF(W17&lt;200000,7500,IF(W17&lt;400000,7500/2,IF(W17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="Y70" s="17">
-        <f>IF(X17&lt;200000,7500,IF(X17&lt;400000,7500/2,IF(X17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="Z70" s="17">
-        <f>IF(Y17&lt;200000,7500,IF(Y17&lt;400000,7500/2,IF(Y17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="AA70" s="17">
-        <f>IF(Z17&lt;200000,7500,IF(Z17&lt;400000,7500/2,IF(Z17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="AB70" s="17">
-        <f>IF(AA17&lt;200000,7500,IF(AA17&lt;400000,7500/2,IF(AA17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="AC70" s="17">
-        <f>IF(AB17&lt;200000,7500,IF(AB17&lt;400000,7500/2,IF(AB17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="AD70" s="17">
-        <f>IF(AC17&lt;200000,7500,IF(AC17&lt;400000,7500/2,IF(AC17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="AE70" s="17">
-        <f>IF(AD17&lt;200000,7500,IF(AD17&lt;400000,7500/2,IF(AD17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="AF70" s="17">
-        <f>IF(AE17&lt;200000,7500,IF(AE17&lt;400000,7500/2,IF(AE17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
       <c r="AG70" s="17">
-        <f>IF(AF17&lt;200000,7500,IF(AF17&lt;400000,7500/2,IF(AF17&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="19"/>
         <v>7500</v>
       </c>
     </row>
     <row r="71" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A71" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C71" s="17">
-        <f>IF(B18&lt;200000,7500,IF(B18&lt;400000,7500/2,IF(B18&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C71:AG71" si="20">IF(B18&lt;200000,7500,IF(B18&lt;400000,7500/2,IF(B18&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D71" s="17">
-        <f>IF(C18&lt;200000,7500,IF(C18&lt;400000,7500/2,IF(C18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="E71" s="17">
-        <f>IF(D18&lt;200000,7500,IF(D18&lt;400000,7500/2,IF(D18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="F71" s="17">
-        <f>IF(E18&lt;200000,7500,IF(E18&lt;400000,7500/2,IF(E18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="G71" s="17">
-        <f>IF(F18&lt;200000,7500,IF(F18&lt;400000,7500/2,IF(F18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="H71" s="17">
-        <f>IF(G18&lt;200000,7500,IF(G18&lt;400000,7500/2,IF(G18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="I71" s="17">
-        <f>IF(H18&lt;200000,7500,IF(H18&lt;400000,7500/2,IF(H18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="J71" s="17">
-        <f>IF(I18&lt;200000,7500,IF(I18&lt;400000,7500/2,IF(I18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="K71" s="17">
-        <f>IF(J18&lt;200000,7500,IF(J18&lt;400000,7500/2,IF(J18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="L71" s="17">
-        <f>IF(K18&lt;200000,7500,IF(K18&lt;400000,7500/2,IF(K18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="M71" s="17">
-        <f>IF(L18&lt;200000,7500,IF(L18&lt;400000,7500/2,IF(L18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="N71" s="17">
-        <f>IF(M18&lt;200000,7500,IF(M18&lt;400000,7500/2,IF(M18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="O71" s="17">
-        <f>IF(N18&lt;200000,7500,IF(N18&lt;400000,7500/2,IF(N18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="P71" s="17">
-        <f>IF(O18&lt;200000,7500,IF(O18&lt;400000,7500/2,IF(O18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>7500</v>
       </c>
       <c r="Q71" s="17">
-        <f>IF(P18&lt;200000,7500,IF(P18&lt;400000,7500/2,IF(P18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>3750</v>
       </c>
       <c r="R71" s="17">
-        <f>IF(Q18&lt;200000,7500,IF(Q18&lt;400000,7500/2,IF(Q18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>3750</v>
       </c>
       <c r="S71" s="17">
-        <f>IF(R18&lt;200000,7500,IF(R18&lt;400000,7500/2,IF(R18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>3750</v>
       </c>
       <c r="T71" s="17">
-        <f>IF(S18&lt;200000,7500,IF(S18&lt;400000,7500/2,IF(S18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>3750</v>
       </c>
       <c r="U71" s="17">
-        <f>IF(T18&lt;200000,7500,IF(T18&lt;400000,7500/2,IF(T18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>3750</v>
       </c>
       <c r="V71" s="17">
-        <f>IF(U18&lt;200000,7500,IF(U18&lt;400000,7500/2,IF(U18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>3750</v>
       </c>
       <c r="W71" s="17">
-        <f>IF(V18&lt;200000,7500,IF(V18&lt;400000,7500/2,IF(V18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>1875</v>
       </c>
       <c r="X71" s="17">
-        <f>IF(W18&lt;200000,7500,IF(W18&lt;400000,7500/2,IF(W18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>1875</v>
       </c>
       <c r="Y71" s="17">
-        <f>IF(X18&lt;200000,7500,IF(X18&lt;400000,7500/2,IF(X18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>1875</v>
       </c>
       <c r="Z71" s="17">
-        <f>IF(Y18&lt;200000,7500,IF(Y18&lt;400000,7500/2,IF(Y18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>1875</v>
       </c>
       <c r="AA71" s="17">
-        <f>IF(Z18&lt;200000,7500,IF(Z18&lt;400000,7500/2,IF(Z18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>1875</v>
       </c>
       <c r="AB71" s="17">
-        <f>IF(AA18&lt;200000,7500,IF(AA18&lt;400000,7500/2,IF(AA18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>1875</v>
       </c>
       <c r="AC71" s="17">
-        <f>IF(AB18&lt;200000,7500,IF(AB18&lt;400000,7500/2,IF(AB18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AD71" s="17">
-        <f>IF(AC18&lt;200000,7500,IF(AC18&lt;400000,7500/2,IF(AC18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AE71" s="17">
-        <f>IF(AD18&lt;200000,7500,IF(AD18&lt;400000,7500/2,IF(AD18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AF71" s="17">
-        <f>IF(AE18&lt;200000,7500,IF(AE18&lt;400000,7500/2,IF(AE18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="AG71" s="17">
-        <f>IF(AF18&lt;200000,7500,IF(AF18&lt;400000,7500/2,IF(AF18&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A72" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C72" s="17">
-        <f>IF(B19&lt;200000,7500,IF(B19&lt;400000,7500/2,IF(B19&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C72:AG72" si="21">IF(B19&lt;200000,7500,IF(B19&lt;400000,7500/2,IF(B19&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D72" s="17">
-        <f>IF(C19&lt;200000,7500,IF(C19&lt;400000,7500/2,IF(C19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="E72" s="17">
-        <f>IF(D19&lt;200000,7500,IF(D19&lt;400000,7500/2,IF(D19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="F72" s="17">
-        <f>IF(E19&lt;200000,7500,IF(E19&lt;400000,7500/2,IF(E19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="G72" s="17">
-        <f>IF(F19&lt;200000,7500,IF(F19&lt;400000,7500/2,IF(F19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="H72" s="17">
-        <f>IF(G19&lt;200000,7500,IF(G19&lt;400000,7500/2,IF(G19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="I72" s="17">
-        <f>IF(H19&lt;200000,7500,IF(H19&lt;400000,7500/2,IF(H19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="J72" s="17">
-        <f>IF(I19&lt;200000,7500,IF(I19&lt;400000,7500/2,IF(I19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="K72" s="17">
-        <f>IF(J19&lt;200000,7500,IF(J19&lt;400000,7500/2,IF(J19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="L72" s="17">
-        <f>IF(K19&lt;200000,7500,IF(K19&lt;400000,7500/2,IF(K19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="M72" s="17">
-        <f>IF(L19&lt;200000,7500,IF(L19&lt;400000,7500/2,IF(L19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="N72" s="17">
-        <f>IF(M19&lt;200000,7500,IF(M19&lt;400000,7500/2,IF(M19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="O72" s="17">
-        <f>IF(N19&lt;200000,7500,IF(N19&lt;400000,7500/2,IF(N19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="P72" s="17">
-        <f>IF(O19&lt;200000,7500,IF(O19&lt;400000,7500/2,IF(O19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="Q72" s="17">
-        <f>IF(P19&lt;200000,7500,IF(P19&lt;400000,7500/2,IF(P19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="R72" s="17">
-        <f>IF(Q19&lt;200000,7500,IF(Q19&lt;400000,7500/2,IF(Q19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="S72" s="17">
-        <f>IF(R19&lt;200000,7500,IF(R19&lt;400000,7500/2,IF(R19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="T72" s="17">
-        <f>IF(S19&lt;200000,7500,IF(S19&lt;400000,7500/2,IF(S19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="U72" s="17">
-        <f>IF(T19&lt;200000,7500,IF(T19&lt;400000,7500/2,IF(T19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="V72" s="17">
-        <f>IF(U19&lt;200000,7500,IF(U19&lt;400000,7500/2,IF(U19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="W72" s="17">
-        <f>IF(V19&lt;200000,7500,IF(V19&lt;400000,7500/2,IF(V19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="X72" s="17">
-        <f>IF(W19&lt;200000,7500,IF(W19&lt;400000,7500/2,IF(W19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="Y72" s="17">
-        <f>IF(X19&lt;200000,7500,IF(X19&lt;400000,7500/2,IF(X19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="Z72" s="17">
-        <f>IF(Y19&lt;200000,7500,IF(Y19&lt;400000,7500/2,IF(Y19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="AA72" s="17">
-        <f>IF(Z19&lt;200000,7500,IF(Z19&lt;400000,7500/2,IF(Z19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="AB72" s="17">
-        <f>IF(AA19&lt;200000,7500,IF(AA19&lt;400000,7500/2,IF(AA19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="AC72" s="17">
-        <f>IF(AB19&lt;200000,7500,IF(AB19&lt;400000,7500/2,IF(AB19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="AD72" s="17">
-        <f>IF(AC19&lt;200000,7500,IF(AC19&lt;400000,7500/2,IF(AC19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="AE72" s="17">
-        <f>IF(AD19&lt;200000,7500,IF(AD19&lt;400000,7500/2,IF(AD19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="AF72" s="17">
-        <f>IF(AE19&lt;200000,7500,IF(AE19&lt;400000,7500/2,IF(AE19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
       <c r="AG72" s="17">
-        <f>IF(AF19&lt;200000,7500,IF(AF19&lt;400000,7500/2,IF(AF19&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="21"/>
         <v>7500</v>
       </c>
     </row>
     <row r="73" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A73" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C73" s="17">
-        <f>IF(B20&lt;200000,7500,IF(B20&lt;400000,7500/2,IF(B20&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C73:AG73" si="22">IF(B20&lt;200000,7500,IF(B20&lt;400000,7500/2,IF(B20&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D73" s="17">
-        <f>IF(C20&lt;200000,7500,IF(C20&lt;400000,7500/2,IF(C20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="E73" s="17">
-        <f>IF(D20&lt;200000,7500,IF(D20&lt;400000,7500/2,IF(D20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="F73" s="17">
-        <f>IF(E20&lt;200000,7500,IF(E20&lt;400000,7500/2,IF(E20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="G73" s="17">
-        <f>IF(F20&lt;200000,7500,IF(F20&lt;400000,7500/2,IF(F20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="H73" s="17">
-        <f>IF(G20&lt;200000,7500,IF(G20&lt;400000,7500/2,IF(G20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="I73" s="17">
-        <f>IF(H20&lt;200000,7500,IF(H20&lt;400000,7500/2,IF(H20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="J73" s="17">
-        <f>IF(I20&lt;200000,7500,IF(I20&lt;400000,7500/2,IF(I20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="K73" s="17">
-        <f>IF(J20&lt;200000,7500,IF(J20&lt;400000,7500/2,IF(J20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="L73" s="17">
-        <f>IF(K20&lt;200000,7500,IF(K20&lt;400000,7500/2,IF(K20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="M73" s="17">
-        <f>IF(L20&lt;200000,7500,IF(L20&lt;400000,7500/2,IF(L20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="N73" s="17">
-        <f>IF(M20&lt;200000,7500,IF(M20&lt;400000,7500/2,IF(M20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="O73" s="17">
-        <f>IF(N20&lt;200000,7500,IF(N20&lt;400000,7500/2,IF(N20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="P73" s="17">
-        <f>IF(O20&lt;200000,7500,IF(O20&lt;400000,7500/2,IF(O20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="Q73" s="17">
-        <f>IF(P20&lt;200000,7500,IF(P20&lt;400000,7500/2,IF(P20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="R73" s="17">
-        <f>IF(Q20&lt;200000,7500,IF(Q20&lt;400000,7500/2,IF(Q20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>7500</v>
       </c>
       <c r="S73" s="17">
-        <f>IF(R20&lt;200000,7500,IF(R20&lt;400000,7500/2,IF(R20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>3750</v>
       </c>
       <c r="T73" s="17">
-        <f>IF(S20&lt;200000,7500,IF(S20&lt;400000,7500/2,IF(S20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>3750</v>
       </c>
       <c r="U73" s="17">
-        <f>IF(T20&lt;200000,7500,IF(T20&lt;400000,7500/2,IF(T20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>3750</v>
       </c>
       <c r="V73" s="17">
-        <f>IF(U20&lt;200000,7500,IF(U20&lt;400000,7500/2,IF(U20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>3750</v>
       </c>
       <c r="W73" s="17">
-        <f>IF(V20&lt;200000,7500,IF(V20&lt;400000,7500/2,IF(V20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>3750</v>
       </c>
       <c r="X73" s="17">
-        <f>IF(W20&lt;200000,7500,IF(W20&lt;400000,7500/2,IF(W20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>3750</v>
       </c>
       <c r="Y73" s="17">
-        <f>IF(X20&lt;200000,7500,IF(X20&lt;400000,7500/2,IF(X20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>3750</v>
       </c>
       <c r="Z73" s="17">
-        <f>IF(Y20&lt;200000,7500,IF(Y20&lt;400000,7500/2,IF(Y20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>3750</v>
       </c>
       <c r="AA73" s="17">
-        <f>IF(Z20&lt;200000,7500,IF(Z20&lt;400000,7500/2,IF(Z20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>1875</v>
       </c>
       <c r="AB73" s="17">
-        <f>IF(AA20&lt;200000,7500,IF(AA20&lt;400000,7500/2,IF(AA20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>1875</v>
       </c>
       <c r="AC73" s="17">
-        <f>IF(AB20&lt;200000,7500,IF(AB20&lt;400000,7500/2,IF(AB20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>1875</v>
       </c>
       <c r="AD73" s="17">
-        <f>IF(AC20&lt;200000,7500,IF(AC20&lt;400000,7500/2,IF(AC20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>1875</v>
       </c>
       <c r="AE73" s="17">
-        <f>IF(AD20&lt;200000,7500,IF(AD20&lt;400000,7500/2,IF(AD20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>1875</v>
       </c>
       <c r="AF73" s="17">
-        <f>IF(AE20&lt;200000,7500,IF(AE20&lt;400000,7500/2,IF(AE20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>1875</v>
       </c>
       <c r="AG73" s="17">
-        <f>IF(AF20&lt;200000,7500,IF(AF20&lt;400000,7500/2,IF(AF20&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="22"/>
         <v>1875</v>
       </c>
     </row>
     <row r="74" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A74" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C74" s="17">
-        <f>IF(B21&lt;200000,7500,IF(B21&lt;400000,7500/2,IF(B21&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C74:AG74" si="23">IF(B21&lt;200000,7500,IF(B21&lt;400000,7500/2,IF(B21&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D74" s="17">
-        <f>IF(C21&lt;200000,7500,IF(C21&lt;400000,7500/2,IF(C21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="E74" s="17">
-        <f>IF(D21&lt;200000,7500,IF(D21&lt;400000,7500/2,IF(D21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="F74" s="17">
-        <f>IF(E21&lt;200000,7500,IF(E21&lt;400000,7500/2,IF(E21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="G74" s="17">
-        <f>IF(F21&lt;200000,7500,IF(F21&lt;400000,7500/2,IF(F21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="H74" s="17">
-        <f>IF(G21&lt;200000,7500,IF(G21&lt;400000,7500/2,IF(G21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="I74" s="17">
-        <f>IF(H21&lt;200000,7500,IF(H21&lt;400000,7500/2,IF(H21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="J74" s="17">
-        <f>IF(I21&lt;200000,7500,IF(I21&lt;400000,7500/2,IF(I21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="K74" s="17">
-        <f>IF(J21&lt;200000,7500,IF(J21&lt;400000,7500/2,IF(J21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="L74" s="17">
-        <f>IF(K21&lt;200000,7500,IF(K21&lt;400000,7500/2,IF(K21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="M74" s="17">
-        <f>IF(L21&lt;200000,7500,IF(L21&lt;400000,7500/2,IF(L21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="N74" s="17">
-        <f>IF(M21&lt;200000,7500,IF(M21&lt;400000,7500/2,IF(M21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="O74" s="17">
-        <f>IF(N21&lt;200000,7500,IF(N21&lt;400000,7500/2,IF(N21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>7500</v>
       </c>
       <c r="P74" s="17">
-        <f>IF(O21&lt;200000,7500,IF(O21&lt;400000,7500/2,IF(O21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>3750</v>
       </c>
       <c r="Q74" s="17">
-        <f>IF(P21&lt;200000,7500,IF(P21&lt;400000,7500/2,IF(P21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>3750</v>
       </c>
       <c r="R74" s="17">
-        <f>IF(Q21&lt;200000,7500,IF(Q21&lt;400000,7500/2,IF(Q21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>3750</v>
       </c>
       <c r="S74" s="17">
-        <f>IF(R21&lt;200000,7500,IF(R21&lt;400000,7500/2,IF(R21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>3750</v>
       </c>
       <c r="T74" s="17">
-        <f>IF(S21&lt;200000,7500,IF(S21&lt;400000,7500/2,IF(S21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>3750</v>
       </c>
       <c r="U74" s="17">
-        <f>IF(T21&lt;200000,7500,IF(T21&lt;400000,7500/2,IF(T21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>3750</v>
       </c>
       <c r="V74" s="17">
-        <f>IF(U21&lt;200000,7500,IF(U21&lt;400000,7500/2,IF(U21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>1875</v>
       </c>
       <c r="W74" s="17">
-        <f>IF(V21&lt;200000,7500,IF(V21&lt;400000,7500/2,IF(V21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>1875</v>
       </c>
       <c r="X74" s="17">
-        <f>IF(W21&lt;200000,7500,IF(W21&lt;400000,7500/2,IF(W21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>1875</v>
       </c>
       <c r="Y74" s="17">
-        <f>IF(X21&lt;200000,7500,IF(X21&lt;400000,7500/2,IF(X21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>1875</v>
       </c>
       <c r="Z74" s="17">
-        <f>IF(Y21&lt;200000,7500,IF(Y21&lt;400000,7500/2,IF(Y21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>1875</v>
       </c>
       <c r="AA74" s="17">
-        <f>IF(Z21&lt;200000,7500,IF(Z21&lt;400000,7500/2,IF(Z21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AB74" s="17">
-        <f>IF(AA21&lt;200000,7500,IF(AA21&lt;400000,7500/2,IF(AA21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AC74" s="17">
-        <f>IF(AB21&lt;200000,7500,IF(AB21&lt;400000,7500/2,IF(AB21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AD74" s="17">
-        <f>IF(AC21&lt;200000,7500,IF(AC21&lt;400000,7500/2,IF(AC21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AE74" s="17">
-        <f>IF(AD21&lt;200000,7500,IF(AD21&lt;400000,7500/2,IF(AD21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AF74" s="17">
-        <f>IF(AE21&lt;200000,7500,IF(AE21&lt;400000,7500/2,IF(AE21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="AG74" s="17">
-        <f>IF(AF21&lt;200000,7500,IF(AF21&lt;400000,7500/2,IF(AF21&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A75" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C75" s="17">
-        <f>IF(B22&lt;200000,7500,IF(B22&lt;400000,7500/2,IF(B22&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C75:AG75" si="24">IF(B22&lt;200000,7500,IF(B22&lt;400000,7500/2,IF(B22&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D75" s="17">
-        <f>IF(C22&lt;200000,7500,IF(C22&lt;400000,7500/2,IF(C22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="E75" s="17">
-        <f>IF(D22&lt;200000,7500,IF(D22&lt;400000,7500/2,IF(D22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="F75" s="17">
-        <f>IF(E22&lt;200000,7500,IF(E22&lt;400000,7500/2,IF(E22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="G75" s="17">
-        <f>IF(F22&lt;200000,7500,IF(F22&lt;400000,7500/2,IF(F22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="H75" s="17">
-        <f>IF(G22&lt;200000,7500,IF(G22&lt;400000,7500/2,IF(G22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="I75" s="17">
-        <f>IF(H22&lt;200000,7500,IF(H22&lt;400000,7500/2,IF(H22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="J75" s="17">
-        <f>IF(I22&lt;200000,7500,IF(I22&lt;400000,7500/2,IF(I22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="K75" s="17">
-        <f>IF(J22&lt;200000,7500,IF(J22&lt;400000,7500/2,IF(J22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="L75" s="17">
-        <f>IF(K22&lt;200000,7500,IF(K22&lt;400000,7500/2,IF(K22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="M75" s="17">
-        <f>IF(L22&lt;200000,7500,IF(L22&lt;400000,7500/2,IF(L22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="N75" s="17">
-        <f>IF(M22&lt;200000,7500,IF(M22&lt;400000,7500/2,IF(M22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="O75" s="17">
-        <f>IF(N22&lt;200000,7500,IF(N22&lt;400000,7500/2,IF(N22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="P75" s="17">
-        <f>IF(O22&lt;200000,7500,IF(O22&lt;400000,7500/2,IF(O22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="Q75" s="17">
-        <f>IF(P22&lt;200000,7500,IF(P22&lt;400000,7500/2,IF(P22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="R75" s="17">
-        <f>IF(Q22&lt;200000,7500,IF(Q22&lt;400000,7500/2,IF(Q22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="S75" s="17">
-        <f>IF(R22&lt;200000,7500,IF(R22&lt;400000,7500/2,IF(R22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="T75" s="17">
-        <f>IF(S22&lt;200000,7500,IF(S22&lt;400000,7500/2,IF(S22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="U75" s="17">
-        <f>IF(T22&lt;200000,7500,IF(T22&lt;400000,7500/2,IF(T22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="V75" s="17">
-        <f>IF(U22&lt;200000,7500,IF(U22&lt;400000,7500/2,IF(U22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="W75" s="17">
-        <f>IF(V22&lt;200000,7500,IF(V22&lt;400000,7500/2,IF(V22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="X75" s="17">
-        <f>IF(W22&lt;200000,7500,IF(W22&lt;400000,7500/2,IF(W22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="Y75" s="17">
-        <f>IF(X22&lt;200000,7500,IF(X22&lt;400000,7500/2,IF(X22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="Z75" s="17">
-        <f>IF(Y22&lt;200000,7500,IF(Y22&lt;400000,7500/2,IF(Y22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="AA75" s="17">
-        <f>IF(Z22&lt;200000,7500,IF(Z22&lt;400000,7500/2,IF(Z22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="AB75" s="17">
-        <f>IF(AA22&lt;200000,7500,IF(AA22&lt;400000,7500/2,IF(AA22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="AC75" s="17">
-        <f>IF(AB22&lt;200000,7500,IF(AB22&lt;400000,7500/2,IF(AB22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="AD75" s="17">
-        <f>IF(AC22&lt;200000,7500,IF(AC22&lt;400000,7500/2,IF(AC22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="AE75" s="17">
-        <f>IF(AD22&lt;200000,7500,IF(AD22&lt;400000,7500/2,IF(AD22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="AF75" s="17">
-        <f>IF(AE22&lt;200000,7500,IF(AE22&lt;400000,7500/2,IF(AE22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
       <c r="AG75" s="17">
-        <f>IF(AF22&lt;200000,7500,IF(AF22&lt;400000,7500/2,IF(AF22&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="24"/>
         <v>7500</v>
       </c>
     </row>
     <row r="76" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A76" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C76" s="17">
-        <f>IF(B23&lt;200000,7500,IF(B23&lt;400000,7500/2,IF(B23&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C76:AG76" si="25">IF(B23&lt;200000,7500,IF(B23&lt;400000,7500/2,IF(B23&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D76" s="17">
-        <f>IF(C23&lt;200000,7500,IF(C23&lt;400000,7500/2,IF(C23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="E76" s="17">
-        <f>IF(D23&lt;200000,7500,IF(D23&lt;400000,7500/2,IF(D23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="F76" s="17">
-        <f>IF(E23&lt;200000,7500,IF(E23&lt;400000,7500/2,IF(E23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="G76" s="17">
-        <f>IF(F23&lt;200000,7500,IF(F23&lt;400000,7500/2,IF(F23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="H76" s="17">
-        <f>IF(G23&lt;200000,7500,IF(G23&lt;400000,7500/2,IF(G23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="I76" s="17">
-        <f>IF(H23&lt;200000,7500,IF(H23&lt;400000,7500/2,IF(H23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="J76" s="17">
-        <f>IF(I23&lt;200000,7500,IF(I23&lt;400000,7500/2,IF(I23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="K76" s="17">
-        <f>IF(J23&lt;200000,7500,IF(J23&lt;400000,7500/2,IF(J23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="L76" s="17">
-        <f>IF(K23&lt;200000,7500,IF(K23&lt;400000,7500/2,IF(K23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="M76" s="17">
-        <f>IF(L23&lt;200000,7500,IF(L23&lt;400000,7500/2,IF(L23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="N76" s="17">
-        <f>IF(M23&lt;200000,7500,IF(M23&lt;400000,7500/2,IF(M23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="O76" s="17">
-        <f>IF(N23&lt;200000,7500,IF(N23&lt;400000,7500/2,IF(N23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="P76" s="17">
-        <f>IF(O23&lt;200000,7500,IF(O23&lt;400000,7500/2,IF(O23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="Q76" s="17">
-        <f>IF(P23&lt;200000,7500,IF(P23&lt;400000,7500/2,IF(P23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="R76" s="17">
-        <f>IF(Q23&lt;200000,7500,IF(Q23&lt;400000,7500/2,IF(Q23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="S76" s="17">
-        <f>IF(R23&lt;200000,7500,IF(R23&lt;400000,7500/2,IF(R23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="T76" s="17">
-        <f>IF(S23&lt;200000,7500,IF(S23&lt;400000,7500/2,IF(S23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="U76" s="17">
-        <f>IF(T23&lt;200000,7500,IF(T23&lt;400000,7500/2,IF(T23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="V76" s="17">
-        <f>IF(U23&lt;200000,7500,IF(U23&lt;400000,7500/2,IF(U23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="W76" s="17">
-        <f>IF(V23&lt;200000,7500,IF(V23&lt;400000,7500/2,IF(V23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="X76" s="17">
-        <f>IF(W23&lt;200000,7500,IF(W23&lt;400000,7500/2,IF(W23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="Y76" s="17">
-        <f>IF(X23&lt;200000,7500,IF(X23&lt;400000,7500/2,IF(X23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="Z76" s="17">
-        <f>IF(Y23&lt;200000,7500,IF(Y23&lt;400000,7500/2,IF(Y23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="AA76" s="17">
-        <f>IF(Z23&lt;200000,7500,IF(Z23&lt;400000,7500/2,IF(Z23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="AB76" s="17">
-        <f>IF(AA23&lt;200000,7500,IF(AA23&lt;400000,7500/2,IF(AA23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="AC76" s="17">
-        <f>IF(AB23&lt;200000,7500,IF(AB23&lt;400000,7500/2,IF(AB23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="AD76" s="17">
-        <f>IF(AC23&lt;200000,7500,IF(AC23&lt;400000,7500/2,IF(AC23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="AE76" s="17">
-        <f>IF(AD23&lt;200000,7500,IF(AD23&lt;400000,7500/2,IF(AD23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="AF76" s="17">
-        <f>IF(AE23&lt;200000,7500,IF(AE23&lt;400000,7500/2,IF(AE23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
       <c r="AG76" s="17">
-        <f>IF(AF23&lt;200000,7500,IF(AF23&lt;400000,7500/2,IF(AF23&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
     </row>
     <row r="77" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A77" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C77" s="17">
-        <f>IF(B24&lt;200000,7500,IF(B24&lt;400000,7500/2,IF(B24&lt;600000,7500/4,0)))</f>
+        <f t="shared" ref="C77:AG77" si="26">IF(B24&lt;200000,7500,IF(B24&lt;400000,7500/2,IF(B24&lt;600000,7500/4,0)))</f>
         <v>7500</v>
       </c>
       <c r="D77" s="17">
-        <f>IF(C24&lt;200000,7500,IF(C24&lt;400000,7500/2,IF(C24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="E77" s="17">
-        <f>IF(D24&lt;200000,7500,IF(D24&lt;400000,7500/2,IF(D24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="F77" s="17">
-        <f>IF(E24&lt;200000,7500,IF(E24&lt;400000,7500/2,IF(E24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="G77" s="17">
-        <f>IF(F24&lt;200000,7500,IF(F24&lt;400000,7500/2,IF(F24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="H77" s="17">
-        <f>IF(G24&lt;200000,7500,IF(G24&lt;400000,7500/2,IF(G24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="I77" s="17">
-        <f>IF(H24&lt;200000,7500,IF(H24&lt;400000,7500/2,IF(H24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="J77" s="17">
-        <f>IF(I24&lt;200000,7500,IF(I24&lt;400000,7500/2,IF(I24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="K77" s="17">
-        <f>IF(J24&lt;200000,7500,IF(J24&lt;400000,7500/2,IF(J24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="L77" s="17">
-        <f>IF(K24&lt;200000,7500,IF(K24&lt;400000,7500/2,IF(K24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="M77" s="17">
-        <f>IF(L24&lt;200000,7500,IF(L24&lt;400000,7500/2,IF(L24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="N77" s="17">
-        <f>IF(M24&lt;200000,7500,IF(M24&lt;400000,7500/2,IF(M24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="O77" s="17">
-        <f>IF(N24&lt;200000,7500,IF(N24&lt;400000,7500/2,IF(N24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="P77" s="17">
-        <f>IF(O24&lt;200000,7500,IF(O24&lt;400000,7500/2,IF(O24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="Q77" s="17">
-        <f>IF(P24&lt;200000,7500,IF(P24&lt;400000,7500/2,IF(P24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="R77" s="17">
-        <f>IF(Q24&lt;200000,7500,IF(Q24&lt;400000,7500/2,IF(Q24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="S77" s="17">
-        <f>IF(R24&lt;200000,7500,IF(R24&lt;400000,7500/2,IF(R24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="T77" s="17">
-        <f>IF(S24&lt;200000,7500,IF(S24&lt;400000,7500/2,IF(S24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="U77" s="17">
-        <f>IF(T24&lt;200000,7500,IF(T24&lt;400000,7500/2,IF(T24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="V77" s="17">
-        <f>IF(U24&lt;200000,7500,IF(U24&lt;400000,7500/2,IF(U24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="W77" s="17">
-        <f>IF(V24&lt;200000,7500,IF(V24&lt;400000,7500/2,IF(V24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="X77" s="17">
-        <f>IF(W24&lt;200000,7500,IF(W24&lt;400000,7500/2,IF(W24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="Y77" s="17">
-        <f>IF(X24&lt;200000,7500,IF(X24&lt;400000,7500/2,IF(X24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="Z77" s="17">
-        <f>IF(Y24&lt;200000,7500,IF(Y24&lt;400000,7500/2,IF(Y24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="AA77" s="17">
-        <f>IF(Z24&lt;200000,7500,IF(Z24&lt;400000,7500/2,IF(Z24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="AB77" s="17">
-        <f>IF(AA24&lt;200000,7500,IF(AA24&lt;400000,7500/2,IF(AA24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="AC77" s="17">
-        <f>IF(AB24&lt;200000,7500,IF(AB24&lt;400000,7500/2,IF(AB24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="AD77" s="17">
-        <f>IF(AC24&lt;200000,7500,IF(AC24&lt;400000,7500/2,IF(AC24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="AE77" s="17">
-        <f>IF(AD24&lt;200000,7500,IF(AD24&lt;400000,7500/2,IF(AD24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="AF77" s="17">
-        <f>IF(AE24&lt;200000,7500,IF(AE24&lt;400000,7500/2,IF(AE24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
       <c r="AG77" s="17">
-        <f>IF(AF24&lt;200000,7500,IF(AF24&lt;400000,7500/2,IF(AF24&lt;600000,7500/4,0)))</f>
+        <f t="shared" si="26"/>
         <v>7500</v>
       </c>
     </row>
     <row r="79" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A79" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="17">
         <v>2020</v>
@@ -12078,127 +12078,127 @@
     </row>
     <row r="80" spans="1:33" x14ac:dyDescent="0.35">
       <c r="C80" s="13">
-        <f>SUMPRODUCT(C56:C77,B32:B53)/SUM(B32:B53)</f>
+        <f t="shared" ref="C80:AG80" si="27">SUMPRODUCT(C56:C77,B32:B53)/SUM(B32:B53)</f>
         <v>2762.8042752996416</v>
       </c>
       <c r="D80" s="13">
-        <f>SUMPRODUCT(D56:D77,C32:C53)/SUM(C32:C53)</f>
+        <f t="shared" si="27"/>
         <v>3553.7472021669196</v>
       </c>
       <c r="E80" s="13">
-        <f>SUMPRODUCT(E56:E77,D32:D53)/SUM(D32:D53)</f>
+        <f t="shared" si="27"/>
         <v>3044.685616691344</v>
       </c>
       <c r="F80" s="13">
-        <f>SUMPRODUCT(F56:F77,E32:E53)/SUM(E32:E53)</f>
+        <f t="shared" si="27"/>
         <v>2379.3054665475447</v>
       </c>
       <c r="G80" s="13">
-        <f>SUMPRODUCT(G56:G77,F32:F53)/SUM(F32:F53)</f>
+        <f t="shared" si="27"/>
         <v>1637.7859787917146</v>
       </c>
       <c r="H80" s="13">
-        <f>SUMPRODUCT(H56:H77,G32:G53)/SUM(G32:G53)</f>
+        <f t="shared" si="27"/>
         <v>1138.8019197317865</v>
       </c>
       <c r="I80" s="13">
-        <f>SUMPRODUCT(I56:I77,H32:H53)/SUM(H32:H53)</f>
+        <f t="shared" si="27"/>
         <v>719.51762832148961</v>
       </c>
       <c r="J80" s="13">
-        <f>SUMPRODUCT(J56:J77,I32:I53)/SUM(I32:I53)</f>
+        <f t="shared" si="27"/>
         <v>475.87825914011427</v>
       </c>
       <c r="K80" s="13">
-        <f>SUMPRODUCT(K56:K77,J32:J53)/SUM(J32:J53)</f>
+        <f t="shared" si="27"/>
         <v>295.91524262619055</v>
       </c>
       <c r="L80" s="13">
-        <f>SUMPRODUCT(L56:L77,K32:K53)/SUM(K32:K53)</f>
+        <f t="shared" si="27"/>
         <v>152.65454772179828</v>
       </c>
       <c r="M80" s="13">
-        <f>SUMPRODUCT(M56:M77,L32:L53)/SUM(L32:L53)</f>
+        <f t="shared" si="27"/>
         <v>117.34325031648267</v>
       </c>
       <c r="N80" s="13">
-        <f>SUMPRODUCT(N56:N77,M32:M53)/SUM(M32:M53)</f>
+        <f t="shared" si="27"/>
         <v>117.34325031648267</v>
       </c>
       <c r="O80" s="13">
-        <f>SUMPRODUCT(O56:O77,N32:N53)/SUM(N32:N53)</f>
+        <f t="shared" si="27"/>
         <v>103.64018209197414</v>
       </c>
       <c r="P80" s="13">
-        <f>SUMPRODUCT(P56:P77,O32:O53)/SUM(O32:O53)</f>
+        <f t="shared" si="27"/>
         <v>88.143580531817165</v>
       </c>
       <c r="Q80" s="13">
-        <f>SUMPRODUCT(Q56:Q77,P32:P53)/SUM(P32:P53)</f>
+        <f t="shared" si="27"/>
         <v>74.82526368294279</v>
       </c>
       <c r="R80" s="13">
-        <f>SUMPRODUCT(R56:R77,Q32:Q53)/SUM(Q32:Q53)</f>
+        <f t="shared" si="27"/>
         <v>74.825263682942776</v>
       </c>
       <c r="S80" s="13">
-        <f>SUMPRODUCT(S56:S77,R32:R53)/SUM(R32:R53)</f>
+        <f t="shared" si="27"/>
         <v>64.969709214775719</v>
       </c>
       <c r="T80" s="13">
-        <f>SUMPRODUCT(T56:T77,S32:S53)/SUM(S32:S53)</f>
+        <f t="shared" si="27"/>
         <v>64.969709214775705</v>
       </c>
       <c r="U80" s="13">
-        <f>SUMPRODUCT(U56:U77,T32:T53)/SUM(T32:T53)</f>
+        <f t="shared" si="27"/>
         <v>64.969709214775733</v>
       </c>
       <c r="V80" s="13">
-        <f>SUMPRODUCT(V56:V77,U32:U53)/SUM(U32:U53)</f>
+        <f t="shared" si="27"/>
         <v>50.369874322442975</v>
       </c>
       <c r="W80" s="13">
-        <f>SUMPRODUCT(W56:W77,V32:V53)/SUM(V32:V53)</f>
+        <f t="shared" si="27"/>
         <v>43.710715898005745</v>
       </c>
       <c r="X80" s="13">
-        <f>SUMPRODUCT(X56:X77,W32:W53)/SUM(W32:W53)</f>
+        <f t="shared" si="27"/>
         <v>43.710715898005752</v>
       </c>
       <c r="Y80" s="13">
-        <f>SUMPRODUCT(Y56:Y77,X32:X53)/SUM(X32:X53)</f>
+        <f t="shared" si="27"/>
         <v>43.710715898005773</v>
       </c>
       <c r="Z80" s="13">
-        <f>SUMPRODUCT(Z56:Z77,Y32:Y53)/SUM(Y32:Y53)</f>
+        <f t="shared" si="27"/>
         <v>43.710715898005773</v>
       </c>
       <c r="AA80" s="13">
-        <f>SUMPRODUCT(AA56:AA77,Z32:Z53)/SUM(Z32:Z53)</f>
+        <f t="shared" si="27"/>
         <v>31.034637883843768</v>
       </c>
       <c r="AB80" s="13">
-        <f>SUMPRODUCT(AB56:AB77,AA32:AA53)/SUM(AA32:AA53)</f>
+        <f t="shared" si="27"/>
         <v>24.183103771589504</v>
       </c>
       <c r="AC80" s="13">
-        <f>SUMPRODUCT(AC56:AC77,AB32:AB53)/SUM(AB32:AB53)</f>
+        <f t="shared" si="27"/>
         <v>17.523945347152292</v>
       </c>
       <c r="AD80" s="13">
-        <f>SUMPRODUCT(AD56:AD77,AC32:AC53)/SUM(AC32:AC53)</f>
+        <f t="shared" si="27"/>
         <v>17.523945347152285</v>
       </c>
       <c r="AE80" s="13">
-        <f>SUMPRODUCT(AE56:AE77,AD32:AD53)/SUM(AD32:AD53)</f>
+        <f t="shared" si="27"/>
         <v>17.523945347152292</v>
       </c>
       <c r="AF80" s="13">
-        <f>SUMPRODUCT(AF56:AF77,AE32:AE53)/SUM(AE32:AE53)</f>
+        <f t="shared" si="27"/>
         <v>17.523945347152285</v>
       </c>
       <c r="AG80" s="13">
-        <f>SUMPRODUCT(AG56:AG77,AF32:AF53)/SUM(AF32:AF53)</f>
+        <f t="shared" si="27"/>
         <v>17.523945347152289</v>
       </c>
     </row>
@@ -12234,17 +12234,17 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="27">
         <v>2011</v>
@@ -12280,14 +12280,14 @@
         <v>2021</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N3" s="27"/>
       <c r="O3" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="P3" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="Q3" s="1"/>
     </row>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B5" s="17">
         <v>7671</v>
@@ -12386,7 +12386,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="17">
         <v>9674</v>
@@ -12434,7 +12434,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="17">
         <v>12941</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="17">
         <v>3057</v>
@@ -12524,7 +12524,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C9" s="17">
         <v>673</v>
@@ -12569,7 +12569,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D10" s="17">
         <v>260</v>
@@ -12611,7 +12611,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="17">
         <v>93</v>
@@ -12656,7 +12656,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12" s="17">
         <v>4280</v>
@@ -12689,7 +12689,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F13" s="17">
         <v>15</v>
@@ -12725,7 +12725,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="17">
         <v>359</v>
@@ -12764,7 +12764,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F15" s="17">
         <v>86</v>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" s="17">
         <v>51</v>
@@ -12842,7 +12842,7 @@
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A17" s="17" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E17" s="17">
         <v>357</v>
@@ -12881,7 +12881,7 @@
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E18" s="17">
         <v>774</v>
@@ -12920,7 +12920,7 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="17">
         <v>76</v>
@@ -12968,7 +12968,7 @@
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="17">
         <v>342</v>
@@ -13016,7 +13016,7 @@
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I21" s="17">
         <v>393</v>
@@ -13043,7 +13043,7 @@
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I22" s="17">
         <v>0</v>
@@ -13070,7 +13070,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A23" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L23" s="17">
         <v>376</v>
@@ -13088,7 +13088,7 @@
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L24" s="17">
         <v>65</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L25" s="17">
         <v>116</v>
@@ -13124,7 +13124,7 @@
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B27" s="17">
         <v>17763</v>
@@ -13178,8 +13178,8 @@
   </sheetPr>
   <dimension ref="A1:AF7"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:AF2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13189,7 +13189,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -13287,136 +13287,136 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" s="9">
         <f>Summary!C44</f>
-        <v>7.5157148532255816E-2</v>
+        <v>6.6672708502013983E-2</v>
       </c>
       <c r="C2" s="9">
         <f>Summary!D44</f>
-        <v>9.8228699848796536E-2</v>
+        <v>8.7139727882835721E-2</v>
       </c>
       <c r="D2" s="9">
         <f>Summary!E44</f>
-        <v>9.2498618436792954E-2</v>
+        <v>8.2056511513718677E-2</v>
       </c>
       <c r="E2" s="9">
         <f>Summary!F44</f>
-        <v>8.0965159592685146E-2</v>
+        <v>7.182505709387528E-2</v>
       </c>
       <c r="F2" s="9">
         <f>Summary!G44</f>
-        <v>6.5578325701333692E-2</v>
+        <v>5.8175232548353856E-2</v>
       </c>
       <c r="G2" s="9">
         <f>Summary!H44</f>
-        <v>5.4825615969783956E-2</v>
+        <v>4.86363889980201E-2</v>
       </c>
       <c r="H2" s="9">
         <f>Summary!I44</f>
-        <v>4.5579789306125683E-2</v>
+        <v>4.0434317497906276E-2</v>
       </c>
       <c r="I2" s="9">
         <f>Summary!J44</f>
-        <v>4.038050018592064E-2</v>
+        <v>3.5821972635190408E-2</v>
       </c>
       <c r="J2" s="9">
         <f>Summary!K44</f>
-        <v>3.6860209603417404E-2</v>
+        <v>3.2699085292692415E-2</v>
       </c>
       <c r="K2" s="9">
         <f>Summary!L44</f>
-        <v>3.3735270582542699E-2</v>
+        <v>2.9926918539506856E-2</v>
       </c>
       <c r="L2" s="9">
         <f>Summary!M44</f>
-        <v>3.3648400445962796E-2</v>
+        <v>2.9849855114312696E-2</v>
       </c>
       <c r="M2" s="9">
         <f>Summary!N44</f>
-        <v>3.4221974154948334E-2</v>
+        <v>3.0358678472442086E-2</v>
       </c>
       <c r="N2" s="9">
         <f>Summary!O44</f>
-        <v>3.4303283968228439E-2</v>
+        <v>3.0430809275500043E-2</v>
       </c>
       <c r="O2" s="9">
         <f>Summary!P44</f>
-        <v>3.425304040385467E-2</v>
+        <v>3.0386237673370179E-2</v>
       </c>
       <c r="P2" s="9">
         <f>Summary!Q44</f>
-        <v>3.4212093029836681E-2</v>
+        <v>3.0349912820909174E-2</v>
       </c>
       <c r="Q2" s="9">
         <f>Summary!R44</f>
-        <v>3.4555914607051305E-2</v>
+        <v>3.0654920611146119E-2</v>
       </c>
       <c r="R2" s="9">
         <f>Summary!S44</f>
-        <v>3.4541198599149586E-2</v>
+        <v>3.0641865883494716E-2</v>
       </c>
       <c r="S2" s="9">
         <f>Summary!T44</f>
-        <v>3.4816692744479544E-2</v>
+        <v>3.0886259679751008E-2</v>
       </c>
       <c r="T2" s="9">
         <f>Summary!U44</f>
-        <v>3.5065109332300969E-2</v>
+        <v>3.1106632685783484E-2</v>
       </c>
       <c r="U2" s="9">
         <f>Summary!V44</f>
-        <v>3.4799866743555147E-2</v>
+        <v>3.0871333154772411E-2</v>
       </c>
       <c r="V2" s="9">
         <f>Summary!W44</f>
-        <v>3.4779383694775567E-2</v>
+        <v>3.0853162423615309E-2</v>
       </c>
       <c r="W2" s="9">
         <f>Summary!X44</f>
-        <v>3.4964719748981535E-2</v>
+        <v>3.1017576015113991E-2</v>
       </c>
       <c r="X2" s="9">
         <f>Summary!Y44</f>
-        <v>3.5134097853640307E-2</v>
+        <v>3.1167833139274195E-2</v>
       </c>
       <c r="Y2" s="9">
         <f>Summary!Z44</f>
-        <v>3.5289817382743449E-2</v>
+        <v>3.1305973595301587E-2</v>
       </c>
       <c r="Z2" s="9">
         <f>Summary!AA44</f>
-        <v>3.4995115591572222E-2</v>
+        <v>3.1044540491445238E-2</v>
       </c>
       <c r="AA2" s="9">
         <f>Summary!AB44</f>
-        <v>3.4888333903577984E-2</v>
+        <v>3.0949813316505422E-2</v>
       </c>
       <c r="AB2" s="9">
         <f>Summary!AC44</f>
-        <v>3.4777157361849137E-2</v>
+        <v>3.0851187419917974E-2</v>
       </c>
       <c r="AC2" s="9">
         <f>Summary!AD44</f>
-        <v>3.4888735071642626E-2</v>
+        <v>3.0950169196976629E-2</v>
       </c>
       <c r="AD2" s="9">
         <f>Summary!AE44</f>
-        <v>3.4993064709933096E-2</v>
+        <v>3.1042721132457197E-2</v>
       </c>
       <c r="AE2" s="9">
         <f>Summary!AF44</f>
-        <v>3.5091241792736455E-2</v>
+        <v>3.1129815070308195E-2</v>
       </c>
       <c r="AF2" s="9">
         <f>Summary!AG44</f>
-        <v>3.5183281234702893E-2</v>
+        <v>3.1211464241474959E-2</v>
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -13514,7 +13514,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -13710,7 +13710,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -13927,7 +13927,7 @@
   <sheetData>
     <row r="1" spans="1:32" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A1" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B1">
         <v>2020</v>
@@ -14025,7 +14025,7 @@
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -14123,7 +14123,7 @@
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -14221,7 +14221,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -14319,7 +14319,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -14417,7 +14417,7 @@
     </row>
     <row r="6" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -14515,7 +14515,7 @@
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>0</v>
